--- a/BackTest/2019-10-15 BackTest ZRX.xlsx
+++ b/BackTest/2019-10-15 BackTest ZRX.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>14</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>-14.28571428571428</v>
+      </c>
       <c r="L12" t="n">
         <v>367.9</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>14</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>9.090909090909092</v>
+      </c>
       <c r="L13" t="n">
         <v>367.7</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>15</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
       <c r="L14" t="n">
         <v>367.7</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>16</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
       <c r="L15" t="n">
         <v>367.8</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>17</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>9.090909090909092</v>
+      </c>
       <c r="L16" t="n">
         <v>367.7</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>18</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>-33.33333333333333</v>
+      </c>
       <c r="L17" t="n">
         <v>367.7</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>19</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>-11.11111111111111</v>
+      </c>
       <c r="L18" t="n">
         <v>367.5</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>20</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>-33.33333333333333</v>
+      </c>
       <c r="L19" t="n">
         <v>367.3</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>21</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
       <c r="L20" t="n">
         <v>367.1</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>23</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>-33.33333333333333</v>
+      </c>
       <c r="L21" t="n">
         <v>366.9</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>24</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>-20</v>
+      </c>
       <c r="L22" t="n">
         <v>366.7</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>25</v>
       </c>
       <c r="K23" t="n">
-        <v>-12</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>366.6</v>
@@ -1466,7 +1488,7 @@
         <v>25</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L24" t="n">
         <v>366.6</v>
@@ -1515,7 +1537,7 @@
         <v>28</v>
       </c>
       <c r="K25" t="n">
-        <v>-12</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L25" t="n">
         <v>366.2</v>
@@ -1564,7 +1586,7 @@
         <v>30</v>
       </c>
       <c r="K26" t="n">
-        <v>-7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>366.1</v>
@@ -1613,7 +1635,7 @@
         <v>30</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L27" t="n">
         <v>366.1</v>
@@ -1662,7 +1684,7 @@
         <v>34</v>
       </c>
       <c r="K28" t="n">
-        <v>4</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L28" t="n">
         <v>366.4</v>
@@ -1711,7 +1733,7 @@
         <v>36</v>
       </c>
       <c r="K29" t="n">
-        <v>15.38461538461539</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L29" t="n">
         <v>367</v>
@@ -1760,7 +1782,7 @@
         <v>37</v>
       </c>
       <c r="K30" t="n">
-        <v>7.692307692307693</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L30" t="n">
         <v>367.4</v>
@@ -1809,7 +1831,7 @@
         <v>37</v>
       </c>
       <c r="K31" t="n">
-        <v>16.66666666666666</v>
+        <v>38.46153846153847</v>
       </c>
       <c r="L31" t="n">
         <v>368</v>
@@ -1860,7 +1882,7 @@
         <v>38</v>
       </c>
       <c r="K32" t="n">
-        <v>16.66666666666666</v>
+        <v>38.46153846153847</v>
       </c>
       <c r="L32" t="n">
         <v>368.6</v>
@@ -1911,7 +1933,7 @@
         <v>39</v>
       </c>
       <c r="K33" t="n">
-        <v>20</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L33" t="n">
         <v>369.2</v>
@@ -1962,7 +1984,7 @@
         <v>41</v>
       </c>
       <c r="K34" t="n">
-        <v>15.38461538461539</v>
+        <v>53.84615384615385</v>
       </c>
       <c r="L34" t="n">
         <v>369.6</v>
@@ -2013,7 +2035,7 @@
         <v>43</v>
       </c>
       <c r="K35" t="n">
-        <v>18.51851851851852</v>
+        <v>53.84615384615385</v>
       </c>
       <c r="L35" t="n">
         <v>370.5</v>
@@ -2064,7 +2086,7 @@
         <v>46</v>
       </c>
       <c r="K36" t="n">
-        <v>10.3448275862069</v>
+        <v>25</v>
       </c>
       <c r="L36" t="n">
         <v>370.9</v>
@@ -2166,7 +2188,7 @@
         <v>51</v>
       </c>
       <c r="K38" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="L38" t="n">
         <v>372.2</v>
@@ -2217,7 +2239,7 @@
         <v>52</v>
       </c>
       <c r="K39" t="n">
-        <v>31.25</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L39" t="n">
         <v>372.6</v>
@@ -2268,7 +2290,7 @@
         <v>54</v>
       </c>
       <c r="K40" t="n">
-        <v>21.21212121212121</v>
+        <v>17.64705882352941</v>
       </c>
       <c r="L40" t="n">
         <v>372.9</v>
@@ -2319,7 +2341,7 @@
         <v>56</v>
       </c>
       <c r="K41" t="n">
-        <v>33.33333333333333</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="L41" t="n">
         <v>373.4</v>
@@ -2370,7 +2392,7 @@
         <v>56</v>
       </c>
       <c r="K42" t="n">
-        <v>31.25</v>
+        <v>17.64705882352941</v>
       </c>
       <c r="L42" t="n">
         <v>373.8</v>
@@ -2421,7 +2443,7 @@
         <v>59</v>
       </c>
       <c r="K43" t="n">
-        <v>17.64705882352941</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L43" t="n">
         <v>373.8</v>
@@ -2472,7 +2494,7 @@
         <v>59</v>
       </c>
       <c r="K44" t="n">
-        <v>17.64705882352941</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>374</v>
@@ -2523,7 +2545,7 @@
         <v>62</v>
       </c>
       <c r="K45" t="n">
-        <v>35.29411764705883</v>
+        <v>37.5</v>
       </c>
       <c r="L45" t="n">
         <v>374.3</v>
@@ -2574,7 +2596,7 @@
         <v>63</v>
       </c>
       <c r="K46" t="n">
-        <v>27.27272727272727</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L46" t="n">
         <v>374.8</v>
@@ -2625,7 +2647,7 @@
         <v>63</v>
       </c>
       <c r="K47" t="n">
-        <v>27.27272727272727</v>
+        <v>0</v>
       </c>
       <c r="L47" t="n">
         <v>374.9</v>
@@ -2676,7 +2698,7 @@
         <v>64</v>
       </c>
       <c r="K48" t="n">
-        <v>13.33333333333333</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L48" t="n">
         <v>374.8</v>
@@ -2727,7 +2749,7 @@
         <v>66</v>
       </c>
       <c r="K49" t="n">
-        <v>13.33333333333333</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L49" t="n">
         <v>374.8</v>
@@ -2778,7 +2800,7 @@
         <v>66</v>
       </c>
       <c r="K50" t="n">
-        <v>17.24137931034483</v>
+        <v>0</v>
       </c>
       <c r="L50" t="n">
         <v>375</v>
@@ -2829,7 +2851,7 @@
         <v>66</v>
       </c>
       <c r="K51" t="n">
-        <v>17.24137931034483</v>
+        <v>0</v>
       </c>
       <c r="L51" t="n">
         <v>375</v>
@@ -2880,7 +2902,7 @@
         <v>66</v>
       </c>
       <c r="K52" t="n">
-        <v>14.28571428571428</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L52" t="n">
         <v>375</v>
@@ -2931,7 +2953,7 @@
         <v>67</v>
       </c>
       <c r="K53" t="n">
-        <v>7.142857142857142</v>
+        <v>25</v>
       </c>
       <c r="L53" t="n">
         <v>375.2</v>
@@ -2982,7 +3004,7 @@
         <v>67</v>
       </c>
       <c r="K54" t="n">
-        <v>15.38461538461539</v>
+        <v>-20</v>
       </c>
       <c r="L54" t="n">
         <v>375.4</v>
@@ -3033,7 +3055,7 @@
         <v>70</v>
       </c>
       <c r="K55" t="n">
-        <v>-3.703703703703703</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L55" t="n">
         <v>375</v>
@@ -3084,7 +3106,7 @@
         <v>72</v>
       </c>
       <c r="K56" t="n">
-        <v>0</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L56" t="n">
         <v>374.5</v>
@@ -3135,7 +3157,7 @@
         <v>72</v>
       </c>
       <c r="K57" t="n">
-        <v>-18.18181818181818</v>
+        <v>-50</v>
       </c>
       <c r="L57" t="n">
         <v>374</v>
@@ -3186,7 +3208,7 @@
         <v>72</v>
       </c>
       <c r="K58" t="n">
-        <v>-23.80952380952381</v>
+        <v>-100</v>
       </c>
       <c r="L58" t="n">
         <v>373.6</v>
@@ -3237,7 +3259,7 @@
         <v>72</v>
       </c>
       <c r="K59" t="n">
-        <v>-30</v>
+        <v>-100</v>
       </c>
       <c r="L59" t="n">
         <v>373</v>
@@ -3288,7 +3310,7 @@
         <v>73</v>
       </c>
       <c r="K60" t="n">
-        <v>-26.31578947368421</v>
+        <v>-100</v>
       </c>
       <c r="L60" t="n">
         <v>372.3</v>
@@ -3339,7 +3361,7 @@
         <v>75</v>
       </c>
       <c r="K61" t="n">
-        <v>-26.31578947368421</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L61" t="n">
         <v>371.8</v>
@@ -3390,7 +3412,7 @@
         <v>76</v>
       </c>
       <c r="K62" t="n">
-        <v>-30</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L62" t="n">
         <v>371.2</v>
@@ -3441,7 +3463,7 @@
         <v>78</v>
       </c>
       <c r="K63" t="n">
-        <v>-5.263157894736842</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L63" t="n">
         <v>370.9</v>
@@ -3492,7 +3514,7 @@
         <v>81</v>
       </c>
       <c r="K64" t="n">
-        <v>9.090909090909092</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L64" t="n">
         <v>370.9</v>
@@ -3543,7 +3565,7 @@
         <v>82</v>
       </c>
       <c r="K65" t="n">
-        <v>-10</v>
+        <v>40</v>
       </c>
       <c r="L65" t="n">
         <v>371.1</v>
@@ -3594,7 +3616,7 @@
         <v>84</v>
       </c>
       <c r="K66" t="n">
-        <v>-14.28571428571428</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L66" t="n">
         <v>371.3</v>
@@ -3645,7 +3667,7 @@
         <v>86</v>
       </c>
       <c r="K67" t="n">
-        <v>-4.347826086956522</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L67" t="n">
         <v>371.7</v>
@@ -3696,7 +3718,7 @@
         <v>87</v>
       </c>
       <c r="K68" t="n">
-        <v>-4.347826086956522</v>
+        <v>20</v>
       </c>
       <c r="L68" t="n">
         <v>372</v>
@@ -3747,7 +3769,7 @@
         <v>87</v>
       </c>
       <c r="K69" t="n">
-        <v>-14.28571428571428</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L69" t="n">
         <v>372.3</v>
@@ -3798,7 +3820,7 @@
         <v>88</v>
       </c>
       <c r="K70" t="n">
-        <v>-9.090909090909092</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L70" t="n">
         <v>372.8</v>
@@ -3849,7 +3871,7 @@
         <v>89</v>
       </c>
       <c r="K71" t="n">
-        <v>-13.04347826086956</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L71" t="n">
         <v>373</v>
@@ -3900,7 +3922,7 @@
         <v>89</v>
       </c>
       <c r="K72" t="n">
-        <v>-13.04347826086956</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L72" t="n">
         <v>373.3</v>
@@ -3951,7 +3973,7 @@
         <v>92</v>
       </c>
       <c r="K73" t="n">
-        <v>4</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L73" t="n">
         <v>373.7</v>
@@ -4002,7 +4024,7 @@
         <v>95</v>
       </c>
       <c r="K74" t="n">
-        <v>-7.142857142857142</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L74" t="n">
         <v>373.5</v>
@@ -4053,7 +4075,7 @@
         <v>99</v>
       </c>
       <c r="K75" t="n">
-        <v>17.24137931034483</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L75" t="n">
         <v>373.8</v>
@@ -4104,7 +4126,7 @@
         <v>100</v>
       </c>
       <c r="K76" t="n">
-        <v>21.42857142857143</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L76" t="n">
         <v>374.2</v>
@@ -4155,7 +4177,7 @@
         <v>102</v>
       </c>
       <c r="K77" t="n">
-        <v>26.66666666666667</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L77" t="n">
         <v>374.6</v>
@@ -4206,7 +4228,7 @@
         <v>104</v>
       </c>
       <c r="K78" t="n">
-        <v>18.75</v>
+        <v>17.64705882352941</v>
       </c>
       <c r="L78" t="n">
         <v>374.9</v>
@@ -4257,7 +4279,7 @@
         <v>104</v>
       </c>
       <c r="K79" t="n">
-        <v>18.75</v>
+        <v>12.5</v>
       </c>
       <c r="L79" t="n">
         <v>375.2</v>
@@ -4308,7 +4330,7 @@
         <v>109</v>
       </c>
       <c r="K80" t="n">
-        <v>5.555555555555555</v>
+        <v>-10</v>
       </c>
       <c r="L80" t="n">
         <v>374.9</v>
@@ -4359,7 +4381,7 @@
         <v>110</v>
       </c>
       <c r="K81" t="n">
-        <v>2.857142857142857</v>
+        <v>-4.761904761904762</v>
       </c>
       <c r="L81" t="n">
         <v>374.8</v>
@@ -4410,7 +4432,7 @@
         <v>110</v>
       </c>
       <c r="K82" t="n">
-        <v>5.88235294117647</v>
+        <v>-22.22222222222222</v>
       </c>
       <c r="L82" t="n">
         <v>374.7</v>
@@ -4461,7 +4483,7 @@
         <v>111</v>
       </c>
       <c r="K83" t="n">
-        <v>3.03030303030303</v>
+        <v>0</v>
       </c>
       <c r="L83" t="n">
         <v>374.4</v>
@@ -4512,7 +4534,7 @@
         <v>111</v>
       </c>
       <c r="K84" t="n">
-        <v>-6.666666666666667</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L84" t="n">
         <v>374.4</v>
@@ -4563,7 +4585,7 @@
         <v>112</v>
       </c>
       <c r="K85" t="n">
-        <v>0</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L85" t="n">
         <v>374.1</v>
@@ -4614,7 +4636,7 @@
         <v>112</v>
       </c>
       <c r="K86" t="n">
-        <v>7.142857142857142</v>
+        <v>-40</v>
       </c>
       <c r="L86" t="n">
         <v>373.9</v>
@@ -4665,7 +4687,7 @@
         <v>113</v>
       </c>
       <c r="K87" t="n">
-        <v>3.703703703703703</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L87" t="n">
         <v>373.6</v>
@@ -4716,7 +4738,7 @@
         <v>114</v>
       </c>
       <c r="K88" t="n">
-        <v>3.703703703703703</v>
+        <v>-20</v>
       </c>
       <c r="L88" t="n">
         <v>373.4</v>
@@ -4767,7 +4789,7 @@
         <v>114</v>
       </c>
       <c r="K89" t="n">
-        <v>3.703703703703703</v>
+        <v>60</v>
       </c>
       <c r="L89" t="n">
         <v>373.2</v>
@@ -4818,7 +4840,7 @@
         <v>114</v>
       </c>
       <c r="K90" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L90" t="n">
         <v>373.5</v>
@@ -4869,7 +4891,7 @@
         <v>115</v>
       </c>
       <c r="K91" t="n">
-        <v>7.692307692307693</v>
+        <v>60</v>
       </c>
       <c r="L91" t="n">
         <v>373.8</v>
@@ -4920,7 +4942,7 @@
         <v>116</v>
       </c>
       <c r="K92" t="n">
-        <v>3.703703703703703</v>
+        <v>20</v>
       </c>
       <c r="L92" t="n">
         <v>374</v>
@@ -4971,7 +4993,7 @@
         <v>116</v>
       </c>
       <c r="K93" t="n">
-        <v>-8.333333333333332</v>
+        <v>20</v>
       </c>
       <c r="L93" t="n">
         <v>374.1</v>
@@ -5022,7 +5044,7 @@
         <v>116</v>
       </c>
       <c r="K94" t="n">
-        <v>4.761904761904762</v>
+        <v>0</v>
       </c>
       <c r="L94" t="n">
         <v>374.2</v>
@@ -5073,7 +5095,7 @@
         <v>116</v>
       </c>
       <c r="K95" t="n">
-        <v>-17.64705882352941</v>
+        <v>0</v>
       </c>
       <c r="L95" t="n">
         <v>374.2</v>
@@ -5124,7 +5146,7 @@
         <v>118</v>
       </c>
       <c r="K96" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L96" t="n">
         <v>374.4</v>
@@ -5175,7 +5197,7 @@
         <v>123</v>
       </c>
       <c r="K97" t="n">
-        <v>14.28571428571428</v>
+        <v>77.77777777777779</v>
       </c>
       <c r="L97" t="n">
         <v>375</v>
@@ -5226,7 +5248,7 @@
         <v>123</v>
       </c>
       <c r="K98" t="n">
-        <v>26.31578947368421</v>
+        <v>77.77777777777779</v>
       </c>
       <c r="L98" t="n">
         <v>375.7</v>
@@ -5277,7 +5299,7 @@
         <v>124</v>
       </c>
       <c r="K99" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="L99" t="n">
         <v>376.5</v>
@@ -5328,7 +5350,7 @@
         <v>124</v>
       </c>
       <c r="K100" t="n">
-        <v>73.33333333333333</v>
+        <v>77.77777777777779</v>
       </c>
       <c r="L100" t="n">
         <v>377.3</v>
@@ -5379,7 +5401,7 @@
         <v>125</v>
       </c>
       <c r="K101" t="n">
-        <v>73.33333333333333</v>
+        <v>100</v>
       </c>
       <c r="L101" t="n">
         <v>378.1</v>
@@ -5430,7 +5452,7 @@
         <v>125</v>
       </c>
       <c r="K102" t="n">
-        <v>73.33333333333333</v>
+        <v>100</v>
       </c>
       <c r="L102" t="n">
         <v>379</v>
@@ -5481,7 +5503,7 @@
         <v>125</v>
       </c>
       <c r="K103" t="n">
-        <v>71.42857142857143</v>
+        <v>100</v>
       </c>
       <c r="L103" t="n">
         <v>379.9</v>
@@ -5532,7 +5554,7 @@
         <v>126</v>
       </c>
       <c r="K104" t="n">
-        <v>73.33333333333333</v>
+        <v>100</v>
       </c>
       <c r="L104" t="n">
         <v>380.9</v>
@@ -5583,7 +5605,7 @@
         <v>126</v>
       </c>
       <c r="K105" t="n">
-        <v>71.42857142857143</v>
+        <v>100</v>
       </c>
       <c r="L105" t="n">
         <v>381.9</v>
@@ -5634,7 +5656,7 @@
         <v>127</v>
       </c>
       <c r="K106" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="L106" t="n">
         <v>382.6</v>
@@ -5685,7 +5707,7 @@
         <v>129</v>
       </c>
       <c r="K107" t="n">
-        <v>62.5</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L107" t="n">
         <v>383</v>
@@ -5736,7 +5758,7 @@
         <v>129</v>
       </c>
       <c r="K108" t="n">
-        <v>73.33333333333333</v>
+        <v>60</v>
       </c>
       <c r="L108" t="n">
         <v>383.4</v>
@@ -5787,7 +5809,7 @@
         <v>129</v>
       </c>
       <c r="K109" t="n">
-        <v>73.33333333333333</v>
+        <v>60</v>
       </c>
       <c r="L109" t="n">
         <v>383.7</v>
@@ -5838,7 +5860,7 @@
         <v>130</v>
       </c>
       <c r="K110" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="L110" t="n">
         <v>384.1</v>
@@ -5889,7 +5911,7 @@
         <v>131</v>
       </c>
       <c r="K111" t="n">
-        <v>62.5</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L111" t="n">
         <v>384.3</v>
@@ -5940,7 +5962,7 @@
         <v>132</v>
       </c>
       <c r="K112" t="n">
-        <v>75</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L112" t="n">
         <v>384.6</v>
@@ -5991,7 +6013,7 @@
         <v>133</v>
       </c>
       <c r="K113" t="n">
-        <v>64.70588235294117</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L113" t="n">
         <v>384.8</v>
@@ -6042,7 +6064,7 @@
         <v>135</v>
       </c>
       <c r="K114" t="n">
-        <v>47.36842105263158</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L114" t="n">
         <v>384.7</v>
@@ -6093,7 +6115,7 @@
         <v>139</v>
       </c>
       <c r="K115" t="n">
-        <v>21.73913043478261</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L115" t="n">
         <v>384.2</v>
@@ -6144,7 +6166,7 @@
         <v>140</v>
       </c>
       <c r="K116" t="n">
-        <v>18.18181818181818</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L116" t="n">
         <v>383.9</v>
@@ -6195,7 +6217,7 @@
         <v>143</v>
       </c>
       <c r="K117" t="n">
-        <v>10</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L117" t="n">
         <v>383.7</v>
@@ -6246,7 +6268,7 @@
         <v>143</v>
       </c>
       <c r="K118" t="n">
-        <v>10</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L118" t="n">
         <v>383.5</v>
@@ -6297,7 +6319,7 @@
         <v>145</v>
       </c>
       <c r="K119" t="n">
-        <v>14.28571428571428</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L119" t="n">
         <v>383.5</v>
@@ -6348,7 +6370,7 @@
         <v>147</v>
       </c>
       <c r="K120" t="n">
-        <v>4.347826086956522</v>
+        <v>-12.5</v>
       </c>
       <c r="L120" t="n">
         <v>383.2</v>
@@ -6399,7 +6421,7 @@
         <v>147</v>
       </c>
       <c r="K121" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L121" t="n">
         <v>383</v>
@@ -6450,7 +6472,7 @@
         <v>148</v>
       </c>
       <c r="K122" t="n">
-        <v>4.347826086956522</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L122" t="n">
         <v>382.8</v>
@@ -6501,7 +6523,7 @@
         <v>150</v>
       </c>
       <c r="K123" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="L123" t="n">
         <v>382.9</v>
@@ -6552,7 +6574,7 @@
         <v>151</v>
       </c>
       <c r="K124" t="n">
-        <v>12</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L124" t="n">
         <v>383.3</v>
@@ -6603,7 +6625,7 @@
         <v>151</v>
       </c>
       <c r="K125" t="n">
-        <v>12</v>
+        <v>63.63636363636363</v>
       </c>
       <c r="L125" t="n">
         <v>384.1</v>
@@ -6654,7 +6676,7 @@
         <v>152</v>
       </c>
       <c r="K126" t="n">
-        <v>20</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L126" t="n">
         <v>384.9</v>
@@ -6705,7 +6727,7 @@
         <v>152</v>
       </c>
       <c r="K127" t="n">
-        <v>13.04347826086956</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L127" t="n">
         <v>385.4</v>
@@ -6756,7 +6778,7 @@
         <v>152</v>
       </c>
       <c r="K128" t="n">
-        <v>13.04347826086956</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L128" t="n">
         <v>385.9</v>
@@ -6807,7 +6829,7 @@
         <v>152</v>
       </c>
       <c r="K129" t="n">
-        <v>13.04347826086956</v>
+        <v>100</v>
       </c>
       <c r="L129" t="n">
         <v>386.2</v>
@@ -6858,7 +6880,7 @@
         <v>153</v>
       </c>
       <c r="K130" t="n">
-        <v>13.04347826086956</v>
+        <v>100</v>
       </c>
       <c r="L130" t="n">
         <v>386.8</v>
@@ -6909,7 +6931,7 @@
         <v>154</v>
       </c>
       <c r="K131" t="n">
-        <v>21.73913043478261</v>
+        <v>100</v>
       </c>
       <c r="L131" t="n">
         <v>387.5</v>
@@ -6960,7 +6982,7 @@
         <v>157</v>
       </c>
       <c r="K132" t="n">
-        <v>28</v>
+        <v>100</v>
       </c>
       <c r="L132" t="n">
         <v>388.4</v>
@@ -7011,7 +7033,7 @@
         <v>158</v>
       </c>
       <c r="K133" t="n">
-        <v>36</v>
+        <v>100</v>
       </c>
       <c r="L133" t="n">
         <v>389.2</v>
@@ -7062,7 +7084,7 @@
         <v>159</v>
       </c>
       <c r="K134" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="L134" t="n">
         <v>390</v>
@@ -7113,7 +7135,7 @@
         <v>159</v>
       </c>
       <c r="K135" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="L135" t="n">
         <v>390.8</v>
@@ -7164,7 +7186,7 @@
         <v>160</v>
       </c>
       <c r="K136" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="L136" t="n">
         <v>391.6</v>
@@ -7215,7 +7237,7 @@
         <v>161</v>
       </c>
       <c r="K137" t="n">
-        <v>77.77777777777779</v>
+        <v>100</v>
       </c>
       <c r="L137" t="n">
         <v>392.5</v>
@@ -7266,7 +7288,7 @@
         <v>163</v>
       </c>
       <c r="K138" t="n">
-        <v>60</v>
+        <v>63.63636363636363</v>
       </c>
       <c r="L138" t="n">
         <v>393.2</v>
@@ -7317,7 +7339,7 @@
         <v>167</v>
       </c>
       <c r="K139" t="n">
-        <v>27.27272727272727</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L139" t="n">
         <v>393.5</v>
@@ -7368,7 +7390,7 @@
         <v>169</v>
       </c>
       <c r="K140" t="n">
-        <v>27.27272727272727</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L140" t="n">
         <v>393.5</v>
@@ -7419,7 +7441,7 @@
         <v>170</v>
       </c>
       <c r="K141" t="n">
-        <v>21.73913043478261</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L141" t="n">
         <v>393.3</v>
@@ -7470,7 +7492,7 @@
         <v>173</v>
       </c>
       <c r="K142" t="n">
-        <v>4</v>
+        <v>-60</v>
       </c>
       <c r="L142" t="n">
         <v>392.5</v>
@@ -7521,7 +7543,7 @@
         <v>175</v>
       </c>
       <c r="K143" t="n">
-        <v>-12</v>
+        <v>-75</v>
       </c>
       <c r="L143" t="n">
         <v>391.4</v>
@@ -7572,7 +7594,7 @@
         <v>179</v>
       </c>
       <c r="K144" t="n">
-        <v>-28.57142857142857</v>
+        <v>-80</v>
       </c>
       <c r="L144" t="n">
         <v>389.8</v>
@@ -7623,7 +7645,7 @@
         <v>181</v>
       </c>
       <c r="K145" t="n">
-        <v>-20</v>
+        <v>-71.42857142857143</v>
       </c>
       <c r="L145" t="n">
         <v>388.4</v>
@@ -7674,7 +7696,7 @@
         <v>182</v>
       </c>
       <c r="K146" t="n">
-        <v>-26.66666666666667</v>
+        <v>-80.95238095238095</v>
       </c>
       <c r="L146" t="n">
         <v>386.8</v>
@@ -7725,7 +7747,7 @@
         <v>183</v>
       </c>
       <c r="K147" t="n">
-        <v>-29.03225806451613</v>
+        <v>-80</v>
       </c>
       <c r="L147" t="n">
         <v>385</v>
@@ -7776,7 +7798,7 @@
         <v>184</v>
       </c>
       <c r="K148" t="n">
-        <v>-31.25</v>
+        <v>-76.47058823529412</v>
       </c>
       <c r="L148" t="n">
         <v>383.3</v>
@@ -7827,7 +7849,7 @@
         <v>188</v>
       </c>
       <c r="K149" t="n">
-        <v>-38.88888888888889</v>
+        <v>-78.94736842105263</v>
       </c>
       <c r="L149" t="n">
         <v>381.6</v>
@@ -7878,7 +7900,7 @@
         <v>191</v>
       </c>
       <c r="K150" t="n">
-        <v>-31.57894736842105</v>
+        <v>-52.38095238095239</v>
       </c>
       <c r="L150" t="n">
         <v>380.4</v>
@@ -7929,7 +7951,7 @@
         <v>192</v>
       </c>
       <c r="K151" t="n">
-        <v>-31.57894736842105</v>
+        <v>-36.84210526315789</v>
       </c>
       <c r="L151" t="n">
         <v>379.4</v>
@@ -7980,7 +8002,7 @@
         <v>197</v>
       </c>
       <c r="K152" t="n">
-        <v>-50</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L152" t="n">
         <v>378.2</v>
@@ -8031,7 +8053,7 @@
         <v>206</v>
       </c>
       <c r="K153" t="n">
-        <v>-25</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L153" t="n">
         <v>378.1</v>
@@ -8082,7 +8104,7 @@
         <v>207</v>
       </c>
       <c r="K154" t="n">
-        <v>-29.16666666666667</v>
+        <v>0</v>
       </c>
       <c r="L154" t="n">
         <v>378.3</v>
@@ -8133,7 +8155,7 @@
         <v>207</v>
       </c>
       <c r="K155" t="n">
-        <v>-29.16666666666667</v>
+        <v>4</v>
       </c>
       <c r="L155" t="n">
         <v>378.3</v>
@@ -8184,7 +8206,7 @@
         <v>211</v>
       </c>
       <c r="K156" t="n">
-        <v>-37.25490196078432</v>
+        <v>-7.142857142857142</v>
       </c>
       <c r="L156" t="n">
         <v>378</v>
@@ -8235,7 +8257,7 @@
         <v>211</v>
       </c>
       <c r="K157" t="n">
-        <v>-40</v>
+        <v>-3.703703703703703</v>
       </c>
       <c r="L157" t="n">
         <v>377.8</v>
@@ -8286,7 +8308,7 @@
         <v>211</v>
       </c>
       <c r="K158" t="n">
-        <v>-37.5</v>
+        <v>13.04347826086956</v>
       </c>
       <c r="L158" t="n">
         <v>377.7</v>
@@ -8337,7 +8359,7 @@
         <v>215</v>
       </c>
       <c r="K159" t="n">
-        <v>-20.83333333333334</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L159" t="n">
         <v>378.4</v>
@@ -8388,7 +8410,7 @@
         <v>215</v>
       </c>
       <c r="K160" t="n">
-        <v>-17.39130434782609</v>
+        <v>13.04347826086956</v>
       </c>
       <c r="L160" t="n">
         <v>378.8</v>
@@ -8439,7 +8461,7 @@
         <v>216</v>
       </c>
       <c r="K161" t="n">
-        <v>-17.39130434782609</v>
+        <v>36.84210526315789</v>
       </c>
       <c r="L161" t="n">
         <v>379</v>
@@ -8490,7 +8512,7 @@
         <v>216</v>
       </c>
       <c r="K162" t="n">
-        <v>-11.62790697674419</v>
+        <v>-20</v>
       </c>
       <c r="L162" t="n">
         <v>379.7</v>
@@ -8541,7 +8563,7 @@
         <v>216</v>
       </c>
       <c r="K163" t="n">
-        <v>-7.317073170731707</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L163" t="n">
         <v>379.5</v>
@@ -8592,7 +8614,7 @@
         <v>217</v>
       </c>
       <c r="K164" t="n">
-        <v>5.263157894736842</v>
+        <v>0</v>
       </c>
       <c r="L164" t="n">
         <v>379.5</v>
@@ -8643,7 +8665,7 @@
         <v>218</v>
       </c>
       <c r="K165" t="n">
-        <v>-2.702702702702703</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L165" t="n">
         <v>379.4</v>
@@ -8694,7 +8716,7 @@
         <v>218</v>
       </c>
       <c r="K166" t="n">
-        <v>0</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L166" t="n">
         <v>379.7</v>
@@ -8745,7 +8767,7 @@
         <v>220</v>
       </c>
       <c r="K167" t="n">
-        <v>-2.702702702702703</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L167" t="n">
         <v>379.8</v>
@@ -8796,7 +8818,7 @@
         <v>221</v>
       </c>
       <c r="K168" t="n">
-        <v>-2.702702702702703</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L168" t="n">
         <v>379.8</v>
@@ -8847,7 +8869,7 @@
         <v>222</v>
       </c>
       <c r="K169" t="n">
-        <v>5.88235294117647</v>
+        <v>-71.42857142857143</v>
       </c>
       <c r="L169" t="n">
         <v>379.3</v>
@@ -8898,7 +8920,7 @@
         <v>223</v>
       </c>
       <c r="K170" t="n">
-        <v>-6.25</v>
+        <v>-71.42857142857143</v>
       </c>
       <c r="L170" t="n">
         <v>378.7</v>
@@ -8949,7 +8971,7 @@
         <v>223</v>
       </c>
       <c r="K171" t="n">
-        <v>-9.67741935483871</v>
+        <v>-71.42857142857143</v>
       </c>
       <c r="L171" t="n">
         <v>378.2</v>
@@ -9000,7 +9022,7 @@
         <v>223</v>
       </c>
       <c r="K172" t="n">
-        <v>7.692307692307693</v>
+        <v>-71.42857142857143</v>
       </c>
       <c r="L172" t="n">
         <v>377.7</v>
@@ -9051,7 +9073,7 @@
         <v>223</v>
       </c>
       <c r="K173" t="n">
-        <v>-41.17647058823529</v>
+        <v>-100</v>
       </c>
       <c r="L173" t="n">
         <v>377.2</v>
@@ -9102,7 +9124,7 @@
         <v>225</v>
       </c>
       <c r="K174" t="n">
-        <v>-44.44444444444444</v>
+        <v>-100</v>
       </c>
       <c r="L174" t="n">
         <v>376.4</v>
@@ -9153,7 +9175,7 @@
         <v>228</v>
       </c>
       <c r="K175" t="n">
-        <v>-23.80952380952381</v>
+        <v>-40</v>
       </c>
       <c r="L175" t="n">
         <v>376</v>
@@ -9204,7 +9226,7 @@
         <v>233</v>
       </c>
       <c r="K176" t="n">
-        <v>18.18181818181818</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L176" t="n">
         <v>376.1</v>
@@ -9255,7 +9277,7 @@
         <v>237</v>
       </c>
       <c r="K177" t="n">
-        <v>30.76923076923077</v>
+        <v>50</v>
       </c>
       <c r="L177" t="n">
         <v>376.8</v>
@@ -9306,7 +9328,7 @@
         <v>239</v>
       </c>
       <c r="K178" t="n">
-        <v>21.42857142857143</v>
+        <v>41.17647058823529</v>
       </c>
       <c r="L178" t="n">
         <v>377.4</v>
@@ -9357,7 +9379,7 @@
         <v>239</v>
       </c>
       <c r="K179" t="n">
-        <v>8.333333333333332</v>
+        <v>50</v>
       </c>
       <c r="L179" t="n">
         <v>378.1</v>
@@ -9408,7 +9430,7 @@
         <v>240</v>
       </c>
       <c r="K180" t="n">
-        <v>4</v>
+        <v>41.17647058823529</v>
       </c>
       <c r="L180" t="n">
         <v>378.8</v>
@@ -9459,7 +9481,7 @@
         <v>241</v>
       </c>
       <c r="K181" t="n">
-        <v>12</v>
+        <v>44.44444444444444</v>
       </c>
       <c r="L181" t="n">
         <v>379.6</v>
@@ -9510,7 +9532,7 @@
         <v>243</v>
       </c>
       <c r="K182" t="n">
-        <v>18.51851851851852</v>
+        <v>50</v>
       </c>
       <c r="L182" t="n">
         <v>380.6</v>
@@ -9561,7 +9583,7 @@
         <v>243</v>
       </c>
       <c r="K183" t="n">
-        <v>18.51851851851852</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L183" t="n">
         <v>381.6</v>
@@ -9612,7 +9634,7 @@
         <v>244</v>
       </c>
       <c r="K184" t="n">
-        <v>18.51851851851852</v>
+        <v>62.5</v>
       </c>
       <c r="L184" t="n">
         <v>382.9</v>
@@ -9663,7 +9685,7 @@
         <v>245</v>
       </c>
       <c r="K185" t="n">
-        <v>25.92592592592592</v>
+        <v>50</v>
       </c>
       <c r="L185" t="n">
         <v>384</v>
@@ -9714,7 +9736,7 @@
         <v>248</v>
       </c>
       <c r="K186" t="n">
-        <v>33.33333333333333</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="L186" t="n">
         <v>384.9</v>
@@ -9765,7 +9787,7 @@
         <v>251</v>
       </c>
       <c r="K187" t="n">
-        <v>48.38709677419355</v>
+        <v>83.33333333333334</v>
       </c>
       <c r="L187" t="n">
         <v>385.7</v>
@@ -9816,7 +9838,7 @@
         <v>251</v>
       </c>
       <c r="K188" t="n">
-        <v>53.33333333333334</v>
+        <v>83.33333333333334</v>
       </c>
       <c r="L188" t="n">
         <v>386.7</v>
@@ -9867,7 +9889,7 @@
         <v>252</v>
       </c>
       <c r="K189" t="n">
-        <v>53.33333333333334</v>
+        <v>83.33333333333334</v>
       </c>
       <c r="L189" t="n">
         <v>387.6</v>
@@ -9918,7 +9940,7 @@
         <v>254</v>
       </c>
       <c r="K190" t="n">
-        <v>61.29032258064516</v>
+        <v>84.61538461538461</v>
       </c>
       <c r="L190" t="n">
         <v>388.8</v>
@@ -9969,7 +9991,7 @@
         <v>258</v>
       </c>
       <c r="K191" t="n">
-        <v>42.85714285714285</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L191" t="n">
         <v>389.5</v>
@@ -10020,7 +10042,7 @@
         <v>259</v>
       </c>
       <c r="K192" t="n">
-        <v>44.44444444444444</v>
+        <v>37.5</v>
       </c>
       <c r="L192" t="n">
         <v>390.1</v>
@@ -10071,7 +10093,7 @@
         <v>260</v>
       </c>
       <c r="K193" t="n">
-        <v>40.54054054054054</v>
+        <v>25</v>
       </c>
       <c r="L193" t="n">
         <v>390.6</v>
@@ -10122,7 +10144,7 @@
         <v>262</v>
       </c>
       <c r="K194" t="n">
-        <v>40.54054054054054</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="L194" t="n">
         <v>390.8</v>
@@ -10173,7 +10195,7 @@
         <v>262</v>
       </c>
       <c r="K195" t="n">
-        <v>35.29411764705883</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L195" t="n">
         <v>390.9</v>
@@ -10224,7 +10246,7 @@
         <v>268</v>
       </c>
       <c r="K196" t="n">
-        <v>37.14285714285715</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="L196" t="n">
         <v>391.3</v>
@@ -10275,7 +10297,7 @@
         <v>268</v>
       </c>
       <c r="K197" t="n">
-        <v>29.03225806451613</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="L197" t="n">
         <v>391.4</v>
@@ -10326,7 +10348,7 @@
         <v>271</v>
       </c>
       <c r="K198" t="n">
-        <v>25</v>
+        <v>-5.263157894736842</v>
       </c>
       <c r="L198" t="n">
         <v>391.2</v>
@@ -10377,7 +10399,7 @@
         <v>271</v>
       </c>
       <c r="K199" t="n">
-        <v>25</v>
+        <v>-17.64705882352941</v>
       </c>
       <c r="L199" t="n">
         <v>391.1</v>
@@ -10428,7 +10450,7 @@
         <v>272</v>
       </c>
       <c r="K200" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="L200" t="n">
         <v>390.7</v>
@@ -10479,7 +10501,7 @@
         <v>274</v>
       </c>
       <c r="K201" t="n">
-        <v>27.27272727272727</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L201" t="n">
         <v>390.9</v>
@@ -10530,7 +10552,7 @@
         <v>275</v>
       </c>
       <c r="K202" t="n">
-        <v>18.75</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L202" t="n">
         <v>390.9</v>
@@ -10581,7 +10603,7 @@
         <v>276</v>
       </c>
       <c r="K203" t="n">
-        <v>21.21212121212121</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L203" t="n">
         <v>391.1</v>
@@ -10632,7 +10654,7 @@
         <v>276</v>
       </c>
       <c r="K204" t="n">
-        <v>18.75</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L204" t="n">
         <v>391.5</v>
@@ -10683,7 +10705,7 @@
         <v>278</v>
       </c>
       <c r="K205" t="n">
-        <v>9.090909090909092</v>
+        <v>-40</v>
       </c>
       <c r="L205" t="n">
         <v>391.7</v>
@@ -10734,7 +10756,7 @@
         <v>280</v>
       </c>
       <c r="K206" t="n">
-        <v>6.25</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L206" t="n">
         <v>391.5</v>
@@ -10785,7 +10807,7 @@
         <v>281</v>
       </c>
       <c r="K207" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L207" t="n">
         <v>391.4</v>
@@ -10836,7 +10858,7 @@
         <v>281</v>
       </c>
       <c r="K208" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L208" t="n">
         <v>391.6</v>
@@ -10887,7 +10909,7 @@
         <v>283</v>
       </c>
       <c r="K209" t="n">
-        <v>-3.225806451612903</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L209" t="n">
         <v>391.6</v>
@@ -10938,7 +10960,7 @@
         <v>284</v>
       </c>
       <c r="K210" t="n">
-        <v>-13.33333333333333</v>
+        <v>-20</v>
       </c>
       <c r="L210" t="n">
         <v>391.6</v>
@@ -10989,7 +11011,7 @@
         <v>289</v>
       </c>
       <c r="K211" t="n">
-        <v>-16.12903225806452</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L211" t="n">
         <v>390.9</v>
@@ -11040,7 +11062,7 @@
         <v>291</v>
       </c>
       <c r="K212" t="n">
-        <v>-12.5</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L212" t="n">
         <v>390.5</v>
@@ -11091,7 +11113,7 @@
         <v>295</v>
       </c>
       <c r="K213" t="n">
-        <v>-20</v>
+        <v>-47.36842105263158</v>
       </c>
       <c r="L213" t="n">
         <v>389.6</v>
@@ -11142,7 +11164,7 @@
         <v>296</v>
       </c>
       <c r="K214" t="n">
-        <v>-17.64705882352941</v>
+        <v>-44.44444444444444</v>
       </c>
       <c r="L214" t="n">
         <v>388.6</v>
@@ -11193,7 +11215,7 @@
         <v>297</v>
       </c>
       <c r="K215" t="n">
-        <v>-14.28571428571428</v>
+        <v>-52.94117647058824</v>
       </c>
       <c r="L215" t="n">
         <v>387.9</v>
@@ -11244,7 +11266,7 @@
         <v>297</v>
       </c>
       <c r="K216" t="n">
-        <v>-37.93103448275862</v>
+        <v>-62.5</v>
       </c>
       <c r="L216" t="n">
         <v>387</v>
@@ -11295,7 +11317,7 @@
         <v>298</v>
       </c>
       <c r="K217" t="n">
-        <v>-33.33333333333333</v>
+        <v>-52.94117647058824</v>
       </c>
       <c r="L217" t="n">
         <v>386.1</v>
@@ -11346,7 +11368,7 @@
         <v>301</v>
       </c>
       <c r="K218" t="n">
-        <v>-13.33333333333333</v>
+        <v>-22.22222222222222</v>
       </c>
       <c r="L218" t="n">
         <v>385.5</v>
@@ -11397,7 +11419,7 @@
         <v>301</v>
       </c>
       <c r="K219" t="n">
-        <v>-13.33333333333333</v>
+        <v>-17.64705882352941</v>
       </c>
       <c r="L219" t="n">
         <v>385.1</v>
@@ -11448,7 +11470,7 @@
         <v>302</v>
       </c>
       <c r="K220" t="n">
-        <v>-13.33333333333333</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L220" t="n">
         <v>384.7</v>
@@ -11499,7 +11521,7 @@
         <v>302</v>
       </c>
       <c r="K221" t="n">
-        <v>-21.42857142857143</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L221" t="n">
         <v>384.8</v>
@@ -11550,7 +11572,7 @@
         <v>303</v>
       </c>
       <c r="K222" t="n">
-        <v>-14.28571428571428</v>
+        <v>50</v>
       </c>
       <c r="L222" t="n">
         <v>384.8</v>
@@ -11601,7 +11623,7 @@
         <v>303</v>
       </c>
       <c r="K223" t="n">
-        <v>-18.51851851851852</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L223" t="n">
         <v>385.2</v>
@@ -11652,7 +11674,7 @@
         <v>303</v>
       </c>
       <c r="K224" t="n">
-        <v>-18.51851851851852</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L224" t="n">
         <v>385.7</v>
@@ -11703,7 +11725,7 @@
         <v>305</v>
       </c>
       <c r="K225" t="n">
-        <v>-3.703703703703703</v>
+        <v>75</v>
       </c>
       <c r="L225" t="n">
         <v>386.3</v>
@@ -11754,7 +11776,7 @@
         <v>305</v>
       </c>
       <c r="K226" t="n">
-        <v>-12</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L226" t="n">
         <v>386.9</v>
@@ -11805,7 +11827,7 @@
         <v>305</v>
       </c>
       <c r="K227" t="n">
-        <v>-16.66666666666666</v>
+        <v>50</v>
       </c>
       <c r="L227" t="n">
         <v>387.4</v>
@@ -11856,7 +11878,7 @@
         <v>305</v>
       </c>
       <c r="K228" t="n">
-        <v>-16.66666666666666</v>
+        <v>50</v>
       </c>
       <c r="L228" t="n">
         <v>387.6</v>
@@ -11907,7 +11929,7 @@
         <v>306</v>
       </c>
       <c r="K229" t="n">
-        <v>-4.347826086956522</v>
+        <v>100</v>
       </c>
       <c r="L229" t="n">
         <v>387.9</v>
@@ -11958,7 +11980,7 @@
         <v>307</v>
       </c>
       <c r="K230" t="n">
-        <v>4.347826086956522</v>
+        <v>100</v>
       </c>
       <c r="L230" t="n">
         <v>388.4</v>
@@ -12009,7 +12031,7 @@
         <v>308</v>
       </c>
       <c r="K231" t="n">
-        <v>36.84210526315789</v>
+        <v>100</v>
       </c>
       <c r="L231" t="n">
         <v>389</v>
@@ -12060,7 +12082,7 @@
         <v>310</v>
       </c>
       <c r="K232" t="n">
-        <v>15.78947368421053</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L232" t="n">
         <v>389.3</v>
@@ -12111,7 +12133,7 @@
         <v>310</v>
       </c>
       <c r="K233" t="n">
-        <v>46.66666666666666</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L233" t="n">
         <v>389.6</v>
@@ -12162,7 +12184,7 @@
         <v>312</v>
       </c>
       <c r="K234" t="n">
-        <v>62.5</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L234" t="n">
         <v>390.1</v>
@@ -12213,7 +12235,7 @@
         <v>313</v>
       </c>
       <c r="K235" t="n">
-        <v>62.5</v>
+        <v>50</v>
       </c>
       <c r="L235" t="n">
         <v>390.5</v>
@@ -12264,7 +12286,7 @@
         <v>314</v>
       </c>
       <c r="K236" t="n">
-        <v>64.70588235294117</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L236" t="n">
         <v>391</v>
@@ -12315,7 +12337,7 @@
         <v>314</v>
       </c>
       <c r="K237" t="n">
-        <v>62.5</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L237" t="n">
         <v>391.5</v>
@@ -12417,7 +12439,7 @@
         <v>318</v>
       </c>
       <c r="K239" t="n">
-        <v>64.70588235294117</v>
+        <v>63.63636363636363</v>
       </c>
       <c r="L239" t="n">
         <v>393</v>
@@ -12468,7 +12490,7 @@
         <v>319</v>
       </c>
       <c r="K240" t="n">
-        <v>76.47058823529412</v>
+        <v>63.63636363636363</v>
       </c>
       <c r="L240" t="n">
         <v>393.8</v>
@@ -12519,7 +12541,7 @@
         <v>319</v>
       </c>
       <c r="K241" t="n">
-        <v>76.47058823529412</v>
+        <v>100</v>
       </c>
       <c r="L241" t="n">
         <v>394.5</v>
@@ -12570,7 +12592,7 @@
         <v>322</v>
       </c>
       <c r="K242" t="n">
-        <v>78.94736842105263</v>
+        <v>100</v>
       </c>
       <c r="L242" t="n">
         <v>395.7</v>
@@ -12621,7 +12643,7 @@
         <v>324</v>
       </c>
       <c r="K243" t="n">
-        <v>61.90476190476191</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L243" t="n">
         <v>396.7</v>
@@ -12672,7 +12694,7 @@
         <v>325</v>
       </c>
       <c r="K244" t="n">
-        <v>63.63636363636363</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L244" t="n">
         <v>397.6</v>
@@ -12723,7 +12745,7 @@
         <v>326</v>
       </c>
       <c r="K245" t="n">
-        <v>52.38095238095239</v>
+        <v>50</v>
       </c>
       <c r="L245" t="n">
         <v>398.3</v>
@@ -12774,7 +12796,7 @@
         <v>326</v>
       </c>
       <c r="K246" t="n">
-        <v>52.38095238095239</v>
+        <v>50</v>
       </c>
       <c r="L246" t="n">
         <v>398.9</v>
@@ -12825,7 +12847,7 @@
         <v>329</v>
       </c>
       <c r="K247" t="n">
-        <v>58.33333333333334</v>
+        <v>53.84615384615385</v>
       </c>
       <c r="L247" t="n">
         <v>399.8</v>
@@ -12876,7 +12898,7 @@
         <v>331</v>
       </c>
       <c r="K248" t="n">
-        <v>46.15384615384615</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L248" t="n">
         <v>400.3</v>
@@ -12927,7 +12949,7 @@
         <v>332</v>
       </c>
       <c r="K249" t="n">
-        <v>46.15384615384615</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L249" t="n">
         <v>400.7</v>
@@ -12978,7 +13000,7 @@
         <v>332</v>
       </c>
       <c r="K250" t="n">
-        <v>44</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L250" t="n">
         <v>401</v>
@@ -13029,7 +13051,7 @@
         <v>334</v>
       </c>
       <c r="K251" t="n">
-        <v>30.76923076923077</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L251" t="n">
         <v>401.1</v>
@@ -13080,7 +13102,7 @@
         <v>339</v>
       </c>
       <c r="K252" t="n">
-        <v>17.24137931034483</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L252" t="n">
         <v>400.4</v>
@@ -13131,7 +13153,7 @@
         <v>341</v>
       </c>
       <c r="K253" t="n">
-        <v>22.58064516129032</v>
+        <v>-25</v>
       </c>
       <c r="L253" t="n">
         <v>400.1</v>
@@ -13182,7 +13204,7 @@
         <v>341</v>
       </c>
       <c r="K254" t="n">
-        <v>17.24137931034483</v>
+        <v>-20</v>
       </c>
       <c r="L254" t="n">
         <v>399.7</v>
@@ -13233,7 +13255,7 @@
         <v>342</v>
       </c>
       <c r="K255" t="n">
-        <v>10.3448275862069</v>
+        <v>-25</v>
       </c>
       <c r="L255" t="n">
         <v>399.3</v>
@@ -13284,7 +13306,7 @@
         <v>344</v>
       </c>
       <c r="K256" t="n">
-        <v>13.33333333333333</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L256" t="n">
         <v>399.1</v>
@@ -13335,7 +13357,7 @@
         <v>347</v>
       </c>
       <c r="K257" t="n">
-        <v>3.03030303030303</v>
+        <v>-37.5</v>
       </c>
       <c r="L257" t="n">
         <v>398.3</v>
@@ -13386,7 +13408,7 @@
         <v>347</v>
       </c>
       <c r="K258" t="n">
-        <v>-3.225806451612903</v>
+        <v>-46.66666666666666</v>
       </c>
       <c r="L258" t="n">
         <v>397.7</v>
@@ -13437,7 +13459,7 @@
         <v>347</v>
       </c>
       <c r="K259" t="n">
-        <v>-10.3448275862069</v>
+        <v>-46.66666666666666</v>
       </c>
       <c r="L259" t="n">
         <v>397</v>
@@ -13488,7 +13510,7 @@
         <v>350</v>
       </c>
       <c r="K260" t="n">
-        <v>-3.225806451612903</v>
+        <v>-12.5</v>
       </c>
       <c r="L260" t="n">
         <v>396.6</v>
@@ -13539,7 +13561,7 @@
         <v>353</v>
       </c>
       <c r="K261" t="n">
-        <v>5.88235294117647</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L261" t="n">
         <v>396.7</v>
@@ -13590,7 +13612,7 @@
         <v>355</v>
       </c>
       <c r="K262" t="n">
-        <v>3.03030303030303</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L262" t="n">
         <v>397.5</v>
@@ -13641,7 +13663,7 @@
         <v>357</v>
       </c>
       <c r="K263" t="n">
-        <v>3.03030303030303</v>
+        <v>25</v>
       </c>
       <c r="L263" t="n">
         <v>397.9</v>
@@ -13692,7 +13714,7 @@
         <v>359</v>
       </c>
       <c r="K264" t="n">
-        <v>5.88235294117647</v>
+        <v>41.17647058823529</v>
       </c>
       <c r="L264" t="n">
         <v>398.5</v>
@@ -13743,7 +13765,7 @@
         <v>359</v>
       </c>
       <c r="K265" t="n">
-        <v>9.090909090909092</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L265" t="n">
         <v>399.2</v>
@@ -13794,7 +13816,7 @@
         <v>360</v>
       </c>
       <c r="K266" t="n">
-        <v>5.88235294117647</v>
+        <v>53.84615384615385</v>
       </c>
       <c r="L266" t="n">
         <v>399.6</v>
@@ -13845,7 +13867,7 @@
         <v>361</v>
       </c>
       <c r="K267" t="n">
-        <v>-6.25</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L267" t="n">
         <v>400.2</v>
@@ -13896,7 +13918,7 @@
         <v>363</v>
       </c>
       <c r="K268" t="n">
-        <v>-6.25</v>
+        <v>25</v>
       </c>
       <c r="L268" t="n">
         <v>400.6</v>
@@ -13947,7 +13969,7 @@
         <v>363</v>
       </c>
       <c r="K269" t="n">
-        <v>-9.67741935483871</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L269" t="n">
         <v>401</v>
@@ -13998,7 +14020,7 @@
         <v>366</v>
       </c>
       <c r="K270" t="n">
-        <v>-17.64705882352941</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L270" t="n">
         <v>400.8</v>
@@ -14049,7 +14071,7 @@
         <v>369</v>
       </c>
       <c r="K271" t="n">
-        <v>-20</v>
+        <v>-71.42857142857143</v>
       </c>
       <c r="L271" t="n">
         <v>400</v>
@@ -14100,7 +14122,7 @@
         <v>369</v>
       </c>
       <c r="K272" t="n">
-        <v>-6.666666666666667</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L272" t="n">
         <v>399</v>
@@ -14151,7 +14173,7 @@
         <v>371</v>
       </c>
       <c r="K273" t="n">
-        <v>-20</v>
+        <v>-100</v>
       </c>
       <c r="L273" t="n">
         <v>398</v>
@@ -14202,7 +14224,7 @@
         <v>375</v>
       </c>
       <c r="K274" t="n">
-        <v>-29.41176470588236</v>
+        <v>-100</v>
       </c>
       <c r="L274" t="n">
         <v>396.4</v>
@@ -14253,7 +14275,7 @@
         <v>380</v>
       </c>
       <c r="K275" t="n">
-        <v>-10.52631578947368</v>
+        <v>-50</v>
       </c>
       <c r="L275" t="n">
         <v>395.3</v>
@@ -14304,7 +14326,7 @@
         <v>380</v>
       </c>
       <c r="K276" t="n">
-        <v>-16.66666666666666</v>
+        <v>-47.36842105263158</v>
       </c>
       <c r="L276" t="n">
         <v>394.3</v>
@@ -14355,7 +14377,7 @@
         <v>380</v>
       </c>
       <c r="K277" t="n">
-        <v>-9.090909090909092</v>
+        <v>-41.17647058823529</v>
       </c>
       <c r="L277" t="n">
         <v>393.4</v>
@@ -14406,7 +14428,7 @@
         <v>380</v>
       </c>
       <c r="K278" t="n">
-        <v>-9.090909090909092</v>
+        <v>-41.17647058823529</v>
       </c>
       <c r="L278" t="n">
         <v>392.7</v>
@@ -14457,7 +14479,7 @@
         <v>383</v>
       </c>
       <c r="K279" t="n">
-        <v>0</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L279" t="n">
         <v>392.3</v>
@@ -14508,7 +14530,7 @@
         <v>386</v>
       </c>
       <c r="K280" t="n">
-        <v>0</v>
+        <v>29.41176470588236</v>
       </c>
       <c r="L280" t="n">
         <v>392.5</v>
@@ -14559,7 +14581,7 @@
         <v>389</v>
       </c>
       <c r="K281" t="n">
-        <v>-16.66666666666666</v>
+        <v>10</v>
       </c>
       <c r="L281" t="n">
         <v>392.7</v>
@@ -14610,7 +14632,7 @@
         <v>391</v>
       </c>
       <c r="K282" t="n">
-        <v>-27.77777777777778</v>
+        <v>10</v>
       </c>
       <c r="L282" t="n">
         <v>392.7</v>
@@ -14661,7 +14683,7 @@
         <v>394</v>
       </c>
       <c r="K283" t="n">
-        <v>-13.51351351351351</v>
+        <v>47.36842105263158</v>
       </c>
       <c r="L283" t="n">
         <v>393.2</v>
@@ -14712,7 +14734,7 @@
         <v>396</v>
       </c>
       <c r="K284" t="n">
-        <v>-24.32432432432433</v>
+        <v>12.5</v>
       </c>
       <c r="L284" t="n">
         <v>393.9</v>
@@ -14763,7 +14785,7 @@
         <v>397</v>
       </c>
       <c r="K285" t="n">
-        <v>-21.05263157894737</v>
+        <v>17.64705882352941</v>
       </c>
       <c r="L285" t="n">
         <v>394.2</v>
@@ -14814,7 +14836,7 @@
         <v>399</v>
       </c>
       <c r="K286" t="n">
-        <v>-12.82051282051282</v>
+        <v>26.31578947368421</v>
       </c>
       <c r="L286" t="n">
         <v>394.7</v>
@@ -14865,7 +14887,7 @@
         <v>402</v>
       </c>
       <c r="K287" t="n">
-        <v>-17.07317073170732</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L287" t="n">
         <v>394.9</v>
@@ -14916,7 +14938,7 @@
         <v>403</v>
       </c>
       <c r="K288" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="L288" t="n">
         <v>395.2</v>
@@ -14967,7 +14989,7 @@
         <v>403</v>
       </c>
       <c r="K289" t="n">
-        <v>-10</v>
+        <v>-17.64705882352941</v>
       </c>
       <c r="L289" t="n">
         <v>395.2</v>
@@ -15018,7 +15040,7 @@
         <v>403</v>
       </c>
       <c r="K290" t="n">
-        <v>-2.702702702702703</v>
+        <v>0</v>
       </c>
       <c r="L290" t="n">
         <v>394.9</v>
@@ -15069,7 +15091,7 @@
         <v>403</v>
       </c>
       <c r="K291" t="n">
-        <v>5.88235294117647</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L291" t="n">
         <v>394.9</v>
@@ -15120,7 +15142,7 @@
         <v>405</v>
       </c>
       <c r="K292" t="n">
-        <v>0</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L292" t="n">
         <v>394.9</v>
@@ -15171,7 +15193,7 @@
         <v>405</v>
       </c>
       <c r="K293" t="n">
-        <v>5.88235294117647</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L293" t="n">
         <v>394.6</v>
@@ -15222,7 +15244,7 @@
         <v>405</v>
       </c>
       <c r="K294" t="n">
-        <v>20</v>
+        <v>-25</v>
       </c>
       <c r="L294" t="n">
         <v>394.5</v>
@@ -15273,7 +15295,7 @@
         <v>405</v>
       </c>
       <c r="K295" t="n">
-        <v>4</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L295" t="n">
         <v>394.3</v>
@@ -15324,7 +15346,7 @@
         <v>406</v>
       </c>
       <c r="K296" t="n">
-        <v>7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L296" t="n">
         <v>394</v>
@@ -15375,7 +15397,7 @@
         <v>408</v>
       </c>
       <c r="K297" t="n">
-        <v>0</v>
+        <v>-60</v>
       </c>
       <c r="L297" t="n">
         <v>393.8</v>
@@ -15426,7 +15448,7 @@
         <v>409</v>
       </c>
       <c r="K298" t="n">
-        <v>-3.448275862068965</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L298" t="n">
         <v>393.4</v>
@@ -15477,7 +15499,7 @@
         <v>410</v>
       </c>
       <c r="K299" t="n">
-        <v>-11.11111111111111</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L299" t="n">
         <v>393.1</v>
@@ -15528,7 +15550,7 @@
         <v>411</v>
       </c>
       <c r="K300" t="n">
-        <v>-20</v>
+        <v>-25</v>
       </c>
       <c r="L300" t="n">
         <v>392.9</v>
@@ -15579,7 +15601,7 @@
         <v>411</v>
       </c>
       <c r="K301" t="n">
-        <v>-9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L301" t="n">
         <v>392.7</v>
@@ -15681,7 +15703,7 @@
         <v>411</v>
       </c>
       <c r="K303" t="n">
-        <v>-17.64705882352941</v>
+        <v>0</v>
       </c>
       <c r="L303" t="n">
         <v>392.7</v>
@@ -15732,7 +15754,7 @@
         <v>412</v>
       </c>
       <c r="K304" t="n">
-        <v>0</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L304" t="n">
         <v>392.8</v>
@@ -15783,7 +15805,7 @@
         <v>412</v>
       </c>
       <c r="K305" t="n">
-        <v>-6.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="L305" t="n">
         <v>392.9</v>
@@ -15834,7 +15856,7 @@
         <v>412</v>
       </c>
       <c r="K306" t="n">
-        <v>-23.07692307692308</v>
+        <v>50</v>
       </c>
       <c r="L306" t="n">
         <v>392.9</v>
@@ -15885,7 +15907,7 @@
         <v>412</v>
       </c>
       <c r="K307" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L307" t="n">
         <v>393.1</v>
@@ -15936,7 +15958,7 @@
         <v>413</v>
       </c>
       <c r="K308" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L308" t="n">
         <v>393.5</v>
@@ -15987,7 +16009,7 @@
         <v>414</v>
       </c>
       <c r="K309" t="n">
-        <v>9.090909090909092</v>
+        <v>100</v>
       </c>
       <c r="L309" t="n">
         <v>393.9</v>
@@ -16038,7 +16060,7 @@
         <v>416</v>
       </c>
       <c r="K310" t="n">
-        <v>23.07692307692308</v>
+        <v>100</v>
       </c>
       <c r="L310" t="n">
         <v>394.4</v>
@@ -16089,7 +16111,7 @@
         <v>416</v>
       </c>
       <c r="K311" t="n">
-        <v>23.07692307692308</v>
+        <v>100</v>
       </c>
       <c r="L311" t="n">
         <v>394.9</v>
@@ -16140,7 +16162,7 @@
         <v>416</v>
       </c>
       <c r="K312" t="n">
-        <v>45.45454545454545</v>
+        <v>100</v>
       </c>
       <c r="L312" t="n">
         <v>395.4</v>
@@ -16191,7 +16213,7 @@
         <v>416</v>
       </c>
       <c r="K313" t="n">
-        <v>45.45454545454545</v>
+        <v>100</v>
       </c>
       <c r="L313" t="n">
         <v>395.9</v>
@@ -16242,7 +16264,7 @@
         <v>420</v>
       </c>
       <c r="K314" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="L314" t="n">
         <v>396.7</v>
@@ -16293,7 +16315,7 @@
         <v>423</v>
       </c>
       <c r="K315" t="n">
-        <v>33.33333333333333</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="L315" t="n">
         <v>397.2</v>
@@ -16344,7 +16366,7 @@
         <v>425</v>
       </c>
       <c r="K316" t="n">
-        <v>36.84210526315789</v>
+        <v>53.84615384615385</v>
       </c>
       <c r="L316" t="n">
         <v>397.9</v>
@@ -16395,7 +16417,7 @@
         <v>426</v>
       </c>
       <c r="K317" t="n">
-        <v>55.55555555555556</v>
+        <v>53.84615384615385</v>
       </c>
       <c r="L317" t="n">
         <v>398.7</v>
@@ -16446,7 +16468,7 @@
         <v>426</v>
       </c>
       <c r="K318" t="n">
-        <v>64.70588235294117</v>
+        <v>50</v>
       </c>
       <c r="L318" t="n">
         <v>399.4</v>
@@ -16497,7 +16519,7 @@
         <v>428</v>
       </c>
       <c r="K319" t="n">
-        <v>66.66666666666666</v>
+        <v>50</v>
       </c>
       <c r="L319" t="n">
         <v>400.2</v>
@@ -16548,7 +16570,7 @@
         <v>432</v>
       </c>
       <c r="K320" t="n">
-        <v>33.33333333333333</v>
+        <v>12.5</v>
       </c>
       <c r="L320" t="n">
         <v>400.4</v>
@@ -16599,7 +16621,7 @@
         <v>433</v>
       </c>
       <c r="K321" t="n">
-        <v>36.36363636363637</v>
+        <v>17.64705882352941</v>
       </c>
       <c r="L321" t="n">
         <v>400.7</v>
@@ -16650,7 +16672,7 @@
         <v>434</v>
       </c>
       <c r="K322" t="n">
-        <v>39.1304347826087</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="L322" t="n">
         <v>401.1</v>
@@ -16701,7 +16723,7 @@
         <v>434</v>
       </c>
       <c r="K323" t="n">
-        <v>39.1304347826087</v>
+        <v>0</v>
       </c>
       <c r="L323" t="n">
         <v>401.5</v>
@@ -16752,7 +16774,7 @@
         <v>434</v>
       </c>
       <c r="K324" t="n">
-        <v>36.36363636363637</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L324" t="n">
         <v>401.5</v>
@@ -16803,7 +16825,7 @@
         <v>436</v>
       </c>
       <c r="K325" t="n">
-        <v>25</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L325" t="n">
         <v>401.6</v>
@@ -16854,7 +16876,7 @@
         <v>440</v>
       </c>
       <c r="K326" t="n">
-        <v>7.142857142857142</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L326" t="n">
         <v>401.1</v>
@@ -16905,7 +16927,7 @@
         <v>440</v>
       </c>
       <c r="K327" t="n">
-        <v>7.142857142857142</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L327" t="n">
         <v>400.5</v>
@@ -16956,7 +16978,7 @@
         <v>441</v>
       </c>
       <c r="K328" t="n">
-        <v>7.142857142857142</v>
+        <v>-53.84615384615385</v>
       </c>
       <c r="L328" t="n">
         <v>400</v>
@@ -17007,7 +17029,7 @@
         <v>444</v>
       </c>
       <c r="K329" t="n">
-        <v>-6.666666666666667</v>
+        <v>-50</v>
       </c>
       <c r="L329" t="n">
         <v>399</v>
@@ -17058,7 +17080,7 @@
         <v>448</v>
       </c>
       <c r="K330" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L330" t="n">
         <v>398.8</v>
@@ -17109,7 +17131,7 @@
         <v>452</v>
       </c>
       <c r="K331" t="n">
-        <v>-11.11111111111111</v>
+        <v>-44.44444444444444</v>
       </c>
       <c r="L331" t="n">
         <v>398.1</v>
@@ -17160,7 +17182,7 @@
         <v>455</v>
       </c>
       <c r="K332" t="n">
-        <v>-2.564102564102564</v>
+        <v>-23.80952380952381</v>
       </c>
       <c r="L332" t="n">
         <v>397.6</v>
@@ -17211,7 +17233,7 @@
         <v>456</v>
       </c>
       <c r="K333" t="n">
-        <v>0</v>
+        <v>-18.18181818181818</v>
       </c>
       <c r="L333" t="n">
         <v>397.2</v>
@@ -17262,7 +17284,7 @@
         <v>457</v>
       </c>
       <c r="K334" t="n">
-        <v>-8.108108108108109</v>
+        <v>-4.761904761904762</v>
       </c>
       <c r="L334" t="n">
         <v>396.9</v>
@@ -17313,7 +17335,7 @@
         <v>458</v>
       </c>
       <c r="K335" t="n">
-        <v>-2.857142857142857</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L335" t="n">
         <v>396.7</v>
@@ -17364,7 +17386,7 @@
         <v>459</v>
       </c>
       <c r="K336" t="n">
-        <v>-11.76470588235294</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="L336" t="n">
         <v>396.8</v>
@@ -17415,7 +17437,7 @@
         <v>460</v>
       </c>
       <c r="K337" t="n">
-        <v>-17.64705882352941</v>
+        <v>-5.263157894736842</v>
       </c>
       <c r="L337" t="n">
         <v>396.8</v>
@@ -17466,7 +17488,7 @@
         <v>461</v>
       </c>
       <c r="K338" t="n">
-        <v>-14.28571428571428</v>
+        <v>17.64705882352941</v>
       </c>
       <c r="L338" t="n">
         <v>396.8</v>
@@ -17517,7 +17539,7 @@
         <v>461</v>
       </c>
       <c r="K339" t="n">
-        <v>-21.21212121212121</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L339" t="n">
         <v>397.1</v>
@@ -17568,7 +17590,7 @@
         <v>465</v>
       </c>
       <c r="K340" t="n">
-        <v>-21.21212121212121</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L340" t="n">
         <v>396.6</v>
@@ -17619,7 +17641,7 @@
         <v>466</v>
       </c>
       <c r="K341" t="n">
-        <v>-21.21212121212121</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L341" t="n">
         <v>396.6</v>
@@ -17670,7 +17692,7 @@
         <v>467</v>
       </c>
       <c r="K342" t="n">
-        <v>-21.21212121212121</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L342" t="n">
         <v>396.4</v>
@@ -17721,7 +17743,7 @@
         <v>468</v>
       </c>
       <c r="K343" t="n">
-        <v>-23.52941176470588</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L343" t="n">
         <v>396</v>
@@ -17772,7 +17794,7 @@
         <v>468</v>
       </c>
       <c r="K344" t="n">
-        <v>-23.52941176470588</v>
+        <v>-40</v>
       </c>
       <c r="L344" t="n">
         <v>395.5</v>
@@ -17823,7 +17845,7 @@
         <v>469</v>
       </c>
       <c r="K345" t="n">
-        <v>-15.15151515151515</v>
+        <v>-20</v>
       </c>
       <c r="L345" t="n">
         <v>395.2</v>
@@ -17874,7 +17896,7 @@
         <v>469</v>
       </c>
       <c r="K346" t="n">
-        <v>-3.448275862068965</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L346" t="n">
         <v>395</v>
@@ -17925,7 +17947,7 @@
         <v>470</v>
       </c>
       <c r="K347" t="n">
-        <v>-6.666666666666667</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L347" t="n">
         <v>394.8</v>
@@ -17976,7 +17998,7 @@
         <v>470</v>
       </c>
       <c r="K348" t="n">
-        <v>-10.3448275862069</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L348" t="n">
         <v>394.5</v>
@@ -18027,7 +18049,7 @@
         <v>470</v>
       </c>
       <c r="K349" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L349" t="n">
         <v>394.2</v>
@@ -18078,7 +18100,7 @@
         <v>471</v>
       </c>
       <c r="K350" t="n">
-        <v>-21.73913043478261</v>
+        <v>-20</v>
       </c>
       <c r="L350" t="n">
         <v>394.2</v>
@@ -18129,7 +18151,7 @@
         <v>472</v>
       </c>
       <c r="K351" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L351" t="n">
         <v>394.2</v>
@@ -18180,7 +18202,7 @@
         <v>473</v>
       </c>
       <c r="K352" t="n">
-        <v>-22.22222222222222</v>
+        <v>-20</v>
       </c>
       <c r="L352" t="n">
         <v>394</v>
@@ -18231,7 +18253,7 @@
         <v>474</v>
       </c>
       <c r="K353" t="n">
-        <v>-22.22222222222222</v>
+        <v>0</v>
       </c>
       <c r="L353" t="n">
         <v>394</v>
@@ -18282,7 +18304,7 @@
         <v>477</v>
       </c>
       <c r="K354" t="n">
-        <v>-40</v>
+        <v>-50</v>
       </c>
       <c r="L354" t="n">
         <v>393.7</v>
@@ -18333,7 +18355,7 @@
         <v>477</v>
       </c>
       <c r="K355" t="n">
-        <v>-36.84210526315789</v>
+        <v>-50</v>
       </c>
       <c r="L355" t="n">
         <v>393.3</v>
@@ -18384,7 +18406,7 @@
         <v>479</v>
       </c>
       <c r="K356" t="n">
-        <v>-40</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L356" t="n">
         <v>392.7</v>
@@ -18435,7 +18457,7 @@
         <v>481</v>
       </c>
       <c r="K357" t="n">
-        <v>-42.85714285714285</v>
+        <v>-63.63636363636363</v>
       </c>
       <c r="L357" t="n">
         <v>392</v>
@@ -18486,7 +18508,7 @@
         <v>481</v>
       </c>
       <c r="K358" t="n">
-        <v>-50</v>
+        <v>-63.63636363636363</v>
       </c>
       <c r="L358" t="n">
         <v>391.3</v>
@@ -18537,7 +18559,7 @@
         <v>481</v>
       </c>
       <c r="K359" t="n">
-        <v>-50</v>
+        <v>-60</v>
       </c>
       <c r="L359" t="n">
         <v>390.6</v>
@@ -18588,7 +18610,7 @@
         <v>484</v>
       </c>
       <c r="K360" t="n">
-        <v>-15.78947368421053</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L360" t="n">
         <v>390.3</v>
@@ -18639,7 +18661,7 @@
         <v>486</v>
       </c>
       <c r="K361" t="n">
-        <v>-10</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L361" t="n">
         <v>390.1</v>
@@ -18690,7 +18712,7 @@
         <v>487</v>
       </c>
       <c r="K362" t="n">
-        <v>-20</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L362" t="n">
         <v>389.9</v>
@@ -18741,7 +18763,7 @@
         <v>487</v>
       </c>
       <c r="K363" t="n">
-        <v>-15.78947368421053</v>
+        <v>0</v>
       </c>
       <c r="L363" t="n">
         <v>389.6</v>
@@ -18792,7 +18814,7 @@
         <v>488</v>
       </c>
       <c r="K364" t="n">
-        <v>-10</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L364" t="n">
         <v>389.7</v>
@@ -18843,7 +18865,7 @@
         <v>489</v>
       </c>
       <c r="K365" t="n">
-        <v>-10</v>
+        <v>40</v>
       </c>
       <c r="L365" t="n">
         <v>389.9</v>
@@ -18894,7 +18916,7 @@
         <v>490</v>
       </c>
       <c r="K366" t="n">
-        <v>-4.761904761904762</v>
+        <v>77.77777777777779</v>
       </c>
       <c r="L366" t="n">
         <v>390.4</v>
@@ -18945,7 +18967,7 @@
         <v>490</v>
       </c>
       <c r="K367" t="n">
-        <v>0</v>
+        <v>77.77777777777779</v>
       </c>
       <c r="L367" t="n">
         <v>391.1</v>
@@ -18996,7 +19018,7 @@
         <v>492</v>
       </c>
       <c r="K368" t="n">
-        <v>-9.090909090909092</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="L368" t="n">
         <v>391.6</v>
@@ -19047,7 +19069,7 @@
         <v>492</v>
       </c>
       <c r="K369" t="n">
-        <v>-9.090909090909092</v>
+        <v>25</v>
       </c>
       <c r="L369" t="n">
         <v>392.1</v>
@@ -19098,7 +19120,7 @@
         <v>492</v>
       </c>
       <c r="K370" t="n">
-        <v>-4.761904761904762</v>
+        <v>0</v>
       </c>
       <c r="L370" t="n">
         <v>392.3</v>
@@ -19149,7 +19171,7 @@
         <v>493</v>
       </c>
       <c r="K371" t="n">
-        <v>-4.761904761904762</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L371" t="n">
         <v>392.4</v>
@@ -19200,7 +19222,7 @@
         <v>494</v>
       </c>
       <c r="K372" t="n">
-        <v>-4.761904761904762</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L372" t="n">
         <v>392.5</v>
@@ -19302,7 +19324,7 @@
         <v>498</v>
       </c>
       <c r="K374" t="n">
-        <v>-14.28571428571428</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L374" t="n">
         <v>392.1</v>
@@ -19353,7 +19375,7 @@
         <v>502</v>
       </c>
       <c r="K375" t="n">
-        <v>4</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L375" t="n">
         <v>392</v>
@@ -19404,7 +19426,7 @@
         <v>503</v>
       </c>
       <c r="K376" t="n">
-        <v>16.66666666666666</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L376" t="n">
         <v>391.9</v>
@@ -19455,7 +19477,7 @@
         <v>503</v>
       </c>
       <c r="K377" t="n">
-        <v>27.27272727272727</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L377" t="n">
         <v>391.8</v>
@@ -19506,7 +19528,7 @@
         <v>506</v>
       </c>
       <c r="K378" t="n">
-        <v>36</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L378" t="n">
         <v>392.2</v>
@@ -19557,7 +19579,7 @@
         <v>507</v>
       </c>
       <c r="K379" t="n">
-        <v>38.46153846153847</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L379" t="n">
         <v>392.7</v>
@@ -19608,7 +19630,7 @@
         <v>507</v>
       </c>
       <c r="K380" t="n">
-        <v>30.43478260869566</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L380" t="n">
         <v>393.2</v>
@@ -19659,7 +19681,7 @@
         <v>508</v>
       </c>
       <c r="K381" t="n">
-        <v>18.18181818181818</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L381" t="n">
         <v>393.5</v>
@@ -19710,7 +19732,7 @@
         <v>509</v>
       </c>
       <c r="K382" t="n">
-        <v>27.27272727272727</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L382" t="n">
         <v>394</v>
@@ -19761,7 +19783,7 @@
         <v>509</v>
       </c>
       <c r="K383" t="n">
-        <v>27.27272727272727</v>
+        <v>81.81818181818183</v>
       </c>
       <c r="L383" t="n">
         <v>394.6</v>
@@ -19812,7 +19834,7 @@
         <v>510</v>
       </c>
       <c r="K384" t="n">
-        <v>18.18181818181818</v>
+        <v>50</v>
       </c>
       <c r="L384" t="n">
         <v>395.4</v>
@@ -19863,7 +19885,7 @@
         <v>511</v>
       </c>
       <c r="K385" t="n">
-        <v>9.090909090909092</v>
+        <v>25</v>
       </c>
       <c r="L385" t="n">
         <v>395.7</v>
@@ -19914,7 +19936,7 @@
         <v>511</v>
       </c>
       <c r="K386" t="n">
-        <v>4.761904761904762</v>
+        <v>25</v>
       </c>
       <c r="L386" t="n">
         <v>395.9</v>
@@ -19965,7 +19987,7 @@
         <v>512</v>
       </c>
       <c r="K387" t="n">
-        <v>9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L387" t="n">
         <v>396.2</v>
@@ -20016,7 +20038,7 @@
         <v>512</v>
       </c>
       <c r="K388" t="n">
-        <v>20</v>
+        <v>-20</v>
       </c>
       <c r="L388" t="n">
         <v>396.2</v>
@@ -20067,7 +20089,7 @@
         <v>514</v>
       </c>
       <c r="K389" t="n">
-        <v>27.27272727272727</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L389" t="n">
         <v>396.3</v>
@@ -20118,7 +20140,7 @@
         <v>517</v>
       </c>
       <c r="K390" t="n">
-        <v>12</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L390" t="n">
         <v>396.1</v>
@@ -20169,7 +20191,7 @@
         <v>517</v>
       </c>
       <c r="K391" t="n">
-        <v>8.333333333333332</v>
+        <v>-25</v>
       </c>
       <c r="L391" t="n">
         <v>396</v>
@@ -20220,7 +20242,7 @@
         <v>517</v>
       </c>
       <c r="K392" t="n">
-        <v>13.04347826086956</v>
+        <v>-25</v>
       </c>
       <c r="L392" t="n">
         <v>395.8</v>
@@ -20271,7 +20293,7 @@
         <v>517</v>
       </c>
       <c r="K393" t="n">
-        <v>18.18181818181818</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L393" t="n">
         <v>395.6</v>
@@ -20322,7 +20344,7 @@
         <v>518</v>
       </c>
       <c r="K394" t="n">
-        <v>40</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L394" t="n">
         <v>395.6</v>
@@ -20373,7 +20395,7 @@
         <v>518</v>
       </c>
       <c r="K395" t="n">
-        <v>25</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L395" t="n">
         <v>395.7</v>
@@ -20424,7 +20446,7 @@
         <v>519</v>
       </c>
       <c r="K396" t="n">
-        <v>12.5</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L396" t="n">
         <v>395.7</v>
@@ -20475,7 +20497,7 @@
         <v>521</v>
       </c>
       <c r="K397" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L397" t="n">
         <v>395.4</v>
@@ -20526,7 +20548,7 @@
         <v>521</v>
       </c>
       <c r="K398" t="n">
-        <v>-20</v>
+        <v>-71.42857142857143</v>
       </c>
       <c r="L398" t="n">
         <v>395.1</v>
@@ -20577,7 +20599,7 @@
         <v>522</v>
       </c>
       <c r="K399" t="n">
-        <v>-33.33333333333333</v>
+        <v>-60</v>
       </c>
       <c r="L399" t="n">
         <v>394.5</v>
@@ -20628,7 +20650,7 @@
         <v>524</v>
       </c>
       <c r="K400" t="n">
-        <v>-17.64705882352941</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L400" t="n">
         <v>394.4</v>
@@ -20679,7 +20701,7 @@
         <v>524</v>
       </c>
       <c r="K401" t="n">
-        <v>-12.5</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L401" t="n">
         <v>394.3</v>
@@ -20730,7 +20752,7 @@
         <v>524</v>
       </c>
       <c r="K402" t="n">
-        <v>-20</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L402" t="n">
         <v>394.2</v>
@@ -20781,7 +20803,7 @@
         <v>525</v>
       </c>
       <c r="K403" t="n">
-        <v>-25</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L403" t="n">
         <v>394</v>
@@ -20883,7 +20905,7 @@
         <v>528</v>
       </c>
       <c r="K405" t="n">
-        <v>5.88235294117647</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L405" t="n">
         <v>394</v>
@@ -20934,7 +20956,7 @@
         <v>528</v>
       </c>
       <c r="K406" t="n">
-        <v>5.88235294117647</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L406" t="n">
         <v>394.1</v>
@@ -20985,7 +21007,7 @@
         <v>528</v>
       </c>
       <c r="K407" t="n">
-        <v>0</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L407" t="n">
         <v>394.4</v>
@@ -21036,7 +21058,7 @@
         <v>530</v>
       </c>
       <c r="K408" t="n">
-        <v>-11.11111111111111</v>
+        <v>25</v>
       </c>
       <c r="L408" t="n">
         <v>394.5</v>
@@ -21087,7 +21109,7 @@
         <v>531</v>
       </c>
       <c r="K409" t="n">
-        <v>-17.64705882352941</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L409" t="n">
         <v>394.8</v>
@@ -21138,7 +21160,7 @@
         <v>533</v>
       </c>
       <c r="K410" t="n">
-        <v>-12.5</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L410" t="n">
         <v>394.7</v>
@@ -21189,7 +21211,7 @@
         <v>535</v>
       </c>
       <c r="K411" t="n">
-        <v>0</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L411" t="n">
         <v>394.8</v>
@@ -21240,7 +21262,7 @@
         <v>536</v>
       </c>
       <c r="K412" t="n">
-        <v>-5.263157894736842</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L412" t="n">
         <v>394.8</v>
@@ -21291,7 +21313,7 @@
         <v>536</v>
       </c>
       <c r="K413" t="n">
-        <v>-5.263157894736842</v>
+        <v>-25</v>
       </c>
       <c r="L413" t="n">
         <v>394.9</v>
@@ -21342,7 +21364,7 @@
         <v>537</v>
       </c>
       <c r="K414" t="n">
-        <v>-15.78947368421053</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L414" t="n">
         <v>394.6</v>
@@ -21393,7 +21415,7 @@
         <v>537</v>
       </c>
       <c r="K415" t="n">
-        <v>-15.78947368421053</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L415" t="n">
         <v>394.3</v>
@@ -21444,7 +21466,7 @@
         <v>538</v>
       </c>
       <c r="K416" t="n">
-        <v>-15.78947368421053</v>
+        <v>-40</v>
       </c>
       <c r="L416" t="n">
         <v>393.9</v>
@@ -21495,7 +21517,7 @@
         <v>538</v>
       </c>
       <c r="K417" t="n">
-        <v>-5.88235294117647</v>
+        <v>-25</v>
       </c>
       <c r="L417" t="n">
         <v>393.5</v>
@@ -21546,7 +21568,7 @@
         <v>538</v>
       </c>
       <c r="K418" t="n">
-        <v>-5.88235294117647</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L418" t="n">
         <v>393.3</v>
@@ -21597,7 +21619,7 @@
         <v>539</v>
       </c>
       <c r="K419" t="n">
-        <v>-5.88235294117647</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L419" t="n">
         <v>392.9</v>
@@ -21648,7 +21670,7 @@
         <v>539</v>
       </c>
       <c r="K420" t="n">
-        <v>-20</v>
+        <v>-100</v>
       </c>
       <c r="L420" t="n">
         <v>392.7</v>
@@ -21699,7 +21721,7 @@
         <v>540</v>
       </c>
       <c r="K421" t="n">
-        <v>-25</v>
+        <v>-100</v>
       </c>
       <c r="L421" t="n">
         <v>392.2</v>
@@ -21750,7 +21772,7 @@
         <v>541</v>
       </c>
       <c r="K422" t="n">
-        <v>-17.64705882352941</v>
+        <v>-60</v>
       </c>
       <c r="L422" t="n">
         <v>391.9</v>
@@ -21801,7 +21823,7 @@
         <v>543</v>
       </c>
       <c r="K423" t="n">
-        <v>-22.22222222222222</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L423" t="n">
         <v>391.4</v>
@@ -21852,7 +21874,7 @@
         <v>544</v>
       </c>
       <c r="K424" t="n">
-        <v>-37.5</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L424" t="n">
         <v>391.1</v>
@@ -21903,7 +21925,7 @@
         <v>545</v>
       </c>
       <c r="K425" t="n">
-        <v>-41.17647058823529</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L425" t="n">
         <v>390.7</v>
@@ -21954,7 +21976,7 @@
         <v>547</v>
       </c>
       <c r="K426" t="n">
-        <v>-47.36842105263158</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L426" t="n">
         <v>390.2</v>
@@ -22005,7 +22027,7 @@
         <v>547</v>
       </c>
       <c r="K427" t="n">
-        <v>-47.36842105263158</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L427" t="n">
         <v>389.7</v>
@@ -22056,7 +22078,7 @@
         <v>548</v>
       </c>
       <c r="K428" t="n">
-        <v>-44.44444444444444</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L428" t="n">
         <v>389.1</v>
@@ -22107,7 +22129,7 @@
         <v>548</v>
       </c>
       <c r="K429" t="n">
-        <v>-52.94117647058824</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L429" t="n">
         <v>388.6</v>
@@ -22158,7 +22180,7 @@
         <v>549</v>
       </c>
       <c r="K430" t="n">
-        <v>-50</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L430" t="n">
         <v>388</v>
@@ -22209,7 +22231,7 @@
         <v>553</v>
       </c>
       <c r="K431" t="n">
-        <v>-33.33333333333333</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L431" t="n">
         <v>387.9</v>
@@ -22260,7 +22282,7 @@
         <v>556</v>
       </c>
       <c r="K432" t="n">
-        <v>-40</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L432" t="n">
         <v>387.4</v>
@@ -22311,7 +22333,7 @@
         <v>557</v>
       </c>
       <c r="K433" t="n">
-        <v>-42.85714285714285</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L433" t="n">
         <v>387</v>
@@ -22362,7 +22384,7 @@
         <v>558</v>
       </c>
       <c r="K434" t="n">
-        <v>-33.33333333333333</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L434" t="n">
         <v>386.6</v>
@@ -22413,7 +22435,7 @@
         <v>558</v>
       </c>
       <c r="K435" t="n">
-        <v>-33.33333333333333</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L435" t="n">
         <v>386.3</v>
@@ -22464,7 +22486,7 @@
         <v>559</v>
       </c>
       <c r="K436" t="n">
-        <v>-33.33333333333333</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L436" t="n">
         <v>386.1</v>
@@ -22515,7 +22537,7 @@
         <v>560</v>
       </c>
       <c r="K437" t="n">
-        <v>-27.27272727272727</v>
+        <v>0</v>
       </c>
       <c r="L437" t="n">
         <v>386</v>
@@ -22566,7 +22588,7 @@
         <v>561</v>
       </c>
       <c r="K438" t="n">
-        <v>-21.73913043478261</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L438" t="n">
         <v>386.1</v>
@@ -22617,7 +22639,7 @@
         <v>564</v>
       </c>
       <c r="K439" t="n">
-        <v>-28</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L439" t="n">
         <v>385.9</v>
@@ -22668,7 +22690,7 @@
         <v>566</v>
       </c>
       <c r="K440" t="n">
-        <v>-33.33333333333333</v>
+        <v>-53.84615384615385</v>
       </c>
       <c r="L440" t="n">
         <v>385.6</v>
@@ -22719,7 +22741,7 @@
         <v>567</v>
       </c>
       <c r="K441" t="n">
-        <v>-25.92592592592592</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L441" t="n">
         <v>385</v>
@@ -22770,7 +22792,7 @@
         <v>568</v>
       </c>
       <c r="K442" t="n">
-        <v>-25.92592592592592</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L442" t="n">
         <v>384.8</v>
@@ -22821,7 +22843,7 @@
         <v>571</v>
       </c>
       <c r="K443" t="n">
-        <v>-28.57142857142857</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L443" t="n">
         <v>384.4</v>
@@ -22872,7 +22894,7 @@
         <v>573</v>
       </c>
       <c r="K444" t="n">
-        <v>-37.93103448275862</v>
+        <v>-46.66666666666666</v>
       </c>
       <c r="L444" t="n">
         <v>383.7</v>
@@ -22923,7 +22945,7 @@
         <v>573</v>
       </c>
       <c r="K445" t="n">
-        <v>-35.71428571428572</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L445" t="n">
         <v>383</v>
@@ -22974,7 +22996,7 @@
         <v>575</v>
       </c>
       <c r="K446" t="n">
-        <v>-35.71428571428572</v>
+        <v>-60</v>
       </c>
       <c r="L446" t="n">
         <v>382.2</v>
@@ -23025,7 +23047,7 @@
         <v>575</v>
       </c>
       <c r="K447" t="n">
-        <v>-35.71428571428572</v>
+        <v>-71.42857142857143</v>
       </c>
       <c r="L447" t="n">
         <v>381.3</v>
@@ -23076,7 +23098,7 @@
         <v>576</v>
       </c>
       <c r="K448" t="n">
-        <v>-28.57142857142857</v>
+        <v>-50</v>
       </c>
       <c r="L448" t="n">
         <v>380.4</v>
@@ -23127,7 +23149,7 @@
         <v>579</v>
       </c>
       <c r="K449" t="n">
-        <v>-35.48387096774194</v>
+        <v>-53.84615384615385</v>
       </c>
       <c r="L449" t="n">
         <v>379.5</v>
@@ -23178,7 +23200,7 @@
         <v>586</v>
       </c>
       <c r="K450" t="n">
-        <v>-8.108108108108109</v>
+        <v>-5.263157894736842</v>
       </c>
       <c r="L450" t="n">
         <v>379.5</v>
@@ -23229,7 +23251,7 @@
         <v>587</v>
       </c>
       <c r="K451" t="n">
-        <v>-23.52941176470588</v>
+        <v>-15.78947368421053</v>
       </c>
       <c r="L451" t="n">
         <v>379.3</v>
@@ -23280,7 +23302,7 @@
         <v>588</v>
       </c>
       <c r="K452" t="n">
-        <v>-12.5</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="L452" t="n">
         <v>379.1</v>
@@ -23331,7 +23353,7 @@
         <v>589</v>
       </c>
       <c r="K453" t="n">
-        <v>-12.5</v>
+        <v>12.5</v>
       </c>
       <c r="L453" t="n">
         <v>379.1</v>
@@ -23382,7 +23404,7 @@
         <v>589</v>
       </c>
       <c r="K454" t="n">
-        <v>-16.12903225806452</v>
+        <v>12.5</v>
       </c>
       <c r="L454" t="n">
         <v>379.3</v>
@@ -23433,7 +23455,7 @@
         <v>591</v>
       </c>
       <c r="K455" t="n">
-        <v>-21.21212121212121</v>
+        <v>12.5</v>
       </c>
       <c r="L455" t="n">
         <v>379.3</v>
@@ -23484,7 +23506,7 @@
         <v>593</v>
       </c>
       <c r="K456" t="n">
-        <v>-23.52941176470588</v>
+        <v>0</v>
       </c>
       <c r="L456" t="n">
         <v>379.3</v>
@@ -23535,7 +23557,7 @@
         <v>595</v>
       </c>
       <c r="K457" t="n">
-        <v>-31.42857142857143</v>
+        <v>-15.78947368421053</v>
       </c>
       <c r="L457" t="n">
         <v>379.1</v>
@@ -23586,7 +23608,7 @@
         <v>595</v>
       </c>
       <c r="K458" t="n">
-        <v>-35.29411764705883</v>
+        <v>0</v>
       </c>
       <c r="L458" t="n">
         <v>378.8</v>
@@ -23637,7 +23659,7 @@
         <v>595</v>
       </c>
       <c r="K459" t="n">
-        <v>-29.03225806451613</v>
+        <v>-77.77777777777779</v>
       </c>
       <c r="L459" t="n">
         <v>378.8</v>
@@ -23688,7 +23710,7 @@
         <v>597</v>
       </c>
       <c r="K460" t="n">
-        <v>-29.03225806451613</v>
+        <v>-80</v>
       </c>
       <c r="L460" t="n">
         <v>377.9</v>
@@ -23739,7 +23761,7 @@
         <v>597</v>
       </c>
       <c r="K461" t="n">
-        <v>-33.33333333333333</v>
+        <v>-100</v>
       </c>
       <c r="L461" t="n">
         <v>377.1</v>
@@ -23790,7 +23812,7 @@
         <v>599</v>
       </c>
       <c r="K462" t="n">
-        <v>-29.03225806451613</v>
+        <v>-60</v>
       </c>
       <c r="L462" t="n">
         <v>376.4</v>
@@ -23841,7 +23863,7 @@
         <v>601</v>
       </c>
       <c r="K463" t="n">
-        <v>-26.66666666666667</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L463" t="n">
         <v>375.6</v>
@@ -23892,7 +23914,7 @@
         <v>601</v>
       </c>
       <c r="K464" t="n">
-        <v>-21.42857142857143</v>
+        <v>-60</v>
       </c>
       <c r="L464" t="n">
         <v>374.8</v>
@@ -23943,7 +23965,7 @@
         <v>602</v>
       </c>
       <c r="K465" t="n">
-        <v>-24.13793103448276</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L465" t="n">
         <v>374.1</v>
@@ -23994,7 +24016,7 @@
         <v>602</v>
       </c>
       <c r="K466" t="n">
-        <v>-18.51851851851852</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L466" t="n">
         <v>373.6</v>
@@ -24045,7 +24067,7 @@
         <v>603</v>
       </c>
       <c r="K467" t="n">
-        <v>-14.28571428571428</v>
+        <v>-25</v>
       </c>
       <c r="L467" t="n">
         <v>373.4</v>
@@ -24096,7 +24118,7 @@
         <v>604</v>
       </c>
       <c r="K468" t="n">
-        <v>-21.42857142857143</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L468" t="n">
         <v>373.1</v>
@@ -24147,7 +24169,7 @@
         <v>604</v>
       </c>
       <c r="K469" t="n">
-        <v>-12</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L469" t="n">
         <v>372.8</v>
@@ -24198,7 +24220,7 @@
         <v>607</v>
       </c>
       <c r="K470" t="n">
-        <v>-33.33333333333333</v>
+        <v>20</v>
       </c>
       <c r="L470" t="n">
         <v>373</v>
@@ -24249,7 +24271,7 @@
         <v>608</v>
       </c>
       <c r="K471" t="n">
-        <v>-33.33333333333333</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L471" t="n">
         <v>373.1</v>
@@ -24300,7 +24322,7 @@
         <v>610</v>
       </c>
       <c r="K472" t="n">
-        <v>-27.27272727272727</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L472" t="n">
         <v>373.2</v>
@@ -24351,7 +24373,7 @@
         <v>615</v>
       </c>
       <c r="K473" t="n">
-        <v>0</v>
+        <v>57.14285714285714</v>
       </c>
       <c r="L473" t="n">
         <v>374</v>
@@ -24402,7 +24424,7 @@
         <v>616</v>
       </c>
       <c r="K474" t="n">
-        <v>3.703703703703703</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L474" t="n">
         <v>374.9</v>
@@ -24453,7 +24475,7 @@
         <v>618</v>
       </c>
       <c r="K475" t="n">
-        <v>18.51851851851852</v>
+        <v>75</v>
       </c>
       <c r="L475" t="n">
         <v>376.1</v>
@@ -24504,7 +24526,7 @@
         <v>620</v>
       </c>
       <c r="K476" t="n">
-        <v>18.51851851851852</v>
+        <v>52.94117647058824</v>
       </c>
       <c r="L476" t="n">
         <v>377.1</v>
@@ -24555,7 +24577,7 @@
         <v>621</v>
       </c>
       <c r="K477" t="n">
-        <v>30.76923076923077</v>
+        <v>64.70588235294117</v>
       </c>
       <c r="L477" t="n">
         <v>378.1</v>
@@ -24606,7 +24628,7 @@
         <v>622</v>
       </c>
       <c r="K478" t="n">
-        <v>33.33333333333333</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L478" t="n">
         <v>379.3</v>
@@ -24657,7 +24679,7 @@
         <v>623</v>
       </c>
       <c r="K479" t="n">
-        <v>28.57142857142857</v>
+        <v>50</v>
       </c>
       <c r="L479" t="n">
         <v>380.4</v>
@@ -24708,7 +24730,7 @@
         <v>624</v>
       </c>
       <c r="K480" t="n">
-        <v>33.33333333333333</v>
+        <v>50</v>
       </c>
       <c r="L480" t="n">
         <v>381.1</v>
@@ -24759,7 +24781,7 @@
         <v>624</v>
       </c>
       <c r="K481" t="n">
-        <v>33.33333333333333</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L481" t="n">
         <v>381.9</v>
@@ -24810,7 +24832,7 @@
         <v>626</v>
       </c>
       <c r="K482" t="n">
-        <v>33.33333333333333</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L482" t="n">
         <v>382.7</v>
@@ -24861,7 +24883,7 @@
         <v>627</v>
       </c>
       <c r="K483" t="n">
-        <v>38.46153846153847</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L483" t="n">
         <v>382.9</v>
@@ -24912,7 +24934,7 @@
         <v>627</v>
       </c>
       <c r="K484" t="n">
-        <v>38.46153846153847</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L484" t="n">
         <v>383</v>
@@ -24963,7 +24985,7 @@
         <v>627</v>
       </c>
       <c r="K485" t="n">
-        <v>44</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L485" t="n">
         <v>382.9</v>
@@ -25014,7 +25036,7 @@
         <v>628</v>
       </c>
       <c r="K486" t="n">
-        <v>38.46153846153847</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L486" t="n">
         <v>382.9</v>
@@ -25065,7 +25087,7 @@
         <v>628</v>
       </c>
       <c r="K487" t="n">
-        <v>36</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L487" t="n">
         <v>382.8</v>
@@ -25116,7 +25138,7 @@
         <v>628</v>
       </c>
       <c r="K488" t="n">
-        <v>41.66666666666667</v>
+        <v>-20</v>
       </c>
       <c r="L488" t="n">
         <v>382.6</v>
@@ -25167,7 +25189,7 @@
         <v>628</v>
       </c>
       <c r="K489" t="n">
-        <v>41.66666666666667</v>
+        <v>0</v>
       </c>
       <c r="L489" t="n">
         <v>382.5</v>
@@ -25218,7 +25240,7 @@
         <v>631</v>
       </c>
       <c r="K490" t="n">
-        <v>16.66666666666666</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L490" t="n">
         <v>382.2</v>
@@ -25269,7 +25291,7 @@
         <v>633</v>
       </c>
       <c r="K491" t="n">
-        <v>28</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L491" t="n">
         <v>382.1</v>
@@ -25320,7 +25342,7 @@
         <v>634</v>
       </c>
       <c r="K492" t="n">
-        <v>16.66666666666666</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L492" t="n">
         <v>381.7</v>
@@ -25371,7 +25393,7 @@
         <v>635</v>
       </c>
       <c r="K493" t="n">
-        <v>-10</v>
+        <v>-50</v>
       </c>
       <c r="L493" t="n">
         <v>381.3</v>
@@ -25422,7 +25444,7 @@
         <v>637</v>
       </c>
       <c r="K494" t="n">
-        <v>-4.761904761904762</v>
+        <v>-20</v>
       </c>
       <c r="L494" t="n">
         <v>381.1</v>
@@ -25473,7 +25495,7 @@
         <v>640</v>
       </c>
       <c r="K495" t="n">
-        <v>-27.27272727272727</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L495" t="n">
         <v>380.6</v>
@@ -25524,7 +25546,7 @@
         <v>641</v>
       </c>
       <c r="K496" t="n">
-        <v>-23.80952380952381</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L496" t="n">
         <v>380.1</v>
@@ -25575,7 +25597,7 @@
         <v>646</v>
       </c>
       <c r="K497" t="n">
-        <v>-44</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L497" t="n">
         <v>379.1</v>
@@ -25626,7 +25648,7 @@
         <v>650</v>
       </c>
       <c r="K498" t="n">
-        <v>-28.57142857142857</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L498" t="n">
         <v>378.5</v>
@@ -25677,7 +25699,7 @@
         <v>654</v>
       </c>
       <c r="K499" t="n">
-        <v>-35.48387096774194</v>
+        <v>-30.43478260869566</v>
       </c>
       <c r="L499" t="n">
         <v>377.5</v>
@@ -25728,7 +25750,7 @@
         <v>656</v>
       </c>
       <c r="K500" t="n">
-        <v>-25</v>
+        <v>-30.43478260869566</v>
       </c>
       <c r="L500" t="n">
         <v>377</v>
@@ -25779,7 +25801,7 @@
         <v>656</v>
       </c>
       <c r="K501" t="n">
-        <v>-25</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L501" t="n">
         <v>376.3</v>
@@ -25830,7 +25852,7 @@
         <v>656</v>
       </c>
       <c r="K502" t="n">
-        <v>-33.33333333333333</v>
+        <v>-23.80952380952381</v>
       </c>
       <c r="L502" t="n">
         <v>375.7</v>
@@ -25881,7 +25903,7 @@
         <v>657</v>
       </c>
       <c r="K503" t="n">
-        <v>-26.66666666666667</v>
+        <v>-30</v>
       </c>
       <c r="L503" t="n">
         <v>375.3</v>
@@ -25932,7 +25954,7 @@
         <v>657</v>
       </c>
       <c r="K504" t="n">
-        <v>-26.66666666666667</v>
+        <v>-17.64705882352941</v>
       </c>
       <c r="L504" t="n">
         <v>374.7</v>
@@ -25983,7 +26005,7 @@
         <v>657</v>
       </c>
       <c r="K505" t="n">
-        <v>-26.66666666666667</v>
+        <v>-12.5</v>
       </c>
       <c r="L505" t="n">
         <v>374.4</v>
@@ -26034,7 +26056,7 @@
         <v>658</v>
       </c>
       <c r="K506" t="n">
-        <v>-20</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L506" t="n">
         <v>374.3</v>
@@ -26085,7 +26107,7 @@
         <v>658</v>
       </c>
       <c r="K507" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L507" t="n">
         <v>374.7</v>
@@ -26136,7 +26158,7 @@
         <v>660</v>
       </c>
       <c r="K508" t="n">
-        <v>-25</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L508" t="n">
         <v>374.5</v>
@@ -26187,7 +26209,7 @@
         <v>660</v>
       </c>
       <c r="K509" t="n">
-        <v>-25</v>
+        <v>0</v>
       </c>
       <c r="L509" t="n">
         <v>374.7</v>
@@ -26238,7 +26260,7 @@
         <v>660</v>
       </c>
       <c r="K510" t="n">
-        <v>-17.24137931034483</v>
+        <v>0</v>
       </c>
       <c r="L510" t="n">
         <v>374.7</v>
@@ -26289,7 +26311,7 @@
         <v>661</v>
       </c>
       <c r="K511" t="n">
-        <v>-21.42857142857143</v>
+        <v>20</v>
       </c>
       <c r="L511" t="n">
         <v>374.8</v>
@@ -26340,7 +26362,7 @@
         <v>662</v>
       </c>
       <c r="K512" t="n">
-        <v>-14.28571428571428</v>
+        <v>20</v>
       </c>
       <c r="L512" t="n">
         <v>375</v>
@@ -26391,7 +26413,7 @@
         <v>663</v>
       </c>
       <c r="K513" t="n">
-        <v>-14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L513" t="n">
         <v>375</v>
@@ -26442,7 +26464,7 @@
         <v>663</v>
       </c>
       <c r="K514" t="n">
-        <v>-23.07692307692308</v>
+        <v>0</v>
       </c>
       <c r="L514" t="n">
         <v>375</v>
@@ -26493,7 +26515,7 @@
         <v>664</v>
       </c>
       <c r="K515" t="n">
-        <v>-8.333333333333332</v>
+        <v>0</v>
       </c>
       <c r="L515" t="n">
         <v>375.1</v>
@@ -26544,7 +26566,7 @@
         <v>664</v>
       </c>
       <c r="K516" t="n">
-        <v>-4.347826086956522</v>
+        <v>0</v>
       </c>
       <c r="L516" t="n">
         <v>375.1</v>
@@ -26595,7 +26617,7 @@
         <v>664</v>
       </c>
       <c r="K517" t="n">
-        <v>22.22222222222222</v>
+        <v>50</v>
       </c>
       <c r="L517" t="n">
         <v>375.1</v>
@@ -26646,7 +26668,7 @@
         <v>665</v>
       </c>
       <c r="K518" t="n">
-        <v>-6.666666666666667</v>
+        <v>20</v>
       </c>
       <c r="L518" t="n">
         <v>375.2</v>
@@ -26697,7 +26719,7 @@
         <v>665</v>
       </c>
       <c r="K519" t="n">
-        <v>27.27272727272727</v>
+        <v>20</v>
       </c>
       <c r="L519" t="n">
         <v>375.3</v>
@@ -26748,7 +26770,7 @@
         <v>665</v>
       </c>
       <c r="K520" t="n">
-        <v>11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L520" t="n">
         <v>375.4</v>
@@ -26799,7 +26821,7 @@
         <v>665</v>
       </c>
       <c r="K521" t="n">
-        <v>11.11111111111111</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L521" t="n">
         <v>375.4</v>
@@ -26850,7 +26872,7 @@
         <v>667</v>
       </c>
       <c r="K522" t="n">
-        <v>-9.090909090909092</v>
+        <v>-50</v>
       </c>
       <c r="L522" t="n">
         <v>375.1</v>
@@ -26901,7 +26923,7 @@
         <v>668</v>
       </c>
       <c r="K523" t="n">
-        <v>-9.090909090909092</v>
+        <v>-20</v>
       </c>
       <c r="L523" t="n">
         <v>375</v>
@@ -26952,7 +26974,7 @@
         <v>669</v>
       </c>
       <c r="K524" t="n">
-        <v>-16.66666666666666</v>
+        <v>-60</v>
       </c>
       <c r="L524" t="n">
         <v>374.8</v>
@@ -27003,7 +27025,7 @@
         <v>671</v>
       </c>
       <c r="K525" t="n">
-        <v>-28.57142857142857</v>
+        <v>-71.42857142857143</v>
       </c>
       <c r="L525" t="n">
         <v>374.3</v>
@@ -27054,7 +27076,7 @@
         <v>672</v>
       </c>
       <c r="K526" t="n">
-        <v>-42.85714285714285</v>
+        <v>-75</v>
       </c>
       <c r="L526" t="n">
         <v>373.7</v>
@@ -27105,7 +27127,7 @@
         <v>673</v>
       </c>
       <c r="K527" t="n">
-        <v>-33.33333333333333</v>
+        <v>-50</v>
       </c>
       <c r="L527" t="n">
         <v>373.2</v>
@@ -27156,7 +27178,7 @@
         <v>673</v>
       </c>
       <c r="K528" t="n">
-        <v>-23.07692307692308</v>
+        <v>-50</v>
       </c>
       <c r="L528" t="n">
         <v>372.8</v>
@@ -27207,7 +27229,7 @@
         <v>674</v>
       </c>
       <c r="K529" t="n">
-        <v>-14.28571428571428</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L529" t="n">
         <v>372.5</v>
@@ -27258,7 +27280,7 @@
         <v>675</v>
       </c>
       <c r="K530" t="n">
-        <v>-6.666666666666667</v>
+        <v>-20</v>
       </c>
       <c r="L530" t="n">
         <v>372.3</v>
@@ -27309,7 +27331,7 @@
         <v>677</v>
       </c>
       <c r="K531" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L531" t="n">
         <v>372.3</v>
@@ -27360,7 +27382,7 @@
         <v>680</v>
       </c>
       <c r="K532" t="n">
-        <v>11.11111111111111</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L532" t="n">
         <v>372.8</v>
@@ -27411,7 +27433,7 @@
         <v>681</v>
       </c>
       <c r="K533" t="n">
-        <v>22.22222222222222</v>
+        <v>50</v>
       </c>
       <c r="L533" t="n">
         <v>373.3</v>
@@ -27462,7 +27484,7 @@
         <v>681</v>
       </c>
       <c r="K534" t="n">
-        <v>22.22222222222222</v>
+        <v>80</v>
       </c>
       <c r="L534" t="n">
         <v>373.9</v>
@@ -27513,7 +27535,7 @@
         <v>681</v>
       </c>
       <c r="K535" t="n">
-        <v>17.64705882352941</v>
+        <v>100</v>
       </c>
       <c r="L535" t="n">
         <v>374.7</v>
@@ -27564,7 +27586,7 @@
         <v>683</v>
       </c>
       <c r="K536" t="n">
-        <v>26.31578947368421</v>
+        <v>100</v>
       </c>
       <c r="L536" t="n">
         <v>375.8</v>
@@ -27615,7 +27637,7 @@
         <v>683</v>
       </c>
       <c r="K537" t="n">
-        <v>26.31578947368421</v>
+        <v>100</v>
       </c>
       <c r="L537" t="n">
         <v>376.8</v>
@@ -27666,7 +27688,7 @@
         <v>684</v>
       </c>
       <c r="K538" t="n">
-        <v>26.31578947368421</v>
+        <v>80</v>
       </c>
       <c r="L538" t="n">
         <v>377.7</v>
@@ -27717,7 +27739,7 @@
         <v>684</v>
       </c>
       <c r="K539" t="n">
-        <v>26.31578947368421</v>
+        <v>77.77777777777779</v>
       </c>
       <c r="L539" t="n">
         <v>378.5</v>
@@ -27768,7 +27790,7 @@
         <v>685</v>
       </c>
       <c r="K540" t="n">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="L540" t="n">
         <v>379.3</v>
@@ -27819,7 +27841,7 @@
         <v>686</v>
       </c>
       <c r="K541" t="n">
-        <v>23.80952380952381</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L541" t="n">
         <v>379.8</v>
@@ -27870,7 +27892,7 @@
         <v>686</v>
       </c>
       <c r="K542" t="n">
-        <v>36.84210526315789</v>
+        <v>20</v>
       </c>
       <c r="L542" t="n">
         <v>380</v>
@@ -27921,7 +27943,7 @@
         <v>688</v>
       </c>
       <c r="K543" t="n">
-        <v>40</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L543" t="n">
         <v>380.3</v>
@@ -27972,7 +27994,7 @@
         <v>688</v>
       </c>
       <c r="K544" t="n">
-        <v>47.36842105263158</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L544" t="n">
         <v>380.6</v>
@@ -28023,7 +28045,7 @@
         <v>688</v>
       </c>
       <c r="K545" t="n">
-        <v>64.70588235294117</v>
+        <v>20</v>
       </c>
       <c r="L545" t="n">
         <v>380.9</v>
@@ -28074,7 +28096,7 @@
         <v>688</v>
       </c>
       <c r="K546" t="n">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="L546" t="n">
         <v>381</v>
@@ -28125,7 +28147,7 @@
         <v>688</v>
       </c>
       <c r="K547" t="n">
-        <v>73.33333333333333</v>
+        <v>50</v>
       </c>
       <c r="L547" t="n">
         <v>381.1</v>
@@ -28176,7 +28198,7 @@
         <v>689</v>
       </c>
       <c r="K548" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="L548" t="n">
         <v>381.4</v>
@@ -28227,7 +28249,7 @@
         <v>690</v>
       </c>
       <c r="K549" t="n">
-        <v>62.5</v>
+        <v>20</v>
       </c>
       <c r="L549" t="n">
         <v>381.6</v>
@@ -28278,7 +28300,7 @@
         <v>691</v>
       </c>
       <c r="K550" t="n">
-        <v>62.5</v>
+        <v>60</v>
       </c>
       <c r="L550" t="n">
         <v>381.8</v>
@@ -28329,7 +28351,7 @@
         <v>691</v>
       </c>
       <c r="K551" t="n">
-        <v>57.14285714285714</v>
+        <v>60</v>
       </c>
       <c r="L551" t="n">
         <v>382.1</v>
@@ -28380,7 +28402,7 @@
         <v>692</v>
       </c>
       <c r="K552" t="n">
-        <v>33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L552" t="n">
         <v>382.3</v>
@@ -28431,7 +28453,7 @@
         <v>694</v>
       </c>
       <c r="K553" t="n">
-        <v>7.692307692307693</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L553" t="n">
         <v>382.1</v>
@@ -28482,7 +28504,7 @@
         <v>695</v>
       </c>
       <c r="K554" t="n">
-        <v>0</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L554" t="n">
         <v>381.8</v>
@@ -28533,7 +28555,7 @@
         <v>696</v>
       </c>
       <c r="K555" t="n">
-        <v>-6.666666666666667</v>
+        <v>-50</v>
       </c>
       <c r="L555" t="n">
         <v>381.4</v>
@@ -28584,7 +28606,7 @@
         <v>697</v>
       </c>
       <c r="K556" t="n">
-        <v>-28.57142857142857</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L556" t="n">
         <v>380.9</v>
@@ -28635,7 +28657,7 @@
         <v>698</v>
       </c>
       <c r="K557" t="n">
-        <v>-20</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L557" t="n">
         <v>380.5</v>
@@ -28686,7 +28708,7 @@
         <v>701</v>
       </c>
       <c r="K558" t="n">
-        <v>5.88235294117647</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L558" t="n">
         <v>380.3</v>
@@ -28737,7 +28759,7 @@
         <v>702</v>
       </c>
       <c r="K559" t="n">
-        <v>0</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L559" t="n">
         <v>380.1</v>
@@ -28788,7 +28810,7 @@
         <v>702</v>
       </c>
       <c r="K560" t="n">
-        <v>-5.88235294117647</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L560" t="n">
         <v>379.8</v>
@@ -28839,7 +28861,7 @@
         <v>702</v>
       </c>
       <c r="K561" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L561" t="n">
         <v>379.5</v>
@@ -28890,7 +28912,7 @@
         <v>703</v>
       </c>
       <c r="K562" t="n">
-        <v>5.88235294117647</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L562" t="n">
         <v>379.4</v>
@@ -28941,7 +28963,7 @@
         <v>703</v>
       </c>
       <c r="K563" t="n">
-        <v>-6.666666666666667</v>
+        <v>25</v>
       </c>
       <c r="L563" t="n">
         <v>379.5</v>
@@ -28992,7 +29014,7 @@
         <v>703</v>
       </c>
       <c r="K564" t="n">
-        <v>-6.666666666666667</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L564" t="n">
         <v>379.7</v>
@@ -29043,7 +29065,7 @@
         <v>704</v>
       </c>
       <c r="K565" t="n">
-        <v>0</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L565" t="n">
         <v>380.1</v>
@@ -29094,7 +29116,7 @@
         <v>705</v>
       </c>
       <c r="K566" t="n">
-        <v>5.88235294117647</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L566" t="n">
         <v>380.7</v>
@@ -29145,7 +29167,7 @@
         <v>705</v>
       </c>
       <c r="K567" t="n">
-        <v>5.88235294117647</v>
+        <v>50</v>
       </c>
       <c r="L567" t="n">
         <v>381.2</v>
@@ -29196,7 +29218,7 @@
         <v>707</v>
       </c>
       <c r="K568" t="n">
-        <v>11.11111111111111</v>
+        <v>100</v>
       </c>
       <c r="L568" t="n">
         <v>381.6</v>
@@ -29247,7 +29269,7 @@
         <v>708</v>
       </c>
       <c r="K569" t="n">
-        <v>22.22222222222222</v>
+        <v>100</v>
       </c>
       <c r="L569" t="n">
         <v>382.2</v>
@@ -29298,7 +29320,7 @@
         <v>708</v>
       </c>
       <c r="K570" t="n">
-        <v>17.64705882352941</v>
+        <v>100</v>
       </c>
       <c r="L570" t="n">
         <v>382.8</v>
@@ -29349,7 +29371,7 @@
         <v>708</v>
       </c>
       <c r="K571" t="n">
-        <v>17.64705882352941</v>
+        <v>100</v>
       </c>
       <c r="L571" t="n">
         <v>383.4</v>
@@ -29400,7 +29422,7 @@
         <v>708</v>
       </c>
       <c r="K572" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="L572" t="n">
         <v>383.9</v>
@@ -29451,7 +29473,7 @@
         <v>708</v>
       </c>
       <c r="K573" t="n">
-        <v>42.85714285714285</v>
+        <v>100</v>
       </c>
       <c r="L573" t="n">
         <v>384.4</v>
@@ -29502,7 +29524,7 @@
         <v>709</v>
       </c>
       <c r="K574" t="n">
-        <v>42.85714285714285</v>
+        <v>60</v>
       </c>
       <c r="L574" t="n">
         <v>384.8</v>
@@ -29553,7 +29575,7 @@
         <v>709</v>
       </c>
       <c r="K575" t="n">
-        <v>53.84615384615385</v>
+        <v>50</v>
       </c>
       <c r="L575" t="n">
         <v>385.1</v>
@@ -29604,7 +29626,7 @@
         <v>709</v>
       </c>
       <c r="K576" t="n">
-        <v>66.66666666666666</v>
+        <v>50</v>
       </c>
       <c r="L576" t="n">
         <v>385.3</v>
@@ -29655,7 +29677,7 @@
         <v>710</v>
       </c>
       <c r="K577" t="n">
-        <v>50</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L577" t="n">
         <v>385.4</v>
@@ -29706,7 +29728,7 @@
         <v>711</v>
       </c>
       <c r="K578" t="n">
-        <v>40</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L578" t="n">
         <v>385.4</v>
@@ -29757,7 +29779,7 @@
         <v>714</v>
       </c>
       <c r="K579" t="n">
-        <v>66.66666666666666</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L579" t="n">
         <v>385.6</v>
@@ -29808,7 +29830,7 @@
         <v>716</v>
       </c>
       <c r="K580" t="n">
-        <v>42.85714285714285</v>
+        <v>0</v>
       </c>
       <c r="L580" t="n">
         <v>385.6</v>
@@ -29859,7 +29881,7 @@
         <v>716</v>
       </c>
       <c r="K581" t="n">
-        <v>42.85714285714285</v>
+        <v>0</v>
       </c>
       <c r="L581" t="n">
         <v>385.6</v>
@@ -29910,7 +29932,7 @@
         <v>717</v>
       </c>
       <c r="K582" t="n">
-        <v>42.85714285714285</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L582" t="n">
         <v>385.7</v>
@@ -29961,7 +29983,7 @@
         <v>718</v>
       </c>
       <c r="K583" t="n">
-        <v>46.66666666666666</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L583" t="n">
         <v>385.9</v>
@@ -30012,7 +30034,7 @@
         <v>719</v>
       </c>
       <c r="K584" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="L584" t="n">
         <v>386.3</v>
@@ -30063,7 +30085,7 @@
         <v>719</v>
       </c>
       <c r="K585" t="n">
-        <v>46.66666666666666</v>
+        <v>40</v>
       </c>
       <c r="L585" t="n">
         <v>386.7</v>
@@ -30114,7 +30136,7 @@
         <v>722</v>
       </c>
       <c r="K586" t="n">
-        <v>52.94117647058824</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L586" t="n">
         <v>387.4</v>
@@ -30165,7 +30187,7 @@
         <v>725</v>
       </c>
       <c r="K587" t="n">
-        <v>30</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L587" t="n">
         <v>387.9</v>
@@ -30216,7 +30238,7 @@
         <v>726</v>
       </c>
       <c r="K588" t="n">
-        <v>26.31578947368421</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L588" t="n">
         <v>388.4</v>
@@ -30267,7 +30289,7 @@
         <v>729</v>
       </c>
       <c r="K589" t="n">
-        <v>33.33333333333333</v>
+        <v>53.84615384615385</v>
       </c>
       <c r="L589" t="n">
         <v>388.9</v>
@@ -30318,7 +30340,7 @@
         <v>731</v>
       </c>
       <c r="K590" t="n">
-        <v>21.73913043478261</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L590" t="n">
         <v>389.4</v>
@@ -30369,7 +30391,7 @@
         <v>733</v>
       </c>
       <c r="K591" t="n">
-        <v>28</v>
+        <v>37.5</v>
       </c>
       <c r="L591" t="n">
         <v>390.1</v>
@@ -30420,7 +30442,7 @@
         <v>733</v>
       </c>
       <c r="K592" t="n">
-        <v>28</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L592" t="n">
         <v>390.7</v>
@@ -30471,7 +30493,7 @@
         <v>734</v>
       </c>
       <c r="K593" t="n">
-        <v>23.07692307692308</v>
+        <v>20</v>
       </c>
       <c r="L593" t="n">
         <v>391.1</v>
@@ -30522,7 +30544,7 @@
         <v>734</v>
       </c>
       <c r="K594" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="L594" t="n">
         <v>391.4</v>
@@ -30573,7 +30595,7 @@
         <v>742</v>
       </c>
       <c r="K595" t="n">
-        <v>-3.03030303030303</v>
+        <v>-40</v>
       </c>
       <c r="L595" t="n">
         <v>390.9</v>
@@ -30624,7 +30646,7 @@
         <v>742</v>
       </c>
       <c r="K596" t="n">
-        <v>-3.03030303030303</v>
+        <v>-29.41176470588236</v>
       </c>
       <c r="L596" t="n">
         <v>390.1</v>
@@ -30675,7 +30697,7 @@
         <v>744</v>
       </c>
       <c r="K597" t="n">
-        <v>5.88235294117647</v>
+        <v>-22.22222222222222</v>
       </c>
       <c r="L597" t="n">
         <v>389.8</v>
@@ -30726,7 +30748,7 @@
         <v>748</v>
       </c>
       <c r="K598" t="n">
-        <v>13.51351351351351</v>
+        <v>-15.78947368421053</v>
       </c>
       <c r="L598" t="n">
         <v>389.8</v>
@@ -30777,7 +30799,7 @@
         <v>750</v>
       </c>
       <c r="K599" t="n">
-        <v>0</v>
+        <v>-15.78947368421053</v>
       </c>
       <c r="L599" t="n">
         <v>389.3</v>
@@ -30828,7 +30850,7 @@
         <v>750</v>
       </c>
       <c r="K600" t="n">
-        <v>5.88235294117647</v>
+        <v>-29.41176470588236</v>
       </c>
       <c r="L600" t="n">
         <v>389</v>
@@ -30879,7 +30901,7 @@
         <v>753</v>
       </c>
       <c r="K601" t="n">
-        <v>13.51351351351351</v>
+        <v>-10</v>
       </c>
       <c r="L601" t="n">
         <v>388.8</v>
@@ -30930,7 +30952,7 @@
         <v>754</v>
       </c>
       <c r="K602" t="n">
-        <v>8.108108108108109</v>
+        <v>-10</v>
       </c>
       <c r="L602" t="n">
         <v>388.5</v>
@@ -30981,7 +31003,7 @@
         <v>755</v>
       </c>
       <c r="K603" t="n">
-        <v>8.108108108108109</v>
+        <v>-4.761904761904762</v>
       </c>
       <c r="L603" t="n">
         <v>388.4</v>
@@ -31032,7 +31054,7 @@
         <v>757</v>
       </c>
       <c r="K604" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L604" t="n">
         <v>388.1</v>
@@ -31083,7 +31105,7 @@
         <v>759</v>
       </c>
       <c r="K605" t="n">
-        <v>-5</v>
+        <v>17.64705882352941</v>
       </c>
       <c r="L605" t="n">
         <v>388.4</v>
@@ -31134,7 +31156,7 @@
         <v>761</v>
       </c>
       <c r="K606" t="n">
-        <v>-7.692307692307693</v>
+        <v>17.64705882352941</v>
       </c>
       <c r="L606" t="n">
         <v>388.9</v>
@@ -31185,7 +31207,7 @@
         <v>762</v>
       </c>
       <c r="K607" t="n">
-        <v>-2.702702702702703</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L607" t="n">
         <v>389.1</v>
@@ -31236,7 +31258,7 @@
         <v>763</v>
       </c>
       <c r="K608" t="n">
-        <v>-8.108108108108109</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L608" t="n">
         <v>388.8</v>
@@ -31287,7 +31309,7 @@
         <v>763</v>
       </c>
       <c r="K609" t="n">
-        <v>-17.64705882352941</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L609" t="n">
         <v>388.7</v>
@@ -31338,7 +31360,7 @@
         <v>763</v>
       </c>
       <c r="K610" t="n">
-        <v>-12.5</v>
+        <v>-40</v>
       </c>
       <c r="L610" t="n">
         <v>388.6</v>
@@ -31389,7 +31411,7 @@
         <v>763</v>
       </c>
       <c r="K611" t="n">
-        <v>-20</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L611" t="n">
         <v>388.2</v>
@@ -31440,7 +31462,7 @@
         <v>763</v>
       </c>
       <c r="K612" t="n">
-        <v>-20</v>
+        <v>-50</v>
       </c>
       <c r="L612" t="n">
         <v>387.9</v>
@@ -31491,7 +31513,7 @@
         <v>764</v>
       </c>
       <c r="K613" t="n">
-        <v>-20</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L613" t="n">
         <v>387.4</v>
@@ -31593,7 +31615,7 @@
         <v>764</v>
       </c>
       <c r="K615" t="n">
-        <v>9.090909090909092</v>
+        <v>-100</v>
       </c>
       <c r="L615" t="n">
         <v>387</v>
@@ -31644,7 +31666,7 @@
         <v>764</v>
       </c>
       <c r="K616" t="n">
-        <v>9.090909090909092</v>
+        <v>-100</v>
       </c>
       <c r="L616" t="n">
         <v>386.7</v>
@@ -31695,7 +31717,7 @@
         <v>765</v>
       </c>
       <c r="K617" t="n">
-        <v>4.761904761904762</v>
+        <v>0</v>
       </c>
       <c r="L617" t="n">
         <v>386.6</v>
@@ -31746,7 +31768,7 @@
         <v>767</v>
       </c>
       <c r="K618" t="n">
-        <v>-26.31578947368421</v>
+        <v>-50</v>
       </c>
       <c r="L618" t="n">
         <v>386.4</v>
@@ -31797,7 +31819,7 @@
         <v>767</v>
       </c>
       <c r="K619" t="n">
-        <v>-17.64705882352941</v>
+        <v>-50</v>
       </c>
       <c r="L619" t="n">
         <v>386.2</v>
@@ -31848,7 +31870,7 @@
         <v>771</v>
       </c>
       <c r="K620" t="n">
-        <v>-33.33333333333333</v>
+        <v>-75</v>
       </c>
       <c r="L620" t="n">
         <v>385.6</v>
@@ -31899,7 +31921,7 @@
         <v>772</v>
       </c>
       <c r="K621" t="n">
-        <v>-47.36842105263158</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L621" t="n">
         <v>385.1</v>
@@ -31950,7 +31972,7 @@
         <v>773</v>
       </c>
       <c r="K622" t="n">
-        <v>-36.84210526315789</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L622" t="n">
         <v>384.7</v>
@@ -32001,7 +32023,7 @@
         <v>773</v>
       </c>
       <c r="K623" t="n">
-        <v>-44.44444444444444</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L623" t="n">
         <v>384.4</v>
@@ -32052,7 +32074,7 @@
         <v>775</v>
       </c>
       <c r="K624" t="n">
-        <v>-44.44444444444444</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L624" t="n">
         <v>383.9</v>
@@ -32103,7 +32125,7 @@
         <v>777</v>
       </c>
       <c r="K625" t="n">
-        <v>-22.22222222222222</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L625" t="n">
         <v>383.6</v>
@@ -32154,7 +32176,7 @@
         <v>778</v>
       </c>
       <c r="K626" t="n">
-        <v>-41.17647058823529</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L626" t="n">
         <v>383.2</v>
@@ -32205,7 +32227,7 @@
         <v>781</v>
       </c>
       <c r="K627" t="n">
-        <v>-47.36842105263158</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L627" t="n">
         <v>382.4</v>
@@ -32256,7 +32278,7 @@
         <v>785</v>
       </c>
       <c r="K628" t="n">
-        <v>-18.18181818181818</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L628" t="n">
         <v>382.2</v>
@@ -32307,7 +32329,7 @@
         <v>785</v>
       </c>
       <c r="K629" t="n">
-        <v>-18.18181818181818</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L629" t="n">
         <v>382</v>
@@ -32358,7 +32380,7 @@
         <v>785</v>
       </c>
       <c r="K630" t="n">
-        <v>-18.18181818181818</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L630" t="n">
         <v>382.2</v>
@@ -32409,7 +32431,7 @@
         <v>785</v>
       </c>
       <c r="K631" t="n">
-        <v>-18.18181818181818</v>
+        <v>0</v>
       </c>
       <c r="L631" t="n">
         <v>382.3</v>
@@ -32460,7 +32482,7 @@
         <v>786</v>
       </c>
       <c r="K632" t="n">
-        <v>-21.73913043478261</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L632" t="n">
         <v>382.2</v>
@@ -32511,7 +32533,7 @@
         <v>787</v>
       </c>
       <c r="K633" t="n">
-        <v>-13.04347826086956</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L633" t="n">
         <v>382.2</v>
@@ -32562,7 +32584,7 @@
         <v>787</v>
       </c>
       <c r="K634" t="n">
-        <v>-13.04347826086956</v>
+        <v>0</v>
       </c>
       <c r="L634" t="n">
         <v>382.4</v>
@@ -32613,7 +32635,7 @@
         <v>788</v>
       </c>
       <c r="K635" t="n">
-        <v>-16.66666666666666</v>
+        <v>0</v>
       </c>
       <c r="L635" t="n">
         <v>382.3</v>
@@ -32664,7 +32686,7 @@
         <v>791</v>
       </c>
       <c r="K636" t="n">
-        <v>-25.92592592592592</v>
+        <v>0</v>
       </c>
       <c r="L636" t="n">
         <v>382</v>
@@ -32715,7 +32737,7 @@
         <v>792</v>
       </c>
       <c r="K637" t="n">
-        <v>-33.33333333333333</v>
+        <v>-71.42857142857143</v>
       </c>
       <c r="L637" t="n">
         <v>381.9</v>
@@ -32766,7 +32788,7 @@
         <v>794</v>
       </c>
       <c r="K638" t="n">
-        <v>-18.51851851851852</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L638" t="n">
         <v>381.6</v>
@@ -32817,7 +32839,7 @@
         <v>797</v>
       </c>
       <c r="K639" t="n">
-        <v>-6.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="L639" t="n">
         <v>381.6</v>
@@ -32868,7 +32890,7 @@
         <v>799</v>
       </c>
       <c r="K640" t="n">
-        <v>0</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L640" t="n">
         <v>381.4</v>
@@ -32919,7 +32941,7 @@
         <v>799</v>
       </c>
       <c r="K641" t="n">
-        <v>-3.703703703703703</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L641" t="n">
         <v>381.2</v>
@@ -32970,7 +32992,7 @@
         <v>801</v>
       </c>
       <c r="K642" t="n">
-        <v>-14.28571428571428</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L642" t="n">
         <v>380.9</v>
@@ -33021,7 +33043,7 @@
         <v>803</v>
       </c>
       <c r="K643" t="n">
-        <v>-6.666666666666667</v>
+        <v>-12.5</v>
       </c>
       <c r="L643" t="n">
         <v>380.7</v>
@@ -33072,7 +33094,7 @@
         <v>803</v>
       </c>
       <c r="K644" t="n">
-        <v>0</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L644" t="n">
         <v>380.5</v>
@@ -33123,7 +33145,7 @@
         <v>804</v>
       </c>
       <c r="K645" t="n">
-        <v>-11.11111111111111</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L645" t="n">
         <v>380.3</v>
@@ -33174,7 +33196,7 @@
         <v>804</v>
       </c>
       <c r="K646" t="n">
-        <v>-7.692307692307693</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L646" t="n">
         <v>380.4</v>
@@ -33225,7 +33247,7 @@
         <v>806</v>
       </c>
       <c r="K647" t="n">
-        <v>-4</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L647" t="n">
         <v>380.4</v>
@@ -33276,7 +33298,7 @@
         <v>806</v>
       </c>
       <c r="K648" t="n">
-        <v>-23.80952380952381</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L648" t="n">
         <v>380.2</v>
@@ -33327,7 +33349,7 @@
         <v>808</v>
       </c>
       <c r="K649" t="n">
-        <v>-13.04347826086956</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L649" t="n">
         <v>379.9</v>
@@ -33378,7 +33400,7 @@
         <v>810</v>
       </c>
       <c r="K650" t="n">
-        <v>-20</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L650" t="n">
         <v>379.6</v>
@@ -33429,7 +33451,7 @@
         <v>811</v>
       </c>
       <c r="K651" t="n">
-        <v>-23.07692307692308</v>
+        <v>-20</v>
       </c>
       <c r="L651" t="n">
         <v>379.2</v>
@@ -33480,7 +33502,7 @@
         <v>811</v>
       </c>
       <c r="K652" t="n">
-        <v>-20</v>
+        <v>-50</v>
       </c>
       <c r="L652" t="n">
         <v>379</v>
@@ -33531,7 +33553,7 @@
         <v>811</v>
       </c>
       <c r="K653" t="n">
-        <v>-25</v>
+        <v>-50</v>
       </c>
       <c r="L653" t="n">
         <v>378.6</v>
@@ -33582,7 +33604,7 @@
         <v>813</v>
       </c>
       <c r="K654" t="n">
-        <v>-15.38461538461539</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L654" t="n">
         <v>378.4</v>
@@ -33633,7 +33655,7 @@
         <v>813</v>
       </c>
       <c r="K655" t="n">
-        <v>-12</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L655" t="n">
         <v>378.3</v>
@@ -33684,7 +33706,7 @@
         <v>814</v>
       </c>
       <c r="K656" t="n">
-        <v>4.347826086956522</v>
+        <v>25</v>
       </c>
       <c r="L656" t="n">
         <v>378.3</v>
@@ -33735,7 +33757,7 @@
         <v>815</v>
       </c>
       <c r="K657" t="n">
-        <v>4.347826086956522</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L657" t="n">
         <v>378.4</v>
@@ -33837,7 +33859,7 @@
         <v>816</v>
       </c>
       <c r="K659" t="n">
-        <v>-15.78947368421053</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L659" t="n">
         <v>378.6</v>
@@ -33888,7 +33910,7 @@
         <v>816</v>
       </c>
       <c r="K660" t="n">
-        <v>-5.88235294117647</v>
+        <v>60</v>
       </c>
       <c r="L660" t="n">
         <v>378.8</v>
@@ -33939,7 +33961,7 @@
         <v>816</v>
       </c>
       <c r="K661" t="n">
-        <v>-5.88235294117647</v>
+        <v>60</v>
       </c>
       <c r="L661" t="n">
         <v>379.1</v>
@@ -33990,7 +34012,7 @@
         <v>816</v>
       </c>
       <c r="K662" t="n">
-        <v>6.666666666666667</v>
+        <v>60</v>
       </c>
       <c r="L662" t="n">
         <v>379.4</v>
@@ -34041,7 +34063,7 @@
         <v>816</v>
       </c>
       <c r="K663" t="n">
-        <v>-7.692307692307693</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L663" t="n">
         <v>379.7</v>
@@ -34092,7 +34114,7 @@
         <v>816</v>
       </c>
       <c r="K664" t="n">
-        <v>-7.692307692307693</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L664" t="n">
         <v>379.8</v>
@@ -34143,7 +34165,7 @@
         <v>817</v>
       </c>
       <c r="K665" t="n">
-        <v>-7.692307692307693</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L665" t="n">
         <v>379.8</v>
@@ -34194,7 +34216,7 @@
         <v>818</v>
       </c>
       <c r="K666" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L666" t="n">
         <v>379.8</v>
@@ -34245,7 +34267,7 @@
         <v>818</v>
       </c>
       <c r="K667" t="n">
-        <v>16.66666666666666</v>
+        <v>0</v>
       </c>
       <c r="L667" t="n">
         <v>379.9</v>
@@ -34296,7 +34318,7 @@
         <v>818</v>
       </c>
       <c r="K668" t="n">
-        <v>16.66666666666666</v>
+        <v>0</v>
       </c>
       <c r="L668" t="n">
         <v>379.9</v>
@@ -34398,7 +34420,7 @@
         <v>821</v>
       </c>
       <c r="K670" t="n">
-        <v>45.45454545454545</v>
+        <v>60</v>
       </c>
       <c r="L670" t="n">
         <v>380.2</v>
@@ -34449,7 +34471,7 @@
         <v>822</v>
       </c>
       <c r="K671" t="n">
-        <v>45.45454545454545</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L671" t="n">
         <v>380.4</v>
@@ -34500,7 +34522,7 @@
         <v>824</v>
       </c>
       <c r="K672" t="n">
-        <v>23.07692307692308</v>
+        <v>0</v>
       </c>
       <c r="L672" t="n">
         <v>380.4</v>
@@ -34551,7 +34573,7 @@
         <v>824</v>
       </c>
       <c r="K673" t="n">
-        <v>23.07692307692308</v>
+        <v>0</v>
       </c>
       <c r="L673" t="n">
         <v>380.4</v>
@@ -34602,7 +34624,7 @@
         <v>825</v>
       </c>
       <c r="K674" t="n">
-        <v>16.66666666666666</v>
+        <v>25</v>
       </c>
       <c r="L674" t="n">
         <v>380.5</v>
@@ -34653,7 +34675,7 @@
         <v>825</v>
       </c>
       <c r="K675" t="n">
-        <v>16.66666666666666</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L675" t="n">
         <v>380.7</v>
@@ -34704,7 +34726,7 @@
         <v>826</v>
       </c>
       <c r="K676" t="n">
-        <v>16.66666666666666</v>
+        <v>25</v>
       </c>
       <c r="L676" t="n">
         <v>380.9</v>
@@ -34755,7 +34777,7 @@
         <v>828</v>
       </c>
       <c r="K677" t="n">
-        <v>7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L677" t="n">
         <v>380.9</v>
@@ -34857,7 +34879,7 @@
         <v>831</v>
       </c>
       <c r="K679" t="n">
-        <v>-20</v>
+        <v>-60</v>
       </c>
       <c r="L679" t="n">
         <v>380.6</v>
@@ -34908,7 +34930,7 @@
         <v>833</v>
       </c>
       <c r="K680" t="n">
-        <v>-5.88235294117647</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L680" t="n">
         <v>380.2</v>
@@ -35010,7 +35032,7 @@
         <v>836</v>
       </c>
       <c r="K682" t="n">
-        <v>10</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L682" t="n">
         <v>380.2</v>
@@ -35061,7 +35083,7 @@
         <v>838</v>
       </c>
       <c r="K683" t="n">
-        <v>0</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L683" t="n">
         <v>380.2</v>
@@ -35112,7 +35134,7 @@
         <v>840</v>
       </c>
       <c r="K684" t="n">
-        <v>-8.333333333333332</v>
+        <v>-20</v>
       </c>
       <c r="L684" t="n">
         <v>379.9</v>
@@ -35163,7 +35185,7 @@
         <v>842</v>
       </c>
       <c r="K685" t="n">
-        <v>4</v>
+        <v>-12.5</v>
       </c>
       <c r="L685" t="n">
         <v>379.8</v>
@@ -35265,7 +35287,7 @@
         <v>843</v>
       </c>
       <c r="K687" t="n">
-        <v>-4</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L687" t="n">
         <v>379.5</v>
@@ -35316,7 +35338,7 @@
         <v>843</v>
       </c>
       <c r="K688" t="n">
-        <v>-4</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L688" t="n">
         <v>379.4</v>
@@ -35367,7 +35389,7 @@
         <v>845</v>
       </c>
       <c r="K689" t="n">
-        <v>-11.11111111111111</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L689" t="n">
         <v>379.4</v>
@@ -35418,7 +35440,7 @@
         <v>849</v>
       </c>
       <c r="K690" t="n">
-        <v>-7.142857142857142</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L690" t="n">
         <v>379.6</v>
@@ -35469,7 +35491,7 @@
         <v>852</v>
       </c>
       <c r="K691" t="n">
-        <v>-13.33333333333333</v>
+        <v>-25</v>
       </c>
       <c r="L691" t="n">
         <v>379.4</v>
@@ -35571,7 +35593,7 @@
         <v>854</v>
       </c>
       <c r="K693" t="n">
-        <v>0</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L693" t="n">
         <v>379.2</v>
@@ -35622,7 +35644,7 @@
         <v>856</v>
       </c>
       <c r="K694" t="n">
-        <v>-9.67741935483871</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L694" t="n">
         <v>379.2</v>
@@ -35673,7 +35695,7 @@
         <v>857</v>
       </c>
       <c r="K695" t="n">
-        <v>-12.5</v>
+        <v>-20</v>
       </c>
       <c r="L695" t="n">
         <v>378.9</v>
@@ -35724,7 +35746,7 @@
         <v>857</v>
       </c>
       <c r="K696" t="n">
-        <v>-16.12903225806452</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L696" t="n">
         <v>378.6</v>
@@ -35775,7 +35797,7 @@
         <v>857</v>
       </c>
       <c r="K697" t="n">
-        <v>-10.3448275862069</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L697" t="n">
         <v>378.4</v>
@@ -35826,7 +35848,7 @@
         <v>857</v>
       </c>
       <c r="K698" t="n">
-        <v>-10.3448275862069</v>
+        <v>0</v>
       </c>
       <c r="L698" t="n">
         <v>378.2</v>
@@ -35877,7 +35899,7 @@
         <v>858</v>
       </c>
       <c r="K699" t="n">
-        <v>3.703703703703703</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L699" t="n">
         <v>378.3</v>
@@ -35928,7 +35950,7 @@
         <v>859</v>
       </c>
       <c r="K700" t="n">
-        <v>0</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L700" t="n">
         <v>378.1</v>
@@ -35979,7 +36001,7 @@
         <v>859</v>
       </c>
       <c r="K701" t="n">
-        <v>-4</v>
+        <v>-20</v>
       </c>
       <c r="L701" t="n">
         <v>378.2</v>
@@ -36030,7 +36052,7 @@
         <v>860</v>
       </c>
       <c r="K702" t="n">
-        <v>-8.333333333333332</v>
+        <v>0</v>
       </c>
       <c r="L702" t="n">
         <v>378.2</v>
@@ -36081,7 +36103,7 @@
         <v>861</v>
       </c>
       <c r="K703" t="n">
-        <v>-4.347826086956522</v>
+        <v>20</v>
       </c>
       <c r="L703" t="n">
         <v>378.1</v>
@@ -36132,7 +36154,7 @@
         <v>861</v>
       </c>
       <c r="K704" t="n">
-        <v>4.761904761904762</v>
+        <v>50</v>
       </c>
       <c r="L704" t="n">
         <v>378.2</v>
@@ -36183,7 +36205,7 @@
         <v>861</v>
       </c>
       <c r="K705" t="n">
-        <v>-5.263157894736842</v>
+        <v>50</v>
       </c>
       <c r="L705" t="n">
         <v>378.4</v>
@@ -36234,7 +36256,7 @@
         <v>863</v>
       </c>
       <c r="K706" t="n">
-        <v>-14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L706" t="n">
         <v>378.4</v>
@@ -36285,7 +36307,7 @@
         <v>864</v>
       </c>
       <c r="K707" t="n">
-        <v>-4.761904761904762</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L707" t="n">
         <v>378.5</v>
@@ -36336,7 +36358,7 @@
         <v>865</v>
       </c>
       <c r="K708" t="n">
-        <v>0</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L708" t="n">
         <v>378.7</v>
@@ -36438,7 +36460,7 @@
         <v>866</v>
       </c>
       <c r="K710" t="n">
-        <v>-5.88235294117647</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L710" t="n">
         <v>379</v>
@@ -36489,7 +36511,7 @@
         <v>866</v>
       </c>
       <c r="K711" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L711" t="n">
         <v>379.1</v>
@@ -36540,7 +36562,7 @@
         <v>866</v>
       </c>
       <c r="K712" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L712" t="n">
         <v>379.1</v>
@@ -36591,7 +36613,7 @@
         <v>866</v>
       </c>
       <c r="K713" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L713" t="n">
         <v>379.2</v>
@@ -36693,7 +36715,7 @@
         <v>866</v>
       </c>
       <c r="K715" t="n">
-        <v>33.33333333333333</v>
+        <v>100</v>
       </c>
       <c r="L715" t="n">
         <v>379.4</v>
@@ -36744,7 +36766,7 @@
         <v>866</v>
       </c>
       <c r="K716" t="n">
-        <v>33.33333333333333</v>
+        <v>100</v>
       </c>
       <c r="L716" t="n">
         <v>379.7</v>
@@ -36795,7 +36817,7 @@
         <v>868</v>
       </c>
       <c r="K717" t="n">
-        <v>45.45454545454545</v>
+        <v>100</v>
       </c>
       <c r="L717" t="n">
         <v>380.1</v>
@@ -36846,7 +36868,7 @@
         <v>870</v>
       </c>
       <c r="K718" t="n">
-        <v>23.07692307692308</v>
+        <v>0</v>
       </c>
       <c r="L718" t="n">
         <v>380.2</v>
@@ -36897,7 +36919,7 @@
         <v>870</v>
       </c>
       <c r="K719" t="n">
-        <v>16.66666666666666</v>
+        <v>0</v>
       </c>
       <c r="L719" t="n">
         <v>380.2</v>
@@ -36948,7 +36970,7 @@
         <v>872</v>
       </c>
       <c r="K720" t="n">
-        <v>23.07692307692308</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L720" t="n">
         <v>380.4</v>
@@ -36999,7 +37021,7 @@
         <v>874</v>
       </c>
       <c r="K721" t="n">
-        <v>33.33333333333333</v>
+        <v>50</v>
       </c>
       <c r="L721" t="n">
         <v>380.8</v>
@@ -37050,7 +37072,7 @@
         <v>876</v>
       </c>
       <c r="K722" t="n">
-        <v>37.5</v>
+        <v>60</v>
       </c>
       <c r="L722" t="n">
         <v>381.4</v>
@@ -37101,7 +37123,7 @@
         <v>878</v>
       </c>
       <c r="K723" t="n">
-        <v>52.94117647058824</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L723" t="n">
         <v>382.2</v>
@@ -37152,7 +37174,7 @@
         <v>879</v>
       </c>
       <c r="K724" t="n">
-        <v>55.55555555555556</v>
+        <v>69.23076923076923</v>
       </c>
       <c r="L724" t="n">
         <v>383.1</v>
@@ -37203,7 +37225,7 @@
         <v>879</v>
       </c>
       <c r="K725" t="n">
-        <v>55.55555555555556</v>
+        <v>69.23076923076923</v>
       </c>
       <c r="L725" t="n">
         <v>384</v>
@@ -37254,7 +37276,7 @@
         <v>879</v>
       </c>
       <c r="K726" t="n">
-        <v>75</v>
+        <v>63.63636363636363</v>
       </c>
       <c r="L726" t="n">
         <v>384.9</v>
@@ -37305,7 +37327,7 @@
         <v>880</v>
       </c>
       <c r="K727" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="L727" t="n">
         <v>385.7</v>
@@ -37356,7 +37378,7 @@
         <v>881</v>
       </c>
       <c r="K728" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="L728" t="n">
         <v>386.8</v>
@@ -37407,7 +37429,7 @@
         <v>882</v>
       </c>
       <c r="K729" t="n">
-        <v>62.5</v>
+        <v>80</v>
       </c>
       <c r="L729" t="n">
         <v>387.8</v>
@@ -37458,7 +37480,7 @@
         <v>882</v>
       </c>
       <c r="K730" t="n">
-        <v>62.5</v>
+        <v>75</v>
       </c>
       <c r="L730" t="n">
         <v>388.6</v>
@@ -37509,7 +37531,7 @@
         <v>882</v>
       </c>
       <c r="K731" t="n">
-        <v>62.5</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L731" t="n">
         <v>389.2</v>
@@ -37560,7 +37582,7 @@
         <v>883</v>
       </c>
       <c r="K732" t="n">
-        <v>64.70588235294117</v>
+        <v>60</v>
       </c>
       <c r="L732" t="n">
         <v>389.7</v>
@@ -37611,7 +37633,7 @@
         <v>884</v>
       </c>
       <c r="K733" t="n">
-        <v>55.55555555555556</v>
+        <v>20</v>
       </c>
       <c r="L733" t="n">
         <v>389.9</v>
@@ -37662,7 +37684,7 @@
         <v>884</v>
       </c>
       <c r="K734" t="n">
-        <v>55.55555555555556</v>
+        <v>20</v>
       </c>
       <c r="L734" t="n">
         <v>390</v>
@@ -37713,7 +37735,7 @@
         <v>887</v>
       </c>
       <c r="K735" t="n">
-        <v>33.33333333333333</v>
+        <v>-25</v>
       </c>
       <c r="L735" t="n">
         <v>389.8</v>
@@ -37764,7 +37786,7 @@
         <v>890</v>
       </c>
       <c r="K736" t="n">
-        <v>41.66666666666667</v>
+        <v>0</v>
       </c>
       <c r="L736" t="n">
         <v>389.9</v>
@@ -37815,7 +37837,7 @@
         <v>892</v>
       </c>
       <c r="K737" t="n">
-        <v>25</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L737" t="n">
         <v>389.7</v>
@@ -37866,7 +37888,7 @@
         <v>893</v>
       </c>
       <c r="K738" t="n">
-        <v>39.1304347826087</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L738" t="n">
         <v>389.5</v>
@@ -37917,7 +37939,7 @@
         <v>893</v>
       </c>
       <c r="K739" t="n">
-        <v>39.1304347826087</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L739" t="n">
         <v>389.4</v>
@@ -37968,7 +37990,7 @@
         <v>893</v>
       </c>
       <c r="K740" t="n">
-        <v>33.33333333333333</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L740" t="n">
         <v>389.3</v>
@@ -38019,7 +38041,7 @@
         <v>894</v>
       </c>
       <c r="K741" t="n">
-        <v>30</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L741" t="n">
         <v>389.3</v>
@@ -38070,7 +38092,7 @@
         <v>894</v>
       </c>
       <c r="K742" t="n">
-        <v>22.22222222222222</v>
+        <v>0</v>
       </c>
       <c r="L742" t="n">
         <v>389.2</v>
@@ -38121,7 +38143,7 @@
         <v>896</v>
       </c>
       <c r="K743" t="n">
-        <v>22.22222222222222</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L743" t="n">
         <v>389.4</v>
@@ -38172,7 +38194,7 @@
         <v>896</v>
       </c>
       <c r="K744" t="n">
-        <v>17.64705882352941</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L744" t="n">
         <v>389.6</v>
@@ -38223,7 +38245,7 @@
         <v>897</v>
       </c>
       <c r="K745" t="n">
-        <v>11.11111111111111</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L745" t="n">
         <v>390</v>
@@ -38274,7 +38296,7 @@
         <v>898</v>
       </c>
       <c r="K746" t="n">
-        <v>15.78947368421053</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L746" t="n">
         <v>390.2</v>
@@ -38325,7 +38347,7 @@
         <v>899</v>
       </c>
       <c r="K747" t="n">
-        <v>15.78947368421053</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L747" t="n">
         <v>390.7</v>
@@ -38376,7 +38398,7 @@
         <v>900</v>
       </c>
       <c r="K748" t="n">
-        <v>5.263157894736842</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L748" t="n">
         <v>391</v>
@@ -38427,7 +38449,7 @@
         <v>901</v>
       </c>
       <c r="K749" t="n">
-        <v>5.263157894736842</v>
+        <v>25</v>
       </c>
       <c r="L749" t="n">
         <v>391.2</v>
@@ -38478,7 +38500,7 @@
         <v>903</v>
       </c>
       <c r="K750" t="n">
-        <v>-4.761904761904762</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L750" t="n">
         <v>391.2</v>
@@ -38580,7 +38602,7 @@
         <v>906</v>
       </c>
       <c r="K752" t="n">
-        <v>4.347826086956522</v>
+        <v>0</v>
       </c>
       <c r="L752" t="n">
         <v>391.4</v>
@@ -38631,7 +38653,7 @@
         <v>907</v>
       </c>
       <c r="K753" t="n">
-        <v>13.04347826086956</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L753" t="n">
         <v>391.5</v>
@@ -38682,7 +38704,7 @@
         <v>907</v>
       </c>
       <c r="K754" t="n">
-        <v>13.04347826086956</v>
+        <v>20</v>
       </c>
       <c r="L754" t="n">
         <v>391.6</v>
@@ -38733,7 +38755,7 @@
         <v>907</v>
       </c>
       <c r="K755" t="n">
-        <v>30</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L755" t="n">
         <v>391.8</v>
@@ -38784,7 +38806,7 @@
         <v>908</v>
       </c>
       <c r="K756" t="n">
-        <v>11.11111111111111</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L756" t="n">
         <v>391.8</v>
@@ -38835,7 +38857,7 @@
         <v>909</v>
       </c>
       <c r="K757" t="n">
-        <v>17.64705882352941</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L757" t="n">
         <v>391.6</v>
@@ -38886,7 +38908,7 @@
         <v>909</v>
       </c>
       <c r="K758" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="L758" t="n">
         <v>391.5</v>
@@ -38937,7 +38959,7 @@
         <v>909</v>
       </c>
       <c r="K759" t="n">
-        <v>12.5</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L759" t="n">
         <v>391.5</v>
@@ -38988,7 +39010,7 @@
         <v>909</v>
       </c>
       <c r="K760" t="n">
-        <v>12.5</v>
+        <v>20</v>
       </c>
       <c r="L760" t="n">
         <v>391.7</v>
@@ -39039,7 +39061,7 @@
         <v>910</v>
       </c>
       <c r="K761" t="n">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="L761" t="n">
         <v>391.7</v>
@@ -39090,7 +39112,7 @@
         <v>911</v>
       </c>
       <c r="K762" t="n">
-        <v>-5.88235294117647</v>
+        <v>-100</v>
       </c>
       <c r="L762" t="n">
         <v>391.4</v>
@@ -39141,7 +39163,7 @@
         <v>912</v>
       </c>
       <c r="K763" t="n">
-        <v>-12.5</v>
+        <v>-60</v>
       </c>
       <c r="L763" t="n">
         <v>391.1</v>
@@ -39192,7 +39214,7 @@
         <v>913</v>
       </c>
       <c r="K764" t="n">
-        <v>-5.88235294117647</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L764" t="n">
         <v>390.9</v>
@@ -39243,7 +39265,7 @@
         <v>913</v>
       </c>
       <c r="K765" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L765" t="n">
         <v>390.7</v>
@@ -39294,7 +39316,7 @@
         <v>917</v>
       </c>
       <c r="K766" t="n">
-        <v>-26.31578947368421</v>
+        <v>-50</v>
       </c>
       <c r="L766" t="n">
         <v>390.2</v>
@@ -39345,7 +39367,7 @@
         <v>917</v>
       </c>
       <c r="K767" t="n">
-        <v>-33.33333333333333</v>
+        <v>-50</v>
       </c>
       <c r="L767" t="n">
         <v>389.8</v>
@@ -39396,7 +39418,7 @@
         <v>918</v>
       </c>
       <c r="K768" t="n">
-        <v>-22.22222222222222</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L768" t="n">
         <v>389.5</v>
@@ -39447,7 +39469,7 @@
         <v>920</v>
       </c>
       <c r="K769" t="n">
-        <v>-5.263157894736842</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L769" t="n">
         <v>389.4</v>
@@ -39498,7 +39520,7 @@
         <v>922</v>
       </c>
       <c r="K770" t="n">
-        <v>15.78947368421053</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L770" t="n">
         <v>389.5</v>
@@ -39549,7 +39571,7 @@
         <v>926</v>
       </c>
       <c r="K771" t="n">
-        <v>-9.090909090909092</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L771" t="n">
         <v>389.3</v>
@@ -39600,7 +39622,7 @@
         <v>930</v>
       </c>
       <c r="K772" t="n">
-        <v>0</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L772" t="n">
         <v>389.6</v>
@@ -39651,7 +39673,7 @@
         <v>931</v>
       </c>
       <c r="K773" t="n">
-        <v>0</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L773" t="n">
         <v>389.9</v>
@@ -39702,7 +39724,7 @@
         <v>934</v>
       </c>
       <c r="K774" t="n">
-        <v>-11.11111111111111</v>
+        <v>-4.761904761904762</v>
       </c>
       <c r="L774" t="n">
         <v>389.8</v>
@@ -39753,7 +39775,7 @@
         <v>937</v>
       </c>
       <c r="K775" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L775" t="n">
         <v>390</v>
@@ -39804,7 +39826,7 @@
         <v>937</v>
       </c>
       <c r="K776" t="n">
-        <v>3.448275862068965</v>
+        <v>30</v>
       </c>
       <c r="L776" t="n">
         <v>390.6</v>
@@ -39855,7 +39877,7 @@
         <v>939</v>
       </c>
       <c r="K777" t="n">
-        <v>0</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L777" t="n">
         <v>391</v>
@@ -39906,7 +39928,7 @@
         <v>940</v>
       </c>
       <c r="K778" t="n">
-        <v>3.225806451612903</v>
+        <v>10</v>
       </c>
       <c r="L778" t="n">
         <v>391.4</v>
@@ -39957,7 +39979,7 @@
         <v>941</v>
       </c>
       <c r="K779" t="n">
-        <v>6.25</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="L779" t="n">
         <v>391.7</v>
@@ -40008,7 +40030,7 @@
         <v>942</v>
       </c>
       <c r="K780" t="n">
-        <v>9.090909090909092</v>
+        <v>37.5</v>
       </c>
       <c r="L780" t="n">
         <v>391.9</v>
@@ -40059,7 +40081,7 @@
         <v>942</v>
       </c>
       <c r="K781" t="n">
-        <v>12.5</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L781" t="n">
         <v>392.5</v>
@@ -40110,7 +40132,7 @@
         <v>943</v>
       </c>
       <c r="K782" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="L782" t="n">
         <v>392.6</v>
@@ -40161,7 +40183,7 @@
         <v>943</v>
       </c>
       <c r="K783" t="n">
-        <v>9.67741935483871</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L783" t="n">
         <v>392.6</v>
@@ -40212,7 +40234,7 @@
         <v>944</v>
       </c>
       <c r="K784" t="n">
-        <v>9.67741935483871</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L784" t="n">
         <v>393</v>
@@ -40263,7 +40285,7 @@
         <v>945</v>
       </c>
       <c r="K785" t="n">
-        <v>12.5</v>
+        <v>25</v>
       </c>
       <c r="L785" t="n">
         <v>393.2</v>
@@ -40314,7 +40336,7 @@
         <v>946</v>
       </c>
       <c r="K786" t="n">
-        <v>24.13793103448276</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L786" t="n">
         <v>393.3</v>
@@ -40365,7 +40387,7 @@
         <v>946</v>
       </c>
       <c r="K787" t="n">
-        <v>24.13793103448276</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L787" t="n">
         <v>393.6</v>
@@ -40416,7 +40438,7 @@
         <v>947</v>
       </c>
       <c r="K788" t="n">
-        <v>24.13793103448276</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L788" t="n">
         <v>393.9</v>
@@ -40467,7 +40489,7 @@
         <v>949</v>
       </c>
       <c r="K789" t="n">
-        <v>10.3448275862069</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L789" t="n">
         <v>393.9</v>
@@ -40518,7 +40540,7 @@
         <v>950</v>
       </c>
       <c r="K790" t="n">
-        <v>7.142857142857142</v>
+        <v>0</v>
       </c>
       <c r="L790" t="n">
         <v>393.9</v>
@@ -40569,7 +40591,7 @@
         <v>950</v>
       </c>
       <c r="K791" t="n">
-        <v>25</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L791" t="n">
         <v>393.9</v>
@@ -40620,7 +40642,7 @@
         <v>951</v>
       </c>
       <c r="K792" t="n">
-        <v>14.28571428571428</v>
+        <v>25</v>
       </c>
       <c r="L792" t="n">
         <v>394.1</v>
@@ -40671,7 +40693,7 @@
         <v>952</v>
       </c>
       <c r="K793" t="n">
-        <v>4.761904761904762</v>
+        <v>0</v>
       </c>
       <c r="L793" t="n">
         <v>394.2</v>
@@ -40722,7 +40744,7 @@
         <v>952</v>
       </c>
       <c r="K794" t="n">
-        <v>22.22222222222222</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L794" t="n">
         <v>394.2</v>
@@ -40773,7 +40795,7 @@
         <v>953</v>
       </c>
       <c r="K795" t="n">
-        <v>0</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L795" t="n">
         <v>394</v>
@@ -40824,7 +40846,7 @@
         <v>953</v>
       </c>
       <c r="K796" t="n">
-        <v>0</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L796" t="n">
         <v>393.9</v>
@@ -40875,7 +40897,7 @@
         <v>953</v>
       </c>
       <c r="K797" t="n">
-        <v>14.28571428571428</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L797" t="n">
         <v>393.8</v>
@@ -40926,7 +40948,7 @@
         <v>953</v>
       </c>
       <c r="K798" t="n">
-        <v>7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L798" t="n">
         <v>393.6</v>
@@ -40977,7 +40999,7 @@
         <v>954</v>
       </c>
       <c r="K799" t="n">
-        <v>7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L799" t="n">
         <v>393.7</v>
@@ -41028,7 +41050,7 @@
         <v>955</v>
       </c>
       <c r="K800" t="n">
-        <v>-7.692307692307693</v>
+        <v>-20</v>
       </c>
       <c r="L800" t="n">
         <v>393.6</v>
@@ -41079,7 +41101,7 @@
         <v>955</v>
       </c>
       <c r="K801" t="n">
-        <v>-7.692307692307693</v>
+        <v>-50</v>
       </c>
       <c r="L801" t="n">
         <v>393.5</v>
@@ -41130,7 +41152,7 @@
         <v>956</v>
       </c>
       <c r="K802" t="n">
-        <v>7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L802" t="n">
         <v>393.4</v>
@@ -41181,7 +41203,7 @@
         <v>958</v>
       </c>
       <c r="K803" t="n">
-        <v>20</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L803" t="n">
         <v>393.6</v>
@@ -41232,7 +41254,7 @@
         <v>959</v>
       </c>
       <c r="K804" t="n">
-        <v>6.666666666666667</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L804" t="n">
         <v>393.7</v>
@@ -41283,7 +41305,7 @@
         <v>960</v>
       </c>
       <c r="K805" t="n">
-        <v>-6.666666666666667</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L805" t="n">
         <v>393.8</v>
@@ -41334,7 +41356,7 @@
         <v>961</v>
       </c>
       <c r="K806" t="n">
-        <v>6.666666666666667</v>
+        <v>25</v>
       </c>
       <c r="L806" t="n">
         <v>394</v>
@@ -41385,7 +41407,7 @@
         <v>962</v>
       </c>
       <c r="K807" t="n">
-        <v>12.5</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L807" t="n">
         <v>394.3</v>
@@ -41436,7 +41458,7 @@
         <v>963</v>
       </c>
       <c r="K808" t="n">
-        <v>12.5</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L808" t="n">
         <v>394.7</v>
@@ -41487,7 +41509,7 @@
         <v>963</v>
       </c>
       <c r="K809" t="n">
-        <v>28.57142857142857</v>
+        <v>50</v>
       </c>
       <c r="L809" t="n">
         <v>395</v>
@@ -41538,7 +41560,7 @@
         <v>963</v>
       </c>
       <c r="K810" t="n">
-        <v>23.07692307692308</v>
+        <v>50</v>
       </c>
       <c r="L810" t="n">
         <v>395.4</v>
@@ -41589,7 +41611,7 @@
         <v>964</v>
       </c>
       <c r="K811" t="n">
-        <v>14.28571428571428</v>
+        <v>25</v>
       </c>
       <c r="L811" t="n">
         <v>395.7</v>
@@ -41640,7 +41662,7 @@
         <v>966</v>
       </c>
       <c r="K812" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="L812" t="n">
         <v>396.1</v>
@@ -41691,7 +41713,7 @@
         <v>966</v>
       </c>
       <c r="K813" t="n">
-        <v>28.57142857142857</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L813" t="n">
         <v>396.3</v>
@@ -41742,7 +41764,7 @@
         <v>971</v>
       </c>
       <c r="K814" t="n">
-        <v>47.36842105263158</v>
+        <v>81.81818181818183</v>
       </c>
       <c r="L814" t="n">
         <v>397.1</v>
@@ -41793,7 +41815,7 @@
         <v>972</v>
       </c>
       <c r="K815" t="n">
-        <v>47.36842105263158</v>
+        <v>63.63636363636363</v>
       </c>
       <c r="L815" t="n">
         <v>397.9</v>
@@ -41844,7 +41866,7 @@
         <v>972</v>
       </c>
       <c r="K816" t="n">
-        <v>47.36842105263158</v>
+        <v>60</v>
       </c>
       <c r="L816" t="n">
         <v>398.6</v>
@@ -41895,7 +41917,7 @@
         <v>974</v>
       </c>
       <c r="K817" t="n">
-        <v>52.38095238095239</v>
+        <v>63.63636363636363</v>
       </c>
       <c r="L817" t="n">
         <v>399.4</v>
@@ -41946,7 +41968,7 @@
         <v>975</v>
       </c>
       <c r="K818" t="n">
-        <v>45.45454545454545</v>
+        <v>50</v>
       </c>
       <c r="L818" t="n">
         <v>400</v>
@@ -41997,7 +42019,7 @@
         <v>976</v>
       </c>
       <c r="K819" t="n">
-        <v>45.45454545454545</v>
+        <v>53.84615384615385</v>
       </c>
       <c r="L819" t="n">
         <v>400.7</v>
@@ -42048,7 +42070,7 @@
         <v>977</v>
       </c>
       <c r="K820" t="n">
-        <v>45.45454545454545</v>
+        <v>53.84615384615385</v>
       </c>
       <c r="L820" t="n">
         <v>401.3</v>
@@ -42099,7 +42121,7 @@
         <v>979</v>
       </c>
       <c r="K821" t="n">
-        <v>50</v>
+        <v>53.84615384615385</v>
       </c>
       <c r="L821" t="n">
         <v>402.2</v>
@@ -42150,7 +42172,7 @@
         <v>980</v>
       </c>
       <c r="K822" t="n">
-        <v>41.66666666666667</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L822" t="n">
         <v>402.8</v>
@@ -42201,7 +42223,7 @@
         <v>980</v>
       </c>
       <c r="K823" t="n">
-        <v>36.36363636363637</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L823" t="n">
         <v>403.4</v>
@@ -42252,7 +42274,7 @@
         <v>983</v>
       </c>
       <c r="K824" t="n">
-        <v>25</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L824" t="n">
         <v>403.2</v>
@@ -42303,7 +42325,7 @@
         <v>983</v>
       </c>
       <c r="K825" t="n">
-        <v>30.43478260869566</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L825" t="n">
         <v>403.1</v>
@@ -42354,7 +42376,7 @@
         <v>985</v>
       </c>
       <c r="K826" t="n">
-        <v>16.66666666666666</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L826" t="n">
         <v>402.8</v>
@@ -42405,7 +42427,7 @@
         <v>985</v>
       </c>
       <c r="K827" t="n">
-        <v>13.04347826086956</v>
+        <v>-40</v>
       </c>
       <c r="L827" t="n">
         <v>402.3</v>
@@ -42456,7 +42478,7 @@
         <v>987</v>
       </c>
       <c r="K828" t="n">
-        <v>16.66666666666666</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L828" t="n">
         <v>402.1</v>
@@ -42507,7 +42529,7 @@
         <v>989</v>
       </c>
       <c r="K829" t="n">
-        <v>23.07692307692308</v>
+        <v>0</v>
       </c>
       <c r="L829" t="n">
         <v>402</v>
@@ -42558,7 +42580,7 @@
         <v>989</v>
       </c>
       <c r="K830" t="n">
-        <v>23.07692307692308</v>
+        <v>-20</v>
       </c>
       <c r="L830" t="n">
         <v>402</v>
@@ -42609,7 +42631,7 @@
         <v>989</v>
       </c>
       <c r="K831" t="n">
-        <v>28</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L831" t="n">
         <v>401.8</v>
@@ -42660,7 +42682,7 @@
         <v>990</v>
       </c>
       <c r="K832" t="n">
-        <v>16.66666666666666</v>
+        <v>-20</v>
       </c>
       <c r="L832" t="n">
         <v>401.6</v>
@@ -42711,7 +42733,7 @@
         <v>992</v>
       </c>
       <c r="K833" t="n">
-        <v>23.07692307692308</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L833" t="n">
         <v>401.6</v>
@@ -42762,7 +42784,7 @@
         <v>992</v>
       </c>
       <c r="K834" t="n">
-        <v>4.761904761904762</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L834" t="n">
         <v>401.9</v>
@@ -42813,7 +42835,7 @@
         <v>993</v>
       </c>
       <c r="K835" t="n">
-        <v>4.761904761904762</v>
+        <v>50</v>
       </c>
       <c r="L835" t="n">
         <v>402.1</v>
@@ -42864,7 +42886,7 @@
         <v>993</v>
       </c>
       <c r="K836" t="n">
-        <v>4.761904761904762</v>
+        <v>50</v>
       </c>
       <c r="L836" t="n">
         <v>402.5</v>
@@ -42915,7 +42937,7 @@
         <v>993</v>
       </c>
       <c r="K837" t="n">
-        <v>-5.263157894736842</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L837" t="n">
         <v>402.9</v>
@@ -43017,7 +43039,7 @@
         <v>993</v>
       </c>
       <c r="K839" t="n">
-        <v>-5.88235294117647</v>
+        <v>0</v>
       </c>
       <c r="L839" t="n">
         <v>403.1</v>
@@ -43119,7 +43141,7 @@
         <v>995</v>
       </c>
       <c r="K841" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="L841" t="n">
         <v>403.3</v>
@@ -43170,7 +43192,7 @@
         <v>995</v>
       </c>
       <c r="K842" t="n">
-        <v>6.666666666666667</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L842" t="n">
         <v>403.6</v>
@@ -43221,7 +43243,7 @@
         <v>996</v>
       </c>
       <c r="K843" t="n">
-        <v>12.5</v>
+        <v>50</v>
       </c>
       <c r="L843" t="n">
         <v>403.8</v>
@@ -43272,7 +43294,7 @@
         <v>997</v>
       </c>
       <c r="K844" t="n">
-        <v>42.85714285714285</v>
+        <v>100</v>
       </c>
       <c r="L844" t="n">
         <v>404.1</v>
@@ -43323,7 +43345,7 @@
         <v>998</v>
       </c>
       <c r="K845" t="n">
-        <v>46.66666666666666</v>
+        <v>100</v>
       </c>
       <c r="L845" t="n">
         <v>404.6</v>
@@ -43374,7 +43396,7 @@
         <v>998</v>
       </c>
       <c r="K846" t="n">
-        <v>69.23076923076923</v>
+        <v>100</v>
       </c>
       <c r="L846" t="n">
         <v>405.1</v>
@@ -43425,7 +43447,7 @@
         <v>999</v>
       </c>
       <c r="K847" t="n">
-        <v>57.14285714285714</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L847" t="n">
         <v>405.5</v>
@@ -43476,7 +43498,7 @@
         <v>1000</v>
       </c>
       <c r="K848" t="n">
-        <v>53.84615384615385</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L848" t="n">
         <v>406</v>
@@ -43527,7 +43549,7 @@
         <v>1002</v>
       </c>
       <c r="K849" t="n">
-        <v>23.07692307692308</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L849" t="n">
         <v>406.3</v>
@@ -43629,7 +43651,7 @@
         <v>1005</v>
       </c>
       <c r="K851" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="L851" t="n">
         <v>407</v>
@@ -43680,7 +43702,7 @@
         <v>1006</v>
       </c>
       <c r="K852" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="L852" t="n">
         <v>407.1</v>
@@ -43731,7 +43753,7 @@
         <v>1007</v>
       </c>
       <c r="K853" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L853" t="n">
         <v>407.2</v>
@@ -43782,7 +43804,7 @@
         <v>1009</v>
       </c>
       <c r="K854" t="n">
-        <v>29.41176470588236</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L854" t="n">
         <v>407.4</v>
@@ -43833,7 +43855,7 @@
         <v>1011</v>
       </c>
       <c r="K855" t="n">
-        <v>22.22222222222222</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L855" t="n">
         <v>407.3</v>
@@ -43884,7 +43906,7 @@
         <v>1012</v>
       </c>
       <c r="K856" t="n">
-        <v>15.78947368421053</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L856" t="n">
         <v>407.1</v>
@@ -43935,7 +43957,7 @@
         <v>1013</v>
       </c>
       <c r="K857" t="n">
-        <v>20</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L857" t="n">
         <v>407.1</v>
@@ -43986,7 +44008,7 @@
         <v>1014</v>
       </c>
       <c r="K858" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L858" t="n">
         <v>406.9</v>
@@ -44037,7 +44059,7 @@
         <v>1015</v>
       </c>
       <c r="K859" t="n">
-        <v>9.090909090909092</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L859" t="n">
         <v>406.8</v>
@@ -44088,7 +44110,7 @@
         <v>1016</v>
       </c>
       <c r="K860" t="n">
-        <v>4.347826086956522</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L860" t="n">
         <v>406.4</v>
@@ -44139,7 +44161,7 @@
         <v>1020</v>
       </c>
       <c r="K861" t="n">
-        <v>-20</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L861" t="n">
         <v>405.7</v>
@@ -44190,7 +44212,7 @@
         <v>1022</v>
       </c>
       <c r="K862" t="n">
-        <v>-11.11111111111111</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L862" t="n">
         <v>405.3</v>
@@ -44241,7 +44263,7 @@
         <v>1022</v>
       </c>
       <c r="K863" t="n">
-        <v>-15.38461538461539</v>
+        <v>-53.84615384615385</v>
       </c>
       <c r="L863" t="n">
         <v>404.8</v>
@@ -44292,7 +44314,7 @@
         <v>1025</v>
       </c>
       <c r="K864" t="n">
-        <v>-7.142857142857142</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L864" t="n">
         <v>404.4</v>
@@ -44343,7 +44365,7 @@
         <v>1025</v>
       </c>
       <c r="K865" t="n">
-        <v>-11.11111111111111</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L865" t="n">
         <v>404.2</v>
@@ -44394,7 +44416,7 @@
         <v>1026</v>
       </c>
       <c r="K866" t="n">
-        <v>-14.28571428571428</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L866" t="n">
         <v>404</v>
@@ -44445,7 +44467,7 @@
         <v>1027</v>
       </c>
       <c r="K867" t="n">
-        <v>-14.28571428571428</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L867" t="n">
         <v>403.6</v>
@@ -44496,7 +44518,7 @@
         <v>1028</v>
       </c>
       <c r="K868" t="n">
-        <v>-21.42857142857143</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L868" t="n">
         <v>403.2</v>
@@ -44547,7 +44569,7 @@
         <v>1028</v>
       </c>
       <c r="K869" t="n">
-        <v>-15.38461538461539</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L869" t="n">
         <v>402.9</v>
@@ -44598,7 +44620,7 @@
         <v>1028</v>
       </c>
       <c r="K870" t="n">
-        <v>-25</v>
+        <v>25</v>
       </c>
       <c r="L870" t="n">
         <v>402.7</v>
@@ -44649,7 +44671,7 @@
         <v>1028</v>
       </c>
       <c r="K871" t="n">
-        <v>-21.73913043478261</v>
+        <v>0</v>
       </c>
       <c r="L871" t="n">
         <v>402.9</v>
@@ -44751,7 +44773,7 @@
         <v>1032</v>
       </c>
       <c r="K873" t="n">
-        <v>-36</v>
+        <v>-100</v>
       </c>
       <c r="L873" t="n">
         <v>402.3</v>
@@ -44802,7 +44824,7 @@
         <v>1032</v>
       </c>
       <c r="K874" t="n">
-        <v>-47.82608695652174</v>
+        <v>-100</v>
       </c>
       <c r="L874" t="n">
         <v>401.6</v>
@@ -44853,7 +44875,7 @@
         <v>1036</v>
       </c>
       <c r="K875" t="n">
-        <v>-52</v>
+        <v>-100</v>
       </c>
       <c r="L875" t="n">
         <v>400.5</v>
@@ -44904,7 +44926,7 @@
         <v>1037</v>
       </c>
       <c r="K876" t="n">
-        <v>-44</v>
+        <v>-80</v>
       </c>
       <c r="L876" t="n">
         <v>399.6</v>
@@ -44955,7 +44977,7 @@
         <v>1038</v>
       </c>
       <c r="K877" t="n">
-        <v>-44</v>
+        <v>-60</v>
       </c>
       <c r="L877" t="n">
         <v>398.9</v>
@@ -45006,7 +45028,7 @@
         <v>1041</v>
       </c>
       <c r="K878" t="n">
-        <v>-25.92592592592592</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L878" t="n">
         <v>398.6</v>
@@ -45057,7 +45079,7 @@
         <v>1048</v>
       </c>
       <c r="K879" t="n">
-        <v>-39.39393939393939</v>
+        <v>-50</v>
       </c>
       <c r="L879" t="n">
         <v>397.6</v>
@@ -45108,7 +45130,7 @@
         <v>1055</v>
       </c>
       <c r="K880" t="n">
-        <v>-12.82051282051282</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L880" t="n">
         <v>397.3</v>
@@ -45159,7 +45181,7 @@
         <v>1057</v>
       </c>
       <c r="K881" t="n">
-        <v>-8.108108108108109</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L881" t="n">
         <v>396.8</v>
@@ -45210,7 +45232,7 @@
         <v>1057</v>
       </c>
       <c r="K882" t="n">
-        <v>-14.28571428571428</v>
+        <v>-4</v>
       </c>
       <c r="L882" t="n">
         <v>396.5</v>
@@ -45261,7 +45283,7 @@
         <v>1057</v>
       </c>
       <c r="K883" t="n">
-        <v>-14.28571428571428</v>
+        <v>-4</v>
       </c>
       <c r="L883" t="n">
         <v>396.4</v>
@@ -45312,7 +45334,7 @@
         <v>1059</v>
       </c>
       <c r="K884" t="n">
-        <v>-17.64705882352941</v>
+        <v>21.73913043478261</v>
       </c>
       <c r="L884" t="n">
         <v>396.5</v>
@@ -45363,7 +45385,7 @@
         <v>1059</v>
       </c>
       <c r="K885" t="n">
-        <v>-17.64705882352941</v>
+        <v>18.18181818181818</v>
       </c>
       <c r="L885" t="n">
         <v>397</v>
@@ -45414,7 +45436,7 @@
         <v>1059</v>
       </c>
       <c r="K886" t="n">
-        <v>-15.15151515151515</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L886" t="n">
         <v>397.4</v>
@@ -45465,7 +45487,7 @@
         <v>1063</v>
       </c>
       <c r="K887" t="n">
-        <v>0</v>
+        <v>18.18181818181818</v>
       </c>
       <c r="L887" t="n">
         <v>398.1</v>

--- a/BackTest/2019-10-15 BackTest ZRX.xlsx
+++ b/BackTest/2019-10-15 BackTest ZRX.xlsx
@@ -766,348 +766,304 @@
         <v>373.7166666666666</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>367</v>
+      </c>
+      <c r="C12" t="n">
         <v>368</v>
       </c>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
+      <c r="D12" t="n">
+        <v>368</v>
+      </c>
+      <c r="E12" t="n">
+        <v>367</v>
+      </c>
+      <c r="F12" t="n">
+        <v>930.8179</v>
+      </c>
+      <c r="G12" t="n">
+        <v>373.5</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>368</v>
+      </c>
+      <c r="C13" t="n">
+        <v>368</v>
+      </c>
+      <c r="D13" t="n">
+        <v>368</v>
+      </c>
+      <c r="E13" t="n">
+        <v>367</v>
+      </c>
+      <c r="F13" t="n">
+        <v>2787.8179</v>
+      </c>
+      <c r="G13" t="n">
+        <v>373.3</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>367</v>
+      </c>
+      <c r="C14" t="n">
+        <v>367</v>
+      </c>
+      <c r="D14" t="n">
+        <v>368</v>
+      </c>
+      <c r="E14" t="n">
+        <v>367</v>
+      </c>
+      <c r="F14" t="n">
+        <v>3033.6152</v>
+      </c>
+      <c r="G14" t="n">
+        <v>373.1333333333333</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>368</v>
+      </c>
+      <c r="C15" t="n">
+        <v>368</v>
+      </c>
+      <c r="D15" t="n">
+        <v>368</v>
+      </c>
+      <c r="E15" t="n">
+        <v>366</v>
+      </c>
+      <c r="F15" t="n">
+        <v>7362.91</v>
+      </c>
+      <c r="G15" t="n">
+        <v>372.9833333333333</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>367</v>
+      </c>
+      <c r="C16" t="n">
+        <v>367</v>
+      </c>
+      <c r="D16" t="n">
+        <v>368</v>
+      </c>
+      <c r="E16" t="n">
+        <v>367</v>
+      </c>
+      <c r="F16" t="n">
+        <v>185</v>
+      </c>
+      <c r="G16" t="n">
+        <v>372.8166666666667</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>367</v>
+      </c>
+      <c r="C17" t="n">
+        <v>366</v>
+      </c>
+      <c r="D17" t="n">
+        <v>368</v>
+      </c>
+      <c r="E17" t="n">
+        <v>366</v>
+      </c>
+      <c r="F17" t="n">
+        <v>4927.2197</v>
+      </c>
+      <c r="G17" t="n">
+        <v>372.6333333333333</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>367</v>
+      </c>
+      <c r="C18" t="n">
+        <v>367</v>
+      </c>
+      <c r="D18" t="n">
+        <v>367</v>
+      </c>
+      <c r="E18" t="n">
+        <v>367</v>
+      </c>
+      <c r="F18" t="n">
+        <v>503</v>
+      </c>
+      <c r="G18" t="n">
+        <v>372.4666666666666</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>366</v>
+      </c>
+      <c r="K18" t="n">
+        <v>366</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>367</v>
+      </c>
+      <c r="C19" t="n">
+        <v>366</v>
+      </c>
+      <c r="D19" t="n">
+        <v>367</v>
+      </c>
+      <c r="E19" t="n">
+        <v>366</v>
+      </c>
+      <c r="F19" t="n">
+        <v>6868.3715</v>
+      </c>
+      <c r="G19" t="n">
+        <v>372.3</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>366</v>
+      </c>
+      <c r="L19" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>367</v>
-      </c>
-      <c r="C12" t="n">
-        <v>368</v>
-      </c>
-      <c r="D12" t="n">
-        <v>368</v>
-      </c>
-      <c r="E12" t="n">
-        <v>367</v>
-      </c>
-      <c r="F12" t="n">
-        <v>930.8179</v>
-      </c>
-      <c r="G12" t="n">
-        <v>373.5</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>367</v>
-      </c>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>368</v>
-      </c>
-      <c r="C13" t="n">
-        <v>368</v>
-      </c>
-      <c r="D13" t="n">
-        <v>368</v>
-      </c>
-      <c r="E13" t="n">
-        <v>367</v>
-      </c>
-      <c r="F13" t="n">
-        <v>2787.8179</v>
-      </c>
-      <c r="G13" t="n">
-        <v>373.3</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>368</v>
-      </c>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>367</v>
-      </c>
-      <c r="C14" t="n">
-        <v>367</v>
-      </c>
-      <c r="D14" t="n">
-        <v>368</v>
-      </c>
-      <c r="E14" t="n">
-        <v>367</v>
-      </c>
-      <c r="F14" t="n">
-        <v>3033.6152</v>
-      </c>
-      <c r="G14" t="n">
-        <v>373.1333333333333</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>367</v>
-      </c>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>368</v>
-      </c>
-      <c r="C15" t="n">
-        <v>368</v>
-      </c>
-      <c r="D15" t="n">
-        <v>368</v>
-      </c>
-      <c r="E15" t="n">
-        <v>366</v>
-      </c>
-      <c r="F15" t="n">
-        <v>7362.91</v>
-      </c>
-      <c r="G15" t="n">
-        <v>372.9833333333333</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>368</v>
-      </c>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>367</v>
-      </c>
-      <c r="C16" t="n">
-        <v>367</v>
-      </c>
-      <c r="D16" t="n">
-        <v>368</v>
-      </c>
-      <c r="E16" t="n">
-        <v>367</v>
-      </c>
-      <c r="F16" t="n">
-        <v>185</v>
-      </c>
-      <c r="G16" t="n">
-        <v>372.8166666666667</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>367</v>
-      </c>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>367</v>
-      </c>
-      <c r="C17" t="n">
-        <v>366</v>
-      </c>
-      <c r="D17" t="n">
-        <v>368</v>
-      </c>
-      <c r="E17" t="n">
-        <v>366</v>
-      </c>
-      <c r="F17" t="n">
-        <v>4927.2197</v>
-      </c>
-      <c r="G17" t="n">
-        <v>372.6333333333333</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>367</v>
-      </c>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>367</v>
-      </c>
-      <c r="C18" t="n">
-        <v>367</v>
-      </c>
-      <c r="D18" t="n">
-        <v>367</v>
-      </c>
-      <c r="E18" t="n">
-        <v>367</v>
-      </c>
-      <c r="F18" t="n">
-        <v>503</v>
-      </c>
-      <c r="G18" t="n">
-        <v>372.4666666666666</v>
-      </c>
-      <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>367</v>
-      </c>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>367</v>
-      </c>
-      <c r="C19" t="n">
-        <v>366</v>
-      </c>
-      <c r="D19" t="n">
-        <v>367</v>
-      </c>
-      <c r="E19" t="n">
-        <v>366</v>
-      </c>
-      <c r="F19" t="n">
-        <v>6868.3715</v>
-      </c>
-      <c r="G19" t="n">
-        <v>372.3</v>
-      </c>
-      <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>367</v>
-      </c>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1143,7 +1099,9 @@
       <c r="J20" t="n">
         <v>366</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>366</v>
+      </c>
       <c r="L20" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1182,9 +1140,11 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
+        <v>367</v>
+      </c>
+      <c r="K21" t="n">
         <v>366</v>
       </c>
-      <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1223,9 +1183,11 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
+        <v>365</v>
+      </c>
+      <c r="K22" t="n">
         <v>366</v>
       </c>
-      <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1266,7 +1228,9 @@
       <c r="J23" t="n">
         <v>366</v>
       </c>
-      <c r="K23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>366</v>
+      </c>
       <c r="L23" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1305,9 +1269,11 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
+        <v>367</v>
+      </c>
+      <c r="K24" t="n">
         <v>366</v>
       </c>
-      <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1340,15 +1306,15 @@
         <v>371.8833333333333</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>367</v>
-      </c>
-      <c r="K25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>366</v>
+      </c>
       <c r="L25" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1381,15 +1347,15 @@
         <v>371.8666666666667</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>365</v>
-      </c>
-      <c r="K26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>366</v>
+      </c>
       <c r="L26" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1422,15 +1388,15 @@
         <v>371.8333333333333</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="n">
         <v>366</v>
       </c>
-      <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1463,15 +1429,15 @@
         <v>371.8</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>367</v>
-      </c>
-      <c r="K28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>366</v>
+      </c>
       <c r="L28" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1504,15 +1470,15 @@
         <v>371.7666666666667</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>370</v>
-      </c>
-      <c r="K29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>366</v>
+      </c>
       <c r="L29" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1545,15 +1511,15 @@
         <v>371.7</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>372</v>
-      </c>
-      <c r="K30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>366</v>
+      </c>
       <c r="L30" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1586,15 +1552,15 @@
         <v>371.6</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>371</v>
-      </c>
-      <c r="K31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>366</v>
+      </c>
       <c r="L31" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1627,15 +1593,15 @@
         <v>371.5166666666667</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>372</v>
-      </c>
-      <c r="K32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>366</v>
+      </c>
       <c r="L32" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1668,15 +1634,15 @@
         <v>371.4</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>371</v>
-      </c>
-      <c r="K33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>366</v>
+      </c>
       <c r="L33" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1709,15 +1675,15 @@
         <v>371.2333333333333</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>370</v>
-      </c>
-      <c r="K34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>366</v>
+      </c>
       <c r="L34" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1750,15 +1716,15 @@
         <v>371.1166666666667</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>371</v>
-      </c>
-      <c r="K35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>366</v>
+      </c>
       <c r="L35" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1791,15 +1757,15 @@
         <v>370.9166666666667</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>370</v>
-      </c>
-      <c r="K36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>366</v>
+      </c>
       <c r="L36" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1832,15 +1798,15 @@
         <v>370.8166666666667</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>373</v>
-      </c>
-      <c r="K37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>366</v>
+      </c>
       <c r="L37" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1873,15 +1839,15 @@
         <v>370.6833333333333</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>374</v>
-      </c>
-      <c r="K38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>366</v>
+      </c>
       <c r="L38" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1920,7 +1886,9 @@
         <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>366</v>
+      </c>
       <c r="L39" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1959,7 +1927,9 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>366</v>
+      </c>
       <c r="L40" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1998,7 +1968,9 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>366</v>
+      </c>
       <c r="L41" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2037,7 +2009,9 @@
         <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>366</v>
+      </c>
       <c r="L42" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2076,7 +2050,9 @@
         <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>366</v>
+      </c>
       <c r="L43" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2115,7 +2091,9 @@
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>366</v>
+      </c>
       <c r="L44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2154,7 +2132,9 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>366</v>
+      </c>
       <c r="L45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2193,7 +2173,9 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>366</v>
+      </c>
       <c r="L46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2232,7 +2214,9 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>366</v>
+      </c>
       <c r="L47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2271,7 +2255,9 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>366</v>
+      </c>
       <c r="L48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2310,7 +2296,9 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>366</v>
+      </c>
       <c r="L49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2349,7 +2337,9 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>366</v>
+      </c>
       <c r="L50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2388,7 +2378,9 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>366</v>
+      </c>
       <c r="L51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2427,7 +2419,9 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>366</v>
+      </c>
       <c r="L52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2466,7 +2460,9 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>366</v>
+      </c>
       <c r="L53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2505,7 +2501,9 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>366</v>
+      </c>
       <c r="L54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2544,7 +2542,9 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>366</v>
+      </c>
       <c r="L55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2583,7 +2583,9 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>366</v>
+      </c>
       <c r="L56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2622,7 +2624,9 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>366</v>
+      </c>
       <c r="L57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2661,7 +2665,9 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>366</v>
+      </c>
       <c r="L58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2700,7 +2706,9 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>366</v>
+      </c>
       <c r="L59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2739,7 +2747,9 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>366</v>
+      </c>
       <c r="L60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2778,7 +2788,9 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>366</v>
+      </c>
       <c r="L61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2817,7 +2829,9 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>366</v>
+      </c>
       <c r="L62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2856,7 +2870,9 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>366</v>
+      </c>
       <c r="L63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2895,7 +2911,9 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>366</v>
+      </c>
       <c r="L64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2934,7 +2952,9 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>366</v>
+      </c>
       <c r="L65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2973,7 +2993,9 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>366</v>
+      </c>
       <c r="L66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3012,7 +3034,9 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>366</v>
+      </c>
       <c r="L67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3051,7 +3075,9 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>366</v>
+      </c>
       <c r="L68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3090,7 +3116,9 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>366</v>
+      </c>
       <c r="L69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3129,7 +3157,9 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>366</v>
+      </c>
       <c r="L70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3168,7 +3198,9 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>366</v>
+      </c>
       <c r="L71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3207,7 +3239,9 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>366</v>
+      </c>
       <c r="L72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3246,7 +3280,9 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>366</v>
+      </c>
       <c r="L73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3285,7 +3321,9 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>366</v>
+      </c>
       <c r="L74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3324,7 +3362,9 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>366</v>
+      </c>
       <c r="L75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3363,7 +3403,9 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>366</v>
+      </c>
       <c r="L76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3402,7 +3444,9 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>366</v>
+      </c>
       <c r="L77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3441,7 +3485,9 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>366</v>
+      </c>
       <c r="L78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3480,7 +3526,9 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>366</v>
+      </c>
       <c r="L79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3519,7 +3567,9 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>366</v>
+      </c>
       <c r="L80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3558,7 +3608,9 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>366</v>
+      </c>
       <c r="L81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3597,7 +3649,9 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>366</v>
+      </c>
       <c r="L82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3636,7 +3690,9 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>366</v>
+      </c>
       <c r="L83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3675,7 +3731,9 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>366</v>
+      </c>
       <c r="L84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3714,7 +3772,9 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>366</v>
+      </c>
       <c r="L85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3753,7 +3813,9 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>366</v>
+      </c>
       <c r="L86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3792,7 +3854,9 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>366</v>
+      </c>
       <c r="L87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3831,7 +3895,9 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>366</v>
+      </c>
       <c r="L88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3870,7 +3936,9 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>366</v>
+      </c>
       <c r="L89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3909,7 +3977,9 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>366</v>
+      </c>
       <c r="L90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3948,7 +4018,9 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>366</v>
+      </c>
       <c r="L91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3987,7 +4059,9 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>366</v>
+      </c>
       <c r="L92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4026,7 +4100,9 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>366</v>
+      </c>
       <c r="L93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4065,7 +4141,9 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>366</v>
+      </c>
       <c r="L94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4104,7 +4182,9 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>366</v>
+      </c>
       <c r="L95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4143,7 +4223,9 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>366</v>
+      </c>
       <c r="L96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4182,7 +4264,9 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>366</v>
+      </c>
       <c r="L97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4221,7 +4305,9 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>366</v>
+      </c>
       <c r="L98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4260,7 +4346,9 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>366</v>
+      </c>
       <c r="L99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4299,7 +4387,9 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>366</v>
+      </c>
       <c r="L100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4338,7 +4428,9 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>366</v>
+      </c>
       <c r="L101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4377,7 +4469,9 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>366</v>
+      </c>
       <c r="L102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4416,7 +4510,9 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>366</v>
+      </c>
       <c r="L103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4455,7 +4551,9 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>366</v>
+      </c>
       <c r="L104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4494,7 +4592,9 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>366</v>
+      </c>
       <c r="L105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4533,7 +4633,9 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>366</v>
+      </c>
       <c r="L106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4572,7 +4674,9 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>366</v>
+      </c>
       <c r="L107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4611,7 +4715,9 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>366</v>
+      </c>
       <c r="L108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4650,7 +4756,9 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>366</v>
+      </c>
       <c r="L109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4689,7 +4797,9 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>366</v>
+      </c>
       <c r="L110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4728,7 +4838,9 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>366</v>
+      </c>
       <c r="L111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4767,7 +4879,9 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>366</v>
+      </c>
       <c r="L112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4806,7 +4920,9 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>366</v>
+      </c>
       <c r="L113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4845,7 +4961,9 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>366</v>
+      </c>
       <c r="L114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4884,7 +5002,9 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>366</v>
+      </c>
       <c r="L115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4923,7 +5043,9 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>366</v>
+      </c>
       <c r="L116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4962,7 +5084,9 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>366</v>
+      </c>
       <c r="L117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5001,7 +5125,9 @@
         <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>366</v>
+      </c>
       <c r="L118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5040,7 +5166,9 @@
         <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>366</v>
+      </c>
       <c r="L119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5079,7 +5207,9 @@
         <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>366</v>
+      </c>
       <c r="L120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5118,7 +5248,9 @@
         <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>366</v>
+      </c>
       <c r="L121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5157,7 +5289,9 @@
         <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>366</v>
+      </c>
       <c r="L122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5196,7 +5330,9 @@
         <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>366</v>
+      </c>
       <c r="L123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5235,7 +5371,9 @@
         <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>366</v>
+      </c>
       <c r="L124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5274,7 +5412,9 @@
         <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>366</v>
+      </c>
       <c r="L125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5313,7 +5453,9 @@
         <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>366</v>
+      </c>
       <c r="L126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5352,7 +5494,9 @@
         <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>366</v>
+      </c>
       <c r="L127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5391,7 +5535,9 @@
         <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>366</v>
+      </c>
       <c r="L128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5430,7 +5576,9 @@
         <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>366</v>
+      </c>
       <c r="L129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5469,7 +5617,9 @@
         <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>366</v>
+      </c>
       <c r="L130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5508,7 +5658,9 @@
         <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>366</v>
+      </c>
       <c r="L131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5547,7 +5699,9 @@
         <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>366</v>
+      </c>
       <c r="L132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5586,7 +5740,9 @@
         <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>366</v>
+      </c>
       <c r="L133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5625,7 +5781,9 @@
         <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>366</v>
+      </c>
       <c r="L134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5664,7 +5822,9 @@
         <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>366</v>
+      </c>
       <c r="L135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5703,7 +5863,9 @@
         <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>366</v>
+      </c>
       <c r="L136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5739,17 +5901,19 @@
         <v>0</v>
       </c>
       <c r="I137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>366</v>
+      </c>
       <c r="L137" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M137" t="n">
-        <v>1</v>
+        <v>1.079699453551913</v>
       </c>
     </row>
     <row r="138">
@@ -5778,15 +5942,11 @@
         <v>0</v>
       </c>
       <c r="I138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L138" t="inlineStr"/>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5817,15 +5977,11 @@
         <v>0</v>
       </c>
       <c r="I139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L139" t="inlineStr"/>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -5860,12 +6016,10 @@
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5893,7 +6047,7 @@
         <v>0</v>
       </c>
       <c r="I141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
@@ -5928,7 +6082,7 @@
         <v>0</v>
       </c>
       <c r="I142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
@@ -5963,7 +6117,7 @@
         <v>0</v>
       </c>
       <c r="I143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
@@ -9498,7 +9652,7 @@
         <v>0</v>
       </c>
       <c r="I244" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr"/>
@@ -9533,7 +9687,7 @@
         <v>0</v>
       </c>
       <c r="I245" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr"/>
@@ -9568,7 +9722,7 @@
         <v>0</v>
       </c>
       <c r="I246" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr"/>
@@ -9603,7 +9757,7 @@
         <v>0</v>
       </c>
       <c r="I247" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr"/>
@@ -9638,7 +9792,7 @@
         <v>0</v>
       </c>
       <c r="I248" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr"/>
@@ -9708,7 +9862,7 @@
         <v>0</v>
       </c>
       <c r="I250" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr"/>
@@ -9778,7 +9932,7 @@
         <v>0</v>
       </c>
       <c r="I252" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr"/>

--- a/BackTest/2019-10-15 BackTest ZRX.xlsx
+++ b/BackTest/2019-10-15 BackTest ZRX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -2728,56 +2728,50 @@
         <v>3575.688904050136</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
-      </c>
-      <c r="I71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>368</v>
+      </c>
+      <c r="C72" t="n">
+        <v>368</v>
+      </c>
+      <c r="D72" t="n">
+        <v>368</v>
+      </c>
+      <c r="E72" t="n">
         <v>367</v>
       </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
+      <c r="F72" t="n">
+        <v>2787.8179</v>
+      </c>
+      <c r="G72" t="n">
+        <v>3575.688904050136</v>
+      </c>
+      <c r="H72" t="n">
+        <v>1</v>
+      </c>
+      <c r="I72" t="n">
+        <v>368</v>
+      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="n">
-        <v>368</v>
-      </c>
-      <c r="C72" t="n">
-        <v>368</v>
-      </c>
-      <c r="D72" t="n">
-        <v>368</v>
-      </c>
-      <c r="E72" t="n">
-        <v>367</v>
-      </c>
-      <c r="F72" t="n">
-        <v>2787.8179</v>
-      </c>
-      <c r="G72" t="n">
-        <v>3575.688904050136</v>
-      </c>
-      <c r="H72" t="n">
-        <v>2</v>
-      </c>
-      <c r="I72" t="n">
-        <v>368</v>
-      </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2806,7 +2800,7 @@
         <v>542.0737040501358</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I73" t="n">
         <v>368</v>
@@ -2845,7 +2839,7 @@
         <v>7904.983704050135</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I74" t="n">
         <v>367</v>
@@ -2884,9 +2878,11 @@
         <v>7719.983704050135</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I75" t="n">
+        <v>368</v>
+      </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr">
         <is>
@@ -2921,9 +2917,11 @@
         <v>2792.764004050136</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I76" t="n">
+        <v>367</v>
+      </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr">
         <is>
@@ -2958,9 +2956,11 @@
         <v>3295.764004050136</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I77" t="n">
+        <v>366</v>
+      </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr">
         <is>
@@ -2995,7 +2995,7 @@
         <v>-3572.607495949865</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I78" t="n">
         <v>367</v>
@@ -3034,7 +3034,7 @@
         <v>-3519.271695949865</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
         <v>366</v>
@@ -3073,7 +3073,7 @@
         <v>-8848.363395949866</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I80" t="n">
         <v>367</v>
@@ -3112,7 +3112,7 @@
         <v>-7953.680295949865</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I81" t="n">
         <v>365</v>
@@ -3151,7 +3151,7 @@
         <v>-6116.972095949865</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I82" t="n">
         <v>366</v>
@@ -3190,7 +3190,7 @@
         <v>-6116.972095949865</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I83" t="n">
         <v>367</v>
@@ -3229,7 +3229,7 @@
         <v>-7397.235147720982</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I84" t="n">
         <v>367</v>
@@ -3268,7 +3268,7 @@
         <v>-6833.619747720983</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I85" t="n">
         <v>364</v>
@@ -3307,7 +3307,7 @@
         <v>-6833.619747720983</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I86" t="n">
         <v>366</v>
@@ -3346,7 +3346,7 @@
         <v>2532.237852279017</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I87" t="n">
         <v>366</v>
@@ -3385,7 +3385,7 @@
         <v>15554.37975227902</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I88" t="n">
         <v>370</v>
@@ -3424,7 +3424,7 @@
         <v>4468.333352279018</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I89" t="n">
         <v>372</v>
@@ -3463,7 +3463,7 @@
         <v>4468.333352279018</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I90" t="n">
         <v>371</v>
@@ -3502,7 +3502,7 @@
         <v>4483.333352279018</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I91" t="n">
         <v>371</v>
@@ -3541,7 +3541,7 @@
         <v>5677.219752279018</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I92" t="n">
         <v>372</v>
@@ -3580,7 +3580,7 @@
         <v>5586.215452279019</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I93" t="n">
         <v>373</v>
@@ -3619,11 +3619,9 @@
         <v>8142.055152279019</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
-      </c>
-      <c r="I94" t="n">
-        <v>371</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
@@ -3658,7 +3656,7 @@
         <v>8063.608652279019</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I95" t="n">
         <v>373</v>
@@ -3697,7 +3695,7 @@
         <v>8164.608652279019</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I96" t="n">
         <v>370</v>
@@ -3736,11 +3734,9 @@
         <v>10608.74835227902</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
-      </c>
-      <c r="I97" t="n">
-        <v>374</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr">
         <is>
@@ -3775,11 +3771,9 @@
         <v>14878.88545227902</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
-      </c>
-      <c r="I98" t="n">
-        <v>375</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr">
         <is>
@@ -3814,11 +3808,9 @@
         <v>9224.246052279019</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
-      </c>
-      <c r="I99" t="n">
-        <v>376</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr">
         <is>
@@ -4630,11 +4622,9 @@
         <v>-8055.377647720981</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
-      </c>
-      <c r="I121" t="n">
-        <v>371</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr">
         <is>
@@ -4669,11 +4659,9 @@
         <v>-1971.792447720981</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
-      </c>
-      <c r="I122" t="n">
-        <v>370</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr">
         <is>
@@ -4708,11 +4696,9 @@
         <v>-1960.559347720981</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
-      </c>
-      <c r="I123" t="n">
-        <v>372</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr">
         <is>
@@ -4747,11 +4733,9 @@
         <v>-5204.484847720981</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
-      </c>
-      <c r="I124" t="n">
-        <v>375</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr">
         <is>
@@ -4786,11 +4770,9 @@
         <v>-5573.201247720981</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
-      </c>
-      <c r="I125" t="n">
-        <v>374</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr">
         <is>
@@ -4825,11 +4807,9 @@
         <v>-5515.356347720981</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
-      </c>
-      <c r="I126" t="n">
-        <v>372</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr">
         <is>
@@ -4864,11 +4844,9 @@
         <v>-5565.356347720981</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
-      </c>
-      <c r="I127" t="n">
-        <v>374</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr">
         <is>
@@ -4903,11 +4881,9 @@
         <v>-5565.356347720981</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
-      </c>
-      <c r="I128" t="n">
-        <v>373</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr">
         <is>
@@ -4942,11 +4918,9 @@
         <v>-5564.356347720981</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
-      </c>
-      <c r="I129" t="n">
-        <v>373</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr">
         <is>
@@ -9902,7 +9876,7 @@
         <v>80990.09662208379</v>
       </c>
       <c r="H263" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9939,7 +9913,7 @@
         <v>69263.66092208379</v>
       </c>
       <c r="H264" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -10050,7 +10024,7 @@
         <v>70422.65252208378</v>
       </c>
       <c r="H267" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -10087,7 +10061,7 @@
         <v>68909.98552208378</v>
       </c>
       <c r="H268" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -10124,7 +10098,7 @@
         <v>55969.95362208378</v>
       </c>
       <c r="H269" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -10161,7 +10135,7 @@
         <v>44974.38242208378</v>
       </c>
       <c r="H270" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -10235,7 +10209,7 @@
         <v>13618.05542208378</v>
       </c>
       <c r="H272" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -10272,7 +10246,7 @@
         <v>385.6445220837795</v>
       </c>
       <c r="H273" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -10309,7 +10283,7 @@
         <v>4682.96662208378</v>
       </c>
       <c r="H274" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -10346,7 +10320,7 @@
         <v>4682.96662208378</v>
       </c>
       <c r="H275" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -10383,7 +10357,7 @@
         <v>7461.52132208378</v>
       </c>
       <c r="H276" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -10420,7 +10394,7 @@
         <v>15548.88322208378</v>
       </c>
       <c r="H277" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -10457,7 +10431,7 @@
         <v>15548.88322208378</v>
       </c>
       <c r="H278" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -11345,16 +11319,18 @@
         <v>77302.56692208377</v>
       </c>
       <c r="H302" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L302" t="inlineStr"/>
+      <c r="L302" t="n">
+        <v>1</v>
+      </c>
       <c r="M302" t="inlineStr"/>
     </row>
     <row r="303">
@@ -11380,11 +11356,15 @@
         <v>86113.67772208377</v>
       </c>
       <c r="H303" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -11413,11 +11393,15 @@
         <v>77610.68862208376</v>
       </c>
       <c r="H304" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -11446,11 +11430,15 @@
         <v>77610.68862208376</v>
       </c>
       <c r="H305" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -11479,11 +11467,15 @@
         <v>87754.81528178525</v>
       </c>
       <c r="H306" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -11512,14 +11504,16 @@
         <v>75002.00378178526</v>
       </c>
       <c r="H307" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
-      <c r="L307" t="n">
-        <v>1</v>
-      </c>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L307" t="inlineStr"/>
       <c r="M307" t="inlineStr"/>
     </row>
     <row r="308">
@@ -11545,7 +11539,7 @@
         <v>75024.01048178526</v>
       </c>
       <c r="H308" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -11578,7 +11572,7 @@
         <v>75024.01048178526</v>
       </c>
       <c r="H309" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -11611,7 +11605,7 @@
         <v>71363.73868178525</v>
       </c>
       <c r="H310" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -11644,7 +11638,7 @@
         <v>56715.31678178525</v>
       </c>
       <c r="H311" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -11677,7 +11671,7 @@
         <v>57335.66218178525</v>
       </c>
       <c r="H312" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -11710,7 +11704,7 @@
         <v>57335.66218178525</v>
       </c>
       <c r="H313" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -11743,7 +11737,7 @@
         <v>50658.49358178525</v>
       </c>
       <c r="H314" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -11776,7 +11770,7 @@
         <v>53144.89830238827</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -11809,7 +11803,7 @@
         <v>50539.34950238827</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -11842,7 +11836,7 @@
         <v>50539.34950238827</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -11875,7 +11869,7 @@
         <v>50539.34950238827</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -11908,7 +11902,7 @@
         <v>53962.35850238827</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -11941,7 +11935,7 @@
         <v>54391.75390238827</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -11974,7 +11968,7 @@
         <v>106182.0057279466</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -12007,7 +12001,7 @@
         <v>82520.11512794658</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -12040,7 +12034,7 @@
         <v>84199.33962794658</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -12073,7 +12067,7 @@
         <v>84199.33962794658</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -12106,7 +12100,7 @@
         <v>83428.78642794659</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -12139,7 +12133,7 @@
         <v>76141.67282794659</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -12172,7 +12166,7 @@
         <v>68614.67282794659</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -12205,7 +12199,7 @@
         <v>68614.67282794659</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -12238,7 +12232,7 @@
         <v>57873.98132794659</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -12271,7 +12265,7 @@
         <v>46018.94822794659</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -12304,7 +12298,7 @@
         <v>46018.94822794659</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -12337,7 +12331,7 @@
         <v>43939.99502794658</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -12370,7 +12364,7 @@
         <v>-5590.613906659019</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -12403,7 +12397,7 @@
         <v>-4872.912106659019</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -12436,7 +12430,7 @@
         <v>-4872.912106659019</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -12469,7 +12463,7 @@
         <v>-4872.912106659019</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -12502,7 +12496,7 @@
         <v>-4872.912106659019</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -12535,7 +12529,7 @@
         <v>444.375993340981</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -12568,7 +12562,7 @@
         <v>1208.546993340981</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -12601,7 +12595,7 @@
         <v>-461.8514066590189</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -12634,7 +12628,7 @@
         <v>-2064.761006659019</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -12667,7 +12661,7 @@
         <v>-1932.956006659019</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -12700,7 +12694,7 @@
         <v>-3904.857159422838</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -12733,7 +12727,7 @@
         <v>-3579.480259422838</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -12766,7 +12760,7 @@
         <v>-883.9684594228374</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -12799,7 +12793,7 @@
         <v>-11165.74005942284</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -12832,7 +12826,7 @@
         <v>-10922.21865942284</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -12865,7 +12859,7 @@
         <v>-10922.21865942284</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -12898,7 +12892,7 @@
         <v>-10922.21865942284</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -12931,7 +12925,7 @@
         <v>-10922.21865942284</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -12964,7 +12958,7 @@
         <v>-17215.85715942284</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -12997,7 +12991,7 @@
         <v>-17215.85715942284</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -13063,7 +13057,7 @@
         <v>-17215.85715942284</v>
       </c>
       <c r="H354" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -13096,7 +13090,7 @@
         <v>-13014.39185942284</v>
       </c>
       <c r="H355" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -13129,7 +13123,7 @@
         <v>-21742.38795942284</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -13162,7 +13156,7 @@
         <v>-26270.57225942284</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -13195,7 +13189,7 @@
         <v>-26242.86385942284</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -13228,7 +13222,7 @@
         <v>-26228.39625942284</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -13261,7 +13255,7 @@
         <v>-26228.39625942284</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -13756,7 +13750,7 @@
         <v>-8502.723359422836</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -14053,7 +14047,7 @@
         <v>14187.44446147268</v>
       </c>
       <c r="H384" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -14086,7 +14080,7 @@
         <v>6247.502461472684</v>
       </c>
       <c r="H385" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -14152,7 +14146,7 @@
         <v>18443.82776147268</v>
       </c>
       <c r="H387" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -14185,7 +14179,7 @@
         <v>18186.83076147268</v>
       </c>
       <c r="H388" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -14251,7 +14245,7 @@
         <v>17566.99236147268</v>
       </c>
       <c r="H390" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -14482,7 +14476,7 @@
         <v>1779.580887592085</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -28012,7 +28006,7 @@
         <v>-167610.0846225587</v>
       </c>
       <c r="H807" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I807" t="inlineStr"/>
       <c r="J807" t="inlineStr"/>
@@ -31345,7 +31339,7 @@
         <v>-49410.41857180306</v>
       </c>
       <c r="H908" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I908" t="inlineStr"/>
       <c r="J908" t="inlineStr"/>
@@ -31378,7 +31372,7 @@
         <v>-31608.22327180306</v>
       </c>
       <c r="H909" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I909" t="inlineStr"/>
       <c r="J909" t="inlineStr"/>
@@ -31411,7 +31405,7 @@
         <v>-32190.22527180306</v>
       </c>
       <c r="H910" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I910" t="inlineStr"/>
       <c r="J910" t="inlineStr"/>
@@ -31444,7 +31438,7 @@
         <v>-42171.69537180306</v>
       </c>
       <c r="H911" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I911" t="inlineStr"/>
       <c r="J911" t="inlineStr"/>
@@ -31477,7 +31471,7 @@
         <v>-41626.03907180305</v>
       </c>
       <c r="H912" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I912" t="inlineStr"/>
       <c r="J912" t="inlineStr"/>
@@ -31510,7 +31504,7 @@
         <v>-35153.94189111845</v>
       </c>
       <c r="H913" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I913" t="inlineStr"/>
       <c r="J913" t="inlineStr"/>
@@ -31543,7 +31537,7 @@
         <v>-41692.50129111845</v>
       </c>
       <c r="H914" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I914" t="inlineStr"/>
       <c r="J914" t="inlineStr"/>
@@ -31576,7 +31570,7 @@
         <v>-43886.69439111845</v>
       </c>
       <c r="H915" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I915" t="inlineStr"/>
       <c r="J915" t="inlineStr"/>
@@ -31609,7 +31603,7 @@
         <v>-39011.24369111845</v>
       </c>
       <c r="H916" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I916" t="inlineStr"/>
       <c r="J916" t="inlineStr"/>
@@ -31642,7 +31636,7 @@
         <v>-40341.38059111845</v>
       </c>
       <c r="H917" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I917" t="inlineStr"/>
       <c r="J917" t="inlineStr"/>
@@ -31675,7 +31669,7 @@
         <v>-40383.87479111845</v>
       </c>
       <c r="H918" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I918" t="inlineStr"/>
       <c r="J918" t="inlineStr"/>
@@ -31708,7 +31702,7 @@
         <v>-53659.48719111845</v>
       </c>
       <c r="H919" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I919" t="inlineStr"/>
       <c r="J919" t="inlineStr"/>
@@ -31741,7 +31735,7 @@
         <v>-73318.09629111845</v>
       </c>
       <c r="H920" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I920" t="inlineStr"/>
       <c r="J920" t="inlineStr"/>
@@ -31774,7 +31768,7 @@
         <v>-67662.02099111845</v>
       </c>
       <c r="H921" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I921" t="inlineStr"/>
       <c r="J921" t="inlineStr"/>
@@ -31807,7 +31801,7 @@
         <v>-67662.02099111845</v>
       </c>
       <c r="H922" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I922" t="inlineStr"/>
       <c r="J922" t="inlineStr"/>
@@ -31840,7 +31834,7 @@
         <v>-64485.37889111845</v>
       </c>
       <c r="H923" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I923" t="inlineStr"/>
       <c r="J923" t="inlineStr"/>
@@ -31873,7 +31867,7 @@
         <v>-64485.37889111845</v>
       </c>
       <c r="H924" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I924" t="inlineStr"/>
       <c r="J924" t="inlineStr"/>
@@ -31906,7 +31900,7 @@
         <v>-75183.93529111845</v>
       </c>
       <c r="H925" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I925" t="inlineStr"/>
       <c r="J925" t="inlineStr"/>
@@ -31939,7 +31933,7 @@
         <v>-81997.03199111845</v>
       </c>
       <c r="H926" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I926" t="inlineStr"/>
       <c r="J926" t="inlineStr"/>
@@ -31972,7 +31966,7 @@
         <v>-84819.72699111846</v>
       </c>
       <c r="H927" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I927" t="inlineStr"/>
       <c r="J927" t="inlineStr"/>
@@ -32005,7 +31999,7 @@
         <v>-84819.72699111846</v>
       </c>
       <c r="H928" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I928" t="inlineStr"/>
       <c r="J928" t="inlineStr"/>
@@ -32038,7 +32032,7 @@
         <v>-84819.72699111846</v>
       </c>
       <c r="H929" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I929" t="inlineStr"/>
       <c r="J929" t="inlineStr"/>
@@ -32071,7 +32065,7 @@
         <v>-84819.72699111846</v>
       </c>
       <c r="H930" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I930" t="inlineStr"/>
       <c r="J930" t="inlineStr"/>
@@ -32104,7 +32098,7 @@
         <v>-122650.4156911185</v>
       </c>
       <c r="H931" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I931" t="inlineStr"/>
       <c r="J931" t="inlineStr"/>
@@ -32137,7 +32131,7 @@
         <v>-134537.7834911185</v>
       </c>
       <c r="H932" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I932" t="inlineStr"/>
       <c r="J932" t="inlineStr"/>
@@ -32170,7 +32164,7 @@
         <v>-134537.7834911185</v>
       </c>
       <c r="H933" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I933" t="inlineStr"/>
       <c r="J933" t="inlineStr"/>
@@ -32203,7 +32197,7 @@
         <v>-158934.4223911185</v>
       </c>
       <c r="H934" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I934" t="inlineStr"/>
       <c r="J934" t="inlineStr"/>
@@ -32236,7 +32230,7 @@
         <v>-158931.1015911185</v>
       </c>
       <c r="H935" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I935" t="inlineStr"/>
       <c r="J935" t="inlineStr"/>
@@ -32247,6 +32241,6 @@
       <c r="M935" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-15 BackTest ZRX.xlsx
+++ b/BackTest/2019-10-15 BackTest ZRX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -2761,17 +2761,11 @@
         <v>3575.688904050136</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
-      </c>
-      <c r="I72" t="n">
-        <v>368</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2800,17 +2794,11 @@
         <v>542.0737040501358</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>368</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2839,17 +2827,11 @@
         <v>7904.983704050135</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>367</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2878,17 +2860,11 @@
         <v>7719.983704050135</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
-      </c>
-      <c r="I75" t="n">
-        <v>368</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2917,17 +2893,11 @@
         <v>2792.764004050136</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>367</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2956,17 +2926,11 @@
         <v>3295.764004050136</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
-      </c>
-      <c r="I77" t="n">
-        <v>366</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2995,17 +2959,11 @@
         <v>-3572.607495949865</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>367</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3034,17 +2992,11 @@
         <v>-3519.271695949865</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" t="n">
-        <v>366</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3073,17 +3025,11 @@
         <v>-8848.363395949866</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>367</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3112,17 +3058,11 @@
         <v>-7953.680295949865</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>365</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3151,17 +3091,11 @@
         <v>-6116.972095949865</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>366</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3190,17 +3124,11 @@
         <v>-6116.972095949865</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
-      </c>
-      <c r="I83" t="n">
-        <v>367</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3229,17 +3157,11 @@
         <v>-7397.235147720982</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
-      </c>
-      <c r="I84" t="n">
-        <v>367</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3268,17 +3190,11 @@
         <v>-6833.619747720983</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>364</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3307,17 +3223,11 @@
         <v>-6833.619747720983</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>366</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3346,17 +3256,11 @@
         <v>2532.237852279017</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
-      </c>
-      <c r="I87" t="n">
-        <v>366</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3385,17 +3289,11 @@
         <v>15554.37975227902</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>370</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3424,17 +3322,11 @@
         <v>4468.333352279018</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>372</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3463,17 +3355,11 @@
         <v>4468.333352279018</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
-      </c>
-      <c r="I90" t="n">
-        <v>371</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3502,17 +3388,11 @@
         <v>4483.333352279018</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
-      </c>
-      <c r="I91" t="n">
-        <v>371</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3541,17 +3421,11 @@
         <v>5677.219752279018</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>372</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3580,17 +3454,11 @@
         <v>5586.215452279019</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>373</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3623,11 +3491,7 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3656,17 +3520,11 @@
         <v>8063.608652279019</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>373</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3695,17 +3553,11 @@
         <v>8164.608652279019</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
-      </c>
-      <c r="I96" t="n">
-        <v>370</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3738,11 +3590,7 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3775,11 +3623,7 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3812,11 +3656,7 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3849,11 +3689,7 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3886,11 +3722,7 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3923,11 +3755,7 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3960,11 +3788,7 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3997,11 +3821,7 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4034,11 +3854,7 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4071,11 +3887,7 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4108,11 +3920,7 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4145,11 +3953,7 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4182,11 +3986,7 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4219,11 +4019,7 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4256,11 +4052,7 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4293,11 +4085,7 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4330,11 +4118,7 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4367,11 +4151,7 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4404,11 +4184,7 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4441,11 +4217,7 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4478,11 +4250,7 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4515,11 +4283,7 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4552,11 +4316,7 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4589,11 +4349,7 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4626,11 +4382,7 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4663,11 +4415,7 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4700,11 +4448,7 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4737,11 +4481,7 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4774,11 +4514,7 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4811,11 +4547,7 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4848,11 +4580,7 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4885,11 +4613,7 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4922,11 +4646,7 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4959,11 +4679,7 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4996,11 +4712,7 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5033,11 +4745,7 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5070,11 +4778,7 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5107,11 +4811,7 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5144,11 +4844,7 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5181,11 +4877,7 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5218,11 +4910,7 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5255,11 +4943,7 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5292,11 +4976,7 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5329,11 +5009,7 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5366,11 +5042,7 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5403,11 +5075,7 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5440,11 +5108,7 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5477,11 +5141,7 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5514,11 +5174,7 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5551,11 +5207,7 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5588,11 +5240,7 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5625,11 +5273,7 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5662,11 +5306,7 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5699,11 +5339,7 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5736,11 +5372,7 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5773,11 +5405,7 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5810,11 +5438,7 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5847,11 +5471,7 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5884,11 +5504,7 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5921,11 +5537,7 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5958,11 +5570,7 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5995,11 +5603,7 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6032,11 +5636,7 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6069,11 +5669,7 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6106,11 +5702,7 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6143,11 +5735,7 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6180,11 +5768,7 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6217,11 +5801,7 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6254,11 +5834,7 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6291,11 +5867,7 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6328,11 +5900,7 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6361,15 +5929,11 @@
         <v>54941.69955227902</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6402,11 +5966,7 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6439,11 +5999,7 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6476,11 +6032,7 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6513,11 +6065,7 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6550,11 +6098,7 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6587,11 +6131,7 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6624,11 +6164,7 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6661,11 +6197,7 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6698,11 +6230,7 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6735,11 +6263,7 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6772,11 +6296,7 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6809,11 +6329,7 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6846,11 +6362,7 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6883,11 +6395,7 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6920,11 +6428,7 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6957,11 +6461,7 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6994,11 +6494,7 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7031,11 +6527,7 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7064,15 +6556,11 @@
         <v>44832.8479220838</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7101,15 +6589,11 @@
         <v>44832.8479220838</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7138,15 +6622,11 @@
         <v>49437.9322220838</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7175,15 +6655,11 @@
         <v>63327.8242220838</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7212,15 +6688,11 @@
         <v>69896.0311220838</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7249,15 +6721,11 @@
         <v>78627.42552208381</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7286,15 +6754,11 @@
         <v>83490.4618220838</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7323,15 +6787,11 @@
         <v>83490.4618220838</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7360,15 +6820,11 @@
         <v>89319.03792208381</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7397,15 +6853,11 @@
         <v>91402.66902208381</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7434,15 +6886,11 @@
         <v>90245.0534220838</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7471,15 +6919,11 @@
         <v>89905.4758220838</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7508,15 +6952,11 @@
         <v>57580.4001220838</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7545,15 +6985,11 @@
         <v>52437.0686220838</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7582,15 +7018,11 @@
         <v>50727.24352208379</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7619,15 +7051,11 @@
         <v>39829.68622208379</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7660,11 +7088,7 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7697,11 +7121,7 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7734,11 +7154,7 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7771,11 +7187,7 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7808,11 +7220,7 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7845,11 +7253,7 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7882,11 +7286,7 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7919,11 +7319,7 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7956,11 +7352,7 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7993,11 +7385,7 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8030,11 +7418,7 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8067,11 +7451,7 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8104,11 +7484,7 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8141,11 +7517,7 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8178,11 +7550,7 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8215,11 +7583,7 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8252,11 +7616,7 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8289,11 +7649,7 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8326,11 +7682,7 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8363,11 +7715,7 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8400,11 +7748,7 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8437,11 +7781,7 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8474,11 +7814,7 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8511,11 +7847,7 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8548,11 +7880,7 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8585,11 +7913,7 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8622,11 +7946,7 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8659,11 +7979,7 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8696,11 +8012,7 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8733,11 +8045,7 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8770,11 +8078,7 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8807,11 +8111,7 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8844,11 +8144,7 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8881,11 +8177,7 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8918,11 +8210,7 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8955,11 +8243,7 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8992,11 +8276,7 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9029,11 +8309,7 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9066,11 +8342,7 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9103,11 +8375,7 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9140,11 +8408,7 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9177,11 +8441,7 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9214,11 +8474,7 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9251,11 +8507,7 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9288,11 +8540,7 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9325,11 +8573,7 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9362,11 +8606,7 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9399,11 +8639,7 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9436,11 +8672,7 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9473,11 +8705,7 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9510,11 +8738,7 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9547,11 +8771,7 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9584,11 +8804,7 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9621,11 +8837,7 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9654,15 +8866,11 @@
         <v>59591.94322208379</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9691,15 +8899,11 @@
         <v>59591.94322208379</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9728,15 +8932,11 @@
         <v>59507.59442208379</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9765,15 +8965,11 @@
         <v>67174.9185220838</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9802,15 +8998,11 @@
         <v>66134.94262208379</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9843,11 +9035,7 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9880,11 +9068,7 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9917,11 +9101,7 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9950,15 +9130,11 @@
         <v>70421.65252208378</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9987,15 +9163,11 @@
         <v>70422.65252208378</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -10024,15 +9196,11 @@
         <v>70422.65252208378</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -10061,15 +9229,11 @@
         <v>68909.98552208378</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -10098,15 +9262,11 @@
         <v>55969.95362208378</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -10135,15 +9295,11 @@
         <v>44974.38242208378</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -10172,15 +9328,11 @@
         <v>45056.27002208378</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -10209,15 +9361,11 @@
         <v>13618.05542208378</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -10246,15 +9394,11 @@
         <v>385.6445220837795</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -10283,15 +9427,11 @@
         <v>4682.96662208378</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -10324,11 +9464,7 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -10361,11 +9497,7 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10398,11 +9530,7 @@
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10431,15 +9559,11 @@
         <v>15548.88322208378</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10468,15 +9592,11 @@
         <v>14943.58022208378</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10505,15 +9625,11 @@
         <v>14943.58022208378</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10542,15 +9658,11 @@
         <v>15599.39422208378</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10579,15 +9691,11 @@
         <v>15599.39422208378</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10616,15 +9724,11 @@
         <v>15599.39422208378</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10653,15 +9757,11 @@
         <v>22977.82502208378</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10690,15 +9790,11 @@
         <v>22977.82502208378</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10731,11 +9827,7 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10768,11 +9860,7 @@
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10805,11 +9893,7 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10842,11 +9926,7 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10879,11 +9959,7 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10916,11 +9992,7 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10953,11 +10025,7 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10990,11 +10058,7 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -11027,11 +10091,7 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -11064,11 +10124,7 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -11101,11 +10157,7 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -11138,11 +10190,7 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -11175,11 +10223,7 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -11212,11 +10256,7 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -11249,11 +10289,7 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -11286,11 +10322,7 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -11323,11 +10355,7 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -11360,11 +10388,7 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -11397,11 +10421,7 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -11434,11 +10454,7 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -11471,11 +10487,7 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -11504,16 +10516,14 @@
         <v>75002.00378178526</v>
       </c>
       <c r="H307" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L307" t="inlineStr"/>
+      <c r="K307" t="inlineStr"/>
+      <c r="L307" t="n">
+        <v>1</v>
+      </c>
       <c r="M307" t="inlineStr"/>
     </row>
     <row r="308">
@@ -11539,7 +10549,7 @@
         <v>75024.01048178526</v>
       </c>
       <c r="H308" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -11671,7 +10681,7 @@
         <v>57335.66218178525</v>
       </c>
       <c r="H312" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -11704,7 +10714,7 @@
         <v>57335.66218178525</v>
       </c>
       <c r="H313" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -11737,7 +10747,7 @@
         <v>50658.49358178525</v>
       </c>
       <c r="H314" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -11770,7 +10780,7 @@
         <v>53144.89830238827</v>
       </c>
       <c r="H315" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -11803,7 +10813,7 @@
         <v>50539.34950238827</v>
       </c>
       <c r="H316" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -11836,7 +10846,7 @@
         <v>50539.34950238827</v>
       </c>
       <c r="H317" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -11869,7 +10879,7 @@
         <v>50539.34950238827</v>
       </c>
       <c r="H318" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -11902,7 +10912,7 @@
         <v>53962.35850238827</v>
       </c>
       <c r="H319" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -11935,7 +10945,7 @@
         <v>54391.75390238827</v>
       </c>
       <c r="H320" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -11968,7 +10978,7 @@
         <v>106182.0057279466</v>
       </c>
       <c r="H321" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -12001,7 +11011,7 @@
         <v>82520.11512794658</v>
       </c>
       <c r="H322" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -12034,7 +11044,7 @@
         <v>84199.33962794658</v>
       </c>
       <c r="H323" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -12067,7 +11077,7 @@
         <v>84199.33962794658</v>
       </c>
       <c r="H324" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -12100,7 +11110,7 @@
         <v>83428.78642794659</v>
       </c>
       <c r="H325" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -12133,7 +11143,7 @@
         <v>76141.67282794659</v>
       </c>
       <c r="H326" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -12166,7 +11176,7 @@
         <v>68614.67282794659</v>
       </c>
       <c r="H327" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -12199,7 +11209,7 @@
         <v>68614.67282794659</v>
       </c>
       <c r="H328" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -12232,7 +11242,7 @@
         <v>57873.98132794659</v>
       </c>
       <c r="H329" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -12265,7 +11275,7 @@
         <v>46018.94822794659</v>
       </c>
       <c r="H330" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -12298,7 +11308,7 @@
         <v>46018.94822794659</v>
       </c>
       <c r="H331" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -12331,7 +11341,7 @@
         <v>43939.99502794658</v>
       </c>
       <c r="H332" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -12364,7 +11374,7 @@
         <v>-5590.613906659019</v>
       </c>
       <c r="H333" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -12397,7 +11407,7 @@
         <v>-4872.912106659019</v>
       </c>
       <c r="H334" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -12430,7 +11440,7 @@
         <v>-4872.912106659019</v>
       </c>
       <c r="H335" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -12463,7 +11473,7 @@
         <v>-4872.912106659019</v>
       </c>
       <c r="H336" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -12496,7 +11506,7 @@
         <v>-4872.912106659019</v>
       </c>
       <c r="H337" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -12529,7 +11539,7 @@
         <v>444.375993340981</v>
       </c>
       <c r="H338" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -12562,7 +11572,7 @@
         <v>1208.546993340981</v>
       </c>
       <c r="H339" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -12595,7 +11605,7 @@
         <v>-461.8514066590189</v>
       </c>
       <c r="H340" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -12628,7 +11638,7 @@
         <v>-2064.761006659019</v>
       </c>
       <c r="H341" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -12661,7 +11671,7 @@
         <v>-1932.956006659019</v>
       </c>
       <c r="H342" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -12694,7 +11704,7 @@
         <v>-3904.857159422838</v>
       </c>
       <c r="H343" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -12727,7 +11737,7 @@
         <v>-3579.480259422838</v>
       </c>
       <c r="H344" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -12760,7 +11770,7 @@
         <v>-883.9684594228374</v>
       </c>
       <c r="H345" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -12793,7 +11803,7 @@
         <v>-11165.74005942284</v>
       </c>
       <c r="H346" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -12826,7 +11836,7 @@
         <v>-10922.21865942284</v>
       </c>
       <c r="H347" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -12859,7 +11869,7 @@
         <v>-10922.21865942284</v>
       </c>
       <c r="H348" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -12892,7 +11902,7 @@
         <v>-10922.21865942284</v>
       </c>
       <c r="H349" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -12925,7 +11935,7 @@
         <v>-10922.21865942284</v>
       </c>
       <c r="H350" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -12958,7 +11968,7 @@
         <v>-17215.85715942284</v>
       </c>
       <c r="H351" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -12991,7 +12001,7 @@
         <v>-17215.85715942284</v>
       </c>
       <c r="H352" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -13057,7 +12067,7 @@
         <v>-17215.85715942284</v>
       </c>
       <c r="H354" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -13090,7 +12100,7 @@
         <v>-13014.39185942284</v>
       </c>
       <c r="H355" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -13123,7 +12133,7 @@
         <v>-21742.38795942284</v>
       </c>
       <c r="H356" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -13156,7 +12166,7 @@
         <v>-26270.57225942284</v>
       </c>
       <c r="H357" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -13189,7 +12199,7 @@
         <v>-26242.86385942284</v>
       </c>
       <c r="H358" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -13222,7 +12232,7 @@
         <v>-26228.39625942284</v>
       </c>
       <c r="H359" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -13255,7 +12265,7 @@
         <v>-26228.39625942284</v>
       </c>
       <c r="H360" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -13750,7 +12760,7 @@
         <v>-8502.723359422836</v>
       </c>
       <c r="H375" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -14146,7 +13156,7 @@
         <v>18443.82776147268</v>
       </c>
       <c r="H387" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -14179,7 +13189,7 @@
         <v>18186.83076147268</v>
       </c>
       <c r="H388" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -14245,7 +13255,7 @@
         <v>17566.99236147268</v>
       </c>
       <c r="H390" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -14476,7 +13486,7 @@
         <v>1779.580887592085</v>
       </c>
       <c r="H397" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -18667,10 +17677,14 @@
         <v>-105974.0335113978</v>
       </c>
       <c r="H524" t="n">
-        <v>0</v>
-      </c>
-      <c r="I524" t="inlineStr"/>
-      <c r="J524" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I524" t="n">
+        <v>373</v>
+      </c>
+      <c r="J524" t="n">
+        <v>373</v>
+      </c>
       <c r="K524" t="inlineStr"/>
       <c r="L524" t="n">
         <v>1</v>
@@ -18700,11 +17714,19 @@
         <v>-105974.0335113978</v>
       </c>
       <c r="H525" t="n">
-        <v>0</v>
-      </c>
-      <c r="I525" t="inlineStr"/>
-      <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I525" t="n">
+        <v>372</v>
+      </c>
+      <c r="J525" t="n">
+        <v>373</v>
+      </c>
+      <c r="K525" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -18733,11 +17755,19 @@
         <v>-105930.7110113978</v>
       </c>
       <c r="H526" t="n">
-        <v>0</v>
-      </c>
-      <c r="I526" t="inlineStr"/>
-      <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I526" t="n">
+        <v>372</v>
+      </c>
+      <c r="J526" t="n">
+        <v>373</v>
+      </c>
+      <c r="K526" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -18832,11 +17862,17 @@
         <v>-128150.3834113978</v>
       </c>
       <c r="H529" t="n">
-        <v>0</v>
-      </c>
-      <c r="I529" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I529" t="n">
+        <v>372</v>
+      </c>
       <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr"/>
+      <c r="K529" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -18865,11 +17901,17 @@
         <v>-128429.2411113978</v>
       </c>
       <c r="H530" t="n">
-        <v>0</v>
-      </c>
-      <c r="I530" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I530" t="n">
+        <v>375</v>
+      </c>
       <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr"/>
+      <c r="K530" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -18898,11 +17940,17 @@
         <v>-127040.6007113978</v>
       </c>
       <c r="H531" t="n">
-        <v>0</v>
-      </c>
-      <c r="I531" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I531" t="n">
+        <v>374</v>
+      </c>
       <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr"/>
+      <c r="K531" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -18931,11 +17979,17 @@
         <v>-103401.5975113978</v>
       </c>
       <c r="H532" t="n">
-        <v>0</v>
-      </c>
-      <c r="I532" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I532" t="n">
+        <v>376</v>
+      </c>
       <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr"/>
+      <c r="K532" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -18968,7 +18022,11 @@
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr"/>
+      <c r="K533" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -19001,7 +18059,11 @@
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
-      <c r="K534" t="inlineStr"/>
+      <c r="K534" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -19034,7 +18096,11 @@
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
-      <c r="K535" t="inlineStr"/>
+      <c r="K535" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -19067,7 +18133,11 @@
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr"/>
+      <c r="K536" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -19100,7 +18170,11 @@
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
-      <c r="K537" t="inlineStr"/>
+      <c r="K537" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -19133,7 +18207,11 @@
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
-      <c r="K538" t="inlineStr"/>
+      <c r="K538" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L538" t="n">
         <v>1</v>
       </c>
@@ -19166,7 +18244,11 @@
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
-      <c r="K539" t="inlineStr"/>
+      <c r="K539" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L539" t="n">
         <v>1</v>
       </c>
@@ -19199,7 +18281,11 @@
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
-      <c r="K540" t="inlineStr"/>
+      <c r="K540" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -19232,7 +18318,11 @@
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
-      <c r="K541" t="inlineStr"/>
+      <c r="K541" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -19265,7 +18355,11 @@
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
-      <c r="K542" t="inlineStr"/>
+      <c r="K542" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -19298,7 +18392,11 @@
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
-      <c r="K543" t="inlineStr"/>
+      <c r="K543" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L543" t="n">
         <v>1</v>
       </c>
@@ -19331,7 +18429,11 @@
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
-      <c r="K544" t="inlineStr"/>
+      <c r="K544" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L544" t="n">
         <v>1</v>
       </c>
@@ -19364,7 +18466,11 @@
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
-      <c r="K545" t="inlineStr"/>
+      <c r="K545" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -19397,7 +18503,11 @@
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
-      <c r="K546" t="inlineStr"/>
+      <c r="K546" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -19430,7 +18540,11 @@
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
-      <c r="K547" t="inlineStr"/>
+      <c r="K547" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L547" t="n">
         <v>1</v>
       </c>
@@ -19463,7 +18577,11 @@
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
-      <c r="K548" t="inlineStr"/>
+      <c r="K548" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -19496,7 +18614,11 @@
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
-      <c r="K549" t="inlineStr"/>
+      <c r="K549" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L549" t="n">
         <v>1</v>
       </c>
@@ -19529,7 +18651,11 @@
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
-      <c r="K550" t="inlineStr"/>
+      <c r="K550" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L550" t="n">
         <v>1</v>
       </c>
@@ -19562,7 +18688,11 @@
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
-      <c r="K551" t="inlineStr"/>
+      <c r="K551" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L551" t="n">
         <v>1</v>
       </c>
@@ -19595,7 +18725,11 @@
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
-      <c r="K552" t="inlineStr"/>
+      <c r="K552" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L552" t="n">
         <v>1</v>
       </c>
@@ -19628,7 +18762,11 @@
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
-      <c r="K553" t="inlineStr"/>
+      <c r="K553" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L553" t="n">
         <v>1</v>
       </c>
@@ -19661,7 +18799,11 @@
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
-      <c r="K554" t="inlineStr"/>
+      <c r="K554" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L554" t="n">
         <v>1</v>
       </c>
@@ -19694,7 +18836,11 @@
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
-      <c r="K555" t="inlineStr"/>
+      <c r="K555" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L555" t="n">
         <v>1</v>
       </c>
@@ -19727,7 +18873,11 @@
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
-      <c r="K556" t="inlineStr"/>
+      <c r="K556" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L556" t="n">
         <v>1</v>
       </c>
@@ -19760,7 +18910,11 @@
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
-      <c r="K557" t="inlineStr"/>
+      <c r="K557" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L557" t="n">
         <v>1</v>
       </c>
@@ -19793,7 +18947,11 @@
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
-      <c r="K558" t="inlineStr"/>
+      <c r="K558" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L558" t="n">
         <v>1</v>
       </c>
@@ -19826,7 +18984,11 @@
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
-      <c r="K559" t="inlineStr"/>
+      <c r="K559" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L559" t="n">
         <v>1</v>
       </c>
@@ -19859,7 +19021,11 @@
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
-      <c r="K560" t="inlineStr"/>
+      <c r="K560" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L560" t="n">
         <v>1</v>
       </c>
@@ -19892,7 +19058,11 @@
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
-      <c r="K561" t="inlineStr"/>
+      <c r="K561" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L561" t="n">
         <v>1</v>
       </c>
@@ -19925,7 +19095,11 @@
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
-      <c r="K562" t="inlineStr"/>
+      <c r="K562" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L562" t="n">
         <v>1</v>
       </c>
@@ -19958,7 +19132,11 @@
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
-      <c r="K563" t="inlineStr"/>
+      <c r="K563" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L563" t="n">
         <v>1</v>
       </c>
@@ -19991,7 +19169,11 @@
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
-      <c r="K564" t="inlineStr"/>
+      <c r="K564" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L564" t="n">
         <v>1</v>
       </c>
@@ -20024,7 +19206,11 @@
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
-      <c r="K565" t="inlineStr"/>
+      <c r="K565" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L565" t="n">
         <v>1</v>
       </c>
@@ -20057,7 +19243,11 @@
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
-      <c r="K566" t="inlineStr"/>
+      <c r="K566" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L566" t="n">
         <v>1</v>
       </c>
@@ -20090,7 +19280,11 @@
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
-      <c r="K567" t="inlineStr"/>
+      <c r="K567" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L567" t="n">
         <v>1</v>
       </c>
@@ -20123,7 +19317,11 @@
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
-      <c r="K568" t="inlineStr"/>
+      <c r="K568" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L568" t="n">
         <v>1</v>
       </c>
@@ -20156,7 +19354,11 @@
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
-      <c r="K569" t="inlineStr"/>
+      <c r="K569" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L569" t="n">
         <v>1</v>
       </c>
@@ -20189,7 +19391,11 @@
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
-      <c r="K570" t="inlineStr"/>
+      <c r="K570" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L570" t="n">
         <v>1</v>
       </c>
@@ -20222,7 +19428,11 @@
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
-      <c r="K571" t="inlineStr"/>
+      <c r="K571" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L571" t="n">
         <v>1</v>
       </c>
@@ -20255,7 +19465,11 @@
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
-      <c r="K572" t="inlineStr"/>
+      <c r="K572" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L572" t="n">
         <v>1</v>
       </c>
@@ -20288,7 +19502,11 @@
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
-      <c r="K573" t="inlineStr"/>
+      <c r="K573" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L573" t="n">
         <v>1</v>
       </c>
@@ -20321,7 +19539,11 @@
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
-      <c r="K574" t="inlineStr"/>
+      <c r="K574" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L574" t="n">
         <v>1</v>
       </c>
@@ -20354,7 +19576,11 @@
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
-      <c r="K575" t="inlineStr"/>
+      <c r="K575" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L575" t="n">
         <v>1</v>
       </c>
@@ -20387,7 +19613,11 @@
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
-      <c r="K576" t="inlineStr"/>
+      <c r="K576" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L576" t="n">
         <v>1</v>
       </c>
@@ -20420,7 +19650,11 @@
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
-      <c r="K577" t="inlineStr"/>
+      <c r="K577" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L577" t="n">
         <v>1</v>
       </c>
@@ -20453,7 +19687,11 @@
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
-      <c r="K578" t="inlineStr"/>
+      <c r="K578" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L578" t="n">
         <v>1</v>
       </c>
@@ -20486,7 +19724,11 @@
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
-      <c r="K579" t="inlineStr"/>
+      <c r="K579" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L579" t="n">
         <v>1</v>
       </c>
@@ -20519,7 +19761,11 @@
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
-      <c r="K580" t="inlineStr"/>
+      <c r="K580" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L580" t="n">
         <v>1</v>
       </c>
@@ -20552,7 +19798,11 @@
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
-      <c r="K581" t="inlineStr"/>
+      <c r="K581" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L581" t="n">
         <v>1</v>
       </c>
@@ -20585,7 +19835,11 @@
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
-      <c r="K582" t="inlineStr"/>
+      <c r="K582" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L582" t="n">
         <v>1</v>
       </c>
@@ -20618,7 +19872,11 @@
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
-      <c r="K583" t="inlineStr"/>
+      <c r="K583" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L583" t="n">
         <v>1</v>
       </c>
@@ -20651,7 +19909,11 @@
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
-      <c r="K584" t="inlineStr"/>
+      <c r="K584" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L584" t="n">
         <v>1</v>
       </c>
@@ -20680,11 +19942,17 @@
         <v>-151582.4538674714</v>
       </c>
       <c r="H585" t="n">
-        <v>0</v>
-      </c>
-      <c r="I585" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I585" t="n">
+        <v>371</v>
+      </c>
       <c r="J585" t="inlineStr"/>
-      <c r="K585" t="inlineStr"/>
+      <c r="K585" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L585" t="n">
         <v>1</v>
       </c>
@@ -20713,11 +19981,17 @@
         <v>-139987.7188674714</v>
       </c>
       <c r="H586" t="n">
-        <v>0</v>
-      </c>
-      <c r="I586" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I586" t="n">
+        <v>370</v>
+      </c>
       <c r="J586" t="inlineStr"/>
-      <c r="K586" t="inlineStr"/>
+      <c r="K586" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L586" t="n">
         <v>1</v>
       </c>
@@ -20746,11 +20020,17 @@
         <v>-139987.7188674714</v>
       </c>
       <c r="H587" t="n">
-        <v>0</v>
-      </c>
-      <c r="I587" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I587" t="n">
+        <v>371</v>
+      </c>
       <c r="J587" t="inlineStr"/>
-      <c r="K587" t="inlineStr"/>
+      <c r="K587" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L587" t="n">
         <v>1</v>
       </c>
@@ -20779,11 +20059,17 @@
         <v>-124196.2514674714</v>
       </c>
       <c r="H588" t="n">
-        <v>0</v>
-      </c>
-      <c r="I588" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I588" t="n">
+        <v>371</v>
+      </c>
       <c r="J588" t="inlineStr"/>
-      <c r="K588" t="inlineStr"/>
+      <c r="K588" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L588" t="n">
         <v>1</v>
       </c>
@@ -20812,11 +20098,17 @@
         <v>-120471.3170674714</v>
       </c>
       <c r="H589" t="n">
-        <v>0</v>
-      </c>
-      <c r="I589" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I589" t="n">
+        <v>372</v>
+      </c>
       <c r="J589" t="inlineStr"/>
-      <c r="K589" t="inlineStr"/>
+      <c r="K589" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L589" t="n">
         <v>1</v>
       </c>
@@ -20845,11 +20137,17 @@
         <v>-120237.3168674715</v>
       </c>
       <c r="H590" t="n">
-        <v>0</v>
-      </c>
-      <c r="I590" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I590" t="n">
+        <v>373</v>
+      </c>
       <c r="J590" t="inlineStr"/>
-      <c r="K590" t="inlineStr"/>
+      <c r="K590" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L590" t="n">
         <v>1</v>
       </c>
@@ -20878,11 +20176,17 @@
         <v>-115565.6264674714</v>
       </c>
       <c r="H591" t="n">
-        <v>0</v>
-      </c>
-      <c r="I591" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I591" t="n">
+        <v>375</v>
+      </c>
       <c r="J591" t="inlineStr"/>
-      <c r="K591" t="inlineStr"/>
+      <c r="K591" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L591" t="n">
         <v>1</v>
       </c>
@@ -20915,7 +20219,11 @@
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
-      <c r="K592" t="inlineStr"/>
+      <c r="K592" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L592" t="n">
         <v>1</v>
       </c>
@@ -20948,7 +20256,11 @@
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
-      <c r="K593" t="inlineStr"/>
+      <c r="K593" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L593" t="n">
         <v>1</v>
       </c>
@@ -20981,7 +20293,11 @@
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
-      <c r="K594" t="inlineStr"/>
+      <c r="K594" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L594" t="n">
         <v>1</v>
       </c>
@@ -21014,7 +20330,11 @@
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
-      <c r="K595" t="inlineStr"/>
+      <c r="K595" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L595" t="n">
         <v>1</v>
       </c>
@@ -21047,7 +20367,11 @@
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
-      <c r="K596" t="inlineStr"/>
+      <c r="K596" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L596" t="n">
         <v>1</v>
       </c>
@@ -21080,7 +20404,11 @@
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
-      <c r="K597" t="inlineStr"/>
+      <c r="K597" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L597" t="n">
         <v>1</v>
       </c>
@@ -21113,7 +20441,11 @@
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
-      <c r="K598" t="inlineStr"/>
+      <c r="K598" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L598" t="n">
         <v>1</v>
       </c>
@@ -21146,7 +20478,11 @@
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
-      <c r="K599" t="inlineStr"/>
+      <c r="K599" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L599" t="n">
         <v>1</v>
       </c>
@@ -21179,7 +20515,11 @@
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
-      <c r="K600" t="inlineStr"/>
+      <c r="K600" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L600" t="n">
         <v>1</v>
       </c>
@@ -21212,7 +20552,11 @@
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
-      <c r="K601" t="inlineStr"/>
+      <c r="K601" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L601" t="n">
         <v>1</v>
       </c>
@@ -21245,7 +20589,11 @@
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
-      <c r="K602" t="inlineStr"/>
+      <c r="K602" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L602" t="n">
         <v>1</v>
       </c>
@@ -21278,7 +20626,11 @@
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
-      <c r="K603" t="inlineStr"/>
+      <c r="K603" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L603" t="n">
         <v>1</v>
       </c>
@@ -21311,7 +20663,11 @@
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
-      <c r="K604" t="inlineStr"/>
+      <c r="K604" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L604" t="n">
         <v>1</v>
       </c>
@@ -21344,7 +20700,11 @@
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
-      <c r="K605" t="inlineStr"/>
+      <c r="K605" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L605" t="n">
         <v>1</v>
       </c>
@@ -21377,7 +20737,11 @@
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
-      <c r="K606" t="inlineStr"/>
+      <c r="K606" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L606" t="n">
         <v>1</v>
       </c>
@@ -21410,7 +20774,11 @@
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
-      <c r="K607" t="inlineStr"/>
+      <c r="K607" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L607" t="n">
         <v>1</v>
       </c>
@@ -21443,7 +20811,11 @@
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
-      <c r="K608" t="inlineStr"/>
+      <c r="K608" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L608" t="n">
         <v>1</v>
       </c>
@@ -21476,7 +20848,11 @@
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
-      <c r="K609" t="inlineStr"/>
+      <c r="K609" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L609" t="n">
         <v>1</v>
       </c>
@@ -21509,7 +20885,11 @@
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
-      <c r="K610" t="inlineStr"/>
+      <c r="K610" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L610" t="n">
         <v>1</v>
       </c>
@@ -21542,7 +20922,11 @@
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
-      <c r="K611" t="inlineStr"/>
+      <c r="K611" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L611" t="n">
         <v>1</v>
       </c>
@@ -21575,7 +20959,11 @@
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
-      <c r="K612" t="inlineStr"/>
+      <c r="K612" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L612" t="n">
         <v>1</v>
       </c>
@@ -21608,7 +20996,11 @@
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
-      <c r="K613" t="inlineStr"/>
+      <c r="K613" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L613" t="n">
         <v>1</v>
       </c>
@@ -21641,7 +21033,11 @@
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
-      <c r="K614" t="inlineStr"/>
+      <c r="K614" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L614" t="n">
         <v>1</v>
       </c>
@@ -21674,7 +21070,11 @@
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
-      <c r="K615" t="inlineStr"/>
+      <c r="K615" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L615" t="n">
         <v>1</v>
       </c>
@@ -21707,7 +21107,11 @@
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
-      <c r="K616" t="inlineStr"/>
+      <c r="K616" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L616" t="n">
         <v>1</v>
       </c>
@@ -21740,7 +21144,11 @@
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
-      <c r="K617" t="inlineStr"/>
+      <c r="K617" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L617" t="n">
         <v>1</v>
       </c>
@@ -21773,7 +21181,11 @@
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
-      <c r="K618" t="inlineStr"/>
+      <c r="K618" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L618" t="n">
         <v>1</v>
       </c>
@@ -21806,7 +21218,11 @@
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
-      <c r="K619" t="inlineStr"/>
+      <c r="K619" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L619" t="n">
         <v>1</v>
       </c>
@@ -21839,7 +21255,11 @@
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
-      <c r="K620" t="inlineStr"/>
+      <c r="K620" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L620" t="n">
         <v>1</v>
       </c>
@@ -21872,7 +21292,11 @@
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
-      <c r="K621" t="inlineStr"/>
+      <c r="K621" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L621" t="n">
         <v>1</v>
       </c>
@@ -21905,7 +21329,11 @@
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
-      <c r="K622" t="inlineStr"/>
+      <c r="K622" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L622" t="n">
         <v>1</v>
       </c>
@@ -21938,7 +21366,11 @@
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
-      <c r="K623" t="inlineStr"/>
+      <c r="K623" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L623" t="n">
         <v>1</v>
       </c>
@@ -21971,7 +21403,11 @@
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
-      <c r="K624" t="inlineStr"/>
+      <c r="K624" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L624" t="n">
         <v>1</v>
       </c>
@@ -22004,7 +21440,11 @@
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
-      <c r="K625" t="inlineStr"/>
+      <c r="K625" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L625" t="n">
         <v>1</v>
       </c>
@@ -22037,7 +21477,11 @@
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
-      <c r="K626" t="inlineStr"/>
+      <c r="K626" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L626" t="n">
         <v>1</v>
       </c>
@@ -22070,7 +21514,11 @@
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
-      <c r="K627" t="inlineStr"/>
+      <c r="K627" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L627" t="n">
         <v>1</v>
       </c>
@@ -22103,7 +21551,11 @@
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
-      <c r="K628" t="inlineStr"/>
+      <c r="K628" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L628" t="n">
         <v>1</v>
       </c>
@@ -22132,14 +21584,16 @@
         <v>-54661.83138252432</v>
       </c>
       <c r="H629" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
-      <c r="K629" t="inlineStr"/>
-      <c r="L629" t="n">
-        <v>1</v>
-      </c>
+      <c r="K629" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L629" t="inlineStr"/>
       <c r="M629" t="inlineStr"/>
     </row>
     <row r="630">
@@ -22165,7 +21619,7 @@
         <v>-54661.83138252432</v>
       </c>
       <c r="H630" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
@@ -22198,7 +21652,7 @@
         <v>-54661.83138252432</v>
       </c>
       <c r="H631" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
@@ -22231,7 +21685,7 @@
         <v>-54661.83138252432</v>
       </c>
       <c r="H632" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
@@ -22264,7 +21718,7 @@
         <v>-54912.05778252432</v>
       </c>
       <c r="H633" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
@@ -22297,7 +21751,7 @@
         <v>-54912.05778252432</v>
       </c>
       <c r="H634" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
@@ -22330,7 +21784,7 @@
         <v>-54912.05778252432</v>
       </c>
       <c r="H635" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
@@ -22429,7 +21883,7 @@
         <v>-31619.15658252432</v>
       </c>
       <c r="H638" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
@@ -22858,7 +22312,7 @@
         <v>5564.774416782321</v>
       </c>
       <c r="H651" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
@@ -22891,7 +22345,7 @@
         <v>1449.084416782322</v>
       </c>
       <c r="H652" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
@@ -22924,7 +22378,7 @@
         <v>1449.084416782322</v>
       </c>
       <c r="H653" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
@@ -22957,7 +22411,7 @@
         <v>-2712.721983217679</v>
       </c>
       <c r="H654" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
@@ -23287,7 +22741,7 @@
         <v>-16337.9062062946</v>
       </c>
       <c r="H664" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
@@ -23320,7 +22774,7 @@
         <v>-16333.2250062946</v>
       </c>
       <c r="H665" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
@@ -23353,7 +22807,7 @@
         <v>-16662.2250062946</v>
       </c>
       <c r="H666" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
@@ -23386,7 +22840,7 @@
         <v>-16697.4644062946</v>
       </c>
       <c r="H667" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
@@ -26290,11 +25744,17 @@
         <v>-143898.8249275079</v>
       </c>
       <c r="H755" t="n">
-        <v>0</v>
-      </c>
-      <c r="I755" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I755" t="n">
+        <v>377</v>
+      </c>
       <c r="J755" t="inlineStr"/>
-      <c r="K755" t="inlineStr"/>
+      <c r="K755" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L755" t="n">
         <v>1</v>
       </c>
@@ -26323,11 +25783,17 @@
         <v>-143898.8249275079</v>
       </c>
       <c r="H756" t="n">
-        <v>0</v>
-      </c>
-      <c r="I756" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I756" t="n">
+        <v>377</v>
+      </c>
       <c r="J756" t="inlineStr"/>
-      <c r="K756" t="inlineStr"/>
+      <c r="K756" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L756" t="n">
         <v>1</v>
       </c>
@@ -26356,11 +25822,17 @@
         <v>-143898.8249275079</v>
       </c>
       <c r="H757" t="n">
-        <v>0</v>
-      </c>
-      <c r="I757" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I757" t="n">
+        <v>377</v>
+      </c>
       <c r="J757" t="inlineStr"/>
-      <c r="K757" t="inlineStr"/>
+      <c r="K757" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L757" t="n">
         <v>1</v>
       </c>
@@ -26389,11 +25861,17 @@
         <v>-136520.6837275079</v>
       </c>
       <c r="H758" t="n">
-        <v>0</v>
-      </c>
-      <c r="I758" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I758" t="n">
+        <v>377</v>
+      </c>
       <c r="J758" t="inlineStr"/>
-      <c r="K758" t="inlineStr"/>
+      <c r="K758" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L758" t="n">
         <v>1</v>
       </c>
@@ -26422,11 +25900,17 @@
         <v>-135969.7682275079</v>
       </c>
       <c r="H759" t="n">
-        <v>0</v>
-      </c>
-      <c r="I759" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I759" t="n">
+        <v>378</v>
+      </c>
       <c r="J759" t="inlineStr"/>
-      <c r="K759" t="inlineStr"/>
+      <c r="K759" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L759" t="n">
         <v>1</v>
       </c>
@@ -26455,11 +25939,17 @@
         <v>-135969.7682275079</v>
       </c>
       <c r="H760" t="n">
-        <v>0</v>
-      </c>
-      <c r="I760" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I760" t="n">
+        <v>379</v>
+      </c>
       <c r="J760" t="inlineStr"/>
-      <c r="K760" t="inlineStr"/>
+      <c r="K760" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L760" t="n">
         <v>1</v>
       </c>
@@ -26488,11 +25978,17 @@
         <v>-135966.2459275079</v>
       </c>
       <c r="H761" t="n">
-        <v>0</v>
-      </c>
-      <c r="I761" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I761" t="n">
+        <v>379</v>
+      </c>
       <c r="J761" t="inlineStr"/>
-      <c r="K761" t="inlineStr"/>
+      <c r="K761" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L761" t="n">
         <v>1</v>
       </c>
@@ -26521,11 +26017,17 @@
         <v>-136788.2459275079</v>
       </c>
       <c r="H762" t="n">
-        <v>0</v>
-      </c>
-      <c r="I762" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I762" t="n">
+        <v>380</v>
+      </c>
       <c r="J762" t="inlineStr"/>
-      <c r="K762" t="inlineStr"/>
+      <c r="K762" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L762" t="n">
         <v>1</v>
       </c>
@@ -26554,11 +26056,17 @@
         <v>-136788.2459275079</v>
       </c>
       <c r="H763" t="n">
-        <v>0</v>
-      </c>
-      <c r="I763" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I763" t="n">
+        <v>379</v>
+      </c>
       <c r="J763" t="inlineStr"/>
-      <c r="K763" t="inlineStr"/>
+      <c r="K763" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L763" t="n">
         <v>1</v>
       </c>
@@ -26587,11 +26095,17 @@
         <v>-136788.2459275079</v>
       </c>
       <c r="H764" t="n">
-        <v>0</v>
-      </c>
-      <c r="I764" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I764" t="n">
+        <v>379</v>
+      </c>
       <c r="J764" t="inlineStr"/>
-      <c r="K764" t="inlineStr"/>
+      <c r="K764" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L764" t="n">
         <v>1</v>
       </c>
@@ -26620,11 +26134,17 @@
         <v>-144951.7974275079</v>
       </c>
       <c r="H765" t="n">
-        <v>0</v>
-      </c>
-      <c r="I765" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I765" t="n">
+        <v>379</v>
+      </c>
       <c r="J765" t="inlineStr"/>
-      <c r="K765" t="inlineStr"/>
+      <c r="K765" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L765" t="n">
         <v>1</v>
       </c>
@@ -26653,11 +26173,17 @@
         <v>-144343.5032275079</v>
       </c>
       <c r="H766" t="n">
-        <v>0</v>
-      </c>
-      <c r="I766" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I766" t="n">
+        <v>377</v>
+      </c>
       <c r="J766" t="inlineStr"/>
-      <c r="K766" t="inlineStr"/>
+      <c r="K766" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L766" t="n">
         <v>1</v>
       </c>
@@ -26686,11 +26212,17 @@
         <v>-142562.9472222448</v>
       </c>
       <c r="H767" t="n">
-        <v>0</v>
-      </c>
-      <c r="I767" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I767" t="n">
+        <v>378</v>
+      </c>
       <c r="J767" t="inlineStr"/>
-      <c r="K767" t="inlineStr"/>
+      <c r="K767" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L767" t="n">
         <v>1</v>
       </c>
@@ -26719,11 +26251,17 @@
         <v>-142523.4736222448</v>
       </c>
       <c r="H768" t="n">
-        <v>0</v>
-      </c>
-      <c r="I768" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I768" t="n">
+        <v>379</v>
+      </c>
       <c r="J768" t="inlineStr"/>
-      <c r="K768" t="inlineStr"/>
+      <c r="K768" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L768" t="n">
         <v>1</v>
       </c>
@@ -26752,11 +26290,17 @@
         <v>-142523.4736222448</v>
       </c>
       <c r="H769" t="n">
-        <v>0</v>
-      </c>
-      <c r="I769" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I769" t="n">
+        <v>380</v>
+      </c>
       <c r="J769" t="inlineStr"/>
-      <c r="K769" t="inlineStr"/>
+      <c r="K769" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L769" t="n">
         <v>1</v>
       </c>
@@ -26785,11 +26329,17 @@
         <v>-142523.4736222448</v>
       </c>
       <c r="H770" t="n">
-        <v>0</v>
-      </c>
-      <c r="I770" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I770" t="n">
+        <v>380</v>
+      </c>
       <c r="J770" t="inlineStr"/>
-      <c r="K770" t="inlineStr"/>
+      <c r="K770" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L770" t="n">
         <v>1</v>
       </c>
@@ -26818,11 +26368,17 @@
         <v>-142523.4736222448</v>
       </c>
       <c r="H771" t="n">
-        <v>0</v>
-      </c>
-      <c r="I771" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I771" t="n">
+        <v>380</v>
+      </c>
       <c r="J771" t="inlineStr"/>
-      <c r="K771" t="inlineStr"/>
+      <c r="K771" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L771" t="n">
         <v>1</v>
       </c>
@@ -26851,11 +26407,17 @@
         <v>-142523.4736222448</v>
       </c>
       <c r="H772" t="n">
-        <v>0</v>
-      </c>
-      <c r="I772" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I772" t="n">
+        <v>380</v>
+      </c>
       <c r="J772" t="inlineStr"/>
-      <c r="K772" t="inlineStr"/>
+      <c r="K772" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L772" t="n">
         <v>1</v>
       </c>
@@ -26884,11 +26446,17 @@
         <v>-142523.4736222448</v>
       </c>
       <c r="H773" t="n">
-        <v>0</v>
-      </c>
-      <c r="I773" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I773" t="n">
+        <v>380</v>
+      </c>
       <c r="J773" t="inlineStr"/>
-      <c r="K773" t="inlineStr"/>
+      <c r="K773" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L773" t="n">
         <v>1</v>
       </c>
@@ -26917,11 +26485,17 @@
         <v>-142523.4736222448</v>
       </c>
       <c r="H774" t="n">
-        <v>0</v>
-      </c>
-      <c r="I774" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I774" t="n">
+        <v>380</v>
+      </c>
       <c r="J774" t="inlineStr"/>
-      <c r="K774" t="inlineStr"/>
+      <c r="K774" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L774" t="n">
         <v>1</v>
       </c>
@@ -26950,11 +26524,17 @@
         <v>-142523.4736222448</v>
       </c>
       <c r="H775" t="n">
-        <v>0</v>
-      </c>
-      <c r="I775" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I775" t="n">
+        <v>380</v>
+      </c>
       <c r="J775" t="inlineStr"/>
-      <c r="K775" t="inlineStr"/>
+      <c r="K775" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L775" t="n">
         <v>1</v>
       </c>
@@ -26983,11 +26563,17 @@
         <v>-141010.2817222447</v>
       </c>
       <c r="H776" t="n">
-        <v>0</v>
-      </c>
-      <c r="I776" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I776" t="n">
+        <v>380</v>
+      </c>
       <c r="J776" t="inlineStr"/>
-      <c r="K776" t="inlineStr"/>
+      <c r="K776" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L776" t="n">
         <v>1</v>
       </c>
@@ -27016,11 +26602,17 @@
         <v>-146337.7184222447</v>
       </c>
       <c r="H777" t="n">
-        <v>0</v>
-      </c>
-      <c r="I777" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I777" t="n">
+        <v>382</v>
+      </c>
       <c r="J777" t="inlineStr"/>
-      <c r="K777" t="inlineStr"/>
+      <c r="K777" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L777" t="n">
         <v>1</v>
       </c>
@@ -27049,11 +26641,17 @@
         <v>-146337.7184222447</v>
       </c>
       <c r="H778" t="n">
-        <v>0</v>
-      </c>
-      <c r="I778" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I778" t="n">
+        <v>380</v>
+      </c>
       <c r="J778" t="inlineStr"/>
-      <c r="K778" t="inlineStr"/>
+      <c r="K778" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L778" t="n">
         <v>1</v>
       </c>
@@ -27082,11 +26680,17 @@
         <v>-144244.6010222448</v>
       </c>
       <c r="H779" t="n">
-        <v>0</v>
-      </c>
-      <c r="I779" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I779" t="n">
+        <v>380</v>
+      </c>
       <c r="J779" t="inlineStr"/>
-      <c r="K779" t="inlineStr"/>
+      <c r="K779" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L779" t="n">
         <v>1</v>
       </c>
@@ -27115,11 +26719,17 @@
         <v>-141669.3348222447</v>
       </c>
       <c r="H780" t="n">
-        <v>0</v>
-      </c>
-      <c r="I780" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I780" t="n">
+        <v>382</v>
+      </c>
       <c r="J780" t="inlineStr"/>
-      <c r="K780" t="inlineStr"/>
+      <c r="K780" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L780" t="n">
         <v>1</v>
       </c>
@@ -27148,11 +26758,17 @@
         <v>-141075.5244222448</v>
       </c>
       <c r="H781" t="n">
-        <v>0</v>
-      </c>
-      <c r="I781" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I781" t="n">
+        <v>384</v>
+      </c>
       <c r="J781" t="inlineStr"/>
-      <c r="K781" t="inlineStr"/>
+      <c r="K781" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L781" t="n">
         <v>1</v>
       </c>
@@ -27185,7 +26801,11 @@
       </c>
       <c r="I782" t="inlineStr"/>
       <c r="J782" t="inlineStr"/>
-      <c r="K782" t="inlineStr"/>
+      <c r="K782" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L782" t="n">
         <v>1</v>
       </c>
@@ -27218,7 +26838,11 @@
       </c>
       <c r="I783" t="inlineStr"/>
       <c r="J783" t="inlineStr"/>
-      <c r="K783" t="inlineStr"/>
+      <c r="K783" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L783" t="n">
         <v>1</v>
       </c>
@@ -27251,7 +26875,11 @@
       </c>
       <c r="I784" t="inlineStr"/>
       <c r="J784" t="inlineStr"/>
-      <c r="K784" t="inlineStr"/>
+      <c r="K784" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L784" t="n">
         <v>1</v>
       </c>
@@ -27284,7 +26912,11 @@
       </c>
       <c r="I785" t="inlineStr"/>
       <c r="J785" t="inlineStr"/>
-      <c r="K785" t="inlineStr"/>
+      <c r="K785" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L785" t="n">
         <v>1</v>
       </c>
@@ -27317,7 +26949,11 @@
       </c>
       <c r="I786" t="inlineStr"/>
       <c r="J786" t="inlineStr"/>
-      <c r="K786" t="inlineStr"/>
+      <c r="K786" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L786" t="n">
         <v>1</v>
       </c>
@@ -27350,7 +26986,11 @@
       </c>
       <c r="I787" t="inlineStr"/>
       <c r="J787" t="inlineStr"/>
-      <c r="K787" t="inlineStr"/>
+      <c r="K787" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L787" t="n">
         <v>1</v>
       </c>
@@ -27383,7 +27023,11 @@
       </c>
       <c r="I788" t="inlineStr"/>
       <c r="J788" t="inlineStr"/>
-      <c r="K788" t="inlineStr"/>
+      <c r="K788" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L788" t="n">
         <v>1</v>
       </c>
@@ -27416,7 +27060,11 @@
       </c>
       <c r="I789" t="inlineStr"/>
       <c r="J789" t="inlineStr"/>
-      <c r="K789" t="inlineStr"/>
+      <c r="K789" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L789" t="n">
         <v>1</v>
       </c>
@@ -27449,7 +27097,11 @@
       </c>
       <c r="I790" t="inlineStr"/>
       <c r="J790" t="inlineStr"/>
-      <c r="K790" t="inlineStr"/>
+      <c r="K790" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L790" t="n">
         <v>1</v>
       </c>
@@ -27482,7 +27134,11 @@
       </c>
       <c r="I791" t="inlineStr"/>
       <c r="J791" t="inlineStr"/>
-      <c r="K791" t="inlineStr"/>
+      <c r="K791" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L791" t="n">
         <v>1</v>
       </c>
@@ -27515,7 +27171,11 @@
       </c>
       <c r="I792" t="inlineStr"/>
       <c r="J792" t="inlineStr"/>
-      <c r="K792" t="inlineStr"/>
+      <c r="K792" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L792" t="n">
         <v>1</v>
       </c>
@@ -27548,7 +27208,11 @@
       </c>
       <c r="I793" t="inlineStr"/>
       <c r="J793" t="inlineStr"/>
-      <c r="K793" t="inlineStr"/>
+      <c r="K793" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L793" t="n">
         <v>1</v>
       </c>
@@ -27581,7 +27245,11 @@
       </c>
       <c r="I794" t="inlineStr"/>
       <c r="J794" t="inlineStr"/>
-      <c r="K794" t="inlineStr"/>
+      <c r="K794" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L794" t="n">
         <v>1</v>
       </c>
@@ -27614,7 +27282,11 @@
       </c>
       <c r="I795" t="inlineStr"/>
       <c r="J795" t="inlineStr"/>
-      <c r="K795" t="inlineStr"/>
+      <c r="K795" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L795" t="n">
         <v>1</v>
       </c>
@@ -27647,7 +27319,11 @@
       </c>
       <c r="I796" t="inlineStr"/>
       <c r="J796" t="inlineStr"/>
-      <c r="K796" t="inlineStr"/>
+      <c r="K796" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L796" t="n">
         <v>1</v>
       </c>
@@ -27680,7 +27356,11 @@
       </c>
       <c r="I797" t="inlineStr"/>
       <c r="J797" t="inlineStr"/>
-      <c r="K797" t="inlineStr"/>
+      <c r="K797" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L797" t="n">
         <v>1</v>
       </c>
@@ -27713,7 +27393,11 @@
       </c>
       <c r="I798" t="inlineStr"/>
       <c r="J798" t="inlineStr"/>
-      <c r="K798" t="inlineStr"/>
+      <c r="K798" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L798" t="n">
         <v>1</v>
       </c>
@@ -27746,7 +27430,11 @@
       </c>
       <c r="I799" t="inlineStr"/>
       <c r="J799" t="inlineStr"/>
-      <c r="K799" t="inlineStr"/>
+      <c r="K799" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L799" t="n">
         <v>1</v>
       </c>
@@ -27779,7 +27467,11 @@
       </c>
       <c r="I800" t="inlineStr"/>
       <c r="J800" t="inlineStr"/>
-      <c r="K800" t="inlineStr"/>
+      <c r="K800" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L800" t="n">
         <v>1</v>
       </c>
@@ -27812,7 +27504,11 @@
       </c>
       <c r="I801" t="inlineStr"/>
       <c r="J801" t="inlineStr"/>
-      <c r="K801" t="inlineStr"/>
+      <c r="K801" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L801" t="n">
         <v>1</v>
       </c>
@@ -27845,7 +27541,11 @@
       </c>
       <c r="I802" t="inlineStr"/>
       <c r="J802" t="inlineStr"/>
-      <c r="K802" t="inlineStr"/>
+      <c r="K802" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L802" t="n">
         <v>1</v>
       </c>
@@ -27878,7 +27578,11 @@
       </c>
       <c r="I803" t="inlineStr"/>
       <c r="J803" t="inlineStr"/>
-      <c r="K803" t="inlineStr"/>
+      <c r="K803" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L803" t="n">
         <v>1</v>
       </c>
@@ -27911,7 +27615,11 @@
       </c>
       <c r="I804" t="inlineStr"/>
       <c r="J804" t="inlineStr"/>
-      <c r="K804" t="inlineStr"/>
+      <c r="K804" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L804" t="n">
         <v>1</v>
       </c>
@@ -27944,7 +27652,11 @@
       </c>
       <c r="I805" t="inlineStr"/>
       <c r="J805" t="inlineStr"/>
-      <c r="K805" t="inlineStr"/>
+      <c r="K805" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L805" t="n">
         <v>1</v>
       </c>
@@ -27977,7 +27689,11 @@
       </c>
       <c r="I806" t="inlineStr"/>
       <c r="J806" t="inlineStr"/>
-      <c r="K806" t="inlineStr"/>
+      <c r="K806" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L806" t="n">
         <v>1</v>
       </c>
@@ -28010,7 +27726,11 @@
       </c>
       <c r="I807" t="inlineStr"/>
       <c r="J807" t="inlineStr"/>
-      <c r="K807" t="inlineStr"/>
+      <c r="K807" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L807" t="n">
         <v>1</v>
       </c>
@@ -28043,7 +27763,11 @@
       </c>
       <c r="I808" t="inlineStr"/>
       <c r="J808" t="inlineStr"/>
-      <c r="K808" t="inlineStr"/>
+      <c r="K808" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L808" t="n">
         <v>1</v>
       </c>
@@ -28076,7 +27800,11 @@
       </c>
       <c r="I809" t="inlineStr"/>
       <c r="J809" t="inlineStr"/>
-      <c r="K809" t="inlineStr"/>
+      <c r="K809" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L809" t="n">
         <v>1</v>
       </c>
@@ -28109,7 +27837,11 @@
       </c>
       <c r="I810" t="inlineStr"/>
       <c r="J810" t="inlineStr"/>
-      <c r="K810" t="inlineStr"/>
+      <c r="K810" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L810" t="n">
         <v>1</v>
       </c>
@@ -28142,7 +27874,11 @@
       </c>
       <c r="I811" t="inlineStr"/>
       <c r="J811" t="inlineStr"/>
-      <c r="K811" t="inlineStr"/>
+      <c r="K811" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L811" t="n">
         <v>1</v>
       </c>
@@ -28175,7 +27911,11 @@
       </c>
       <c r="I812" t="inlineStr"/>
       <c r="J812" t="inlineStr"/>
-      <c r="K812" t="inlineStr"/>
+      <c r="K812" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L812" t="n">
         <v>1</v>
       </c>
@@ -28208,7 +27948,11 @@
       </c>
       <c r="I813" t="inlineStr"/>
       <c r="J813" t="inlineStr"/>
-      <c r="K813" t="inlineStr"/>
+      <c r="K813" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L813" t="n">
         <v>1</v>
       </c>
@@ -28241,7 +27985,11 @@
       </c>
       <c r="I814" t="inlineStr"/>
       <c r="J814" t="inlineStr"/>
-      <c r="K814" t="inlineStr"/>
+      <c r="K814" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L814" t="n">
         <v>1</v>
       </c>
@@ -28274,7 +28022,11 @@
       </c>
       <c r="I815" t="inlineStr"/>
       <c r="J815" t="inlineStr"/>
-      <c r="K815" t="inlineStr"/>
+      <c r="K815" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L815" t="n">
         <v>1</v>
       </c>
@@ -28307,7 +28059,11 @@
       </c>
       <c r="I816" t="inlineStr"/>
       <c r="J816" t="inlineStr"/>
-      <c r="K816" t="inlineStr"/>
+      <c r="K816" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L816" t="n">
         <v>1</v>
       </c>
@@ -28340,7 +28096,11 @@
       </c>
       <c r="I817" t="inlineStr"/>
       <c r="J817" t="inlineStr"/>
-      <c r="K817" t="inlineStr"/>
+      <c r="K817" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L817" t="n">
         <v>1</v>
       </c>
@@ -28373,7 +28133,11 @@
       </c>
       <c r="I818" t="inlineStr"/>
       <c r="J818" t="inlineStr"/>
-      <c r="K818" t="inlineStr"/>
+      <c r="K818" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L818" t="n">
         <v>1</v>
       </c>
@@ -28406,7 +28170,11 @@
       </c>
       <c r="I819" t="inlineStr"/>
       <c r="J819" t="inlineStr"/>
-      <c r="K819" t="inlineStr"/>
+      <c r="K819" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L819" t="n">
         <v>1</v>
       </c>
@@ -28439,7 +28207,11 @@
       </c>
       <c r="I820" t="inlineStr"/>
       <c r="J820" t="inlineStr"/>
-      <c r="K820" t="inlineStr"/>
+      <c r="K820" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L820" t="n">
         <v>1</v>
       </c>
@@ -28472,7 +28244,11 @@
       </c>
       <c r="I821" t="inlineStr"/>
       <c r="J821" t="inlineStr"/>
-      <c r="K821" t="inlineStr"/>
+      <c r="K821" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L821" t="n">
         <v>1</v>
       </c>
@@ -28505,7 +28281,11 @@
       </c>
       <c r="I822" t="inlineStr"/>
       <c r="J822" t="inlineStr"/>
-      <c r="K822" t="inlineStr"/>
+      <c r="K822" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L822" t="n">
         <v>1</v>
       </c>
@@ -28538,7 +28318,11 @@
       </c>
       <c r="I823" t="inlineStr"/>
       <c r="J823" t="inlineStr"/>
-      <c r="K823" t="inlineStr"/>
+      <c r="K823" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L823" t="n">
         <v>1</v>
       </c>
@@ -28571,7 +28355,11 @@
       </c>
       <c r="I824" t="inlineStr"/>
       <c r="J824" t="inlineStr"/>
-      <c r="K824" t="inlineStr"/>
+      <c r="K824" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L824" t="n">
         <v>1</v>
       </c>
@@ -28604,7 +28392,11 @@
       </c>
       <c r="I825" t="inlineStr"/>
       <c r="J825" t="inlineStr"/>
-      <c r="K825" t="inlineStr"/>
+      <c r="K825" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L825" t="n">
         <v>1</v>
       </c>
@@ -28637,7 +28429,11 @@
       </c>
       <c r="I826" t="inlineStr"/>
       <c r="J826" t="inlineStr"/>
-      <c r="K826" t="inlineStr"/>
+      <c r="K826" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L826" t="n">
         <v>1</v>
       </c>
@@ -28670,7 +28466,11 @@
       </c>
       <c r="I827" t="inlineStr"/>
       <c r="J827" t="inlineStr"/>
-      <c r="K827" t="inlineStr"/>
+      <c r="K827" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L827" t="n">
         <v>1</v>
       </c>
@@ -28703,7 +28503,11 @@
       </c>
       <c r="I828" t="inlineStr"/>
       <c r="J828" t="inlineStr"/>
-      <c r="K828" t="inlineStr"/>
+      <c r="K828" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L828" t="n">
         <v>1</v>
       </c>
@@ -28736,7 +28540,11 @@
       </c>
       <c r="I829" t="inlineStr"/>
       <c r="J829" t="inlineStr"/>
-      <c r="K829" t="inlineStr"/>
+      <c r="K829" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L829" t="n">
         <v>1</v>
       </c>
@@ -28769,7 +28577,11 @@
       </c>
       <c r="I830" t="inlineStr"/>
       <c r="J830" t="inlineStr"/>
-      <c r="K830" t="inlineStr"/>
+      <c r="K830" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L830" t="n">
         <v>1</v>
       </c>
@@ -28802,7 +28614,11 @@
       </c>
       <c r="I831" t="inlineStr"/>
       <c r="J831" t="inlineStr"/>
-      <c r="K831" t="inlineStr"/>
+      <c r="K831" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L831" t="n">
         <v>1</v>
       </c>
@@ -28835,7 +28651,11 @@
       </c>
       <c r="I832" t="inlineStr"/>
       <c r="J832" t="inlineStr"/>
-      <c r="K832" t="inlineStr"/>
+      <c r="K832" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L832" t="n">
         <v>1</v>
       </c>
@@ -28868,7 +28688,11 @@
       </c>
       <c r="I833" t="inlineStr"/>
       <c r="J833" t="inlineStr"/>
-      <c r="K833" t="inlineStr"/>
+      <c r="K833" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L833" t="n">
         <v>1</v>
       </c>
@@ -28901,7 +28725,11 @@
       </c>
       <c r="I834" t="inlineStr"/>
       <c r="J834" t="inlineStr"/>
-      <c r="K834" t="inlineStr"/>
+      <c r="K834" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L834" t="n">
         <v>1</v>
       </c>
@@ -28934,7 +28762,11 @@
       </c>
       <c r="I835" t="inlineStr"/>
       <c r="J835" t="inlineStr"/>
-      <c r="K835" t="inlineStr"/>
+      <c r="K835" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L835" t="n">
         <v>1</v>
       </c>
@@ -28967,7 +28799,11 @@
       </c>
       <c r="I836" t="inlineStr"/>
       <c r="J836" t="inlineStr"/>
-      <c r="K836" t="inlineStr"/>
+      <c r="K836" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L836" t="n">
         <v>1</v>
       </c>
@@ -29000,7 +28836,11 @@
       </c>
       <c r="I837" t="inlineStr"/>
       <c r="J837" t="inlineStr"/>
-      <c r="K837" t="inlineStr"/>
+      <c r="K837" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L837" t="n">
         <v>1</v>
       </c>
@@ -29033,7 +28873,11 @@
       </c>
       <c r="I838" t="inlineStr"/>
       <c r="J838" t="inlineStr"/>
-      <c r="K838" t="inlineStr"/>
+      <c r="K838" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L838" t="n">
         <v>1</v>
       </c>
@@ -29066,7 +28910,11 @@
       </c>
       <c r="I839" t="inlineStr"/>
       <c r="J839" t="inlineStr"/>
-      <c r="K839" t="inlineStr"/>
+      <c r="K839" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L839" t="n">
         <v>1</v>
       </c>
@@ -29099,7 +28947,11 @@
       </c>
       <c r="I840" t="inlineStr"/>
       <c r="J840" t="inlineStr"/>
-      <c r="K840" t="inlineStr"/>
+      <c r="K840" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L840" t="n">
         <v>1</v>
       </c>
@@ -29132,7 +28984,11 @@
       </c>
       <c r="I841" t="inlineStr"/>
       <c r="J841" t="inlineStr"/>
-      <c r="K841" t="inlineStr"/>
+      <c r="K841" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L841" t="n">
         <v>1</v>
       </c>
@@ -29165,7 +29021,11 @@
       </c>
       <c r="I842" t="inlineStr"/>
       <c r="J842" t="inlineStr"/>
-      <c r="K842" t="inlineStr"/>
+      <c r="K842" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L842" t="n">
         <v>1</v>
       </c>
@@ -29198,7 +29058,11 @@
       </c>
       <c r="I843" t="inlineStr"/>
       <c r="J843" t="inlineStr"/>
-      <c r="K843" t="inlineStr"/>
+      <c r="K843" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L843" t="n">
         <v>1</v>
       </c>
@@ -29231,7 +29095,11 @@
       </c>
       <c r="I844" t="inlineStr"/>
       <c r="J844" t="inlineStr"/>
-      <c r="K844" t="inlineStr"/>
+      <c r="K844" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L844" t="n">
         <v>1</v>
       </c>
@@ -29264,7 +29132,11 @@
       </c>
       <c r="I845" t="inlineStr"/>
       <c r="J845" t="inlineStr"/>
-      <c r="K845" t="inlineStr"/>
+      <c r="K845" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L845" t="n">
         <v>1</v>
       </c>
@@ -29297,7 +29169,11 @@
       </c>
       <c r="I846" t="inlineStr"/>
       <c r="J846" t="inlineStr"/>
-      <c r="K846" t="inlineStr"/>
+      <c r="K846" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L846" t="n">
         <v>1</v>
       </c>
@@ -29330,7 +29206,11 @@
       </c>
       <c r="I847" t="inlineStr"/>
       <c r="J847" t="inlineStr"/>
-      <c r="K847" t="inlineStr"/>
+      <c r="K847" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L847" t="n">
         <v>1</v>
       </c>
@@ -29363,7 +29243,11 @@
       </c>
       <c r="I848" t="inlineStr"/>
       <c r="J848" t="inlineStr"/>
-      <c r="K848" t="inlineStr"/>
+      <c r="K848" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L848" t="n">
         <v>1</v>
       </c>
@@ -29396,7 +29280,11 @@
       </c>
       <c r="I849" t="inlineStr"/>
       <c r="J849" t="inlineStr"/>
-      <c r="K849" t="inlineStr"/>
+      <c r="K849" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L849" t="n">
         <v>1</v>
       </c>
@@ -29429,7 +29317,11 @@
       </c>
       <c r="I850" t="inlineStr"/>
       <c r="J850" t="inlineStr"/>
-      <c r="K850" t="inlineStr"/>
+      <c r="K850" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L850" t="n">
         <v>1</v>
       </c>
@@ -29462,7 +29354,11 @@
       </c>
       <c r="I851" t="inlineStr"/>
       <c r="J851" t="inlineStr"/>
-      <c r="K851" t="inlineStr"/>
+      <c r="K851" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L851" t="n">
         <v>1</v>
       </c>
@@ -29495,7 +29391,11 @@
       </c>
       <c r="I852" t="inlineStr"/>
       <c r="J852" t="inlineStr"/>
-      <c r="K852" t="inlineStr"/>
+      <c r="K852" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L852" t="n">
         <v>1</v>
       </c>
@@ -29528,7 +29428,11 @@
       </c>
       <c r="I853" t="inlineStr"/>
       <c r="J853" t="inlineStr"/>
-      <c r="K853" t="inlineStr"/>
+      <c r="K853" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L853" t="n">
         <v>1</v>
       </c>
@@ -29561,7 +29465,11 @@
       </c>
       <c r="I854" t="inlineStr"/>
       <c r="J854" t="inlineStr"/>
-      <c r="K854" t="inlineStr"/>
+      <c r="K854" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L854" t="n">
         <v>1</v>
       </c>
@@ -29594,7 +29502,11 @@
       </c>
       <c r="I855" t="inlineStr"/>
       <c r="J855" t="inlineStr"/>
-      <c r="K855" t="inlineStr"/>
+      <c r="K855" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L855" t="n">
         <v>1</v>
       </c>
@@ -29627,7 +29539,11 @@
       </c>
       <c r="I856" t="inlineStr"/>
       <c r="J856" t="inlineStr"/>
-      <c r="K856" t="inlineStr"/>
+      <c r="K856" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L856" t="n">
         <v>1</v>
       </c>
@@ -29660,7 +29576,11 @@
       </c>
       <c r="I857" t="inlineStr"/>
       <c r="J857" t="inlineStr"/>
-      <c r="K857" t="inlineStr"/>
+      <c r="K857" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L857" t="n">
         <v>1</v>
       </c>
@@ -29693,7 +29613,11 @@
       </c>
       <c r="I858" t="inlineStr"/>
       <c r="J858" t="inlineStr"/>
-      <c r="K858" t="inlineStr"/>
+      <c r="K858" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L858" t="n">
         <v>1</v>
       </c>
@@ -29726,7 +29650,11 @@
       </c>
       <c r="I859" t="inlineStr"/>
       <c r="J859" t="inlineStr"/>
-      <c r="K859" t="inlineStr"/>
+      <c r="K859" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L859" t="n">
         <v>1</v>
       </c>
@@ -29759,7 +29687,11 @@
       </c>
       <c r="I860" t="inlineStr"/>
       <c r="J860" t="inlineStr"/>
-      <c r="K860" t="inlineStr"/>
+      <c r="K860" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L860" t="n">
         <v>1</v>
       </c>
@@ -29792,7 +29724,11 @@
       </c>
       <c r="I861" t="inlineStr"/>
       <c r="J861" t="inlineStr"/>
-      <c r="K861" t="inlineStr"/>
+      <c r="K861" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L861" t="n">
         <v>1</v>
       </c>
@@ -29825,7 +29761,11 @@
       </c>
       <c r="I862" t="inlineStr"/>
       <c r="J862" t="inlineStr"/>
-      <c r="K862" t="inlineStr"/>
+      <c r="K862" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L862" t="n">
         <v>1</v>
       </c>
@@ -29858,7 +29798,11 @@
       </c>
       <c r="I863" t="inlineStr"/>
       <c r="J863" t="inlineStr"/>
-      <c r="K863" t="inlineStr"/>
+      <c r="K863" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L863" t="n">
         <v>1</v>
       </c>
@@ -29891,7 +29835,11 @@
       </c>
       <c r="I864" t="inlineStr"/>
       <c r="J864" t="inlineStr"/>
-      <c r="K864" t="inlineStr"/>
+      <c r="K864" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L864" t="n">
         <v>1</v>
       </c>
@@ -29924,7 +29872,11 @@
       </c>
       <c r="I865" t="inlineStr"/>
       <c r="J865" t="inlineStr"/>
-      <c r="K865" t="inlineStr"/>
+      <c r="K865" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L865" t="n">
         <v>1</v>
       </c>
@@ -29957,7 +29909,11 @@
       </c>
       <c r="I866" t="inlineStr"/>
       <c r="J866" t="inlineStr"/>
-      <c r="K866" t="inlineStr"/>
+      <c r="K866" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L866" t="n">
         <v>1</v>
       </c>
@@ -29990,7 +29946,11 @@
       </c>
       <c r="I867" t="inlineStr"/>
       <c r="J867" t="inlineStr"/>
-      <c r="K867" t="inlineStr"/>
+      <c r="K867" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L867" t="n">
         <v>1</v>
       </c>
@@ -30023,7 +29983,11 @@
       </c>
       <c r="I868" t="inlineStr"/>
       <c r="J868" t="inlineStr"/>
-      <c r="K868" t="inlineStr"/>
+      <c r="K868" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L868" t="n">
         <v>1</v>
       </c>
@@ -30056,7 +30020,11 @@
       </c>
       <c r="I869" t="inlineStr"/>
       <c r="J869" t="inlineStr"/>
-      <c r="K869" t="inlineStr"/>
+      <c r="K869" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L869" t="n">
         <v>1</v>
       </c>
@@ -30089,7 +30057,11 @@
       </c>
       <c r="I870" t="inlineStr"/>
       <c r="J870" t="inlineStr"/>
-      <c r="K870" t="inlineStr"/>
+      <c r="K870" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L870" t="n">
         <v>1</v>
       </c>
@@ -30122,7 +30094,11 @@
       </c>
       <c r="I871" t="inlineStr"/>
       <c r="J871" t="inlineStr"/>
-      <c r="K871" t="inlineStr"/>
+      <c r="K871" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L871" t="n">
         <v>1</v>
       </c>
@@ -30155,7 +30131,11 @@
       </c>
       <c r="I872" t="inlineStr"/>
       <c r="J872" t="inlineStr"/>
-      <c r="K872" t="inlineStr"/>
+      <c r="K872" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L872" t="n">
         <v>1</v>
       </c>
@@ -30188,7 +30168,11 @@
       </c>
       <c r="I873" t="inlineStr"/>
       <c r="J873" t="inlineStr"/>
-      <c r="K873" t="inlineStr"/>
+      <c r="K873" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L873" t="n">
         <v>1</v>
       </c>
@@ -30221,7 +30205,11 @@
       </c>
       <c r="I874" t="inlineStr"/>
       <c r="J874" t="inlineStr"/>
-      <c r="K874" t="inlineStr"/>
+      <c r="K874" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L874" t="n">
         <v>1</v>
       </c>
@@ -30254,7 +30242,11 @@
       </c>
       <c r="I875" t="inlineStr"/>
       <c r="J875" t="inlineStr"/>
-      <c r="K875" t="inlineStr"/>
+      <c r="K875" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L875" t="n">
         <v>1</v>
       </c>
@@ -30287,7 +30279,11 @@
       </c>
       <c r="I876" t="inlineStr"/>
       <c r="J876" t="inlineStr"/>
-      <c r="K876" t="inlineStr"/>
+      <c r="K876" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L876" t="n">
         <v>1</v>
       </c>
@@ -30320,7 +30316,11 @@
       </c>
       <c r="I877" t="inlineStr"/>
       <c r="J877" t="inlineStr"/>
-      <c r="K877" t="inlineStr"/>
+      <c r="K877" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L877" t="n">
         <v>1</v>
       </c>
@@ -30353,7 +30353,11 @@
       </c>
       <c r="I878" t="inlineStr"/>
       <c r="J878" t="inlineStr"/>
-      <c r="K878" t="inlineStr"/>
+      <c r="K878" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L878" t="n">
         <v>1</v>
       </c>
@@ -30386,7 +30390,11 @@
       </c>
       <c r="I879" t="inlineStr"/>
       <c r="J879" t="inlineStr"/>
-      <c r="K879" t="inlineStr"/>
+      <c r="K879" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L879" t="n">
         <v>1</v>
       </c>
@@ -30419,7 +30427,11 @@
       </c>
       <c r="I880" t="inlineStr"/>
       <c r="J880" t="inlineStr"/>
-      <c r="K880" t="inlineStr"/>
+      <c r="K880" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L880" t="n">
         <v>1</v>
       </c>
@@ -30452,7 +30464,11 @@
       </c>
       <c r="I881" t="inlineStr"/>
       <c r="J881" t="inlineStr"/>
-      <c r="K881" t="inlineStr"/>
+      <c r="K881" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L881" t="n">
         <v>1</v>
       </c>
@@ -30485,7 +30501,11 @@
       </c>
       <c r="I882" t="inlineStr"/>
       <c r="J882" t="inlineStr"/>
-      <c r="K882" t="inlineStr"/>
+      <c r="K882" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L882" t="n">
         <v>1</v>
       </c>
@@ -30518,7 +30538,11 @@
       </c>
       <c r="I883" t="inlineStr"/>
       <c r="J883" t="inlineStr"/>
-      <c r="K883" t="inlineStr"/>
+      <c r="K883" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L883" t="n">
         <v>1</v>
       </c>
@@ -30551,7 +30575,11 @@
       </c>
       <c r="I884" t="inlineStr"/>
       <c r="J884" t="inlineStr"/>
-      <c r="K884" t="inlineStr"/>
+      <c r="K884" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L884" t="n">
         <v>1</v>
       </c>
@@ -30584,7 +30612,11 @@
       </c>
       <c r="I885" t="inlineStr"/>
       <c r="J885" t="inlineStr"/>
-      <c r="K885" t="inlineStr"/>
+      <c r="K885" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L885" t="n">
         <v>1</v>
       </c>
@@ -30617,7 +30649,11 @@
       </c>
       <c r="I886" t="inlineStr"/>
       <c r="J886" t="inlineStr"/>
-      <c r="K886" t="inlineStr"/>
+      <c r="K886" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L886" t="n">
         <v>1</v>
       </c>
@@ -30650,7 +30686,11 @@
       </c>
       <c r="I887" t="inlineStr"/>
       <c r="J887" t="inlineStr"/>
-      <c r="K887" t="inlineStr"/>
+      <c r="K887" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L887" t="n">
         <v>1</v>
       </c>
@@ -30683,7 +30723,11 @@
       </c>
       <c r="I888" t="inlineStr"/>
       <c r="J888" t="inlineStr"/>
-      <c r="K888" t="inlineStr"/>
+      <c r="K888" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L888" t="n">
         <v>1</v>
       </c>
@@ -30716,7 +30760,11 @@
       </c>
       <c r="I889" t="inlineStr"/>
       <c r="J889" t="inlineStr"/>
-      <c r="K889" t="inlineStr"/>
+      <c r="K889" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L889" t="n">
         <v>1</v>
       </c>
@@ -30749,7 +30797,11 @@
       </c>
       <c r="I890" t="inlineStr"/>
       <c r="J890" t="inlineStr"/>
-      <c r="K890" t="inlineStr"/>
+      <c r="K890" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L890" t="n">
         <v>1</v>
       </c>
@@ -30782,7 +30834,11 @@
       </c>
       <c r="I891" t="inlineStr"/>
       <c r="J891" t="inlineStr"/>
-      <c r="K891" t="inlineStr"/>
+      <c r="K891" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L891" t="n">
         <v>1</v>
       </c>
@@ -30815,7 +30871,11 @@
       </c>
       <c r="I892" t="inlineStr"/>
       <c r="J892" t="inlineStr"/>
-      <c r="K892" t="inlineStr"/>
+      <c r="K892" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L892" t="n">
         <v>1</v>
       </c>
@@ -30848,7 +30908,11 @@
       </c>
       <c r="I893" t="inlineStr"/>
       <c r="J893" t="inlineStr"/>
-      <c r="K893" t="inlineStr"/>
+      <c r="K893" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L893" t="n">
         <v>1</v>
       </c>
@@ -30881,7 +30945,11 @@
       </c>
       <c r="I894" t="inlineStr"/>
       <c r="J894" t="inlineStr"/>
-      <c r="K894" t="inlineStr"/>
+      <c r="K894" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L894" t="n">
         <v>1</v>
       </c>
@@ -30914,7 +30982,11 @@
       </c>
       <c r="I895" t="inlineStr"/>
       <c r="J895" t="inlineStr"/>
-      <c r="K895" t="inlineStr"/>
+      <c r="K895" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L895" t="n">
         <v>1</v>
       </c>
@@ -30947,7 +31019,11 @@
       </c>
       <c r="I896" t="inlineStr"/>
       <c r="J896" t="inlineStr"/>
-      <c r="K896" t="inlineStr"/>
+      <c r="K896" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L896" t="n">
         <v>1</v>
       </c>
@@ -30980,7 +31056,11 @@
       </c>
       <c r="I897" t="inlineStr"/>
       <c r="J897" t="inlineStr"/>
-      <c r="K897" t="inlineStr"/>
+      <c r="K897" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L897" t="n">
         <v>1</v>
       </c>
@@ -31013,7 +31093,11 @@
       </c>
       <c r="I898" t="inlineStr"/>
       <c r="J898" t="inlineStr"/>
-      <c r="K898" t="inlineStr"/>
+      <c r="K898" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L898" t="n">
         <v>1</v>
       </c>
@@ -31046,7 +31130,11 @@
       </c>
       <c r="I899" t="inlineStr"/>
       <c r="J899" t="inlineStr"/>
-      <c r="K899" t="inlineStr"/>
+      <c r="K899" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L899" t="n">
         <v>1</v>
       </c>
@@ -31079,7 +31167,11 @@
       </c>
       <c r="I900" t="inlineStr"/>
       <c r="J900" t="inlineStr"/>
-      <c r="K900" t="inlineStr"/>
+      <c r="K900" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L900" t="n">
         <v>1</v>
       </c>
@@ -31112,7 +31204,11 @@
       </c>
       <c r="I901" t="inlineStr"/>
       <c r="J901" t="inlineStr"/>
-      <c r="K901" t="inlineStr"/>
+      <c r="K901" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L901" t="n">
         <v>1</v>
       </c>
@@ -31145,7 +31241,11 @@
       </c>
       <c r="I902" t="inlineStr"/>
       <c r="J902" t="inlineStr"/>
-      <c r="K902" t="inlineStr"/>
+      <c r="K902" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L902" t="n">
         <v>1</v>
       </c>
@@ -31178,7 +31278,11 @@
       </c>
       <c r="I903" t="inlineStr"/>
       <c r="J903" t="inlineStr"/>
-      <c r="K903" t="inlineStr"/>
+      <c r="K903" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L903" t="n">
         <v>1</v>
       </c>
@@ -31211,7 +31315,11 @@
       </c>
       <c r="I904" t="inlineStr"/>
       <c r="J904" t="inlineStr"/>
-      <c r="K904" t="inlineStr"/>
+      <c r="K904" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L904" t="n">
         <v>1</v>
       </c>
@@ -31244,7 +31352,11 @@
       </c>
       <c r="I905" t="inlineStr"/>
       <c r="J905" t="inlineStr"/>
-      <c r="K905" t="inlineStr"/>
+      <c r="K905" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L905" t="n">
         <v>1</v>
       </c>
@@ -31277,7 +31389,11 @@
       </c>
       <c r="I906" t="inlineStr"/>
       <c r="J906" t="inlineStr"/>
-      <c r="K906" t="inlineStr"/>
+      <c r="K906" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L906" t="n">
         <v>1</v>
       </c>
@@ -31310,7 +31426,11 @@
       </c>
       <c r="I907" t="inlineStr"/>
       <c r="J907" t="inlineStr"/>
-      <c r="K907" t="inlineStr"/>
+      <c r="K907" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L907" t="n">
         <v>1</v>
       </c>
@@ -31339,11 +31459,15 @@
         <v>-49410.41857180306</v>
       </c>
       <c r="H908" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I908" t="inlineStr"/>
       <c r="J908" t="inlineStr"/>
-      <c r="K908" t="inlineStr"/>
+      <c r="K908" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L908" t="n">
         <v>1</v>
       </c>
@@ -31372,11 +31496,15 @@
         <v>-31608.22327180306</v>
       </c>
       <c r="H909" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I909" t="inlineStr"/>
       <c r="J909" t="inlineStr"/>
-      <c r="K909" t="inlineStr"/>
+      <c r="K909" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L909" t="n">
         <v>1</v>
       </c>
@@ -31405,11 +31533,15 @@
         <v>-32190.22527180306</v>
       </c>
       <c r="H910" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I910" t="inlineStr"/>
       <c r="J910" t="inlineStr"/>
-      <c r="K910" t="inlineStr"/>
+      <c r="K910" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L910" t="n">
         <v>1</v>
       </c>
@@ -31438,11 +31570,15 @@
         <v>-42171.69537180306</v>
       </c>
       <c r="H911" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I911" t="inlineStr"/>
       <c r="J911" t="inlineStr"/>
-      <c r="K911" t="inlineStr"/>
+      <c r="K911" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L911" t="n">
         <v>1</v>
       </c>
@@ -31471,11 +31607,15 @@
         <v>-41626.03907180305</v>
       </c>
       <c r="H912" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I912" t="inlineStr"/>
       <c r="J912" t="inlineStr"/>
-      <c r="K912" t="inlineStr"/>
+      <c r="K912" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L912" t="n">
         <v>1</v>
       </c>
@@ -31504,11 +31644,15 @@
         <v>-35153.94189111845</v>
       </c>
       <c r="H913" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I913" t="inlineStr"/>
       <c r="J913" t="inlineStr"/>
-      <c r="K913" t="inlineStr"/>
+      <c r="K913" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L913" t="n">
         <v>1</v>
       </c>
@@ -31537,11 +31681,15 @@
         <v>-41692.50129111845</v>
       </c>
       <c r="H914" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I914" t="inlineStr"/>
       <c r="J914" t="inlineStr"/>
-      <c r="K914" t="inlineStr"/>
+      <c r="K914" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L914" t="n">
         <v>1</v>
       </c>
@@ -31570,11 +31718,15 @@
         <v>-43886.69439111845</v>
       </c>
       <c r="H915" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I915" t="inlineStr"/>
       <c r="J915" t="inlineStr"/>
-      <c r="K915" t="inlineStr"/>
+      <c r="K915" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L915" t="n">
         <v>1</v>
       </c>
@@ -31603,11 +31755,15 @@
         <v>-39011.24369111845</v>
       </c>
       <c r="H916" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I916" t="inlineStr"/>
       <c r="J916" t="inlineStr"/>
-      <c r="K916" t="inlineStr"/>
+      <c r="K916" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L916" t="n">
         <v>1</v>
       </c>
@@ -31636,11 +31792,15 @@
         <v>-40341.38059111845</v>
       </c>
       <c r="H917" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I917" t="inlineStr"/>
       <c r="J917" t="inlineStr"/>
-      <c r="K917" t="inlineStr"/>
+      <c r="K917" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L917" t="n">
         <v>1</v>
       </c>
@@ -31669,11 +31829,15 @@
         <v>-40383.87479111845</v>
       </c>
       <c r="H918" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I918" t="inlineStr"/>
       <c r="J918" t="inlineStr"/>
-      <c r="K918" t="inlineStr"/>
+      <c r="K918" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L918" t="n">
         <v>1</v>
       </c>
@@ -31702,11 +31866,15 @@
         <v>-53659.48719111845</v>
       </c>
       <c r="H919" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I919" t="inlineStr"/>
       <c r="J919" t="inlineStr"/>
-      <c r="K919" t="inlineStr"/>
+      <c r="K919" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L919" t="n">
         <v>1</v>
       </c>
@@ -31735,11 +31903,15 @@
         <v>-73318.09629111845</v>
       </c>
       <c r="H920" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I920" t="inlineStr"/>
       <c r="J920" t="inlineStr"/>
-      <c r="K920" t="inlineStr"/>
+      <c r="K920" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L920" t="n">
         <v>1</v>
       </c>
@@ -31768,11 +31940,15 @@
         <v>-67662.02099111845</v>
       </c>
       <c r="H921" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I921" t="inlineStr"/>
       <c r="J921" t="inlineStr"/>
-      <c r="K921" t="inlineStr"/>
+      <c r="K921" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L921" t="n">
         <v>1</v>
       </c>
@@ -31801,11 +31977,15 @@
         <v>-67662.02099111845</v>
       </c>
       <c r="H922" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I922" t="inlineStr"/>
       <c r="J922" t="inlineStr"/>
-      <c r="K922" t="inlineStr"/>
+      <c r="K922" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L922" t="n">
         <v>1</v>
       </c>
@@ -31834,11 +32014,15 @@
         <v>-64485.37889111845</v>
       </c>
       <c r="H923" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I923" t="inlineStr"/>
       <c r="J923" t="inlineStr"/>
-      <c r="K923" t="inlineStr"/>
+      <c r="K923" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L923" t="n">
         <v>1</v>
       </c>
@@ -31867,11 +32051,15 @@
         <v>-64485.37889111845</v>
       </c>
       <c r="H924" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I924" t="inlineStr"/>
       <c r="J924" t="inlineStr"/>
-      <c r="K924" t="inlineStr"/>
+      <c r="K924" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L924" t="n">
         <v>1</v>
       </c>
@@ -31900,11 +32088,15 @@
         <v>-75183.93529111845</v>
       </c>
       <c r="H925" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I925" t="inlineStr"/>
       <c r="J925" t="inlineStr"/>
-      <c r="K925" t="inlineStr"/>
+      <c r="K925" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L925" t="n">
         <v>1</v>
       </c>
@@ -31933,11 +32125,15 @@
         <v>-81997.03199111845</v>
       </c>
       <c r="H926" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I926" t="inlineStr"/>
       <c r="J926" t="inlineStr"/>
-      <c r="K926" t="inlineStr"/>
+      <c r="K926" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L926" t="n">
         <v>1</v>
       </c>
@@ -31966,11 +32162,15 @@
         <v>-84819.72699111846</v>
       </c>
       <c r="H927" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I927" t="inlineStr"/>
       <c r="J927" t="inlineStr"/>
-      <c r="K927" t="inlineStr"/>
+      <c r="K927" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L927" t="n">
         <v>1</v>
       </c>
@@ -31999,11 +32199,15 @@
         <v>-84819.72699111846</v>
       </c>
       <c r="H928" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I928" t="inlineStr"/>
       <c r="J928" t="inlineStr"/>
-      <c r="K928" t="inlineStr"/>
+      <c r="K928" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L928" t="n">
         <v>1</v>
       </c>
@@ -32032,11 +32236,15 @@
         <v>-84819.72699111846</v>
       </c>
       <c r="H929" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I929" t="inlineStr"/>
       <c r="J929" t="inlineStr"/>
-      <c r="K929" t="inlineStr"/>
+      <c r="K929" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L929" t="n">
         <v>1</v>
       </c>
@@ -32065,11 +32273,15 @@
         <v>-84819.72699111846</v>
       </c>
       <c r="H930" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I930" t="inlineStr"/>
       <c r="J930" t="inlineStr"/>
-      <c r="K930" t="inlineStr"/>
+      <c r="K930" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L930" t="n">
         <v>1</v>
       </c>
@@ -32098,11 +32310,15 @@
         <v>-122650.4156911185</v>
       </c>
       <c r="H931" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I931" t="inlineStr"/>
       <c r="J931" t="inlineStr"/>
-      <c r="K931" t="inlineStr"/>
+      <c r="K931" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L931" t="n">
         <v>1</v>
       </c>
@@ -32131,11 +32347,15 @@
         <v>-134537.7834911185</v>
       </c>
       <c r="H932" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I932" t="inlineStr"/>
       <c r="J932" t="inlineStr"/>
-      <c r="K932" t="inlineStr"/>
+      <c r="K932" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L932" t="n">
         <v>1</v>
       </c>
@@ -32164,11 +32384,15 @@
         <v>-134537.7834911185</v>
       </c>
       <c r="H933" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I933" t="inlineStr"/>
       <c r="J933" t="inlineStr"/>
-      <c r="K933" t="inlineStr"/>
+      <c r="K933" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L933" t="n">
         <v>1</v>
       </c>
@@ -32197,11 +32421,15 @@
         <v>-158934.4223911185</v>
       </c>
       <c r="H934" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I934" t="inlineStr"/>
       <c r="J934" t="inlineStr"/>
-      <c r="K934" t="inlineStr"/>
+      <c r="K934" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L934" t="n">
         <v>1</v>
       </c>
@@ -32230,17 +32458,21 @@
         <v>-158931.1015911185</v>
       </c>
       <c r="H935" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I935" t="inlineStr"/>
       <c r="J935" t="inlineStr"/>
-      <c r="K935" t="inlineStr"/>
+      <c r="K935" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L935" t="n">
         <v>1</v>
       </c>
       <c r="M935" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-15 BackTest ZRX.xlsx
+++ b/BackTest/2019-10-15 BackTest ZRX.xlsx
@@ -5929,7 +5929,7 @@
         <v>54941.69955227902</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>44832.8479220838</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>44832.8479220838</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>49437.9322220838</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>63327.8242220838</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>69896.0311220838</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>78627.42552208381</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>83490.4618220838</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>83490.4618220838</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>89319.03792208381</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>91402.66902208381</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6886,7 +6886,7 @@
         <v>90245.0534220838</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6919,7 +6919,7 @@
         <v>89905.4758220838</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>57580.4001220838</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>52437.0686220838</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7018,7 +7018,7 @@
         <v>50727.24352208379</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>39829.68622208379</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -8866,7 +8866,7 @@
         <v>59591.94322208379</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -8899,7 +8899,7 @@
         <v>59591.94322208379</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -8932,7 +8932,7 @@
         <v>59507.59442208379</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -8965,7 +8965,7 @@
         <v>67174.9185220838</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -8998,7 +8998,7 @@
         <v>66134.94262208379</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9130,7 +9130,7 @@
         <v>70421.65252208378</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9163,7 +9163,7 @@
         <v>70422.65252208378</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9196,7 +9196,7 @@
         <v>70422.65252208378</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9229,7 +9229,7 @@
         <v>68909.98552208378</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9262,7 +9262,7 @@
         <v>55969.95362208378</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9295,7 +9295,7 @@
         <v>44974.38242208378</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9328,7 +9328,7 @@
         <v>45056.27002208378</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9361,7 +9361,7 @@
         <v>13618.05542208378</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9394,7 +9394,7 @@
         <v>385.6445220837795</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9427,7 +9427,7 @@
         <v>4682.96662208378</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9559,7 +9559,7 @@
         <v>15548.88322208378</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9592,7 +9592,7 @@
         <v>14943.58022208378</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9625,7 +9625,7 @@
         <v>14943.58022208378</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9658,7 +9658,7 @@
         <v>15599.39422208378</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9691,7 +9691,7 @@
         <v>15599.39422208378</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9724,7 +9724,7 @@
         <v>15599.39422208378</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9757,7 +9757,7 @@
         <v>22977.82502208378</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9790,7 +9790,7 @@
         <v>22977.82502208378</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -10450,7 +10450,7 @@
         <v>77610.68862208376</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10483,7 +10483,7 @@
         <v>87754.81528178525</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10516,7 +10516,7 @@
         <v>75002.00378178526</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10549,7 +10549,7 @@
         <v>75024.01048178526</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10582,7 +10582,7 @@
         <v>75024.01048178526</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10615,7 +10615,7 @@
         <v>71363.73868178525</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -10648,7 +10648,7 @@
         <v>56715.31678178525</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -10681,7 +10681,7 @@
         <v>57335.66218178525</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -10780,7 +10780,7 @@
         <v>53144.89830238827</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -10978,7 +10978,7 @@
         <v>106182.0057279466</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11011,7 +11011,7 @@
         <v>82520.11512794658</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11044,7 +11044,7 @@
         <v>84199.33962794658</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -11077,7 +11077,7 @@
         <v>84199.33962794658</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11110,7 +11110,7 @@
         <v>83428.78642794659</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11143,7 +11143,7 @@
         <v>76141.67282794659</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -11176,7 +11176,7 @@
         <v>68614.67282794659</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11209,7 +11209,7 @@
         <v>68614.67282794659</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -11242,7 +11242,7 @@
         <v>57873.98132794659</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -11275,7 +11275,7 @@
         <v>46018.94822794659</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -11308,7 +11308,7 @@
         <v>46018.94822794659</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -11341,7 +11341,7 @@
         <v>43939.99502794658</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -11374,7 +11374,7 @@
         <v>-5590.613906659019</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -17677,14 +17677,10 @@
         <v>-105974.0335113978</v>
       </c>
       <c r="H524" t="n">
-        <v>1</v>
-      </c>
-      <c r="I524" t="n">
-        <v>373</v>
-      </c>
-      <c r="J524" t="n">
-        <v>373</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I524" t="inlineStr"/>
+      <c r="J524" t="inlineStr"/>
       <c r="K524" t="inlineStr"/>
       <c r="L524" t="n">
         <v>1</v>
@@ -17714,19 +17710,11 @@
         <v>-105974.0335113978</v>
       </c>
       <c r="H525" t="n">
-        <v>1</v>
-      </c>
-      <c r="I525" t="n">
-        <v>372</v>
-      </c>
-      <c r="J525" t="n">
-        <v>373</v>
-      </c>
-      <c r="K525" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I525" t="inlineStr"/>
+      <c r="J525" t="inlineStr"/>
+      <c r="K525" t="inlineStr"/>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -17755,19 +17743,11 @@
         <v>-105930.7110113978</v>
       </c>
       <c r="H526" t="n">
-        <v>1</v>
-      </c>
-      <c r="I526" t="n">
-        <v>372</v>
-      </c>
-      <c r="J526" t="n">
-        <v>373</v>
-      </c>
-      <c r="K526" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I526" t="inlineStr"/>
+      <c r="J526" t="inlineStr"/>
+      <c r="K526" t="inlineStr"/>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -17862,17 +17842,11 @@
         <v>-128150.3834113978</v>
       </c>
       <c r="H529" t="n">
-        <v>1</v>
-      </c>
-      <c r="I529" t="n">
-        <v>372</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K529" t="inlineStr"/>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -17901,17 +17875,11 @@
         <v>-128429.2411113978</v>
       </c>
       <c r="H530" t="n">
-        <v>1</v>
-      </c>
-      <c r="I530" t="n">
-        <v>375</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K530" t="inlineStr"/>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -17940,17 +17908,11 @@
         <v>-127040.6007113978</v>
       </c>
       <c r="H531" t="n">
-        <v>1</v>
-      </c>
-      <c r="I531" t="n">
-        <v>374</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K531" t="inlineStr"/>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -17979,17 +17941,11 @@
         <v>-103401.5975113978</v>
       </c>
       <c r="H532" t="n">
-        <v>1</v>
-      </c>
-      <c r="I532" t="n">
-        <v>376</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K532" t="inlineStr"/>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -18022,11 +17978,7 @@
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K533" t="inlineStr"/>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -18059,11 +18011,7 @@
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
-      <c r="K534" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K534" t="inlineStr"/>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -18096,11 +18044,7 @@
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
-      <c r="K535" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K535" t="inlineStr"/>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -18133,11 +18077,7 @@
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K536" t="inlineStr"/>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -18170,11 +18110,7 @@
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
-      <c r="K537" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K537" t="inlineStr"/>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -18207,11 +18143,7 @@
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
-      <c r="K538" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K538" t="inlineStr"/>
       <c r="L538" t="n">
         <v>1</v>
       </c>
@@ -18244,11 +18176,7 @@
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
-      <c r="K539" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K539" t="inlineStr"/>
       <c r="L539" t="n">
         <v>1</v>
       </c>
@@ -18281,11 +18209,7 @@
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
-      <c r="K540" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K540" t="inlineStr"/>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -18318,11 +18242,7 @@
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
-      <c r="K541" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K541" t="inlineStr"/>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -18355,11 +18275,7 @@
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
-      <c r="K542" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K542" t="inlineStr"/>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -18392,11 +18308,7 @@
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
-      <c r="K543" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K543" t="inlineStr"/>
       <c r="L543" t="n">
         <v>1</v>
       </c>
@@ -18429,11 +18341,7 @@
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
-      <c r="K544" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K544" t="inlineStr"/>
       <c r="L544" t="n">
         <v>1</v>
       </c>
@@ -18466,11 +18374,7 @@
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
-      <c r="K545" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K545" t="inlineStr"/>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -18503,11 +18407,7 @@
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
-      <c r="K546" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K546" t="inlineStr"/>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -18540,11 +18440,7 @@
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
-      <c r="K547" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K547" t="inlineStr"/>
       <c r="L547" t="n">
         <v>1</v>
       </c>
@@ -18577,11 +18473,7 @@
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
-      <c r="K548" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K548" t="inlineStr"/>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -18614,11 +18506,7 @@
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
-      <c r="K549" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K549" t="inlineStr"/>
       <c r="L549" t="n">
         <v>1</v>
       </c>
@@ -18651,11 +18539,7 @@
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
-      <c r="K550" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K550" t="inlineStr"/>
       <c r="L550" t="n">
         <v>1</v>
       </c>
@@ -18688,11 +18572,7 @@
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
-      <c r="K551" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K551" t="inlineStr"/>
       <c r="L551" t="n">
         <v>1</v>
       </c>
@@ -18725,11 +18605,7 @@
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
-      <c r="K552" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K552" t="inlineStr"/>
       <c r="L552" t="n">
         <v>1</v>
       </c>
@@ -18762,11 +18638,7 @@
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
-      <c r="K553" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K553" t="inlineStr"/>
       <c r="L553" t="n">
         <v>1</v>
       </c>
@@ -18799,11 +18671,7 @@
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
-      <c r="K554" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K554" t="inlineStr"/>
       <c r="L554" t="n">
         <v>1</v>
       </c>
@@ -18836,11 +18704,7 @@
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
-      <c r="K555" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K555" t="inlineStr"/>
       <c r="L555" t="n">
         <v>1</v>
       </c>
@@ -18873,11 +18737,7 @@
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
-      <c r="K556" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K556" t="inlineStr"/>
       <c r="L556" t="n">
         <v>1</v>
       </c>
@@ -18910,11 +18770,7 @@
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
-      <c r="K557" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K557" t="inlineStr"/>
       <c r="L557" t="n">
         <v>1</v>
       </c>
@@ -18947,11 +18803,7 @@
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
-      <c r="K558" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K558" t="inlineStr"/>
       <c r="L558" t="n">
         <v>1</v>
       </c>
@@ -18984,11 +18836,7 @@
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
-      <c r="K559" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K559" t="inlineStr"/>
       <c r="L559" t="n">
         <v>1</v>
       </c>
@@ -19021,11 +18869,7 @@
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
-      <c r="K560" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K560" t="inlineStr"/>
       <c r="L560" t="n">
         <v>1</v>
       </c>
@@ -19058,11 +18902,7 @@
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
-      <c r="K561" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K561" t="inlineStr"/>
       <c r="L561" t="n">
         <v>1</v>
       </c>
@@ -19095,11 +18935,7 @@
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
-      <c r="K562" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K562" t="inlineStr"/>
       <c r="L562" t="n">
         <v>1</v>
       </c>
@@ -19132,11 +18968,7 @@
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
-      <c r="K563" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K563" t="inlineStr"/>
       <c r="L563" t="n">
         <v>1</v>
       </c>
@@ -19169,11 +19001,7 @@
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
-      <c r="K564" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K564" t="inlineStr"/>
       <c r="L564" t="n">
         <v>1</v>
       </c>
@@ -19206,11 +19034,7 @@
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
-      <c r="K565" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K565" t="inlineStr"/>
       <c r="L565" t="n">
         <v>1</v>
       </c>
@@ -19243,11 +19067,7 @@
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
-      <c r="K566" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K566" t="inlineStr"/>
       <c r="L566" t="n">
         <v>1</v>
       </c>
@@ -19280,11 +19100,7 @@
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
-      <c r="K567" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K567" t="inlineStr"/>
       <c r="L567" t="n">
         <v>1</v>
       </c>
@@ -19317,11 +19133,7 @@
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
-      <c r="K568" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K568" t="inlineStr"/>
       <c r="L568" t="n">
         <v>1</v>
       </c>
@@ -19354,11 +19166,7 @@
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
-      <c r="K569" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K569" t="inlineStr"/>
       <c r="L569" t="n">
         <v>1</v>
       </c>
@@ -19391,11 +19199,7 @@
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
-      <c r="K570" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K570" t="inlineStr"/>
       <c r="L570" t="n">
         <v>1</v>
       </c>
@@ -19428,11 +19232,7 @@
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
-      <c r="K571" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K571" t="inlineStr"/>
       <c r="L571" t="n">
         <v>1</v>
       </c>
@@ -19465,11 +19265,7 @@
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
-      <c r="K572" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K572" t="inlineStr"/>
       <c r="L572" t="n">
         <v>1</v>
       </c>
@@ -19502,11 +19298,7 @@
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
-      <c r="K573" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K573" t="inlineStr"/>
       <c r="L573" t="n">
         <v>1</v>
       </c>
@@ -19539,11 +19331,7 @@
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
-      <c r="K574" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K574" t="inlineStr"/>
       <c r="L574" t="n">
         <v>1</v>
       </c>
@@ -19576,11 +19364,7 @@
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
-      <c r="K575" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K575" t="inlineStr"/>
       <c r="L575" t="n">
         <v>1</v>
       </c>
@@ -19613,11 +19397,7 @@
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
-      <c r="K576" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K576" t="inlineStr"/>
       <c r="L576" t="n">
         <v>1</v>
       </c>
@@ -19650,11 +19430,7 @@
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
-      <c r="K577" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K577" t="inlineStr"/>
       <c r="L577" t="n">
         <v>1</v>
       </c>
@@ -19687,11 +19463,7 @@
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
-      <c r="K578" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K578" t="inlineStr"/>
       <c r="L578" t="n">
         <v>1</v>
       </c>
@@ -19724,11 +19496,7 @@
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
-      <c r="K579" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K579" t="inlineStr"/>
       <c r="L579" t="n">
         <v>1</v>
       </c>
@@ -19761,11 +19529,7 @@
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
-      <c r="K580" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K580" t="inlineStr"/>
       <c r="L580" t="n">
         <v>1</v>
       </c>
@@ -19798,11 +19562,7 @@
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
-      <c r="K581" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K581" t="inlineStr"/>
       <c r="L581" t="n">
         <v>1</v>
       </c>
@@ -19831,15 +19591,15 @@
         <v>-125554.2350674714</v>
       </c>
       <c r="H582" t="n">
-        <v>0</v>
-      </c>
-      <c r="I582" t="inlineStr"/>
-      <c r="J582" t="inlineStr"/>
-      <c r="K582" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I582" t="n">
+        <v>373</v>
+      </c>
+      <c r="J582" t="n">
+        <v>373</v>
+      </c>
+      <c r="K582" t="inlineStr"/>
       <c r="L582" t="n">
         <v>1</v>
       </c>
@@ -19868,13 +19628,17 @@
         <v>-126626.1722674714</v>
       </c>
       <c r="H583" t="n">
-        <v>0</v>
-      </c>
-      <c r="I583" t="inlineStr"/>
-      <c r="J583" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I583" t="n">
+        <v>374</v>
+      </c>
+      <c r="J583" t="n">
+        <v>373</v>
+      </c>
       <c r="K583" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L583" t="n">
@@ -19905,13 +19669,17 @@
         <v>-149354.5755674714</v>
       </c>
       <c r="H584" t="n">
-        <v>0</v>
-      </c>
-      <c r="I584" t="inlineStr"/>
-      <c r="J584" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I584" t="n">
+        <v>373</v>
+      </c>
+      <c r="J584" t="n">
+        <v>373</v>
+      </c>
       <c r="K584" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L584" t="n">
@@ -19947,7 +19715,9 @@
       <c r="I585" t="n">
         <v>371</v>
       </c>
-      <c r="J585" t="inlineStr"/>
+      <c r="J585" t="n">
+        <v>373</v>
+      </c>
       <c r="K585" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19986,7 +19756,9 @@
       <c r="I586" t="n">
         <v>370</v>
       </c>
-      <c r="J586" t="inlineStr"/>
+      <c r="J586" t="n">
+        <v>373</v>
+      </c>
       <c r="K586" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20025,7 +19797,9 @@
       <c r="I587" t="n">
         <v>371</v>
       </c>
-      <c r="J587" t="inlineStr"/>
+      <c r="J587" t="n">
+        <v>373</v>
+      </c>
       <c r="K587" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20064,7 +19838,9 @@
       <c r="I588" t="n">
         <v>371</v>
       </c>
-      <c r="J588" t="inlineStr"/>
+      <c r="J588" t="n">
+        <v>373</v>
+      </c>
       <c r="K588" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20103,7 +19879,9 @@
       <c r="I589" t="n">
         <v>372</v>
       </c>
-      <c r="J589" t="inlineStr"/>
+      <c r="J589" t="n">
+        <v>373</v>
+      </c>
       <c r="K589" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20142,7 +19920,9 @@
       <c r="I590" t="n">
         <v>373</v>
       </c>
-      <c r="J590" t="inlineStr"/>
+      <c r="J590" t="n">
+        <v>373</v>
+      </c>
       <c r="K590" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20176,12 +19956,12 @@
         <v>-115565.6264674714</v>
       </c>
       <c r="H591" t="n">
-        <v>1</v>
-      </c>
-      <c r="I591" t="n">
-        <v>375</v>
-      </c>
-      <c r="J591" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I591" t="inlineStr"/>
+      <c r="J591" t="n">
+        <v>373</v>
+      </c>
       <c r="K591" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20218,7 +19998,9 @@
         <v>0</v>
       </c>
       <c r="I592" t="inlineStr"/>
-      <c r="J592" t="inlineStr"/>
+      <c r="J592" t="n">
+        <v>373</v>
+      </c>
       <c r="K592" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20255,7 +20037,9 @@
         <v>0</v>
       </c>
       <c r="I593" t="inlineStr"/>
-      <c r="J593" t="inlineStr"/>
+      <c r="J593" t="n">
+        <v>373</v>
+      </c>
       <c r="K593" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20292,7 +20076,9 @@
         <v>0</v>
       </c>
       <c r="I594" t="inlineStr"/>
-      <c r="J594" t="inlineStr"/>
+      <c r="J594" t="n">
+        <v>373</v>
+      </c>
       <c r="K594" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20329,7 +20115,9 @@
         <v>0</v>
       </c>
       <c r="I595" t="inlineStr"/>
-      <c r="J595" t="inlineStr"/>
+      <c r="J595" t="n">
+        <v>373</v>
+      </c>
       <c r="K595" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20366,7 +20154,9 @@
         <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
-      <c r="J596" t="inlineStr"/>
+      <c r="J596" t="n">
+        <v>373</v>
+      </c>
       <c r="K596" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20403,7 +20193,9 @@
         <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
-      <c r="J597" t="inlineStr"/>
+      <c r="J597" t="n">
+        <v>373</v>
+      </c>
       <c r="K597" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20440,7 +20232,9 @@
         <v>0</v>
       </c>
       <c r="I598" t="inlineStr"/>
-      <c r="J598" t="inlineStr"/>
+      <c r="J598" t="n">
+        <v>373</v>
+      </c>
       <c r="K598" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20477,7 +20271,9 @@
         <v>0</v>
       </c>
       <c r="I599" t="inlineStr"/>
-      <c r="J599" t="inlineStr"/>
+      <c r="J599" t="n">
+        <v>373</v>
+      </c>
       <c r="K599" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20514,7 +20310,9 @@
         <v>0</v>
       </c>
       <c r="I600" t="inlineStr"/>
-      <c r="J600" t="inlineStr"/>
+      <c r="J600" t="n">
+        <v>373</v>
+      </c>
       <c r="K600" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20551,7 +20349,9 @@
         <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
-      <c r="J601" t="inlineStr"/>
+      <c r="J601" t="n">
+        <v>373</v>
+      </c>
       <c r="K601" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20588,7 +20388,9 @@
         <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
-      <c r="J602" t="inlineStr"/>
+      <c r="J602" t="n">
+        <v>373</v>
+      </c>
       <c r="K602" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20625,7 +20427,9 @@
         <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
-      <c r="J603" t="inlineStr"/>
+      <c r="J603" t="n">
+        <v>373</v>
+      </c>
       <c r="K603" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20662,7 +20466,9 @@
         <v>0</v>
       </c>
       <c r="I604" t="inlineStr"/>
-      <c r="J604" t="inlineStr"/>
+      <c r="J604" t="n">
+        <v>373</v>
+      </c>
       <c r="K604" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20699,7 +20505,9 @@
         <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
-      <c r="J605" t="inlineStr"/>
+      <c r="J605" t="n">
+        <v>373</v>
+      </c>
       <c r="K605" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20733,10 +20541,14 @@
         <v>-113141.4227674714</v>
       </c>
       <c r="H606" t="n">
-        <v>0</v>
-      </c>
-      <c r="I606" t="inlineStr"/>
-      <c r="J606" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I606" t="n">
+        <v>382</v>
+      </c>
+      <c r="J606" t="n">
+        <v>373</v>
+      </c>
       <c r="K606" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20773,7 +20585,9 @@
         <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
-      <c r="J607" t="inlineStr"/>
+      <c r="J607" t="n">
+        <v>373</v>
+      </c>
       <c r="K607" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20810,7 +20624,9 @@
         <v>0</v>
       </c>
       <c r="I608" t="inlineStr"/>
-      <c r="J608" t="inlineStr"/>
+      <c r="J608" t="n">
+        <v>373</v>
+      </c>
       <c r="K608" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20847,7 +20663,9 @@
         <v>0</v>
       </c>
       <c r="I609" t="inlineStr"/>
-      <c r="J609" t="inlineStr"/>
+      <c r="J609" t="n">
+        <v>373</v>
+      </c>
       <c r="K609" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20881,10 +20699,14 @@
         <v>-104497.9949721165</v>
       </c>
       <c r="H610" t="n">
-        <v>0</v>
-      </c>
-      <c r="I610" t="inlineStr"/>
-      <c r="J610" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I610" t="n">
+        <v>383</v>
+      </c>
+      <c r="J610" t="n">
+        <v>373</v>
+      </c>
       <c r="K610" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20918,10 +20740,14 @@
         <v>-106525.1788511741</v>
       </c>
       <c r="H611" t="n">
-        <v>0</v>
-      </c>
-      <c r="I611" t="inlineStr"/>
-      <c r="J611" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I611" t="n">
+        <v>383</v>
+      </c>
+      <c r="J611" t="n">
+        <v>373</v>
+      </c>
       <c r="K611" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20955,10 +20781,14 @@
         <v>-107674.7806511741</v>
       </c>
       <c r="H612" t="n">
-        <v>0</v>
-      </c>
-      <c r="I612" t="inlineStr"/>
-      <c r="J612" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I612" t="n">
+        <v>382</v>
+      </c>
+      <c r="J612" t="n">
+        <v>373</v>
+      </c>
       <c r="K612" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20992,10 +20822,14 @@
         <v>-107769.9846511741</v>
       </c>
       <c r="H613" t="n">
-        <v>0</v>
-      </c>
-      <c r="I613" t="inlineStr"/>
-      <c r="J613" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I613" t="n">
+        <v>380</v>
+      </c>
+      <c r="J613" t="n">
+        <v>373</v>
+      </c>
       <c r="K613" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21029,10 +20863,14 @@
         <v>-108559.4900511741</v>
       </c>
       <c r="H614" t="n">
-        <v>0</v>
-      </c>
-      <c r="I614" t="inlineStr"/>
-      <c r="J614" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I614" t="n">
+        <v>379</v>
+      </c>
+      <c r="J614" t="n">
+        <v>373</v>
+      </c>
       <c r="K614" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21066,10 +20904,14 @@
         <v>-109526.5932326556</v>
       </c>
       <c r="H615" t="n">
-        <v>0</v>
-      </c>
-      <c r="I615" t="inlineStr"/>
-      <c r="J615" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I615" t="n">
+        <v>378</v>
+      </c>
+      <c r="J615" t="n">
+        <v>373</v>
+      </c>
       <c r="K615" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21103,10 +20945,14 @@
         <v>-106848.9605326556</v>
       </c>
       <c r="H616" t="n">
-        <v>0</v>
-      </c>
-      <c r="I616" t="inlineStr"/>
-      <c r="J616" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I616" t="n">
+        <v>377</v>
+      </c>
+      <c r="J616" t="n">
+        <v>373</v>
+      </c>
       <c r="K616" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21140,10 +20986,14 @@
         <v>-104386.9262825243</v>
       </c>
       <c r="H617" t="n">
-        <v>0</v>
-      </c>
-      <c r="I617" t="inlineStr"/>
-      <c r="J617" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I617" t="n">
+        <v>378</v>
+      </c>
+      <c r="J617" t="n">
+        <v>373</v>
+      </c>
       <c r="K617" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21177,10 +21027,14 @@
         <v>-107786.3979825243</v>
       </c>
       <c r="H618" t="n">
-        <v>0</v>
-      </c>
-      <c r="I618" t="inlineStr"/>
-      <c r="J618" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I618" t="n">
+        <v>381</v>
+      </c>
+      <c r="J618" t="n">
+        <v>373</v>
+      </c>
       <c r="K618" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21214,10 +21068,14 @@
         <v>-107786.3979825243</v>
       </c>
       <c r="H619" t="n">
-        <v>0</v>
-      </c>
-      <c r="I619" t="inlineStr"/>
-      <c r="J619" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I619" t="n">
+        <v>380</v>
+      </c>
+      <c r="J619" t="n">
+        <v>373</v>
+      </c>
       <c r="K619" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21251,10 +21109,14 @@
         <v>-107786.3979825243</v>
       </c>
       <c r="H620" t="n">
-        <v>0</v>
-      </c>
-      <c r="I620" t="inlineStr"/>
-      <c r="J620" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I620" t="n">
+        <v>380</v>
+      </c>
+      <c r="J620" t="n">
+        <v>373</v>
+      </c>
       <c r="K620" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21288,10 +21150,14 @@
         <v>-105861.3849825243</v>
       </c>
       <c r="H621" t="n">
-        <v>0</v>
-      </c>
-      <c r="I621" t="inlineStr"/>
-      <c r="J621" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I621" t="n">
+        <v>380</v>
+      </c>
+      <c r="J621" t="n">
+        <v>373</v>
+      </c>
       <c r="K621" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21325,10 +21191,14 @@
         <v>-105861.3849825243</v>
       </c>
       <c r="H622" t="n">
-        <v>0</v>
-      </c>
-      <c r="I622" t="inlineStr"/>
-      <c r="J622" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I622" t="n">
+        <v>381</v>
+      </c>
+      <c r="J622" t="n">
+        <v>373</v>
+      </c>
       <c r="K622" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21362,10 +21232,14 @@
         <v>-105861.3849825243</v>
       </c>
       <c r="H623" t="n">
-        <v>0</v>
-      </c>
-      <c r="I623" t="inlineStr"/>
-      <c r="J623" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I623" t="n">
+        <v>381</v>
+      </c>
+      <c r="J623" t="n">
+        <v>373</v>
+      </c>
       <c r="K623" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21399,10 +21273,14 @@
         <v>-99539.52248252432</v>
       </c>
       <c r="H624" t="n">
-        <v>0</v>
-      </c>
-      <c r="I624" t="inlineStr"/>
-      <c r="J624" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I624" t="n">
+        <v>381</v>
+      </c>
+      <c r="J624" t="n">
+        <v>373</v>
+      </c>
       <c r="K624" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21436,10 +21314,14 @@
         <v>-95350.67048252432</v>
       </c>
       <c r="H625" t="n">
-        <v>0</v>
-      </c>
-      <c r="I625" t="inlineStr"/>
-      <c r="J625" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I625" t="n">
+        <v>382</v>
+      </c>
+      <c r="J625" t="n">
+        <v>373</v>
+      </c>
       <c r="K625" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21473,10 +21355,14 @@
         <v>-95350.67048252432</v>
       </c>
       <c r="H626" t="n">
-        <v>0</v>
-      </c>
-      <c r="I626" t="inlineStr"/>
-      <c r="J626" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I626" t="n">
+        <v>383</v>
+      </c>
+      <c r="J626" t="n">
+        <v>373</v>
+      </c>
       <c r="K626" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21510,10 +21396,14 @@
         <v>-83094.75128252432</v>
       </c>
       <c r="H627" t="n">
-        <v>0</v>
-      </c>
-      <c r="I627" t="inlineStr"/>
-      <c r="J627" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I627" t="n">
+        <v>383</v>
+      </c>
+      <c r="J627" t="n">
+        <v>373</v>
+      </c>
       <c r="K627" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21550,7 +21440,9 @@
         <v>0</v>
       </c>
       <c r="I628" t="inlineStr"/>
-      <c r="J628" t="inlineStr"/>
+      <c r="J628" t="n">
+        <v>373</v>
+      </c>
       <c r="K628" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21584,16 +21476,20 @@
         <v>-54661.83138252432</v>
       </c>
       <c r="H629" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I629" t="inlineStr"/>
-      <c r="J629" t="inlineStr"/>
+      <c r="J629" t="n">
+        <v>373</v>
+      </c>
       <c r="K629" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L629" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L629" t="n">
+        <v>1</v>
+      </c>
       <c r="M629" t="inlineStr"/>
     </row>
     <row r="630">
@@ -21619,11 +21515,17 @@
         <v>-54661.83138252432</v>
       </c>
       <c r="H630" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I630" t="inlineStr"/>
-      <c r="J630" t="inlineStr"/>
-      <c r="K630" t="inlineStr"/>
+      <c r="J630" t="n">
+        <v>373</v>
+      </c>
+      <c r="K630" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L630" t="n">
         <v>1</v>
       </c>
@@ -21652,11 +21554,17 @@
         <v>-54661.83138252432</v>
       </c>
       <c r="H631" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I631" t="inlineStr"/>
-      <c r="J631" t="inlineStr"/>
-      <c r="K631" t="inlineStr"/>
+      <c r="J631" t="n">
+        <v>373</v>
+      </c>
+      <c r="K631" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L631" t="n">
         <v>1</v>
       </c>
@@ -21685,11 +21593,17 @@
         <v>-54661.83138252432</v>
       </c>
       <c r="H632" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I632" t="inlineStr"/>
-      <c r="J632" t="inlineStr"/>
-      <c r="K632" t="inlineStr"/>
+      <c r="J632" t="n">
+        <v>373</v>
+      </c>
+      <c r="K632" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L632" t="n">
         <v>1</v>
       </c>
@@ -21718,11 +21632,17 @@
         <v>-54912.05778252432</v>
       </c>
       <c r="H633" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I633" t="inlineStr"/>
-      <c r="J633" t="inlineStr"/>
-      <c r="K633" t="inlineStr"/>
+      <c r="J633" t="n">
+        <v>373</v>
+      </c>
+      <c r="K633" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L633" t="n">
         <v>1</v>
       </c>
@@ -21751,11 +21671,17 @@
         <v>-54912.05778252432</v>
       </c>
       <c r="H634" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I634" t="inlineStr"/>
-      <c r="J634" t="inlineStr"/>
-      <c r="K634" t="inlineStr"/>
+      <c r="J634" t="n">
+        <v>373</v>
+      </c>
+      <c r="K634" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L634" t="n">
         <v>1</v>
       </c>
@@ -21784,11 +21710,17 @@
         <v>-54912.05778252432</v>
       </c>
       <c r="H635" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I635" t="inlineStr"/>
-      <c r="J635" t="inlineStr"/>
-      <c r="K635" t="inlineStr"/>
+      <c r="J635" t="n">
+        <v>373</v>
+      </c>
+      <c r="K635" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L635" t="n">
         <v>1</v>
       </c>
@@ -21820,8 +21752,14 @@
         <v>0</v>
       </c>
       <c r="I636" t="inlineStr"/>
-      <c r="J636" t="inlineStr"/>
-      <c r="K636" t="inlineStr"/>
+      <c r="J636" t="n">
+        <v>373</v>
+      </c>
+      <c r="K636" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L636" t="n">
         <v>1</v>
       </c>
@@ -21853,8 +21791,14 @@
         <v>0</v>
       </c>
       <c r="I637" t="inlineStr"/>
-      <c r="J637" t="inlineStr"/>
-      <c r="K637" t="inlineStr"/>
+      <c r="J637" t="n">
+        <v>373</v>
+      </c>
+      <c r="K637" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L637" t="n">
         <v>1</v>
       </c>
@@ -21883,11 +21827,17 @@
         <v>-31619.15658252432</v>
       </c>
       <c r="H638" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I638" t="inlineStr"/>
-      <c r="J638" t="inlineStr"/>
-      <c r="K638" t="inlineStr"/>
+      <c r="J638" t="n">
+        <v>373</v>
+      </c>
+      <c r="K638" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L638" t="n">
         <v>1</v>
       </c>
@@ -21919,8 +21869,14 @@
         <v>0</v>
       </c>
       <c r="I639" t="inlineStr"/>
-      <c r="J639" t="inlineStr"/>
-      <c r="K639" t="inlineStr"/>
+      <c r="J639" t="n">
+        <v>373</v>
+      </c>
+      <c r="K639" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L639" t="n">
         <v>1</v>
       </c>
@@ -21952,8 +21908,14 @@
         <v>0</v>
       </c>
       <c r="I640" t="inlineStr"/>
-      <c r="J640" t="inlineStr"/>
-      <c r="K640" t="inlineStr"/>
+      <c r="J640" t="n">
+        <v>373</v>
+      </c>
+      <c r="K640" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L640" t="n">
         <v>1</v>
       </c>
@@ -21985,8 +21947,14 @@
         <v>0</v>
       </c>
       <c r="I641" t="inlineStr"/>
-      <c r="J641" t="inlineStr"/>
-      <c r="K641" t="inlineStr"/>
+      <c r="J641" t="n">
+        <v>373</v>
+      </c>
+      <c r="K641" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L641" t="n">
         <v>1</v>
       </c>
@@ -22018,8 +21986,14 @@
         <v>0</v>
       </c>
       <c r="I642" t="inlineStr"/>
-      <c r="J642" t="inlineStr"/>
-      <c r="K642" t="inlineStr"/>
+      <c r="J642" t="n">
+        <v>373</v>
+      </c>
+      <c r="K642" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L642" t="n">
         <v>1</v>
       </c>
@@ -22051,8 +22025,14 @@
         <v>0</v>
       </c>
       <c r="I643" t="inlineStr"/>
-      <c r="J643" t="inlineStr"/>
-      <c r="K643" t="inlineStr"/>
+      <c r="J643" t="n">
+        <v>373</v>
+      </c>
+      <c r="K643" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L643" t="n">
         <v>1</v>
       </c>
@@ -22084,8 +22064,14 @@
         <v>0</v>
       </c>
       <c r="I644" t="inlineStr"/>
-      <c r="J644" t="inlineStr"/>
-      <c r="K644" t="inlineStr"/>
+      <c r="J644" t="n">
+        <v>373</v>
+      </c>
+      <c r="K644" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L644" t="n">
         <v>1</v>
       </c>
@@ -22117,8 +22103,14 @@
         <v>0</v>
       </c>
       <c r="I645" t="inlineStr"/>
-      <c r="J645" t="inlineStr"/>
-      <c r="K645" t="inlineStr"/>
+      <c r="J645" t="n">
+        <v>373</v>
+      </c>
+      <c r="K645" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L645" t="n">
         <v>1</v>
       </c>
@@ -22150,8 +22142,14 @@
         <v>0</v>
       </c>
       <c r="I646" t="inlineStr"/>
-      <c r="J646" t="inlineStr"/>
-      <c r="K646" t="inlineStr"/>
+      <c r="J646" t="n">
+        <v>373</v>
+      </c>
+      <c r="K646" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L646" t="n">
         <v>1</v>
       </c>
@@ -22183,8 +22181,14 @@
         <v>0</v>
       </c>
       <c r="I647" t="inlineStr"/>
-      <c r="J647" t="inlineStr"/>
-      <c r="K647" t="inlineStr"/>
+      <c r="J647" t="n">
+        <v>373</v>
+      </c>
+      <c r="K647" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L647" t="n">
         <v>1</v>
       </c>
@@ -22216,8 +22220,14 @@
         <v>0</v>
       </c>
       <c r="I648" t="inlineStr"/>
-      <c r="J648" t="inlineStr"/>
-      <c r="K648" t="inlineStr"/>
+      <c r="J648" t="n">
+        <v>373</v>
+      </c>
+      <c r="K648" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L648" t="n">
         <v>1</v>
       </c>
@@ -22249,8 +22259,14 @@
         <v>0</v>
       </c>
       <c r="I649" t="inlineStr"/>
-      <c r="J649" t="inlineStr"/>
-      <c r="K649" t="inlineStr"/>
+      <c r="J649" t="n">
+        <v>373</v>
+      </c>
+      <c r="K649" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L649" t="n">
         <v>1</v>
       </c>
@@ -22282,8 +22298,14 @@
         <v>0</v>
       </c>
       <c r="I650" t="inlineStr"/>
-      <c r="J650" t="inlineStr"/>
-      <c r="K650" t="inlineStr"/>
+      <c r="J650" t="n">
+        <v>373</v>
+      </c>
+      <c r="K650" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L650" t="n">
         <v>1</v>
       </c>
@@ -22312,11 +22334,17 @@
         <v>5564.774416782321</v>
       </c>
       <c r="H651" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I651" t="inlineStr"/>
-      <c r="J651" t="inlineStr"/>
-      <c r="K651" t="inlineStr"/>
+      <c r="J651" t="n">
+        <v>373</v>
+      </c>
+      <c r="K651" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L651" t="n">
         <v>1</v>
       </c>
@@ -22345,11 +22373,17 @@
         <v>1449.084416782322</v>
       </c>
       <c r="H652" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I652" t="inlineStr"/>
-      <c r="J652" t="inlineStr"/>
-      <c r="K652" t="inlineStr"/>
+      <c r="J652" t="n">
+        <v>373</v>
+      </c>
+      <c r="K652" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L652" t="n">
         <v>1</v>
       </c>
@@ -22378,11 +22412,17 @@
         <v>1449.084416782322</v>
       </c>
       <c r="H653" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I653" t="inlineStr"/>
-      <c r="J653" t="inlineStr"/>
-      <c r="K653" t="inlineStr"/>
+      <c r="J653" t="n">
+        <v>373</v>
+      </c>
+      <c r="K653" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L653" t="n">
         <v>1</v>
       </c>
@@ -22411,11 +22451,17 @@
         <v>-2712.721983217679</v>
       </c>
       <c r="H654" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I654" t="inlineStr"/>
-      <c r="J654" t="inlineStr"/>
-      <c r="K654" t="inlineStr"/>
+      <c r="J654" t="n">
+        <v>373</v>
+      </c>
+      <c r="K654" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L654" t="n">
         <v>1</v>
       </c>
@@ -22447,8 +22493,14 @@
         <v>0</v>
       </c>
       <c r="I655" t="inlineStr"/>
-      <c r="J655" t="inlineStr"/>
-      <c r="K655" t="inlineStr"/>
+      <c r="J655" t="n">
+        <v>373</v>
+      </c>
+      <c r="K655" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L655" t="n">
         <v>1</v>
       </c>
@@ -22480,8 +22532,14 @@
         <v>0</v>
       </c>
       <c r="I656" t="inlineStr"/>
-      <c r="J656" t="inlineStr"/>
-      <c r="K656" t="inlineStr"/>
+      <c r="J656" t="n">
+        <v>373</v>
+      </c>
+      <c r="K656" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L656" t="n">
         <v>1</v>
       </c>
@@ -22513,8 +22571,14 @@
         <v>0</v>
       </c>
       <c r="I657" t="inlineStr"/>
-      <c r="J657" t="inlineStr"/>
-      <c r="K657" t="inlineStr"/>
+      <c r="J657" t="n">
+        <v>373</v>
+      </c>
+      <c r="K657" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L657" t="n">
         <v>1</v>
       </c>
@@ -22546,8 +22610,14 @@
         <v>0</v>
       </c>
       <c r="I658" t="inlineStr"/>
-      <c r="J658" t="inlineStr"/>
-      <c r="K658" t="inlineStr"/>
+      <c r="J658" t="n">
+        <v>373</v>
+      </c>
+      <c r="K658" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L658" t="n">
         <v>1</v>
       </c>
@@ -22579,8 +22649,14 @@
         <v>0</v>
       </c>
       <c r="I659" t="inlineStr"/>
-      <c r="J659" t="inlineStr"/>
-      <c r="K659" t="inlineStr"/>
+      <c r="J659" t="n">
+        <v>373</v>
+      </c>
+      <c r="K659" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L659" t="n">
         <v>1</v>
       </c>
@@ -22612,8 +22688,14 @@
         <v>0</v>
       </c>
       <c r="I660" t="inlineStr"/>
-      <c r="J660" t="inlineStr"/>
-      <c r="K660" t="inlineStr"/>
+      <c r="J660" t="n">
+        <v>373</v>
+      </c>
+      <c r="K660" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L660" t="n">
         <v>1</v>
       </c>
@@ -22645,8 +22727,14 @@
         <v>0</v>
       </c>
       <c r="I661" t="inlineStr"/>
-      <c r="J661" t="inlineStr"/>
-      <c r="K661" t="inlineStr"/>
+      <c r="J661" t="n">
+        <v>373</v>
+      </c>
+      <c r="K661" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L661" t="n">
         <v>1</v>
       </c>
@@ -22678,8 +22766,14 @@
         <v>0</v>
       </c>
       <c r="I662" t="inlineStr"/>
-      <c r="J662" t="inlineStr"/>
-      <c r="K662" t="inlineStr"/>
+      <c r="J662" t="n">
+        <v>373</v>
+      </c>
+      <c r="K662" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L662" t="n">
         <v>1</v>
       </c>
@@ -22711,8 +22805,14 @@
         <v>0</v>
       </c>
       <c r="I663" t="inlineStr"/>
-      <c r="J663" t="inlineStr"/>
-      <c r="K663" t="inlineStr"/>
+      <c r="J663" t="n">
+        <v>373</v>
+      </c>
+      <c r="K663" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L663" t="n">
         <v>1</v>
       </c>
@@ -22741,11 +22841,17 @@
         <v>-16337.9062062946</v>
       </c>
       <c r="H664" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I664" t="inlineStr"/>
-      <c r="J664" t="inlineStr"/>
-      <c r="K664" t="inlineStr"/>
+      <c r="J664" t="n">
+        <v>373</v>
+      </c>
+      <c r="K664" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L664" t="n">
         <v>1</v>
       </c>
@@ -22774,11 +22880,17 @@
         <v>-16333.2250062946</v>
       </c>
       <c r="H665" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I665" t="inlineStr"/>
-      <c r="J665" t="inlineStr"/>
-      <c r="K665" t="inlineStr"/>
+      <c r="J665" t="n">
+        <v>373</v>
+      </c>
+      <c r="K665" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L665" t="n">
         <v>1</v>
       </c>
@@ -22807,11 +22919,17 @@
         <v>-16662.2250062946</v>
       </c>
       <c r="H666" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I666" t="inlineStr"/>
-      <c r="J666" t="inlineStr"/>
-      <c r="K666" t="inlineStr"/>
+      <c r="J666" t="n">
+        <v>373</v>
+      </c>
+      <c r="K666" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L666" t="n">
         <v>1</v>
       </c>
@@ -22840,11 +22958,17 @@
         <v>-16697.4644062946</v>
       </c>
       <c r="H667" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I667" t="inlineStr"/>
-      <c r="J667" t="inlineStr"/>
-      <c r="K667" t="inlineStr"/>
+      <c r="J667" t="n">
+        <v>373</v>
+      </c>
+      <c r="K667" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L667" t="n">
         <v>1</v>
       </c>
@@ -22876,8 +23000,14 @@
         <v>0</v>
       </c>
       <c r="I668" t="inlineStr"/>
-      <c r="J668" t="inlineStr"/>
-      <c r="K668" t="inlineStr"/>
+      <c r="J668" t="n">
+        <v>373</v>
+      </c>
+      <c r="K668" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L668" t="n">
         <v>1</v>
       </c>
@@ -22909,8 +23039,14 @@
         <v>0</v>
       </c>
       <c r="I669" t="inlineStr"/>
-      <c r="J669" t="inlineStr"/>
-      <c r="K669" t="inlineStr"/>
+      <c r="J669" t="n">
+        <v>373</v>
+      </c>
+      <c r="K669" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L669" t="n">
         <v>1</v>
       </c>
@@ -22942,8 +23078,14 @@
         <v>0</v>
       </c>
       <c r="I670" t="inlineStr"/>
-      <c r="J670" t="inlineStr"/>
-      <c r="K670" t="inlineStr"/>
+      <c r="J670" t="n">
+        <v>373</v>
+      </c>
+      <c r="K670" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L670" t="n">
         <v>1</v>
       </c>
@@ -22975,8 +23117,14 @@
         <v>0</v>
       </c>
       <c r="I671" t="inlineStr"/>
-      <c r="J671" t="inlineStr"/>
-      <c r="K671" t="inlineStr"/>
+      <c r="J671" t="n">
+        <v>373</v>
+      </c>
+      <c r="K671" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L671" t="n">
         <v>1</v>
       </c>
@@ -23008,8 +23156,14 @@
         <v>0</v>
       </c>
       <c r="I672" t="inlineStr"/>
-      <c r="J672" t="inlineStr"/>
-      <c r="K672" t="inlineStr"/>
+      <c r="J672" t="n">
+        <v>373</v>
+      </c>
+      <c r="K672" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L672" t="n">
         <v>1</v>
       </c>
@@ -23041,8 +23195,14 @@
         <v>0</v>
       </c>
       <c r="I673" t="inlineStr"/>
-      <c r="J673" t="inlineStr"/>
-      <c r="K673" t="inlineStr"/>
+      <c r="J673" t="n">
+        <v>373</v>
+      </c>
+      <c r="K673" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L673" t="n">
         <v>1</v>
       </c>
@@ -23074,8 +23234,14 @@
         <v>0</v>
       </c>
       <c r="I674" t="inlineStr"/>
-      <c r="J674" t="inlineStr"/>
-      <c r="K674" t="inlineStr"/>
+      <c r="J674" t="n">
+        <v>373</v>
+      </c>
+      <c r="K674" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L674" t="n">
         <v>1</v>
       </c>
@@ -23107,8 +23273,14 @@
         <v>0</v>
       </c>
       <c r="I675" t="inlineStr"/>
-      <c r="J675" t="inlineStr"/>
-      <c r="K675" t="inlineStr"/>
+      <c r="J675" t="n">
+        <v>373</v>
+      </c>
+      <c r="K675" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L675" t="n">
         <v>1</v>
       </c>
@@ -23140,8 +23312,14 @@
         <v>0</v>
       </c>
       <c r="I676" t="inlineStr"/>
-      <c r="J676" t="inlineStr"/>
-      <c r="K676" t="inlineStr"/>
+      <c r="J676" t="n">
+        <v>373</v>
+      </c>
+      <c r="K676" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L676" t="n">
         <v>1</v>
       </c>
@@ -23173,8 +23351,14 @@
         <v>0</v>
       </c>
       <c r="I677" t="inlineStr"/>
-      <c r="J677" t="inlineStr"/>
-      <c r="K677" t="inlineStr"/>
+      <c r="J677" t="n">
+        <v>373</v>
+      </c>
+      <c r="K677" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L677" t="n">
         <v>1</v>
       </c>
@@ -23206,8 +23390,14 @@
         <v>0</v>
       </c>
       <c r="I678" t="inlineStr"/>
-      <c r="J678" t="inlineStr"/>
-      <c r="K678" t="inlineStr"/>
+      <c r="J678" t="n">
+        <v>373</v>
+      </c>
+      <c r="K678" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L678" t="n">
         <v>1</v>
       </c>
@@ -23239,8 +23429,14 @@
         <v>0</v>
       </c>
       <c r="I679" t="inlineStr"/>
-      <c r="J679" t="inlineStr"/>
-      <c r="K679" t="inlineStr"/>
+      <c r="J679" t="n">
+        <v>373</v>
+      </c>
+      <c r="K679" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L679" t="n">
         <v>1</v>
       </c>
@@ -23272,8 +23468,14 @@
         <v>0</v>
       </c>
       <c r="I680" t="inlineStr"/>
-      <c r="J680" t="inlineStr"/>
-      <c r="K680" t="inlineStr"/>
+      <c r="J680" t="n">
+        <v>373</v>
+      </c>
+      <c r="K680" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L680" t="n">
         <v>1</v>
       </c>
@@ -23305,8 +23507,14 @@
         <v>0</v>
       </c>
       <c r="I681" t="inlineStr"/>
-      <c r="J681" t="inlineStr"/>
-      <c r="K681" t="inlineStr"/>
+      <c r="J681" t="n">
+        <v>373</v>
+      </c>
+      <c r="K681" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L681" t="n">
         <v>1</v>
       </c>
@@ -23338,8 +23546,14 @@
         <v>0</v>
       </c>
       <c r="I682" t="inlineStr"/>
-      <c r="J682" t="inlineStr"/>
-      <c r="K682" t="inlineStr"/>
+      <c r="J682" t="n">
+        <v>373</v>
+      </c>
+      <c r="K682" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L682" t="n">
         <v>1</v>
       </c>
@@ -23371,8 +23585,14 @@
         <v>0</v>
       </c>
       <c r="I683" t="inlineStr"/>
-      <c r="J683" t="inlineStr"/>
-      <c r="K683" t="inlineStr"/>
+      <c r="J683" t="n">
+        <v>373</v>
+      </c>
+      <c r="K683" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L683" t="n">
         <v>1</v>
       </c>
@@ -23404,8 +23624,14 @@
         <v>0</v>
       </c>
       <c r="I684" t="inlineStr"/>
-      <c r="J684" t="inlineStr"/>
-      <c r="K684" t="inlineStr"/>
+      <c r="J684" t="n">
+        <v>373</v>
+      </c>
+      <c r="K684" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L684" t="n">
         <v>1</v>
       </c>
@@ -23437,8 +23663,14 @@
         <v>0</v>
       </c>
       <c r="I685" t="inlineStr"/>
-      <c r="J685" t="inlineStr"/>
-      <c r="K685" t="inlineStr"/>
+      <c r="J685" t="n">
+        <v>373</v>
+      </c>
+      <c r="K685" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L685" t="n">
         <v>1</v>
       </c>
@@ -23470,8 +23702,14 @@
         <v>0</v>
       </c>
       <c r="I686" t="inlineStr"/>
-      <c r="J686" t="inlineStr"/>
-      <c r="K686" t="inlineStr"/>
+      <c r="J686" t="n">
+        <v>373</v>
+      </c>
+      <c r="K686" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L686" t="n">
         <v>1</v>
       </c>
@@ -23503,8 +23741,14 @@
         <v>0</v>
       </c>
       <c r="I687" t="inlineStr"/>
-      <c r="J687" t="inlineStr"/>
-      <c r="K687" t="inlineStr"/>
+      <c r="J687" t="n">
+        <v>373</v>
+      </c>
+      <c r="K687" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L687" t="n">
         <v>1</v>
       </c>
@@ -23536,8 +23780,14 @@
         <v>0</v>
       </c>
       <c r="I688" t="inlineStr"/>
-      <c r="J688" t="inlineStr"/>
-      <c r="K688" t="inlineStr"/>
+      <c r="J688" t="n">
+        <v>373</v>
+      </c>
+      <c r="K688" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L688" t="n">
         <v>1</v>
       </c>
@@ -23569,8 +23819,14 @@
         <v>0</v>
       </c>
       <c r="I689" t="inlineStr"/>
-      <c r="J689" t="inlineStr"/>
-      <c r="K689" t="inlineStr"/>
+      <c r="J689" t="n">
+        <v>373</v>
+      </c>
+      <c r="K689" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L689" t="n">
         <v>1</v>
       </c>
@@ -23602,8 +23858,14 @@
         <v>0</v>
       </c>
       <c r="I690" t="inlineStr"/>
-      <c r="J690" t="inlineStr"/>
-      <c r="K690" t="inlineStr"/>
+      <c r="J690" t="n">
+        <v>373</v>
+      </c>
+      <c r="K690" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L690" t="n">
         <v>1</v>
       </c>
@@ -23635,8 +23897,14 @@
         <v>0</v>
       </c>
       <c r="I691" t="inlineStr"/>
-      <c r="J691" t="inlineStr"/>
-      <c r="K691" t="inlineStr"/>
+      <c r="J691" t="n">
+        <v>373</v>
+      </c>
+      <c r="K691" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L691" t="n">
         <v>1</v>
       </c>
@@ -23668,8 +23936,14 @@
         <v>0</v>
       </c>
       <c r="I692" t="inlineStr"/>
-      <c r="J692" t="inlineStr"/>
-      <c r="K692" t="inlineStr"/>
+      <c r="J692" t="n">
+        <v>373</v>
+      </c>
+      <c r="K692" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L692" t="n">
         <v>1</v>
       </c>
@@ -23701,8 +23975,14 @@
         <v>0</v>
       </c>
       <c r="I693" t="inlineStr"/>
-      <c r="J693" t="inlineStr"/>
-      <c r="K693" t="inlineStr"/>
+      <c r="J693" t="n">
+        <v>373</v>
+      </c>
+      <c r="K693" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L693" t="n">
         <v>1</v>
       </c>
@@ -23734,8 +24014,14 @@
         <v>0</v>
       </c>
       <c r="I694" t="inlineStr"/>
-      <c r="J694" t="inlineStr"/>
-      <c r="K694" t="inlineStr"/>
+      <c r="J694" t="n">
+        <v>373</v>
+      </c>
+      <c r="K694" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L694" t="n">
         <v>1</v>
       </c>
@@ -23767,8 +24053,14 @@
         <v>0</v>
       </c>
       <c r="I695" t="inlineStr"/>
-      <c r="J695" t="inlineStr"/>
-      <c r="K695" t="inlineStr"/>
+      <c r="J695" t="n">
+        <v>373</v>
+      </c>
+      <c r="K695" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L695" t="n">
         <v>1</v>
       </c>
@@ -23800,8 +24092,14 @@
         <v>0</v>
       </c>
       <c r="I696" t="inlineStr"/>
-      <c r="J696" t="inlineStr"/>
-      <c r="K696" t="inlineStr"/>
+      <c r="J696" t="n">
+        <v>373</v>
+      </c>
+      <c r="K696" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L696" t="n">
         <v>1</v>
       </c>
@@ -23833,8 +24131,14 @@
         <v>0</v>
       </c>
       <c r="I697" t="inlineStr"/>
-      <c r="J697" t="inlineStr"/>
-      <c r="K697" t="inlineStr"/>
+      <c r="J697" t="n">
+        <v>373</v>
+      </c>
+      <c r="K697" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L697" t="n">
         <v>1</v>
       </c>
@@ -23866,8 +24170,14 @@
         <v>0</v>
       </c>
       <c r="I698" t="inlineStr"/>
-      <c r="J698" t="inlineStr"/>
-      <c r="K698" t="inlineStr"/>
+      <c r="J698" t="n">
+        <v>373</v>
+      </c>
+      <c r="K698" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L698" t="n">
         <v>1</v>
       </c>
@@ -23899,8 +24209,14 @@
         <v>0</v>
       </c>
       <c r="I699" t="inlineStr"/>
-      <c r="J699" t="inlineStr"/>
-      <c r="K699" t="inlineStr"/>
+      <c r="J699" t="n">
+        <v>373</v>
+      </c>
+      <c r="K699" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L699" t="n">
         <v>1</v>
       </c>
@@ -23932,8 +24248,14 @@
         <v>0</v>
       </c>
       <c r="I700" t="inlineStr"/>
-      <c r="J700" t="inlineStr"/>
-      <c r="K700" t="inlineStr"/>
+      <c r="J700" t="n">
+        <v>373</v>
+      </c>
+      <c r="K700" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L700" t="n">
         <v>1</v>
       </c>
@@ -23965,8 +24287,14 @@
         <v>0</v>
       </c>
       <c r="I701" t="inlineStr"/>
-      <c r="J701" t="inlineStr"/>
-      <c r="K701" t="inlineStr"/>
+      <c r="J701" t="n">
+        <v>373</v>
+      </c>
+      <c r="K701" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L701" t="n">
         <v>1</v>
       </c>
@@ -23998,8 +24326,14 @@
         <v>0</v>
       </c>
       <c r="I702" t="inlineStr"/>
-      <c r="J702" t="inlineStr"/>
-      <c r="K702" t="inlineStr"/>
+      <c r="J702" t="n">
+        <v>373</v>
+      </c>
+      <c r="K702" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L702" t="n">
         <v>1</v>
       </c>
@@ -24031,8 +24365,14 @@
         <v>0</v>
       </c>
       <c r="I703" t="inlineStr"/>
-      <c r="J703" t="inlineStr"/>
-      <c r="K703" t="inlineStr"/>
+      <c r="J703" t="n">
+        <v>373</v>
+      </c>
+      <c r="K703" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L703" t="n">
         <v>1</v>
       </c>
@@ -24064,8 +24404,14 @@
         <v>0</v>
       </c>
       <c r="I704" t="inlineStr"/>
-      <c r="J704" t="inlineStr"/>
-      <c r="K704" t="inlineStr"/>
+      <c r="J704" t="n">
+        <v>373</v>
+      </c>
+      <c r="K704" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L704" t="n">
         <v>1</v>
       </c>
@@ -24097,8 +24443,14 @@
         <v>0</v>
       </c>
       <c r="I705" t="inlineStr"/>
-      <c r="J705" t="inlineStr"/>
-      <c r="K705" t="inlineStr"/>
+      <c r="J705" t="n">
+        <v>373</v>
+      </c>
+      <c r="K705" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L705" t="n">
         <v>1</v>
       </c>
@@ -24130,8 +24482,14 @@
         <v>0</v>
       </c>
       <c r="I706" t="inlineStr"/>
-      <c r="J706" t="inlineStr"/>
-      <c r="K706" t="inlineStr"/>
+      <c r="J706" t="n">
+        <v>373</v>
+      </c>
+      <c r="K706" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L706" t="n">
         <v>1</v>
       </c>
@@ -24163,8 +24521,14 @@
         <v>0</v>
       </c>
       <c r="I707" t="inlineStr"/>
-      <c r="J707" t="inlineStr"/>
-      <c r="K707" t="inlineStr"/>
+      <c r="J707" t="n">
+        <v>373</v>
+      </c>
+      <c r="K707" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L707" t="n">
         <v>1</v>
       </c>
@@ -24196,8 +24560,14 @@
         <v>0</v>
       </c>
       <c r="I708" t="inlineStr"/>
-      <c r="J708" t="inlineStr"/>
-      <c r="K708" t="inlineStr"/>
+      <c r="J708" t="n">
+        <v>373</v>
+      </c>
+      <c r="K708" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L708" t="n">
         <v>1</v>
       </c>
@@ -24229,8 +24599,14 @@
         <v>0</v>
       </c>
       <c r="I709" t="inlineStr"/>
-      <c r="J709" t="inlineStr"/>
-      <c r="K709" t="inlineStr"/>
+      <c r="J709" t="n">
+        <v>373</v>
+      </c>
+      <c r="K709" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L709" t="n">
         <v>1</v>
       </c>
@@ -24262,8 +24638,14 @@
         <v>0</v>
       </c>
       <c r="I710" t="inlineStr"/>
-      <c r="J710" t="inlineStr"/>
-      <c r="K710" t="inlineStr"/>
+      <c r="J710" t="n">
+        <v>373</v>
+      </c>
+      <c r="K710" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L710" t="n">
         <v>1</v>
       </c>
@@ -24295,8 +24677,14 @@
         <v>0</v>
       </c>
       <c r="I711" t="inlineStr"/>
-      <c r="J711" t="inlineStr"/>
-      <c r="K711" t="inlineStr"/>
+      <c r="J711" t="n">
+        <v>373</v>
+      </c>
+      <c r="K711" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L711" t="n">
         <v>1</v>
       </c>
@@ -24328,8 +24716,14 @@
         <v>0</v>
       </c>
       <c r="I712" t="inlineStr"/>
-      <c r="J712" t="inlineStr"/>
-      <c r="K712" t="inlineStr"/>
+      <c r="J712" t="n">
+        <v>373</v>
+      </c>
+      <c r="K712" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L712" t="n">
         <v>1</v>
       </c>
@@ -24361,8 +24755,14 @@
         <v>0</v>
       </c>
       <c r="I713" t="inlineStr"/>
-      <c r="J713" t="inlineStr"/>
-      <c r="K713" t="inlineStr"/>
+      <c r="J713" t="n">
+        <v>373</v>
+      </c>
+      <c r="K713" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L713" t="n">
         <v>1</v>
       </c>
@@ -24394,8 +24794,14 @@
         <v>0</v>
       </c>
       <c r="I714" t="inlineStr"/>
-      <c r="J714" t="inlineStr"/>
-      <c r="K714" t="inlineStr"/>
+      <c r="J714" t="n">
+        <v>373</v>
+      </c>
+      <c r="K714" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L714" t="n">
         <v>1</v>
       </c>
@@ -24427,8 +24833,14 @@
         <v>0</v>
       </c>
       <c r="I715" t="inlineStr"/>
-      <c r="J715" t="inlineStr"/>
-      <c r="K715" t="inlineStr"/>
+      <c r="J715" t="n">
+        <v>373</v>
+      </c>
+      <c r="K715" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L715" t="n">
         <v>1</v>
       </c>
@@ -24460,8 +24872,14 @@
         <v>0</v>
       </c>
       <c r="I716" t="inlineStr"/>
-      <c r="J716" t="inlineStr"/>
-      <c r="K716" t="inlineStr"/>
+      <c r="J716" t="n">
+        <v>373</v>
+      </c>
+      <c r="K716" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L716" t="n">
         <v>1</v>
       </c>
@@ -24493,8 +24911,14 @@
         <v>0</v>
       </c>
       <c r="I717" t="inlineStr"/>
-      <c r="J717" t="inlineStr"/>
-      <c r="K717" t="inlineStr"/>
+      <c r="J717" t="n">
+        <v>373</v>
+      </c>
+      <c r="K717" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L717" t="n">
         <v>1</v>
       </c>
@@ -24526,8 +24950,14 @@
         <v>0</v>
       </c>
       <c r="I718" t="inlineStr"/>
-      <c r="J718" t="inlineStr"/>
-      <c r="K718" t="inlineStr"/>
+      <c r="J718" t="n">
+        <v>373</v>
+      </c>
+      <c r="K718" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L718" t="n">
         <v>1</v>
       </c>
@@ -24559,8 +24989,14 @@
         <v>0</v>
       </c>
       <c r="I719" t="inlineStr"/>
-      <c r="J719" t="inlineStr"/>
-      <c r="K719" t="inlineStr"/>
+      <c r="J719" t="n">
+        <v>373</v>
+      </c>
+      <c r="K719" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L719" t="n">
         <v>1</v>
       </c>
@@ -24592,8 +25028,14 @@
         <v>0</v>
       </c>
       <c r="I720" t="inlineStr"/>
-      <c r="J720" t="inlineStr"/>
-      <c r="K720" t="inlineStr"/>
+      <c r="J720" t="n">
+        <v>373</v>
+      </c>
+      <c r="K720" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L720" t="n">
         <v>1</v>
       </c>
@@ -24625,8 +25067,14 @@
         <v>0</v>
       </c>
       <c r="I721" t="inlineStr"/>
-      <c r="J721" t="inlineStr"/>
-      <c r="K721" t="inlineStr"/>
+      <c r="J721" t="n">
+        <v>373</v>
+      </c>
+      <c r="K721" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L721" t="n">
         <v>1</v>
       </c>
@@ -24658,8 +25106,14 @@
         <v>0</v>
       </c>
       <c r="I722" t="inlineStr"/>
-      <c r="J722" t="inlineStr"/>
-      <c r="K722" t="inlineStr"/>
+      <c r="J722" t="n">
+        <v>373</v>
+      </c>
+      <c r="K722" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L722" t="n">
         <v>1</v>
       </c>
@@ -24691,8 +25145,14 @@
         <v>0</v>
       </c>
       <c r="I723" t="inlineStr"/>
-      <c r="J723" t="inlineStr"/>
-      <c r="K723" t="inlineStr"/>
+      <c r="J723" t="n">
+        <v>373</v>
+      </c>
+      <c r="K723" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L723" t="n">
         <v>1</v>
       </c>
@@ -24724,8 +25184,14 @@
         <v>0</v>
       </c>
       <c r="I724" t="inlineStr"/>
-      <c r="J724" t="inlineStr"/>
-      <c r="K724" t="inlineStr"/>
+      <c r="J724" t="n">
+        <v>373</v>
+      </c>
+      <c r="K724" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L724" t="n">
         <v>1</v>
       </c>
@@ -24757,8 +25223,14 @@
         <v>0</v>
       </c>
       <c r="I725" t="inlineStr"/>
-      <c r="J725" t="inlineStr"/>
-      <c r="K725" t="inlineStr"/>
+      <c r="J725" t="n">
+        <v>373</v>
+      </c>
+      <c r="K725" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L725" t="n">
         <v>1</v>
       </c>
@@ -24790,8 +25262,14 @@
         <v>0</v>
       </c>
       <c r="I726" t="inlineStr"/>
-      <c r="J726" t="inlineStr"/>
-      <c r="K726" t="inlineStr"/>
+      <c r="J726" t="n">
+        <v>373</v>
+      </c>
+      <c r="K726" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L726" t="n">
         <v>1</v>
       </c>
@@ -24823,8 +25301,14 @@
         <v>0</v>
       </c>
       <c r="I727" t="inlineStr"/>
-      <c r="J727" t="inlineStr"/>
-      <c r="K727" t="inlineStr"/>
+      <c r="J727" t="n">
+        <v>373</v>
+      </c>
+      <c r="K727" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L727" t="n">
         <v>1</v>
       </c>
@@ -24856,8 +25340,14 @@
         <v>0</v>
       </c>
       <c r="I728" t="inlineStr"/>
-      <c r="J728" t="inlineStr"/>
-      <c r="K728" t="inlineStr"/>
+      <c r="J728" t="n">
+        <v>373</v>
+      </c>
+      <c r="K728" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L728" t="n">
         <v>1</v>
       </c>
@@ -24889,8 +25379,14 @@
         <v>0</v>
       </c>
       <c r="I729" t="inlineStr"/>
-      <c r="J729" t="inlineStr"/>
-      <c r="K729" t="inlineStr"/>
+      <c r="J729" t="n">
+        <v>373</v>
+      </c>
+      <c r="K729" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L729" t="n">
         <v>1</v>
       </c>
@@ -24922,8 +25418,14 @@
         <v>0</v>
       </c>
       <c r="I730" t="inlineStr"/>
-      <c r="J730" t="inlineStr"/>
-      <c r="K730" t="inlineStr"/>
+      <c r="J730" t="n">
+        <v>373</v>
+      </c>
+      <c r="K730" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L730" t="n">
         <v>1</v>
       </c>
@@ -24955,8 +25457,14 @@
         <v>0</v>
       </c>
       <c r="I731" t="inlineStr"/>
-      <c r="J731" t="inlineStr"/>
-      <c r="K731" t="inlineStr"/>
+      <c r="J731" t="n">
+        <v>373</v>
+      </c>
+      <c r="K731" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L731" t="n">
         <v>1</v>
       </c>
@@ -24988,8 +25496,14 @@
         <v>0</v>
       </c>
       <c r="I732" t="inlineStr"/>
-      <c r="J732" t="inlineStr"/>
-      <c r="K732" t="inlineStr"/>
+      <c r="J732" t="n">
+        <v>373</v>
+      </c>
+      <c r="K732" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L732" t="n">
         <v>1</v>
       </c>
@@ -25021,8 +25535,14 @@
         <v>0</v>
       </c>
       <c r="I733" t="inlineStr"/>
-      <c r="J733" t="inlineStr"/>
-      <c r="K733" t="inlineStr"/>
+      <c r="J733" t="n">
+        <v>373</v>
+      </c>
+      <c r="K733" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L733" t="n">
         <v>1</v>
       </c>
@@ -25054,8 +25574,14 @@
         <v>0</v>
       </c>
       <c r="I734" t="inlineStr"/>
-      <c r="J734" t="inlineStr"/>
-      <c r="K734" t="inlineStr"/>
+      <c r="J734" t="n">
+        <v>373</v>
+      </c>
+      <c r="K734" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L734" t="n">
         <v>1</v>
       </c>
@@ -25087,8 +25613,14 @@
         <v>0</v>
       </c>
       <c r="I735" t="inlineStr"/>
-      <c r="J735" t="inlineStr"/>
-      <c r="K735" t="inlineStr"/>
+      <c r="J735" t="n">
+        <v>373</v>
+      </c>
+      <c r="K735" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L735" t="n">
         <v>1</v>
       </c>
@@ -25120,8 +25652,14 @@
         <v>0</v>
       </c>
       <c r="I736" t="inlineStr"/>
-      <c r="J736" t="inlineStr"/>
-      <c r="K736" t="inlineStr"/>
+      <c r="J736" t="n">
+        <v>373</v>
+      </c>
+      <c r="K736" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L736" t="n">
         <v>1</v>
       </c>
@@ -25153,8 +25691,14 @@
         <v>0</v>
       </c>
       <c r="I737" t="inlineStr"/>
-      <c r="J737" t="inlineStr"/>
-      <c r="K737" t="inlineStr"/>
+      <c r="J737" t="n">
+        <v>373</v>
+      </c>
+      <c r="K737" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L737" t="n">
         <v>1</v>
       </c>
@@ -25186,8 +25730,14 @@
         <v>0</v>
       </c>
       <c r="I738" t="inlineStr"/>
-      <c r="J738" t="inlineStr"/>
-      <c r="K738" t="inlineStr"/>
+      <c r="J738" t="n">
+        <v>373</v>
+      </c>
+      <c r="K738" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L738" t="n">
         <v>1</v>
       </c>
@@ -25219,8 +25769,14 @@
         <v>0</v>
       </c>
       <c r="I739" t="inlineStr"/>
-      <c r="J739" t="inlineStr"/>
-      <c r="K739" t="inlineStr"/>
+      <c r="J739" t="n">
+        <v>373</v>
+      </c>
+      <c r="K739" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L739" t="n">
         <v>1</v>
       </c>
@@ -25252,8 +25808,14 @@
         <v>0</v>
       </c>
       <c r="I740" t="inlineStr"/>
-      <c r="J740" t="inlineStr"/>
-      <c r="K740" t="inlineStr"/>
+      <c r="J740" t="n">
+        <v>373</v>
+      </c>
+      <c r="K740" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L740" t="n">
         <v>1</v>
       </c>
@@ -25285,8 +25847,14 @@
         <v>0</v>
       </c>
       <c r="I741" t="inlineStr"/>
-      <c r="J741" t="inlineStr"/>
-      <c r="K741" t="inlineStr"/>
+      <c r="J741" t="n">
+        <v>373</v>
+      </c>
+      <c r="K741" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L741" t="n">
         <v>1</v>
       </c>
@@ -25318,8 +25886,14 @@
         <v>0</v>
       </c>
       <c r="I742" t="inlineStr"/>
-      <c r="J742" t="inlineStr"/>
-      <c r="K742" t="inlineStr"/>
+      <c r="J742" t="n">
+        <v>373</v>
+      </c>
+      <c r="K742" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L742" t="n">
         <v>1</v>
       </c>
@@ -25351,8 +25925,14 @@
         <v>0</v>
       </c>
       <c r="I743" t="inlineStr"/>
-      <c r="J743" t="inlineStr"/>
-      <c r="K743" t="inlineStr"/>
+      <c r="J743" t="n">
+        <v>373</v>
+      </c>
+      <c r="K743" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L743" t="n">
         <v>1</v>
       </c>
@@ -25384,8 +25964,14 @@
         <v>0</v>
       </c>
       <c r="I744" t="inlineStr"/>
-      <c r="J744" t="inlineStr"/>
-      <c r="K744" t="inlineStr"/>
+      <c r="J744" t="n">
+        <v>373</v>
+      </c>
+      <c r="K744" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L744" t="n">
         <v>1</v>
       </c>
@@ -25417,8 +26003,14 @@
         <v>0</v>
       </c>
       <c r="I745" t="inlineStr"/>
-      <c r="J745" t="inlineStr"/>
-      <c r="K745" t="inlineStr"/>
+      <c r="J745" t="n">
+        <v>373</v>
+      </c>
+      <c r="K745" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L745" t="n">
         <v>1</v>
       </c>
@@ -25450,8 +26042,14 @@
         <v>0</v>
       </c>
       <c r="I746" t="inlineStr"/>
-      <c r="J746" t="inlineStr"/>
-      <c r="K746" t="inlineStr"/>
+      <c r="J746" t="n">
+        <v>373</v>
+      </c>
+      <c r="K746" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L746" t="n">
         <v>1</v>
       </c>
@@ -25483,8 +26081,14 @@
         <v>0</v>
       </c>
       <c r="I747" t="inlineStr"/>
-      <c r="J747" t="inlineStr"/>
-      <c r="K747" t="inlineStr"/>
+      <c r="J747" t="n">
+        <v>373</v>
+      </c>
+      <c r="K747" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L747" t="n">
         <v>1</v>
       </c>
@@ -25513,11 +26117,19 @@
         <v>-145437.9489201588</v>
       </c>
       <c r="H748" t="n">
-        <v>0</v>
-      </c>
-      <c r="I748" t="inlineStr"/>
-      <c r="J748" t="inlineStr"/>
-      <c r="K748" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I748" t="n">
+        <v>379</v>
+      </c>
+      <c r="J748" t="n">
+        <v>373</v>
+      </c>
+      <c r="K748" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L748" t="n">
         <v>1</v>
       </c>
@@ -25546,11 +26158,19 @@
         <v>-140034.5882201589</v>
       </c>
       <c r="H749" t="n">
-        <v>0</v>
-      </c>
-      <c r="I749" t="inlineStr"/>
-      <c r="J749" t="inlineStr"/>
-      <c r="K749" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I749" t="n">
+        <v>377</v>
+      </c>
+      <c r="J749" t="n">
+        <v>373</v>
+      </c>
+      <c r="K749" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L749" t="n">
         <v>1</v>
       </c>
@@ -25579,11 +26199,19 @@
         <v>-142419.4638201589</v>
       </c>
       <c r="H750" t="n">
-        <v>0</v>
-      </c>
-      <c r="I750" t="inlineStr"/>
-      <c r="J750" t="inlineStr"/>
-      <c r="K750" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I750" t="n">
+        <v>381</v>
+      </c>
+      <c r="J750" t="n">
+        <v>373</v>
+      </c>
+      <c r="K750" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L750" t="n">
         <v>1</v>
       </c>
@@ -25612,11 +26240,19 @@
         <v>-141434.7375275079</v>
       </c>
       <c r="H751" t="n">
-        <v>0</v>
-      </c>
-      <c r="I751" t="inlineStr"/>
-      <c r="J751" t="inlineStr"/>
-      <c r="K751" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I751" t="n">
+        <v>378</v>
+      </c>
+      <c r="J751" t="n">
+        <v>373</v>
+      </c>
+      <c r="K751" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L751" t="n">
         <v>1</v>
       </c>
@@ -25645,11 +26281,19 @@
         <v>-141434.7375275079</v>
       </c>
       <c r="H752" t="n">
-        <v>0</v>
-      </c>
-      <c r="I752" t="inlineStr"/>
-      <c r="J752" t="inlineStr"/>
-      <c r="K752" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I752" t="n">
+        <v>380</v>
+      </c>
+      <c r="J752" t="n">
+        <v>373</v>
+      </c>
+      <c r="K752" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L752" t="n">
         <v>1</v>
       </c>
@@ -25678,11 +26322,19 @@
         <v>-141665.2166275079</v>
       </c>
       <c r="H753" t="n">
-        <v>0</v>
-      </c>
-      <c r="I753" t="inlineStr"/>
-      <c r="J753" t="inlineStr"/>
-      <c r="K753" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I753" t="n">
+        <v>380</v>
+      </c>
+      <c r="J753" t="n">
+        <v>373</v>
+      </c>
+      <c r="K753" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L753" t="n">
         <v>1</v>
       </c>
@@ -25711,11 +26363,19 @@
         <v>-143898.8249275079</v>
       </c>
       <c r="H754" t="n">
-        <v>0</v>
-      </c>
-      <c r="I754" t="inlineStr"/>
-      <c r="J754" t="inlineStr"/>
-      <c r="K754" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I754" t="n">
+        <v>378</v>
+      </c>
+      <c r="J754" t="n">
+        <v>373</v>
+      </c>
+      <c r="K754" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L754" t="n">
         <v>1</v>
       </c>
@@ -25749,10 +26409,12 @@
       <c r="I755" t="n">
         <v>377</v>
       </c>
-      <c r="J755" t="inlineStr"/>
+      <c r="J755" t="n">
+        <v>373</v>
+      </c>
       <c r="K755" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L755" t="n">
@@ -25788,7 +26450,9 @@
       <c r="I756" t="n">
         <v>377</v>
       </c>
-      <c r="J756" t="inlineStr"/>
+      <c r="J756" t="n">
+        <v>373</v>
+      </c>
       <c r="K756" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25827,7 +26491,9 @@
       <c r="I757" t="n">
         <v>377</v>
       </c>
-      <c r="J757" t="inlineStr"/>
+      <c r="J757" t="n">
+        <v>373</v>
+      </c>
       <c r="K757" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25866,7 +26532,9 @@
       <c r="I758" t="n">
         <v>377</v>
       </c>
-      <c r="J758" t="inlineStr"/>
+      <c r="J758" t="n">
+        <v>373</v>
+      </c>
       <c r="K758" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25905,7 +26573,9 @@
       <c r="I759" t="n">
         <v>378</v>
       </c>
-      <c r="J759" t="inlineStr"/>
+      <c r="J759" t="n">
+        <v>373</v>
+      </c>
       <c r="K759" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25944,7 +26614,9 @@
       <c r="I760" t="n">
         <v>379</v>
       </c>
-      <c r="J760" t="inlineStr"/>
+      <c r="J760" t="n">
+        <v>373</v>
+      </c>
       <c r="K760" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25983,7 +26655,9 @@
       <c r="I761" t="n">
         <v>379</v>
       </c>
-      <c r="J761" t="inlineStr"/>
+      <c r="J761" t="n">
+        <v>373</v>
+      </c>
       <c r="K761" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26022,7 +26696,9 @@
       <c r="I762" t="n">
         <v>380</v>
       </c>
-      <c r="J762" t="inlineStr"/>
+      <c r="J762" t="n">
+        <v>373</v>
+      </c>
       <c r="K762" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26061,7 +26737,9 @@
       <c r="I763" t="n">
         <v>379</v>
       </c>
-      <c r="J763" t="inlineStr"/>
+      <c r="J763" t="n">
+        <v>373</v>
+      </c>
       <c r="K763" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26100,7 +26778,9 @@
       <c r="I764" t="n">
         <v>379</v>
       </c>
-      <c r="J764" t="inlineStr"/>
+      <c r="J764" t="n">
+        <v>373</v>
+      </c>
       <c r="K764" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26139,7 +26819,9 @@
       <c r="I765" t="n">
         <v>379</v>
       </c>
-      <c r="J765" t="inlineStr"/>
+      <c r="J765" t="n">
+        <v>373</v>
+      </c>
       <c r="K765" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26178,7 +26860,9 @@
       <c r="I766" t="n">
         <v>377</v>
       </c>
-      <c r="J766" t="inlineStr"/>
+      <c r="J766" t="n">
+        <v>373</v>
+      </c>
       <c r="K766" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26217,7 +26901,9 @@
       <c r="I767" t="n">
         <v>378</v>
       </c>
-      <c r="J767" t="inlineStr"/>
+      <c r="J767" t="n">
+        <v>373</v>
+      </c>
       <c r="K767" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26256,7 +26942,9 @@
       <c r="I768" t="n">
         <v>379</v>
       </c>
-      <c r="J768" t="inlineStr"/>
+      <c r="J768" t="n">
+        <v>373</v>
+      </c>
       <c r="K768" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26295,7 +26983,9 @@
       <c r="I769" t="n">
         <v>380</v>
       </c>
-      <c r="J769" t="inlineStr"/>
+      <c r="J769" t="n">
+        <v>373</v>
+      </c>
       <c r="K769" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26334,7 +27024,9 @@
       <c r="I770" t="n">
         <v>380</v>
       </c>
-      <c r="J770" t="inlineStr"/>
+      <c r="J770" t="n">
+        <v>373</v>
+      </c>
       <c r="K770" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26373,7 +27065,9 @@
       <c r="I771" t="n">
         <v>380</v>
       </c>
-      <c r="J771" t="inlineStr"/>
+      <c r="J771" t="n">
+        <v>373</v>
+      </c>
       <c r="K771" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26412,7 +27106,9 @@
       <c r="I772" t="n">
         <v>380</v>
       </c>
-      <c r="J772" t="inlineStr"/>
+      <c r="J772" t="n">
+        <v>373</v>
+      </c>
       <c r="K772" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26451,7 +27147,9 @@
       <c r="I773" t="n">
         <v>380</v>
       </c>
-      <c r="J773" t="inlineStr"/>
+      <c r="J773" t="n">
+        <v>373</v>
+      </c>
       <c r="K773" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26490,7 +27188,9 @@
       <c r="I774" t="n">
         <v>380</v>
       </c>
-      <c r="J774" t="inlineStr"/>
+      <c r="J774" t="n">
+        <v>373</v>
+      </c>
       <c r="K774" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26529,7 +27229,9 @@
       <c r="I775" t="n">
         <v>380</v>
       </c>
-      <c r="J775" t="inlineStr"/>
+      <c r="J775" t="n">
+        <v>373</v>
+      </c>
       <c r="K775" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26568,7 +27270,9 @@
       <c r="I776" t="n">
         <v>380</v>
       </c>
-      <c r="J776" t="inlineStr"/>
+      <c r="J776" t="n">
+        <v>373</v>
+      </c>
       <c r="K776" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26607,7 +27311,9 @@
       <c r="I777" t="n">
         <v>382</v>
       </c>
-      <c r="J777" t="inlineStr"/>
+      <c r="J777" t="n">
+        <v>373</v>
+      </c>
       <c r="K777" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26646,7 +27352,9 @@
       <c r="I778" t="n">
         <v>380</v>
       </c>
-      <c r="J778" t="inlineStr"/>
+      <c r="J778" t="n">
+        <v>373</v>
+      </c>
       <c r="K778" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26685,7 +27393,9 @@
       <c r="I779" t="n">
         <v>380</v>
       </c>
-      <c r="J779" t="inlineStr"/>
+      <c r="J779" t="n">
+        <v>373</v>
+      </c>
       <c r="K779" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26724,7 +27434,9 @@
       <c r="I780" t="n">
         <v>382</v>
       </c>
-      <c r="J780" t="inlineStr"/>
+      <c r="J780" t="n">
+        <v>373</v>
+      </c>
       <c r="K780" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26763,7 +27475,9 @@
       <c r="I781" t="n">
         <v>384</v>
       </c>
-      <c r="J781" t="inlineStr"/>
+      <c r="J781" t="n">
+        <v>373</v>
+      </c>
       <c r="K781" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26797,10 +27511,14 @@
         <v>-137576.8029222447</v>
       </c>
       <c r="H782" t="n">
-        <v>0</v>
-      </c>
-      <c r="I782" t="inlineStr"/>
-      <c r="J782" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I782" t="n">
+        <v>386</v>
+      </c>
+      <c r="J782" t="n">
+        <v>373</v>
+      </c>
       <c r="K782" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26834,10 +27552,14 @@
         <v>-134339.5977222447</v>
       </c>
       <c r="H783" t="n">
-        <v>0</v>
-      </c>
-      <c r="I783" t="inlineStr"/>
-      <c r="J783" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I783" t="n">
+        <v>388</v>
+      </c>
+      <c r="J783" t="n">
+        <v>373</v>
+      </c>
       <c r="K783" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26871,10 +27593,14 @@
         <v>-134339.5977222447</v>
       </c>
       <c r="H784" t="n">
-        <v>0</v>
-      </c>
-      <c r="I784" t="inlineStr"/>
-      <c r="J784" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I784" t="n">
+        <v>389</v>
+      </c>
+      <c r="J784" t="n">
+        <v>373</v>
+      </c>
       <c r="K784" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26908,10 +27634,14 @@
         <v>-134339.5977222447</v>
       </c>
       <c r="H785" t="n">
-        <v>0</v>
-      </c>
-      <c r="I785" t="inlineStr"/>
-      <c r="J785" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I785" t="n">
+        <v>389</v>
+      </c>
+      <c r="J785" t="n">
+        <v>373</v>
+      </c>
       <c r="K785" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26948,7 +27678,9 @@
         <v>0</v>
       </c>
       <c r="I786" t="inlineStr"/>
-      <c r="J786" t="inlineStr"/>
+      <c r="J786" t="n">
+        <v>373</v>
+      </c>
       <c r="K786" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26985,7 +27717,9 @@
         <v>0</v>
       </c>
       <c r="I787" t="inlineStr"/>
-      <c r="J787" t="inlineStr"/>
+      <c r="J787" t="n">
+        <v>373</v>
+      </c>
       <c r="K787" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27022,7 +27756,9 @@
         <v>0</v>
       </c>
       <c r="I788" t="inlineStr"/>
-      <c r="J788" t="inlineStr"/>
+      <c r="J788" t="n">
+        <v>373</v>
+      </c>
       <c r="K788" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27059,7 +27795,9 @@
         <v>0</v>
       </c>
       <c r="I789" t="inlineStr"/>
-      <c r="J789" t="inlineStr"/>
+      <c r="J789" t="n">
+        <v>373</v>
+      </c>
       <c r="K789" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27096,7 +27834,9 @@
         <v>0</v>
       </c>
       <c r="I790" t="inlineStr"/>
-      <c r="J790" t="inlineStr"/>
+      <c r="J790" t="n">
+        <v>373</v>
+      </c>
       <c r="K790" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27133,7 +27873,9 @@
         <v>0</v>
       </c>
       <c r="I791" t="inlineStr"/>
-      <c r="J791" t="inlineStr"/>
+      <c r="J791" t="n">
+        <v>373</v>
+      </c>
       <c r="K791" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27167,10 +27909,14 @@
         <v>-133114.7421222447</v>
       </c>
       <c r="H792" t="n">
-        <v>0</v>
-      </c>
-      <c r="I792" t="inlineStr"/>
-      <c r="J792" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I792" t="n">
+        <v>391</v>
+      </c>
+      <c r="J792" t="n">
+        <v>373</v>
+      </c>
       <c r="K792" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27204,10 +27950,14 @@
         <v>-133114.7421222447</v>
       </c>
       <c r="H793" t="n">
-        <v>0</v>
-      </c>
-      <c r="I793" t="inlineStr"/>
-      <c r="J793" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I793" t="n">
+        <v>390</v>
+      </c>
+      <c r="J793" t="n">
+        <v>373</v>
+      </c>
       <c r="K793" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27241,10 +27991,14 @@
         <v>-162101.8011222447</v>
       </c>
       <c r="H794" t="n">
-        <v>0</v>
-      </c>
-      <c r="I794" t="inlineStr"/>
-      <c r="J794" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I794" t="n">
+        <v>390</v>
+      </c>
+      <c r="J794" t="n">
+        <v>373</v>
+      </c>
       <c r="K794" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27278,10 +28032,14 @@
         <v>-161886.2523837832</v>
       </c>
       <c r="H795" t="n">
-        <v>0</v>
-      </c>
-      <c r="I795" t="inlineStr"/>
-      <c r="J795" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I795" t="n">
+        <v>387</v>
+      </c>
+      <c r="J795" t="n">
+        <v>373</v>
+      </c>
       <c r="K795" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27315,10 +28073,14 @@
         <v>-161966.2523837832</v>
       </c>
       <c r="H796" t="n">
-        <v>0</v>
-      </c>
-      <c r="I796" t="inlineStr"/>
-      <c r="J796" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I796" t="n">
+        <v>390</v>
+      </c>
+      <c r="J796" t="n">
+        <v>373</v>
+      </c>
       <c r="K796" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27352,10 +28114,14 @@
         <v>-160820.3282837832</v>
       </c>
       <c r="H797" t="n">
-        <v>0</v>
-      </c>
-      <c r="I797" t="inlineStr"/>
-      <c r="J797" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I797" t="n">
+        <v>388</v>
+      </c>
+      <c r="J797" t="n">
+        <v>373</v>
+      </c>
       <c r="K797" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27389,10 +28155,14 @@
         <v>-160820.3282837832</v>
       </c>
       <c r="H798" t="n">
-        <v>0</v>
-      </c>
-      <c r="I798" t="inlineStr"/>
-      <c r="J798" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I798" t="n">
+        <v>389</v>
+      </c>
+      <c r="J798" t="n">
+        <v>373</v>
+      </c>
       <c r="K798" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27426,10 +28196,14 @@
         <v>-160820.3282837832</v>
       </c>
       <c r="H799" t="n">
-        <v>0</v>
-      </c>
-      <c r="I799" t="inlineStr"/>
-      <c r="J799" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I799" t="n">
+        <v>389</v>
+      </c>
+      <c r="J799" t="n">
+        <v>373</v>
+      </c>
       <c r="K799" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27463,10 +28237,14 @@
         <v>-158003.5592837832</v>
       </c>
       <c r="H800" t="n">
-        <v>0</v>
-      </c>
-      <c r="I800" t="inlineStr"/>
-      <c r="J800" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I800" t="n">
+        <v>389</v>
+      </c>
+      <c r="J800" t="n">
+        <v>373</v>
+      </c>
       <c r="K800" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27500,10 +28278,14 @@
         <v>-158003.5592837832</v>
       </c>
       <c r="H801" t="n">
-        <v>0</v>
-      </c>
-      <c r="I801" t="inlineStr"/>
-      <c r="J801" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I801" t="n">
+        <v>390</v>
+      </c>
+      <c r="J801" t="n">
+        <v>373</v>
+      </c>
       <c r="K801" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27540,7 +28322,9 @@
         <v>0</v>
       </c>
       <c r="I802" t="inlineStr"/>
-      <c r="J802" t="inlineStr"/>
+      <c r="J802" t="n">
+        <v>373</v>
+      </c>
       <c r="K802" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27577,7 +28361,9 @@
         <v>0</v>
       </c>
       <c r="I803" t="inlineStr"/>
-      <c r="J803" t="inlineStr"/>
+      <c r="J803" t="n">
+        <v>373</v>
+      </c>
       <c r="K803" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27614,7 +28400,9 @@
         <v>0</v>
       </c>
       <c r="I804" t="inlineStr"/>
-      <c r="J804" t="inlineStr"/>
+      <c r="J804" t="n">
+        <v>373</v>
+      </c>
       <c r="K804" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27651,7 +28439,9 @@
         <v>0</v>
       </c>
       <c r="I805" t="inlineStr"/>
-      <c r="J805" t="inlineStr"/>
+      <c r="J805" t="n">
+        <v>373</v>
+      </c>
       <c r="K805" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27688,7 +28478,9 @@
         <v>0</v>
       </c>
       <c r="I806" t="inlineStr"/>
-      <c r="J806" t="inlineStr"/>
+      <c r="J806" t="n">
+        <v>373</v>
+      </c>
       <c r="K806" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27725,7 +28517,9 @@
         <v>0</v>
       </c>
       <c r="I807" t="inlineStr"/>
-      <c r="J807" t="inlineStr"/>
+      <c r="J807" t="n">
+        <v>373</v>
+      </c>
       <c r="K807" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27762,7 +28556,9 @@
         <v>0</v>
       </c>
       <c r="I808" t="inlineStr"/>
-      <c r="J808" t="inlineStr"/>
+      <c r="J808" t="n">
+        <v>373</v>
+      </c>
       <c r="K808" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27799,7 +28595,9 @@
         <v>0</v>
       </c>
       <c r="I809" t="inlineStr"/>
-      <c r="J809" t="inlineStr"/>
+      <c r="J809" t="n">
+        <v>373</v>
+      </c>
       <c r="K809" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27836,7 +28634,9 @@
         <v>0</v>
       </c>
       <c r="I810" t="inlineStr"/>
-      <c r="J810" t="inlineStr"/>
+      <c r="J810" t="n">
+        <v>373</v>
+      </c>
       <c r="K810" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27870,10 +28670,14 @@
         <v>-182474.6879225587</v>
       </c>
       <c r="H811" t="n">
-        <v>0</v>
-      </c>
-      <c r="I811" t="inlineStr"/>
-      <c r="J811" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I811" t="n">
+        <v>390</v>
+      </c>
+      <c r="J811" t="n">
+        <v>373</v>
+      </c>
       <c r="K811" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27910,7 +28714,9 @@
         <v>0</v>
       </c>
       <c r="I812" t="inlineStr"/>
-      <c r="J812" t="inlineStr"/>
+      <c r="J812" t="n">
+        <v>373</v>
+      </c>
       <c r="K812" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27947,7 +28753,9 @@
         <v>0</v>
       </c>
       <c r="I813" t="inlineStr"/>
-      <c r="J813" t="inlineStr"/>
+      <c r="J813" t="n">
+        <v>373</v>
+      </c>
       <c r="K813" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27984,7 +28792,9 @@
         <v>0</v>
       </c>
       <c r="I814" t="inlineStr"/>
-      <c r="J814" t="inlineStr"/>
+      <c r="J814" t="n">
+        <v>373</v>
+      </c>
       <c r="K814" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28021,7 +28831,9 @@
         <v>0</v>
       </c>
       <c r="I815" t="inlineStr"/>
-      <c r="J815" t="inlineStr"/>
+      <c r="J815" t="n">
+        <v>373</v>
+      </c>
       <c r="K815" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28058,7 +28870,9 @@
         <v>0</v>
       </c>
       <c r="I816" t="inlineStr"/>
-      <c r="J816" t="inlineStr"/>
+      <c r="J816" t="n">
+        <v>373</v>
+      </c>
       <c r="K816" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28092,10 +28906,14 @@
         <v>-182799.1797225587</v>
       </c>
       <c r="H817" t="n">
-        <v>0</v>
-      </c>
-      <c r="I817" t="inlineStr"/>
-      <c r="J817" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I817" t="n">
+        <v>391</v>
+      </c>
+      <c r="J817" t="n">
+        <v>373</v>
+      </c>
       <c r="K817" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28129,10 +28947,14 @@
         <v>-182799.1797225587</v>
       </c>
       <c r="H818" t="n">
-        <v>0</v>
-      </c>
-      <c r="I818" t="inlineStr"/>
-      <c r="J818" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I818" t="n">
+        <v>391</v>
+      </c>
+      <c r="J818" t="n">
+        <v>373</v>
+      </c>
       <c r="K818" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28166,10 +28988,14 @@
         <v>-182799.1797225587</v>
       </c>
       <c r="H819" t="n">
-        <v>0</v>
-      </c>
-      <c r="I819" t="inlineStr"/>
-      <c r="J819" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I819" t="n">
+        <v>391</v>
+      </c>
+      <c r="J819" t="n">
+        <v>373</v>
+      </c>
       <c r="K819" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28203,10 +29029,14 @@
         <v>-184421.9165225587</v>
       </c>
       <c r="H820" t="n">
-        <v>0</v>
-      </c>
-      <c r="I820" t="inlineStr"/>
-      <c r="J820" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I820" t="n">
+        <v>391</v>
+      </c>
+      <c r="J820" t="n">
+        <v>373</v>
+      </c>
       <c r="K820" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28240,10 +29070,14 @@
         <v>-185922.2401225587</v>
       </c>
       <c r="H821" t="n">
-        <v>0</v>
-      </c>
-      <c r="I821" t="inlineStr"/>
-      <c r="J821" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I821" t="n">
+        <v>390</v>
+      </c>
+      <c r="J821" t="n">
+        <v>373</v>
+      </c>
       <c r="K821" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28277,10 +29111,14 @@
         <v>-184811.2304225587</v>
       </c>
       <c r="H822" t="n">
-        <v>0</v>
-      </c>
-      <c r="I822" t="inlineStr"/>
-      <c r="J822" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I822" t="n">
+        <v>389</v>
+      </c>
+      <c r="J822" t="n">
+        <v>373</v>
+      </c>
       <c r="K822" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28314,10 +29152,14 @@
         <v>-167329.0369225587</v>
       </c>
       <c r="H823" t="n">
-        <v>0</v>
-      </c>
-      <c r="I823" t="inlineStr"/>
-      <c r="J823" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I823" t="n">
+        <v>390</v>
+      </c>
+      <c r="J823" t="n">
+        <v>373</v>
+      </c>
       <c r="K823" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28351,10 +29193,14 @@
         <v>-167329.0369225587</v>
       </c>
       <c r="H824" t="n">
-        <v>0</v>
-      </c>
-      <c r="I824" t="inlineStr"/>
-      <c r="J824" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I824" t="n">
+        <v>391</v>
+      </c>
+      <c r="J824" t="n">
+        <v>373</v>
+      </c>
       <c r="K824" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28388,10 +29234,14 @@
         <v>-176039.0827225587</v>
       </c>
       <c r="H825" t="n">
-        <v>0</v>
-      </c>
-      <c r="I825" t="inlineStr"/>
-      <c r="J825" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I825" t="n">
+        <v>391</v>
+      </c>
+      <c r="J825" t="n">
+        <v>373</v>
+      </c>
       <c r="K825" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28425,10 +29275,14 @@
         <v>-176039.0827225587</v>
       </c>
       <c r="H826" t="n">
-        <v>0</v>
-      </c>
-      <c r="I826" t="inlineStr"/>
-      <c r="J826" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I826" t="n">
+        <v>387</v>
+      </c>
+      <c r="J826" t="n">
+        <v>373</v>
+      </c>
       <c r="K826" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28462,10 +29316,14 @@
         <v>-175869.0168225587</v>
       </c>
       <c r="H827" t="n">
-        <v>0</v>
-      </c>
-      <c r="I827" t="inlineStr"/>
-      <c r="J827" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I827" t="n">
+        <v>387</v>
+      </c>
+      <c r="J827" t="n">
+        <v>373</v>
+      </c>
       <c r="K827" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28499,10 +29357,14 @@
         <v>-170333.9825225587</v>
       </c>
       <c r="H828" t="n">
-        <v>0</v>
-      </c>
-      <c r="I828" t="inlineStr"/>
-      <c r="J828" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I828" t="n">
+        <v>388</v>
+      </c>
+      <c r="J828" t="n">
+        <v>373</v>
+      </c>
       <c r="K828" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28539,7 +29401,9 @@
         <v>0</v>
       </c>
       <c r="I829" t="inlineStr"/>
-      <c r="J829" t="inlineStr"/>
+      <c r="J829" t="n">
+        <v>373</v>
+      </c>
       <c r="K829" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28576,7 +29440,9 @@
         <v>0</v>
       </c>
       <c r="I830" t="inlineStr"/>
-      <c r="J830" t="inlineStr"/>
+      <c r="J830" t="n">
+        <v>373</v>
+      </c>
       <c r="K830" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28613,7 +29479,9 @@
         <v>0</v>
       </c>
       <c r="I831" t="inlineStr"/>
-      <c r="J831" t="inlineStr"/>
+      <c r="J831" t="n">
+        <v>373</v>
+      </c>
       <c r="K831" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28650,7 +29518,9 @@
         <v>0</v>
       </c>
       <c r="I832" t="inlineStr"/>
-      <c r="J832" t="inlineStr"/>
+      <c r="J832" t="n">
+        <v>373</v>
+      </c>
       <c r="K832" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28687,7 +29557,9 @@
         <v>0</v>
       </c>
       <c r="I833" t="inlineStr"/>
-      <c r="J833" t="inlineStr"/>
+      <c r="J833" t="n">
+        <v>373</v>
+      </c>
       <c r="K833" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28724,7 +29596,9 @@
         <v>0</v>
       </c>
       <c r="I834" t="inlineStr"/>
-      <c r="J834" t="inlineStr"/>
+      <c r="J834" t="n">
+        <v>373</v>
+      </c>
       <c r="K834" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28761,7 +29635,9 @@
         <v>0</v>
       </c>
       <c r="I835" t="inlineStr"/>
-      <c r="J835" t="inlineStr"/>
+      <c r="J835" t="n">
+        <v>373</v>
+      </c>
       <c r="K835" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28798,7 +29674,9 @@
         <v>0</v>
       </c>
       <c r="I836" t="inlineStr"/>
-      <c r="J836" t="inlineStr"/>
+      <c r="J836" t="n">
+        <v>373</v>
+      </c>
       <c r="K836" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28835,7 +29713,9 @@
         <v>0</v>
       </c>
       <c r="I837" t="inlineStr"/>
-      <c r="J837" t="inlineStr"/>
+      <c r="J837" t="n">
+        <v>373</v>
+      </c>
       <c r="K837" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28872,7 +29752,9 @@
         <v>0</v>
       </c>
       <c r="I838" t="inlineStr"/>
-      <c r="J838" t="inlineStr"/>
+      <c r="J838" t="n">
+        <v>373</v>
+      </c>
       <c r="K838" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28909,7 +29791,9 @@
         <v>0</v>
       </c>
       <c r="I839" t="inlineStr"/>
-      <c r="J839" t="inlineStr"/>
+      <c r="J839" t="n">
+        <v>373</v>
+      </c>
       <c r="K839" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28946,7 +29830,9 @@
         <v>0</v>
       </c>
       <c r="I840" t="inlineStr"/>
-      <c r="J840" t="inlineStr"/>
+      <c r="J840" t="n">
+        <v>373</v>
+      </c>
       <c r="K840" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28983,7 +29869,9 @@
         <v>0</v>
       </c>
       <c r="I841" t="inlineStr"/>
-      <c r="J841" t="inlineStr"/>
+      <c r="J841" t="n">
+        <v>373</v>
+      </c>
       <c r="K841" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29020,7 +29908,9 @@
         <v>0</v>
       </c>
       <c r="I842" t="inlineStr"/>
-      <c r="J842" t="inlineStr"/>
+      <c r="J842" t="n">
+        <v>373</v>
+      </c>
       <c r="K842" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29057,7 +29947,9 @@
         <v>0</v>
       </c>
       <c r="I843" t="inlineStr"/>
-      <c r="J843" t="inlineStr"/>
+      <c r="J843" t="n">
+        <v>373</v>
+      </c>
       <c r="K843" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29094,7 +29986,9 @@
         <v>0</v>
       </c>
       <c r="I844" t="inlineStr"/>
-      <c r="J844" t="inlineStr"/>
+      <c r="J844" t="n">
+        <v>373</v>
+      </c>
       <c r="K844" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29131,7 +30025,9 @@
         <v>0</v>
       </c>
       <c r="I845" t="inlineStr"/>
-      <c r="J845" t="inlineStr"/>
+      <c r="J845" t="n">
+        <v>373</v>
+      </c>
       <c r="K845" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29168,7 +30064,9 @@
         <v>0</v>
       </c>
       <c r="I846" t="inlineStr"/>
-      <c r="J846" t="inlineStr"/>
+      <c r="J846" t="n">
+        <v>373</v>
+      </c>
       <c r="K846" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29205,7 +30103,9 @@
         <v>0</v>
       </c>
       <c r="I847" t="inlineStr"/>
-      <c r="J847" t="inlineStr"/>
+      <c r="J847" t="n">
+        <v>373</v>
+      </c>
       <c r="K847" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29242,7 +30142,9 @@
         <v>0</v>
       </c>
       <c r="I848" t="inlineStr"/>
-      <c r="J848" t="inlineStr"/>
+      <c r="J848" t="n">
+        <v>373</v>
+      </c>
       <c r="K848" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29279,7 +30181,9 @@
         <v>0</v>
       </c>
       <c r="I849" t="inlineStr"/>
-      <c r="J849" t="inlineStr"/>
+      <c r="J849" t="n">
+        <v>373</v>
+      </c>
       <c r="K849" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29316,7 +30220,9 @@
         <v>0</v>
       </c>
       <c r="I850" t="inlineStr"/>
-      <c r="J850" t="inlineStr"/>
+      <c r="J850" t="n">
+        <v>373</v>
+      </c>
       <c r="K850" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29353,7 +30259,9 @@
         <v>0</v>
       </c>
       <c r="I851" t="inlineStr"/>
-      <c r="J851" t="inlineStr"/>
+      <c r="J851" t="n">
+        <v>373</v>
+      </c>
       <c r="K851" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29390,7 +30298,9 @@
         <v>0</v>
       </c>
       <c r="I852" t="inlineStr"/>
-      <c r="J852" t="inlineStr"/>
+      <c r="J852" t="n">
+        <v>373</v>
+      </c>
       <c r="K852" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29427,7 +30337,9 @@
         <v>0</v>
       </c>
       <c r="I853" t="inlineStr"/>
-      <c r="J853" t="inlineStr"/>
+      <c r="J853" t="n">
+        <v>373</v>
+      </c>
       <c r="K853" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29464,7 +30376,9 @@
         <v>0</v>
       </c>
       <c r="I854" t="inlineStr"/>
-      <c r="J854" t="inlineStr"/>
+      <c r="J854" t="n">
+        <v>373</v>
+      </c>
       <c r="K854" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29501,7 +30415,9 @@
         <v>0</v>
       </c>
       <c r="I855" t="inlineStr"/>
-      <c r="J855" t="inlineStr"/>
+      <c r="J855" t="n">
+        <v>373</v>
+      </c>
       <c r="K855" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29538,7 +30454,9 @@
         <v>0</v>
       </c>
       <c r="I856" t="inlineStr"/>
-      <c r="J856" t="inlineStr"/>
+      <c r="J856" t="n">
+        <v>373</v>
+      </c>
       <c r="K856" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29575,7 +30493,9 @@
         <v>0</v>
       </c>
       <c r="I857" t="inlineStr"/>
-      <c r="J857" t="inlineStr"/>
+      <c r="J857" t="n">
+        <v>373</v>
+      </c>
       <c r="K857" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29612,7 +30532,9 @@
         <v>0</v>
       </c>
       <c r="I858" t="inlineStr"/>
-      <c r="J858" t="inlineStr"/>
+      <c r="J858" t="n">
+        <v>373</v>
+      </c>
       <c r="K858" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29649,7 +30571,9 @@
         <v>0</v>
       </c>
       <c r="I859" t="inlineStr"/>
-      <c r="J859" t="inlineStr"/>
+      <c r="J859" t="n">
+        <v>373</v>
+      </c>
       <c r="K859" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29686,7 +30610,9 @@
         <v>0</v>
       </c>
       <c r="I860" t="inlineStr"/>
-      <c r="J860" t="inlineStr"/>
+      <c r="J860" t="n">
+        <v>373</v>
+      </c>
       <c r="K860" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29723,7 +30649,9 @@
         <v>0</v>
       </c>
       <c r="I861" t="inlineStr"/>
-      <c r="J861" t="inlineStr"/>
+      <c r="J861" t="n">
+        <v>373</v>
+      </c>
       <c r="K861" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29760,7 +30688,9 @@
         <v>0</v>
       </c>
       <c r="I862" t="inlineStr"/>
-      <c r="J862" t="inlineStr"/>
+      <c r="J862" t="n">
+        <v>373</v>
+      </c>
       <c r="K862" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29797,7 +30727,9 @@
         <v>0</v>
       </c>
       <c r="I863" t="inlineStr"/>
-      <c r="J863" t="inlineStr"/>
+      <c r="J863" t="n">
+        <v>373</v>
+      </c>
       <c r="K863" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29834,7 +30766,9 @@
         <v>0</v>
       </c>
       <c r="I864" t="inlineStr"/>
-      <c r="J864" t="inlineStr"/>
+      <c r="J864" t="n">
+        <v>373</v>
+      </c>
       <c r="K864" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29871,7 +30805,9 @@
         <v>0</v>
       </c>
       <c r="I865" t="inlineStr"/>
-      <c r="J865" t="inlineStr"/>
+      <c r="J865" t="n">
+        <v>373</v>
+      </c>
       <c r="K865" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29908,7 +30844,9 @@
         <v>0</v>
       </c>
       <c r="I866" t="inlineStr"/>
-      <c r="J866" t="inlineStr"/>
+      <c r="J866" t="n">
+        <v>373</v>
+      </c>
       <c r="K866" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29945,7 +30883,9 @@
         <v>0</v>
       </c>
       <c r="I867" t="inlineStr"/>
-      <c r="J867" t="inlineStr"/>
+      <c r="J867" t="n">
+        <v>373</v>
+      </c>
       <c r="K867" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29982,7 +30922,9 @@
         <v>0</v>
       </c>
       <c r="I868" t="inlineStr"/>
-      <c r="J868" t="inlineStr"/>
+      <c r="J868" t="n">
+        <v>373</v>
+      </c>
       <c r="K868" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30019,7 +30961,9 @@
         <v>0</v>
       </c>
       <c r="I869" t="inlineStr"/>
-      <c r="J869" t="inlineStr"/>
+      <c r="J869" t="n">
+        <v>373</v>
+      </c>
       <c r="K869" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30056,7 +31000,9 @@
         <v>0</v>
       </c>
       <c r="I870" t="inlineStr"/>
-      <c r="J870" t="inlineStr"/>
+      <c r="J870" t="n">
+        <v>373</v>
+      </c>
       <c r="K870" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30093,7 +31039,9 @@
         <v>0</v>
       </c>
       <c r="I871" t="inlineStr"/>
-      <c r="J871" t="inlineStr"/>
+      <c r="J871" t="n">
+        <v>373</v>
+      </c>
       <c r="K871" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30130,7 +31078,9 @@
         <v>0</v>
       </c>
       <c r="I872" t="inlineStr"/>
-      <c r="J872" t="inlineStr"/>
+      <c r="J872" t="n">
+        <v>373</v>
+      </c>
       <c r="K872" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30167,7 +31117,9 @@
         <v>0</v>
       </c>
       <c r="I873" t="inlineStr"/>
-      <c r="J873" t="inlineStr"/>
+      <c r="J873" t="n">
+        <v>373</v>
+      </c>
       <c r="K873" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30204,7 +31156,9 @@
         <v>0</v>
       </c>
       <c r="I874" t="inlineStr"/>
-      <c r="J874" t="inlineStr"/>
+      <c r="J874" t="n">
+        <v>373</v>
+      </c>
       <c r="K874" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30241,7 +31195,9 @@
         <v>0</v>
       </c>
       <c r="I875" t="inlineStr"/>
-      <c r="J875" t="inlineStr"/>
+      <c r="J875" t="n">
+        <v>373</v>
+      </c>
       <c r="K875" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30278,7 +31234,9 @@
         <v>0</v>
       </c>
       <c r="I876" t="inlineStr"/>
-      <c r="J876" t="inlineStr"/>
+      <c r="J876" t="n">
+        <v>373</v>
+      </c>
       <c r="K876" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30315,7 +31273,9 @@
         <v>0</v>
       </c>
       <c r="I877" t="inlineStr"/>
-      <c r="J877" t="inlineStr"/>
+      <c r="J877" t="n">
+        <v>373</v>
+      </c>
       <c r="K877" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30352,7 +31312,9 @@
         <v>0</v>
       </c>
       <c r="I878" t="inlineStr"/>
-      <c r="J878" t="inlineStr"/>
+      <c r="J878" t="n">
+        <v>373</v>
+      </c>
       <c r="K878" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30389,7 +31351,9 @@
         <v>0</v>
       </c>
       <c r="I879" t="inlineStr"/>
-      <c r="J879" t="inlineStr"/>
+      <c r="J879" t="n">
+        <v>373</v>
+      </c>
       <c r="K879" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30426,7 +31390,9 @@
         <v>0</v>
       </c>
       <c r="I880" t="inlineStr"/>
-      <c r="J880" t="inlineStr"/>
+      <c r="J880" t="n">
+        <v>373</v>
+      </c>
       <c r="K880" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30463,7 +31429,9 @@
         <v>0</v>
       </c>
       <c r="I881" t="inlineStr"/>
-      <c r="J881" t="inlineStr"/>
+      <c r="J881" t="n">
+        <v>373</v>
+      </c>
       <c r="K881" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30500,7 +31468,9 @@
         <v>0</v>
       </c>
       <c r="I882" t="inlineStr"/>
-      <c r="J882" t="inlineStr"/>
+      <c r="J882" t="n">
+        <v>373</v>
+      </c>
       <c r="K882" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30537,7 +31507,9 @@
         <v>0</v>
       </c>
       <c r="I883" t="inlineStr"/>
-      <c r="J883" t="inlineStr"/>
+      <c r="J883" t="n">
+        <v>373</v>
+      </c>
       <c r="K883" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30574,7 +31546,9 @@
         <v>0</v>
       </c>
       <c r="I884" t="inlineStr"/>
-      <c r="J884" t="inlineStr"/>
+      <c r="J884" t="n">
+        <v>373</v>
+      </c>
       <c r="K884" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30611,7 +31585,9 @@
         <v>0</v>
       </c>
       <c r="I885" t="inlineStr"/>
-      <c r="J885" t="inlineStr"/>
+      <c r="J885" t="n">
+        <v>373</v>
+      </c>
       <c r="K885" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30648,7 +31624,9 @@
         <v>0</v>
       </c>
       <c r="I886" t="inlineStr"/>
-      <c r="J886" t="inlineStr"/>
+      <c r="J886" t="n">
+        <v>373</v>
+      </c>
       <c r="K886" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30685,7 +31663,9 @@
         <v>0</v>
       </c>
       <c r="I887" t="inlineStr"/>
-      <c r="J887" t="inlineStr"/>
+      <c r="J887" t="n">
+        <v>373</v>
+      </c>
       <c r="K887" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30722,7 +31702,9 @@
         <v>0</v>
       </c>
       <c r="I888" t="inlineStr"/>
-      <c r="J888" t="inlineStr"/>
+      <c r="J888" t="n">
+        <v>373</v>
+      </c>
       <c r="K888" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30759,7 +31741,9 @@
         <v>0</v>
       </c>
       <c r="I889" t="inlineStr"/>
-      <c r="J889" t="inlineStr"/>
+      <c r="J889" t="n">
+        <v>373</v>
+      </c>
       <c r="K889" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30796,7 +31780,9 @@
         <v>0</v>
       </c>
       <c r="I890" t="inlineStr"/>
-      <c r="J890" t="inlineStr"/>
+      <c r="J890" t="n">
+        <v>373</v>
+      </c>
       <c r="K890" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30833,7 +31819,9 @@
         <v>0</v>
       </c>
       <c r="I891" t="inlineStr"/>
-      <c r="J891" t="inlineStr"/>
+      <c r="J891" t="n">
+        <v>373</v>
+      </c>
       <c r="K891" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30870,7 +31858,9 @@
         <v>0</v>
       </c>
       <c r="I892" t="inlineStr"/>
-      <c r="J892" t="inlineStr"/>
+      <c r="J892" t="n">
+        <v>373</v>
+      </c>
       <c r="K892" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30907,7 +31897,9 @@
         <v>0</v>
       </c>
       <c r="I893" t="inlineStr"/>
-      <c r="J893" t="inlineStr"/>
+      <c r="J893" t="n">
+        <v>373</v>
+      </c>
       <c r="K893" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30944,7 +31936,9 @@
         <v>0</v>
       </c>
       <c r="I894" t="inlineStr"/>
-      <c r="J894" t="inlineStr"/>
+      <c r="J894" t="n">
+        <v>373</v>
+      </c>
       <c r="K894" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30981,7 +31975,9 @@
         <v>0</v>
       </c>
       <c r="I895" t="inlineStr"/>
-      <c r="J895" t="inlineStr"/>
+      <c r="J895" t="n">
+        <v>373</v>
+      </c>
       <c r="K895" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31018,7 +32014,9 @@
         <v>0</v>
       </c>
       <c r="I896" t="inlineStr"/>
-      <c r="J896" t="inlineStr"/>
+      <c r="J896" t="n">
+        <v>373</v>
+      </c>
       <c r="K896" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31055,7 +32053,9 @@
         <v>0</v>
       </c>
       <c r="I897" t="inlineStr"/>
-      <c r="J897" t="inlineStr"/>
+      <c r="J897" t="n">
+        <v>373</v>
+      </c>
       <c r="K897" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31092,7 +32092,9 @@
         <v>0</v>
       </c>
       <c r="I898" t="inlineStr"/>
-      <c r="J898" t="inlineStr"/>
+      <c r="J898" t="n">
+        <v>373</v>
+      </c>
       <c r="K898" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31129,7 +32131,9 @@
         <v>0</v>
       </c>
       <c r="I899" t="inlineStr"/>
-      <c r="J899" t="inlineStr"/>
+      <c r="J899" t="n">
+        <v>373</v>
+      </c>
       <c r="K899" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31166,7 +32170,9 @@
         <v>0</v>
       </c>
       <c r="I900" t="inlineStr"/>
-      <c r="J900" t="inlineStr"/>
+      <c r="J900" t="n">
+        <v>373</v>
+      </c>
       <c r="K900" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31203,7 +32209,9 @@
         <v>0</v>
       </c>
       <c r="I901" t="inlineStr"/>
-      <c r="J901" t="inlineStr"/>
+      <c r="J901" t="n">
+        <v>373</v>
+      </c>
       <c r="K901" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31240,7 +32248,9 @@
         <v>0</v>
       </c>
       <c r="I902" t="inlineStr"/>
-      <c r="J902" t="inlineStr"/>
+      <c r="J902" t="n">
+        <v>373</v>
+      </c>
       <c r="K902" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31277,7 +32287,9 @@
         <v>0</v>
       </c>
       <c r="I903" t="inlineStr"/>
-      <c r="J903" t="inlineStr"/>
+      <c r="J903" t="n">
+        <v>373</v>
+      </c>
       <c r="K903" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31314,7 +32326,9 @@
         <v>0</v>
       </c>
       <c r="I904" t="inlineStr"/>
-      <c r="J904" t="inlineStr"/>
+      <c r="J904" t="n">
+        <v>373</v>
+      </c>
       <c r="K904" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31351,7 +32365,9 @@
         <v>0</v>
       </c>
       <c r="I905" t="inlineStr"/>
-      <c r="J905" t="inlineStr"/>
+      <c r="J905" t="n">
+        <v>373</v>
+      </c>
       <c r="K905" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31388,7 +32404,9 @@
         <v>0</v>
       </c>
       <c r="I906" t="inlineStr"/>
-      <c r="J906" t="inlineStr"/>
+      <c r="J906" t="n">
+        <v>373</v>
+      </c>
       <c r="K906" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31425,7 +32443,9 @@
         <v>0</v>
       </c>
       <c r="I907" t="inlineStr"/>
-      <c r="J907" t="inlineStr"/>
+      <c r="J907" t="n">
+        <v>373</v>
+      </c>
       <c r="K907" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31462,7 +32482,9 @@
         <v>0</v>
       </c>
       <c r="I908" t="inlineStr"/>
-      <c r="J908" t="inlineStr"/>
+      <c r="J908" t="n">
+        <v>373</v>
+      </c>
       <c r="K908" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31499,7 +32521,9 @@
         <v>0</v>
       </c>
       <c r="I909" t="inlineStr"/>
-      <c r="J909" t="inlineStr"/>
+      <c r="J909" t="n">
+        <v>373</v>
+      </c>
       <c r="K909" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31536,7 +32560,9 @@
         <v>0</v>
       </c>
       <c r="I910" t="inlineStr"/>
-      <c r="J910" t="inlineStr"/>
+      <c r="J910" t="n">
+        <v>373</v>
+      </c>
       <c r="K910" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31573,7 +32599,9 @@
         <v>0</v>
       </c>
       <c r="I911" t="inlineStr"/>
-      <c r="J911" t="inlineStr"/>
+      <c r="J911" t="n">
+        <v>373</v>
+      </c>
       <c r="K911" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31610,7 +32638,9 @@
         <v>0</v>
       </c>
       <c r="I912" t="inlineStr"/>
-      <c r="J912" t="inlineStr"/>
+      <c r="J912" t="n">
+        <v>373</v>
+      </c>
       <c r="K912" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31647,7 +32677,9 @@
         <v>0</v>
       </c>
       <c r="I913" t="inlineStr"/>
-      <c r="J913" t="inlineStr"/>
+      <c r="J913" t="n">
+        <v>373</v>
+      </c>
       <c r="K913" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31684,7 +32716,9 @@
         <v>0</v>
       </c>
       <c r="I914" t="inlineStr"/>
-      <c r="J914" t="inlineStr"/>
+      <c r="J914" t="n">
+        <v>373</v>
+      </c>
       <c r="K914" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31721,7 +32755,9 @@
         <v>0</v>
       </c>
       <c r="I915" t="inlineStr"/>
-      <c r="J915" t="inlineStr"/>
+      <c r="J915" t="n">
+        <v>373</v>
+      </c>
       <c r="K915" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31758,7 +32794,9 @@
         <v>0</v>
       </c>
       <c r="I916" t="inlineStr"/>
-      <c r="J916" t="inlineStr"/>
+      <c r="J916" t="n">
+        <v>373</v>
+      </c>
       <c r="K916" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31795,7 +32833,9 @@
         <v>0</v>
       </c>
       <c r="I917" t="inlineStr"/>
-      <c r="J917" t="inlineStr"/>
+      <c r="J917" t="n">
+        <v>373</v>
+      </c>
       <c r="K917" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31832,7 +32872,9 @@
         <v>0</v>
       </c>
       <c r="I918" t="inlineStr"/>
-      <c r="J918" t="inlineStr"/>
+      <c r="J918" t="n">
+        <v>373</v>
+      </c>
       <c r="K918" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31869,7 +32911,9 @@
         <v>0</v>
       </c>
       <c r="I919" t="inlineStr"/>
-      <c r="J919" t="inlineStr"/>
+      <c r="J919" t="n">
+        <v>373</v>
+      </c>
       <c r="K919" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31906,7 +32950,9 @@
         <v>0</v>
       </c>
       <c r="I920" t="inlineStr"/>
-      <c r="J920" t="inlineStr"/>
+      <c r="J920" t="n">
+        <v>373</v>
+      </c>
       <c r="K920" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31943,7 +32989,9 @@
         <v>0</v>
       </c>
       <c r="I921" t="inlineStr"/>
-      <c r="J921" t="inlineStr"/>
+      <c r="J921" t="n">
+        <v>373</v>
+      </c>
       <c r="K921" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31980,7 +33028,9 @@
         <v>0</v>
       </c>
       <c r="I922" t="inlineStr"/>
-      <c r="J922" t="inlineStr"/>
+      <c r="J922" t="n">
+        <v>373</v>
+      </c>
       <c r="K922" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32017,7 +33067,9 @@
         <v>0</v>
       </c>
       <c r="I923" t="inlineStr"/>
-      <c r="J923" t="inlineStr"/>
+      <c r="J923" t="n">
+        <v>373</v>
+      </c>
       <c r="K923" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32054,7 +33106,9 @@
         <v>0</v>
       </c>
       <c r="I924" t="inlineStr"/>
-      <c r="J924" t="inlineStr"/>
+      <c r="J924" t="n">
+        <v>373</v>
+      </c>
       <c r="K924" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32091,7 +33145,9 @@
         <v>0</v>
       </c>
       <c r="I925" t="inlineStr"/>
-      <c r="J925" t="inlineStr"/>
+      <c r="J925" t="n">
+        <v>373</v>
+      </c>
       <c r="K925" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32128,7 +33184,9 @@
         <v>0</v>
       </c>
       <c r="I926" t="inlineStr"/>
-      <c r="J926" t="inlineStr"/>
+      <c r="J926" t="n">
+        <v>373</v>
+      </c>
       <c r="K926" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32165,7 +33223,9 @@
         <v>0</v>
       </c>
       <c r="I927" t="inlineStr"/>
-      <c r="J927" t="inlineStr"/>
+      <c r="J927" t="n">
+        <v>373</v>
+      </c>
       <c r="K927" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32202,7 +33262,9 @@
         <v>0</v>
       </c>
       <c r="I928" t="inlineStr"/>
-      <c r="J928" t="inlineStr"/>
+      <c r="J928" t="n">
+        <v>373</v>
+      </c>
       <c r="K928" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32239,7 +33301,9 @@
         <v>0</v>
       </c>
       <c r="I929" t="inlineStr"/>
-      <c r="J929" t="inlineStr"/>
+      <c r="J929" t="n">
+        <v>373</v>
+      </c>
       <c r="K929" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32276,7 +33340,9 @@
         <v>0</v>
       </c>
       <c r="I930" t="inlineStr"/>
-      <c r="J930" t="inlineStr"/>
+      <c r="J930" t="n">
+        <v>373</v>
+      </c>
       <c r="K930" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32313,7 +33379,9 @@
         <v>0</v>
       </c>
       <c r="I931" t="inlineStr"/>
-      <c r="J931" t="inlineStr"/>
+      <c r="J931" t="n">
+        <v>373</v>
+      </c>
       <c r="K931" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32350,7 +33418,9 @@
         <v>0</v>
       </c>
       <c r="I932" t="inlineStr"/>
-      <c r="J932" t="inlineStr"/>
+      <c r="J932" t="n">
+        <v>373</v>
+      </c>
       <c r="K932" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32387,7 +33457,9 @@
         <v>0</v>
       </c>
       <c r="I933" t="inlineStr"/>
-      <c r="J933" t="inlineStr"/>
+      <c r="J933" t="n">
+        <v>373</v>
+      </c>
       <c r="K933" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32424,7 +33496,9 @@
         <v>0</v>
       </c>
       <c r="I934" t="inlineStr"/>
-      <c r="J934" t="inlineStr"/>
+      <c r="J934" t="n">
+        <v>373</v>
+      </c>
       <c r="K934" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32461,7 +33535,9 @@
         <v>0</v>
       </c>
       <c r="I935" t="inlineStr"/>
-      <c r="J935" t="inlineStr"/>
+      <c r="J935" t="n">
+        <v>373</v>
+      </c>
       <c r="K935" t="inlineStr">
         <is>
           <t>매도 대기</t>
